--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9472215B-C6E1-4B87-937A-4B278878D635}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9544B623-1913-4D13-984F-7840477437F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
-    <sheet name="内存" sheetId="4" r:id="rId2"/>
-    <sheet name="中间件日志" sheetId="5" r:id="rId3"/>
-    <sheet name="分析" sheetId="3" r:id="rId4"/>
+    <sheet name="中间件启动" sheetId="6" r:id="rId2"/>
+    <sheet name="内存" sheetId="4" r:id="rId3"/>
+    <sheet name="中间件日志" sheetId="5" r:id="rId4"/>
+    <sheet name="分析" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>事项</t>
   </si>
@@ -944,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1251,6 +1252,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061FAD42-C371-49C3-8E82-74E47787E79F}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1187ECED-2CFE-4E1D-9B78-2020215DF44C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1299,7 +1352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA889E2-CD83-488D-A979-42856335ED7B}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1359,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,26 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9544B623-1913-4D13-984F-7840477437F1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6856B69-8F82-4E3A-AD21-2D395220FBFC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
     <sheet name="中间件启动" sheetId="6" r:id="rId2"/>
-    <sheet name="内存" sheetId="4" r:id="rId3"/>
-    <sheet name="中间件日志" sheetId="5" r:id="rId4"/>
-    <sheet name="分析" sheetId="3" r:id="rId5"/>
+    <sheet name="模块" sheetId="7" r:id="rId3"/>
+    <sheet name="报表" sheetId="8" r:id="rId4"/>
+    <sheet name="通用" sheetId="9" r:id="rId5"/>
+    <sheet name="缓存" sheetId="10" r:id="rId6"/>
+    <sheet name="内存" sheetId="4" r:id="rId7"/>
+    <sheet name="中间件日志" sheetId="5" r:id="rId8"/>
+    <sheet name="分析" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>事项</t>
   </si>
@@ -945,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1255,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061FAD42-C371-49C3-8E82-74E47787E79F}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1304,6 +1308,203 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475A6084-868E-44F1-89F4-92F4B38B003F}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4A4DCD-1060-452E-9F73-4A3D334E8BD4}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBD3DE4-1F36-4623-8C23-A884F77C3E23}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA1FDCB-0440-4D8C-A7C2-B145F535B2AF}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1187ECED-2CFE-4E1D-9B78-2020215DF44C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1352,7 +1553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA889E2-CD83-488D-A979-42856335ED7B}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1412,7 +1613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6856B69-8F82-4E3A-AD21-2D395220FBFC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4186467-BE10-4885-B741-CF4EA115874F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
-    <sheet name="中间件启动" sheetId="6" r:id="rId2"/>
-    <sheet name="模块" sheetId="7" r:id="rId3"/>
-    <sheet name="报表" sheetId="8" r:id="rId4"/>
-    <sheet name="通用" sheetId="9" r:id="rId5"/>
-    <sheet name="缓存" sheetId="10" r:id="rId6"/>
-    <sheet name="内存" sheetId="4" r:id="rId7"/>
-    <sheet name="中间件日志" sheetId="5" r:id="rId8"/>
-    <sheet name="分析" sheetId="3" r:id="rId9"/>
+    <sheet name="交易清算" sheetId="11" r:id="rId2"/>
+    <sheet name="中间件启动" sheetId="6" r:id="rId3"/>
+    <sheet name="模块" sheetId="7" r:id="rId4"/>
+    <sheet name="报表" sheetId="8" r:id="rId5"/>
+    <sheet name="通用" sheetId="9" r:id="rId6"/>
+    <sheet name="缓存" sheetId="10" r:id="rId7"/>
+    <sheet name="内存" sheetId="4" r:id="rId8"/>
+    <sheet name="中间件日志" sheetId="5" r:id="rId9"/>
+    <sheet name="分析" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -949,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1255,7 +1256,73 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pivotSelection pane="bottomRight" click="1" r:id="rId1">
+        <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
+      </pivotSelection>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06407C57-ACD1-42E3-B8EF-B7952F125A4C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061FAD42-C371-49C3-8E82-74E47787E79F}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1307,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475A6084-868E-44F1-89F4-92F4B38B003F}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1357,7 +1424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4A4DCD-1060-452E-9F73-4A3D334E8BD4}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1406,7 +1473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBD3DE4-1F36-4623-8C23-A884F77C3E23}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1455,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA1FDCB-0440-4D8C-A7C2-B145F535B2AF}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1504,7 +1571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1187ECED-2CFE-4E1D-9B78-2020215DF44C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1553,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA889E2-CD83-488D-A979-42856335ED7B}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1611,57 +1678,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pivotSelection pane="bottomRight" click="1" r:id="rId1">
-        <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
-      </pivotSelection>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4186467-BE10-4885-B741-CF4EA115874F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE21709-3807-46E5-A11D-910663BE314F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
   <si>
     <t>事项</t>
   </si>
@@ -122,6 +122,15 @@
   <si>
     <t>消息</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>清算日期</t>
+  </si>
+  <si>
+    <t>当前账户</t>
+  </si>
+  <si>
+    <t>外部账户</t>
   </si>
 </sst>
 </file>
@@ -1311,12 +1320,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06407C57-ACD1-42E3-B8EF-B7952F125A4C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="8" width="23.125" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE21709-3807-46E5-A11D-910663BE314F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE715AEB-531B-450D-B4F8-74EC4FBBE7B1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
   <si>
     <t>事项</t>
   </si>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>日志时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -959,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -993,16 +989,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -1322,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06407C57-ACD1-42E3-B8EF-B7952F125A4C}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1356,25 +1352,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="I1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1417,16 +1413,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1467,16 +1463,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1516,16 +1512,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1565,16 +1561,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1614,16 +1610,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1665,9 +1661,7 @@
       <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="6"/>
     </row>
@@ -1702,31 +1696,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -1,32 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE715AEB-531B-450D-B4F8-74EC4FBBE7B1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27EA6FD-8E43-4681-895F-0A8B3822D6E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
-    <sheet name="交易清算" sheetId="11" r:id="rId2"/>
-    <sheet name="中间件启动" sheetId="6" r:id="rId3"/>
-    <sheet name="模块" sheetId="7" r:id="rId4"/>
-    <sheet name="报表" sheetId="8" r:id="rId5"/>
-    <sheet name="通用" sheetId="9" r:id="rId6"/>
-    <sheet name="缓存" sheetId="10" r:id="rId7"/>
-    <sheet name="内存" sheetId="4" r:id="rId8"/>
-    <sheet name="中间件日志" sheetId="5" r:id="rId9"/>
-    <sheet name="分析" sheetId="3" r:id="rId10"/>
+    <sheet name="客户端启动" sheetId="12" r:id="rId2"/>
+    <sheet name="窗体" sheetId="7" r:id="rId3"/>
+    <sheet name="报表" sheetId="8" r:id="rId4"/>
+    <sheet name="内存" sheetId="4" r:id="rId5"/>
+    <sheet name="缓存" sheetId="10" r:id="rId6"/>
+    <sheet name="中间件启动" sheetId="6" r:id="rId7"/>
+    <sheet name="清算" sheetId="11" r:id="rId8"/>
+    <sheet name="核算" sheetId="13" r:id="rId9"/>
+    <sheet name="限额刷新" sheetId="14" r:id="rId10"/>
+    <sheet name="组合动态核算" sheetId="15" r:id="rId11"/>
+    <sheet name="交易查询" sheetId="16" r:id="rId12"/>
+    <sheet name="现金流" sheetId="9" r:id="rId13"/>
+    <sheet name="其他" sheetId="17" r:id="rId14"/>
+    <sheet name="中间件日志" sheetId="5" r:id="rId15"/>
+    <sheet name="分析" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId17"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -956,7 +962,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1262,6 +1268,176 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F231827C-C373-46E9-9E17-3BB0B40E2999}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75ECCE4-29F0-4364-BA93-8461EAC5915A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CED005-F711-4943-85C6-95B50235104C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBD3DE4-1F36-4623-8C23-A884F77C3E23}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2274BB-B25C-4650-8BA7-634D70EF35FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA889E2-CD83-488D-A979-42856335ED7B}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1315,6 +1491,266 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFC153-A26D-425E-B19C-60FA1BA1BA2F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475A6084-868E-44F1-89F4-92F4B38B003F}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4A4DCD-1060-452E-9F73-4A3D334E8BD4}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1187ECED-2CFE-4E1D-9B78-2020215DF44C}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D2" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA1FDCB-0440-4D8C-A7C2-B145F535B2AF}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061FAD42-C371-49C3-8E82-74E47787E79F}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06407C57-ACD1-42E3-B8EF-B7952F125A4C}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -1379,358 +1815,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061FAD42-C371-49C3-8E82-74E47787E79F}">
-  <dimension ref="A1:I1"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07C2DDF-5F1E-490D-B718-6C09BDE0F72A}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="22.125" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475A6084-868E-44F1-89F4-92F4B38B003F}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4A4DCD-1060-452E-9F73-4A3D334E8BD4}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBD3DE4-1F36-4623-8C23-A884F77C3E23}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA1FDCB-0440-4D8C-A7C2-B145F535B2AF}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1187ECED-2CFE-4E1D-9B78-2020215DF44C}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D2" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA889E2-CD83-488D-A979-42856335ED7B}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="25.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27EA6FD-8E43-4681-895F-0A8B3822D6E9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBD2E16-94C4-4E35-97C0-6EE21CBCA7DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="27">
   <si>
     <t>事项</t>
   </si>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1269,38 +1269,135 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F231827C-C373-46E9-9E17-3BB0B40E2999}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75ECCE4-29F0-4364-BA93-8461EAC5915A}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75ECCE4-29F0-4364-BA93-8461EAC5915A}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CED005-F711-4943-85C6-95B50235104C}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CED005-F711-4943-85C6-95B50235104C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1311,7 +1408,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1364,14 +1461,44 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2274BB-B25C-4650-8BA7-634D70EF35FC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1492,12 +1619,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CFC153-A26D-425E-B19C-60FA1BA1BA2F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1817,12 +1976,44 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07C2DDF-5F1E-490D-B718-6C09BDE0F72A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBD2E16-94C4-4E35-97C0-6EE21CBCA7DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA8C48B-0757-48A4-8847-6140FE2FA5CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
@@ -1913,7 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06407C57-ACD1-42E3-B8EF-B7952F125A4C}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1978,8 +1978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07C2DDF-5F1E-490D-B718-6C09BDE0F72A}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA8C48B-0757-48A4-8847-6140FE2FA5CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F162E-11EE-4109-A68F-1D3089955688}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
@@ -20,25 +20,26 @@
     <sheet name="内存" sheetId="4" r:id="rId5"/>
     <sheet name="缓存" sheetId="10" r:id="rId6"/>
     <sheet name="中间件启动" sheetId="6" r:id="rId7"/>
-    <sheet name="清算" sheetId="11" r:id="rId8"/>
-    <sheet name="核算" sheetId="13" r:id="rId9"/>
-    <sheet name="限额刷新" sheetId="14" r:id="rId10"/>
-    <sheet name="组合动态核算" sheetId="15" r:id="rId11"/>
-    <sheet name="交易查询" sheetId="16" r:id="rId12"/>
-    <sheet name="现金流" sheetId="9" r:id="rId13"/>
-    <sheet name="其他" sheetId="17" r:id="rId14"/>
-    <sheet name="中间件日志" sheetId="5" r:id="rId15"/>
-    <sheet name="分析" sheetId="3" r:id="rId16"/>
+    <sheet name="Core" sheetId="18" r:id="rId8"/>
+    <sheet name="清算" sheetId="11" r:id="rId9"/>
+    <sheet name="核算" sheetId="13" r:id="rId10"/>
+    <sheet name="限额刷新" sheetId="14" r:id="rId11"/>
+    <sheet name="组合动态核算" sheetId="15" r:id="rId12"/>
+    <sheet name="交易查询" sheetId="16" r:id="rId13"/>
+    <sheet name="现金流" sheetId="9" r:id="rId14"/>
+    <sheet name="其他" sheetId="17" r:id="rId15"/>
+    <sheet name="中间件日志" sheetId="5" r:id="rId16"/>
+    <sheet name="分析" sheetId="3" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="27">
   <si>
     <t>事项</t>
   </si>
@@ -1268,6 +1269,51 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07C2DDF-5F1E-490D-B718-6C09BDE0F72A}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F231827C-C373-46E9-9E17-3BB0B40E2999}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1313,7 +1359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75ECCE4-29F0-4364-BA93-8461EAC5915A}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1358,7 +1404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CED005-F711-4943-85C6-95B50235104C}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1403,7 +1449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBD3DE4-1F36-4623-8C23-A884F77C3E23}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1459,7 +1505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2274BB-B25C-4650-8BA7-634D70EF35FC}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -1504,7 +1550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA889E2-CD83-488D-A979-42856335ED7B}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1564,7 +1610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1910,10 +1956,65 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AC5824-BFE0-41ED-832D-C4AF9E4D5171}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06407C57-ACD1-42E3-B8EF-B7952F125A4C}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1972,49 +2073,4 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07C2DDF-5F1E-490D-B718-6C09BDE0F72A}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F162E-11EE-4109-A68F-1D3089955688}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A833D28-A209-43AD-A1D1-420B137E3ECC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="内存" sheetId="4" r:id="rId5"/>
     <sheet name="缓存" sheetId="10" r:id="rId6"/>
     <sheet name="中间件启动" sheetId="6" r:id="rId7"/>
-    <sheet name="Core" sheetId="18" r:id="rId8"/>
+    <sheet name="Core服务" sheetId="18" r:id="rId8"/>
     <sheet name="清算" sheetId="11" r:id="rId9"/>
     <sheet name="核算" sheetId="13" r:id="rId10"/>
     <sheet name="限额刷新" sheetId="14" r:id="rId11"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="29">
   <si>
     <t>事项</t>
   </si>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>外部账户</t>
+  </si>
+  <si>
+    <t>服务名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务启动序号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1957,7 +1965,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AC5824-BFE0-41ED-832D-C4AF9E4D5171}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -1968,14 +1976,16 @@
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1991,16 +2001,22 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
     </row>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A833D28-A209-43AD-A1D1-420B137E3ECC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B293D-E47E-4905-95A4-8B13AD3ABFEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15525" windowHeight="7860" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始" sheetId="2" r:id="rId1"/>
@@ -148,6 +148,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,6 +265,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,7 +995,7 @@
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="15" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="9" customWidth="1"/>
     <col min="7" max="7" width="25.625" style="9" customWidth="1"/>
     <col min="8" max="8" width="29.625" customWidth="1"/>
@@ -1000,7 +1015,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1021,7 +1036,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
@@ -1031,7 +1046,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
@@ -1040,7 +1055,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
@@ -1049,7 +1064,7 @@
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
@@ -1058,7 +1073,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
@@ -1067,7 +1082,7 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
@@ -1076,7 +1091,7 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
@@ -1085,7 +1100,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
@@ -1094,7 +1109,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
@@ -1103,7 +1118,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
@@ -1112,7 +1127,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
@@ -1121,7 +1136,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
@@ -1130,7 +1145,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
@@ -1139,7 +1154,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
@@ -1148,7 +1163,7 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
@@ -1157,7 +1172,7 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
@@ -1166,7 +1181,7 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
@@ -1175,7 +1190,7 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
@@ -1184,7 +1199,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
@@ -1193,7 +1208,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
@@ -1202,7 +1217,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
@@ -1211,7 +1226,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
@@ -1220,7 +1235,7 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
@@ -1229,7 +1244,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
@@ -1238,7 +1253,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
@@ -1247,7 +1262,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
     </row>
@@ -1256,7 +1271,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="16"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
     </row>
@@ -1265,7 +1280,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
@@ -1281,10 +1296,13 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="9" style="15"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
@@ -1299,7 +1317,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1330,6 +1348,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="9" style="15"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
@@ -1344,7 +1365,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1376,6 +1397,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="9" style="15"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
@@ -1390,7 +1414,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1421,6 +1445,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="9" style="15"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
@@ -1435,7 +1462,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1471,7 +1498,7 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="15" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
@@ -1491,7 +1518,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1522,6 +1549,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="9" style="15"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
@@ -1536,7 +1566,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1571,9 +1601,10 @@
     <col min="1" max="1" width="25.125" style="9" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9" style="15"/>
     <col min="6" max="6" width="21.125" customWidth="1"/>
     <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="15" customWidth="1"/>
     <col min="9" max="9" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1590,7 +1621,7 @@
       <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1599,7 +1630,7 @@
       <c r="G1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="17" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -1680,6 +1711,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="9" style="15"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
@@ -1694,7 +1728,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1729,6 +1763,7 @@
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1744,7 +1779,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1778,6 +1813,7 @@
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1793,7 +1829,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1829,7 +1865,7 @@
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="24.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -1845,7 +1881,7 @@
       <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="5"/>
@@ -1874,6 +1910,7 @@
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
@@ -1889,7 +1926,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1923,7 +1960,7 @@
   <cols>
     <col min="1" max="2" width="29.625" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="15" customWidth="1"/>
     <col min="6" max="6" width="22.125" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
   </cols>
@@ -1941,7 +1978,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1977,7 +2014,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="17.25" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10" style="15" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
@@ -1998,7 +2035,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2023,6 +2060,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2039,7 +2077,7 @@
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="15" customWidth="1"/>
     <col min="6" max="8" width="23.125" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="19.75" customWidth="1"/>
@@ -2060,7 +2098,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F28484-A928-48E7-AE40-3931D27DC982}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF57A19-2CEC-4360-ADFB-1EC45332B941}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -2801,7 +2801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
@@ -3805,9 +3805,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF57A19-2CEC-4360-ADFB-1EC45332B941}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BDA1C5-711F-4996-BBCF-BDFC8111C98C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -2647,7 +2647,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2700,7 +2700,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2748,7 +2748,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2865,7 +2865,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2915,7 +2915,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2972,7 +2972,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3025,9 +3025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65510" sqref="E65510"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3337,7 +3337,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3398,7 +3398,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3529,7 +3529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3586,7 +3586,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3805,7 +3805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
@@ -3863,7 +3863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3924,7 +3924,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3990,7 +3990,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BDA1C5-711F-4996-BBCF-BDFC8111C98C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A3C5B9-D458-4764-95D8-A2A3AA5F449C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="54">
   <si>
     <t>事项</t>
   </si>
@@ -225,6 +225,26 @@
   </si>
   <si>
     <t>开始日志行号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗体名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2910,7 +2930,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2925,12 +2945,14 @@
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="11.25" style="10" customWidth="1"/>
-    <col min="6" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="21" style="10" customWidth="1"/>
+    <col min="8" max="9" width="15.375" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2946,16 +2968,22 @@
       <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2967,9 +2995,9 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
@@ -2982,11 +3010,12 @@
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.875" style="10" customWidth="1"/>
+    <col min="9" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3002,16 +3031,25 @@
       <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3025,7 +3063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A3C5B9-D458-4764-95D8-A2A3AA5F449C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB37990-78C8-4871-9DCE-BF4694927509}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="56">
   <si>
     <t>事项</t>
   </si>
@@ -245,6 +245,14 @@
   </si>
   <si>
     <t>窗体名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存类型</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,6 +575,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2764,9 +2775,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
@@ -2778,11 +2789,13 @@
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" style="10" customWidth="1"/>
-    <col min="6" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="22" customWidth="1"/>
+    <col min="8" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2798,22 +2811,29 @@
       <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2997,7 +3017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB37990-78C8-4871-9DCE-BF4694927509}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3D8E73-9357-445D-979E-3C348349B176}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -437,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,9 +480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -495,12 +492,6 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -578,6 +569,18 @@
     </xf>
     <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2468,27 +2471,27 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="37" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="39"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="13"/>
@@ -2496,19 +2499,19 @@
         <v>33</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="36" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="38"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="39"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="13"/>
@@ -2516,17 +2519,17 @@
         <v>32</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="39"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="38"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="39"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="13"/>
@@ -2534,17 +2537,17 @@
         <v>39</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="39"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="38"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="39"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="35" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="13"/>
@@ -2552,14 +2555,14 @@
         <v>40</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="39"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="14" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -2567,65 +2570,65 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="37" t="s">
+      <c r="E15" s="32"/>
+      <c r="F15" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="38"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="39"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="35" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="42" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="38"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="39"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="42" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="39"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="38"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="39"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="13"/>
@@ -2633,25 +2636,25 @@
         <v>39</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="39"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="38"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="39"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2678,44 +2681,44 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="19" customWidth="1"/>
     <col min="6" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2731,7 +2734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2777,9 +2780,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2788,45 +2791,45 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="19" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="19" customWidth="1"/>
     <col min="8" max="10" width="16.875" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2844,16 +2847,16 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="46" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
     <col min="7" max="7" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="18.875" customWidth="1"/>
@@ -2861,31 +2864,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>48</v>
       </c>
       <c r="J1" s="7" t="s">
@@ -2905,12 +2908,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="9" style="10"/>
+    <col min="5" max="5" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -2926,7 +2929,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2955,7 +2958,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2964,7 +2967,7 @@
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="19" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="10" customWidth="1"/>
     <col min="7" max="7" width="21" style="10" customWidth="1"/>
     <col min="8" max="9" width="15.375" customWidth="1"/>
@@ -2973,37 +2976,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3020,7 +3023,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3029,47 +3032,47 @@
     <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10" style="19" customWidth="1"/>
     <col min="6" max="8" width="13.875" style="10" customWidth="1"/>
     <col min="9" max="11" width="15.75" customWidth="1"/>
     <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3083,9 +3086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3094,7 +3097,7 @@
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="19" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="25.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="29.625" customWidth="1"/>
@@ -3114,7 +3117,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -3135,9 +3138,9 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3145,243 +3148,243 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3395,7 +3398,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3403,6 +3406,7 @@
     <col min="1" max="1" width="25.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9" style="19"/>
     <col min="6" max="6" width="21.125" customWidth="1"/>
     <col min="7" max="7" width="21.625" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
@@ -3422,7 +3426,7 @@
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -3456,43 +3460,44 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="19"/>
     <col min="6" max="8" width="22.125" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3518,12 +3523,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3531,15 +3536,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -3553,22 +3558,22 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3587,7 +3592,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3596,7 +3601,7 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="19" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
@@ -3616,7 +3621,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -3644,13 +3649,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="9" style="19"/>
     <col min="6" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3668,7 +3674,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -3706,12 +3712,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3719,15 +3725,15 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
@@ -3738,13 +3744,13 @@
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -3773,15 +3779,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
@@ -3834,7 +3840,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
@@ -3865,7 +3871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3873,7 +3879,7 @@
     <col min="1" max="2" width="29.625" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="19" customWidth="1"/>
     <col min="6" max="6" width="26.5" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
@@ -3881,37 +3887,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3921,7 +3928,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3930,7 +3937,7 @@
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="25" customWidth="1"/>
     <col min="6" max="6" width="24.875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="19.375" customWidth="1"/>
@@ -3938,36 +3945,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="27"/>
+      <c r="E2" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3982,7 +3989,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3990,7 +3997,7 @@
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="19" customWidth="1"/>
     <col min="6" max="8" width="23.125" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="19.75" customWidth="1"/>
@@ -4011,7 +4018,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -4048,44 +4055,44 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11" style="19" customWidth="1"/>
     <col min="6" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
     </row>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\Build\Debug\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3D8E73-9357-445D-979E-3C348349B176}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544D8314-5EBB-4EF2-B0BD-857EEBB08656}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,25 +30,26 @@
     <sheet name="窗体" sheetId="7" r:id="rId15"/>
     <sheet name="报表" sheetId="8" r:id="rId16"/>
     <sheet name="原始" sheetId="2" r:id="rId17"/>
-    <sheet name="中间件日志" sheetId="5" r:id="rId18"/>
-    <sheet name="交易查询" sheetId="16" r:id="rId19"/>
-    <sheet name="现金流" sheetId="9" r:id="rId20"/>
-    <sheet name="其他" sheetId="17" r:id="rId21"/>
+    <sheet name="通用" sheetId="25" r:id="rId18"/>
+    <sheet name="中间件日志" sheetId="5" r:id="rId19"/>
+    <sheet name="交易查询" sheetId="16" r:id="rId20"/>
+    <sheet name="现金流" sheetId="9" r:id="rId21"/>
+    <sheet name="其他" sheetId="17" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="切片器_日志时间">#N/A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId22"/>
-    <pivotCache cacheId="1" r:id="rId23"/>
-    <pivotCache cacheId="2" r:id="rId24"/>
-    <pivotCache cacheId="3" r:id="rId25"/>
+    <pivotCache cacheId="0" r:id="rId23"/>
+    <pivotCache cacheId="1" r:id="rId24"/>
+    <pivotCache cacheId="2" r:id="rId25"/>
+    <pivotCache cacheId="3" r:id="rId26"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId26"/>
+        <x14:slicerCache r:id="rId27"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="56">
   <si>
     <t>事项</t>
   </si>
@@ -437,7 +438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,6 +581,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3088,7 +3092,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3394,6 +3398,55 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF34E63-FB85-4ED6-8CCA-633348C80B41}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3454,7 +3507,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3507,86 +3639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A1" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3643,7 +3696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\Build\Debug\ReportTemplet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544D8314-5EBB-4EF2-B0BD-857EEBB08656}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F523F8B-320D-4D36-B86A-75BEC6552D0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="报表" sheetId="8" r:id="rId16"/>
     <sheet name="原始" sheetId="2" r:id="rId17"/>
     <sheet name="通用" sheetId="25" r:id="rId18"/>
-    <sheet name="中间件日志" sheetId="5" r:id="rId19"/>
+    <sheet name="Performance" sheetId="5" r:id="rId19"/>
     <sheet name="交易查询" sheetId="16" r:id="rId20"/>
     <sheet name="现金流" sheetId="9" r:id="rId21"/>
     <sheet name="其他" sheetId="17" r:id="rId22"/>
@@ -3090,7 +3090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
@@ -3450,7 +3450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F523F8B-320D-4D36-B86A-75BEC6552D0A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99801C45-52F7-4AD0-AAC6-8D12D792AAED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="59">
   <si>
     <t>事项</t>
   </si>
@@ -111,18 +111,6 @@
   </si>
   <si>
     <t>用户代码</t>
-  </si>
-  <si>
-    <t>请求路径</t>
-  </si>
-  <si>
-    <t>方法名称</t>
-  </si>
-  <si>
-    <t>流长度</t>
-  </si>
-  <si>
-    <t>消息</t>
   </si>
   <si>
     <t>(空白)</t>
@@ -254,6 +242,47 @@
   </si>
   <si>
     <t>缓存类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>事项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父事项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P地址</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志文件名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +298,7 @@
     <numFmt numFmtId="180" formatCode="#,##0_ "/>
     <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +346,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -438,7 +475,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,6 +621,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2471,20 +2517,20 @@
   <sheetData>
     <row r="2" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
@@ -2496,15 +2542,15 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="36" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
@@ -2516,11 +2562,11 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="36"/>
@@ -2534,11 +2580,11 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="36"/>
@@ -2552,11 +2598,11 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="36"/>
@@ -2570,20 +2616,20 @@
     </row>
     <row r="14" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
@@ -2595,15 +2641,15 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
@@ -2615,11 +2661,11 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="36"/>
@@ -2633,11 +2679,11 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="36"/>
@@ -2651,11 +2697,11 @@
     </row>
     <row r="23" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="39"/>
@@ -2819,10 +2865,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>5</v>
@@ -2875,10 +2921,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="45" t="s">
         <v>4</v>
@@ -2893,10 +2939,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2996,10 +3042,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>53</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>5</v>
@@ -3059,13 +3105,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I1" s="28" t="s">
         <v>5</v>
@@ -3448,62 +3494,65 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9" style="19"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="9" style="19"/>
+    <col min="7" max="7" width="25.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8"/>
+      <c r="H1" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3524,7 +3573,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -3532,45 +3581,45 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -3766,7 +3815,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -3774,34 +3823,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B7" s="23"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="23"/>
     </row>
@@ -3833,33 +3882,33 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3894,21 +3943,21 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2"/>
     </row>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99801C45-52F7-4AD0-AAC6-8D12D792AAED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E189396-0AA4-40E1-AAC4-47ECA5A08919}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3502,10 +3502,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="9" style="19"/>
     <col min="7" max="7" width="25.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="25.125" style="4" customWidth="1"/>
@@ -3513,20 +3513,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="D1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="E1" s="49" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="F1" s="44" t="s">
         <v>4</v>
@@ -3545,7 +3545,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="E2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E189396-0AA4-40E1-AAC4-47ECA5A08919}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EACF6EE-120D-4F86-BAEB-69D241CE7E51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -31,25 +31,26 @@
     <sheet name="报表" sheetId="8" r:id="rId16"/>
     <sheet name="原始" sheetId="2" r:id="rId17"/>
     <sheet name="通用" sheetId="25" r:id="rId18"/>
-    <sheet name="Performance" sheetId="5" r:id="rId19"/>
-    <sheet name="交易查询" sheetId="16" r:id="rId20"/>
-    <sheet name="现金流" sheetId="9" r:id="rId21"/>
-    <sheet name="其他" sheetId="17" r:id="rId22"/>
+    <sheet name="Performance监视" sheetId="5" r:id="rId19"/>
+    <sheet name="Performance原始" sheetId="26" r:id="rId20"/>
+    <sheet name="交易查询" sheetId="16" r:id="rId21"/>
+    <sheet name="现金流" sheetId="9" r:id="rId22"/>
+    <sheet name="其他" sheetId="17" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="切片器_日志时间">#N/A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId23"/>
-    <pivotCache cacheId="1" r:id="rId24"/>
-    <pivotCache cacheId="2" r:id="rId25"/>
-    <pivotCache cacheId="3" r:id="rId26"/>
+    <pivotCache cacheId="0" r:id="rId24"/>
+    <pivotCache cacheId="1" r:id="rId25"/>
+    <pivotCache cacheId="2" r:id="rId26"/>
+    <pivotCache cacheId="3" r:id="rId27"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId27"/>
+        <x14:slicerCache r:id="rId28"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="64">
   <si>
     <t>事项</t>
   </si>
@@ -284,6 +285,26 @@
   <si>
     <t>行号</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求路径</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>流长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3496,7 +3517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3636,6 +3657,68 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3688,7 +3771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3745,7 +3828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EACF6EE-120D-4F86-BAEB-69D241CE7E51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD29C36C-B292-4BD6-A85A-677FA5ECB36A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,13 +311,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="#,##0_ "/>
     <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="183" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -496,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -651,6 +652,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3666,10 +3673,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="53" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="53" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
     <col min="7" max="7" width="20.75" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
@@ -3678,7 +3685,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="52" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="51" t="s">
@@ -3687,7 +3694,7 @@
       <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="52" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="44" t="s">
@@ -3715,6 +3722,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD29C36C-B292-4BD6-A85A-677FA5ECB36A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E3CD6D-C3E6-4FD1-AC51-4C41BA849413}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="12" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -32,25 +32,27 @@
     <sheet name="原始" sheetId="2" r:id="rId17"/>
     <sheet name="通用" sheetId="25" r:id="rId18"/>
     <sheet name="Performance监视" sheetId="5" r:id="rId19"/>
-    <sheet name="Performance原始" sheetId="26" r:id="rId20"/>
-    <sheet name="交易查询" sheetId="16" r:id="rId21"/>
-    <sheet name="现金流" sheetId="9" r:id="rId22"/>
-    <sheet name="其他" sheetId="17" r:id="rId23"/>
+    <sheet name="Perf方法调用时段" sheetId="27" r:id="rId20"/>
+    <sheet name="Performance原始" sheetId="26" r:id="rId21"/>
+    <sheet name="交易查询" sheetId="16" r:id="rId22"/>
+    <sheet name="现金流" sheetId="9" r:id="rId23"/>
+    <sheet name="其他" sheetId="17" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="切片器_日志时间">#N/A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId24"/>
-    <pivotCache cacheId="1" r:id="rId25"/>
-    <pivotCache cacheId="2" r:id="rId26"/>
-    <pivotCache cacheId="3" r:id="rId27"/>
+    <pivotCache cacheId="17" r:id="rId25"/>
+    <pivotCache cacheId="18" r:id="rId26"/>
+    <pivotCache cacheId="19" r:id="rId27"/>
+    <pivotCache cacheId="20" r:id="rId28"/>
+    <pivotCache cacheId="52" r:id="rId29"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId28"/>
+        <x14:slicerCache r:id="rId30"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="68">
   <si>
     <t>事项</t>
   </si>
@@ -306,6 +308,18 @@
     <t>消息</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+  </si>
+  <si>
+    <t>方法名称</t>
+  </si>
+  <si>
+    <t>计数项:行号</t>
+  </si>
 </sst>
 </file>
 
@@ -318,7 +332,7 @@
     <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="#,##0_ "/>
     <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="183" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="182" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -497,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,10 +668,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1055,424 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf方法调用时段!数据透视表3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf方法调用时段!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>汇总</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf方法调用时段!$A$6:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf方法调用时段!$B$6:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9927-4B0C-9CD3-6B06C30B545E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="726463064"/>
+        <c:axId val="726405336"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="726463064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726405336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="726405336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726463064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1581,6 +2015,500 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1695,6 +2623,47 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10BE699-A6DC-4143-9E57-2C16DE7A3917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1889,6 +2858,466 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.424613425923" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{2C1B0F87-52ED-4D69-956F-6E565F922272}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:K1048576" sheet="Performance原始"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="日志时间" numFmtId="182">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="IP地址" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="用户代码" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="开始时间" numFmtId="182">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1905-01-01T00:00:00" maxDate="1905-01-01T00:00:00" count="1">
+        <m/>
+      </sharedItems>
+      <fieldGroup par="11" base="3">
+        <rangePr groupBy="hours" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="26">
+          <s v="(空白)"/>
+          <s v="0时"/>
+          <s v="1时"/>
+          <s v="2时"/>
+          <s v="3时"/>
+          <s v="4时"/>
+          <s v="5时"/>
+          <s v="6时"/>
+          <s v="7时"/>
+          <s v="8时"/>
+          <s v="9时"/>
+          <s v="10时"/>
+          <s v="11时"/>
+          <s v="12时"/>
+          <s v="13时"/>
+          <s v="14时"/>
+          <s v="15时"/>
+          <s v="16时"/>
+          <s v="17时"/>
+          <s v="18时"/>
+          <s v="19时"/>
+          <s v="20时"/>
+          <s v="21时"/>
+          <s v="22时"/>
+          <s v="23时"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="耗时" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="请求路径" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="方法名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="流长度" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="消息" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日志文件名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="行号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日" numFmtId="0" databaseField="0">
+      <fieldGroup base="3">
+        <rangePr groupBy="days" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;1905/1/1"/>
+          <s v="1月1日"/>
+          <s v="1月2日"/>
+          <s v="1月3日"/>
+          <s v="1月4日"/>
+          <s v="1月5日"/>
+          <s v="1月6日"/>
+          <s v="1月7日"/>
+          <s v="1月8日"/>
+          <s v="1月9日"/>
+          <s v="1月10日"/>
+          <s v="1月11日"/>
+          <s v="1月12日"/>
+          <s v="1月13日"/>
+          <s v="1月14日"/>
+          <s v="1月15日"/>
+          <s v="1月16日"/>
+          <s v="1月17日"/>
+          <s v="1月18日"/>
+          <s v="1月19日"/>
+          <s v="1月20日"/>
+          <s v="1月21日"/>
+          <s v="1月22日"/>
+          <s v="1月23日"/>
+          <s v="1月24日"/>
+          <s v="1月25日"/>
+          <s v="1月26日"/>
+          <s v="1月27日"/>
+          <s v="1月28日"/>
+          <s v="1月29日"/>
+          <s v="1月30日"/>
+          <s v="1月31日"/>
+          <s v="2月1日"/>
+          <s v="2月2日"/>
+          <s v="2月3日"/>
+          <s v="2月4日"/>
+          <s v="2月5日"/>
+          <s v="2月6日"/>
+          <s v="2月7日"/>
+          <s v="2月8日"/>
+          <s v="2月9日"/>
+          <s v="2月10日"/>
+          <s v="2月11日"/>
+          <s v="2月12日"/>
+          <s v="2月13日"/>
+          <s v="2月14日"/>
+          <s v="2月15日"/>
+          <s v="2月16日"/>
+          <s v="2月17日"/>
+          <s v="2月18日"/>
+          <s v="2月19日"/>
+          <s v="2月20日"/>
+          <s v="2月21日"/>
+          <s v="2月22日"/>
+          <s v="2月23日"/>
+          <s v="2月24日"/>
+          <s v="2月25日"/>
+          <s v="2月26日"/>
+          <s v="2月27日"/>
+          <s v="2月28日"/>
+          <s v="2月29日"/>
+          <s v="3月1日"/>
+          <s v="3月2日"/>
+          <s v="3月3日"/>
+          <s v="3月4日"/>
+          <s v="3月5日"/>
+          <s v="3月6日"/>
+          <s v="3月7日"/>
+          <s v="3月8日"/>
+          <s v="3月9日"/>
+          <s v="3月10日"/>
+          <s v="3月11日"/>
+          <s v="3月12日"/>
+          <s v="3月13日"/>
+          <s v="3月14日"/>
+          <s v="3月15日"/>
+          <s v="3月16日"/>
+          <s v="3月17日"/>
+          <s v="3月18日"/>
+          <s v="3月19日"/>
+          <s v="3月20日"/>
+          <s v="3月21日"/>
+          <s v="3月22日"/>
+          <s v="3月23日"/>
+          <s v="3月24日"/>
+          <s v="3月25日"/>
+          <s v="3月26日"/>
+          <s v="3月27日"/>
+          <s v="3月28日"/>
+          <s v="3月29日"/>
+          <s v="3月30日"/>
+          <s v="3月31日"/>
+          <s v="4月1日"/>
+          <s v="4月2日"/>
+          <s v="4月3日"/>
+          <s v="4月4日"/>
+          <s v="4月5日"/>
+          <s v="4月6日"/>
+          <s v="4月7日"/>
+          <s v="4月8日"/>
+          <s v="4月9日"/>
+          <s v="4月10日"/>
+          <s v="4月11日"/>
+          <s v="4月12日"/>
+          <s v="4月13日"/>
+          <s v="4月14日"/>
+          <s v="4月15日"/>
+          <s v="4月16日"/>
+          <s v="4月17日"/>
+          <s v="4月18日"/>
+          <s v="4月19日"/>
+          <s v="4月20日"/>
+          <s v="4月21日"/>
+          <s v="4月22日"/>
+          <s v="4月23日"/>
+          <s v="4月24日"/>
+          <s v="4月25日"/>
+          <s v="4月26日"/>
+          <s v="4月27日"/>
+          <s v="4月28日"/>
+          <s v="4月29日"/>
+          <s v="4月30日"/>
+          <s v="5月1日"/>
+          <s v="5月2日"/>
+          <s v="5月3日"/>
+          <s v="5月4日"/>
+          <s v="5月5日"/>
+          <s v="5月6日"/>
+          <s v="5月7日"/>
+          <s v="5月8日"/>
+          <s v="5月9日"/>
+          <s v="5月10日"/>
+          <s v="5月11日"/>
+          <s v="5月12日"/>
+          <s v="5月13日"/>
+          <s v="5月14日"/>
+          <s v="5月15日"/>
+          <s v="5月16日"/>
+          <s v="5月17日"/>
+          <s v="5月18日"/>
+          <s v="5月19日"/>
+          <s v="5月20日"/>
+          <s v="5月21日"/>
+          <s v="5月22日"/>
+          <s v="5月23日"/>
+          <s v="5月24日"/>
+          <s v="5月25日"/>
+          <s v="5月26日"/>
+          <s v="5月27日"/>
+          <s v="5月28日"/>
+          <s v="5月29日"/>
+          <s v="5月30日"/>
+          <s v="5月31日"/>
+          <s v="6月1日"/>
+          <s v="6月2日"/>
+          <s v="6月3日"/>
+          <s v="6月4日"/>
+          <s v="6月5日"/>
+          <s v="6月6日"/>
+          <s v="6月7日"/>
+          <s v="6月8日"/>
+          <s v="6月9日"/>
+          <s v="6月10日"/>
+          <s v="6月11日"/>
+          <s v="6月12日"/>
+          <s v="6月13日"/>
+          <s v="6月14日"/>
+          <s v="6月15日"/>
+          <s v="6月16日"/>
+          <s v="6月17日"/>
+          <s v="6月18日"/>
+          <s v="6月19日"/>
+          <s v="6月20日"/>
+          <s v="6月21日"/>
+          <s v="6月22日"/>
+          <s v="6月23日"/>
+          <s v="6月24日"/>
+          <s v="6月25日"/>
+          <s v="6月26日"/>
+          <s v="6月27日"/>
+          <s v="6月28日"/>
+          <s v="6月29日"/>
+          <s v="6月30日"/>
+          <s v="7月1日"/>
+          <s v="7月2日"/>
+          <s v="7月3日"/>
+          <s v="7月4日"/>
+          <s v="7月5日"/>
+          <s v="7月6日"/>
+          <s v="7月7日"/>
+          <s v="7月8日"/>
+          <s v="7月9日"/>
+          <s v="7月10日"/>
+          <s v="7月11日"/>
+          <s v="7月12日"/>
+          <s v="7月13日"/>
+          <s v="7月14日"/>
+          <s v="7月15日"/>
+          <s v="7月16日"/>
+          <s v="7月17日"/>
+          <s v="7月18日"/>
+          <s v="7月19日"/>
+          <s v="7月20日"/>
+          <s v="7月21日"/>
+          <s v="7月22日"/>
+          <s v="7月23日"/>
+          <s v="7月24日"/>
+          <s v="7月25日"/>
+          <s v="7月26日"/>
+          <s v="7月27日"/>
+          <s v="7月28日"/>
+          <s v="7月29日"/>
+          <s v="7月30日"/>
+          <s v="7月31日"/>
+          <s v="8月1日"/>
+          <s v="8月2日"/>
+          <s v="8月3日"/>
+          <s v="8月4日"/>
+          <s v="8月5日"/>
+          <s v="8月6日"/>
+          <s v="8月7日"/>
+          <s v="8月8日"/>
+          <s v="8月9日"/>
+          <s v="8月10日"/>
+          <s v="8月11日"/>
+          <s v="8月12日"/>
+          <s v="8月13日"/>
+          <s v="8月14日"/>
+          <s v="8月15日"/>
+          <s v="8月16日"/>
+          <s v="8月17日"/>
+          <s v="8月18日"/>
+          <s v="8月19日"/>
+          <s v="8月20日"/>
+          <s v="8月21日"/>
+          <s v="8月22日"/>
+          <s v="8月23日"/>
+          <s v="8月24日"/>
+          <s v="8月25日"/>
+          <s v="8月26日"/>
+          <s v="8月27日"/>
+          <s v="8月28日"/>
+          <s v="8月29日"/>
+          <s v="8月30日"/>
+          <s v="8月31日"/>
+          <s v="9月1日"/>
+          <s v="9月2日"/>
+          <s v="9月3日"/>
+          <s v="9月4日"/>
+          <s v="9月5日"/>
+          <s v="9月6日"/>
+          <s v="9月7日"/>
+          <s v="9月8日"/>
+          <s v="9月9日"/>
+          <s v="9月10日"/>
+          <s v="9月11日"/>
+          <s v="9月12日"/>
+          <s v="9月13日"/>
+          <s v="9月14日"/>
+          <s v="9月15日"/>
+          <s v="9月16日"/>
+          <s v="9月17日"/>
+          <s v="9月18日"/>
+          <s v="9月19日"/>
+          <s v="9月20日"/>
+          <s v="9月21日"/>
+          <s v="9月22日"/>
+          <s v="9月23日"/>
+          <s v="9月24日"/>
+          <s v="9月25日"/>
+          <s v="9月26日"/>
+          <s v="9月27日"/>
+          <s v="9月28日"/>
+          <s v="9月29日"/>
+          <s v="9月30日"/>
+          <s v="10月1日"/>
+          <s v="10月2日"/>
+          <s v="10月3日"/>
+          <s v="10月4日"/>
+          <s v="10月5日"/>
+          <s v="10月6日"/>
+          <s v="10月7日"/>
+          <s v="10月8日"/>
+          <s v="10月9日"/>
+          <s v="10月10日"/>
+          <s v="10月11日"/>
+          <s v="10月12日"/>
+          <s v="10月13日"/>
+          <s v="10月14日"/>
+          <s v="10月15日"/>
+          <s v="10月16日"/>
+          <s v="10月17日"/>
+          <s v="10月18日"/>
+          <s v="10月19日"/>
+          <s v="10月20日"/>
+          <s v="10月21日"/>
+          <s v="10月22日"/>
+          <s v="10月23日"/>
+          <s v="10月24日"/>
+          <s v="10月25日"/>
+          <s v="10月26日"/>
+          <s v="10月27日"/>
+          <s v="10月28日"/>
+          <s v="10月29日"/>
+          <s v="10月30日"/>
+          <s v="10月31日"/>
+          <s v="11月1日"/>
+          <s v="11月2日"/>
+          <s v="11月3日"/>
+          <s v="11月4日"/>
+          <s v="11月5日"/>
+          <s v="11月6日"/>
+          <s v="11月7日"/>
+          <s v="11月8日"/>
+          <s v="11月9日"/>
+          <s v="11月10日"/>
+          <s v="11月11日"/>
+          <s v="11月12日"/>
+          <s v="11月13日"/>
+          <s v="11月14日"/>
+          <s v="11月15日"/>
+          <s v="11月16日"/>
+          <s v="11月17日"/>
+          <s v="11月18日"/>
+          <s v="11月19日"/>
+          <s v="11月20日"/>
+          <s v="11月21日"/>
+          <s v="11月22日"/>
+          <s v="11月23日"/>
+          <s v="11月24日"/>
+          <s v="11月25日"/>
+          <s v="11月26日"/>
+          <s v="11月27日"/>
+          <s v="11月28日"/>
+          <s v="11月29日"/>
+          <s v="11月30日"/>
+          <s v="12月1日"/>
+          <s v="12月2日"/>
+          <s v="12月3日"/>
+          <s v="12月4日"/>
+          <s v="12月5日"/>
+          <s v="12月6日"/>
+          <s v="12月7日"/>
+          <s v="12月8日"/>
+          <s v="12月9日"/>
+          <s v="12月10日"/>
+          <s v="12月11日"/>
+          <s v="12月12日"/>
+          <s v="12月13日"/>
+          <s v="12月14日"/>
+          <s v="12月15日"/>
+          <s v="12月16日"/>
+          <s v="12月17日"/>
+          <s v="12月18日"/>
+          <s v="12月19日"/>
+          <s v="12月20日"/>
+          <s v="12月21日"/>
+          <s v="12月22日"/>
+          <s v="12月23日"/>
+          <s v="12月24日"/>
+          <s v="12月25日"/>
+          <s v="12月26日"/>
+          <s v="12月27日"/>
+          <s v="12月28日"/>
+          <s v="12月29日"/>
+          <s v="12月30日"/>
+          <s v="12月31日"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
   <r>
@@ -1970,8 +3399,26 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -2049,7 +3496,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -2117,7 +3564,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="数据透视表2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="数据透视表2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2202,7 +3649,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -2240,6 +3687,480 @@
   <dataFields count="1">
     <dataField name="计数项:耗时" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="27">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="11" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:行号" fld="10" subtotal="count" baseField="3" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3525,7 +5446,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="G3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3535,7 +5456,7 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="9" style="19"/>
-    <col min="7" max="7" width="25.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="53" customWidth="1"/>
     <col min="8" max="8" width="25.125" style="4" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
@@ -3559,7 +5480,7 @@
       <c r="F1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="52" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="50" t="s">
@@ -3574,7 +5495,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B2" s="9"/>
-      <c r="G2" s="8"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="8"/>
     </row>
   </sheetData>
@@ -3664,11 +5585,76 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC921DF-734D-4BD3-9436-B73C085D5B39}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3726,7 +5712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3779,7 +5765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -3836,7 +5822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E3CD6D-C3E6-4FD1-AC51-4C41BA849413}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FEEA81-2CE4-4A31-84B4-7EDBBEC70FAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="19" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -31,28 +31,31 @@
     <sheet name="报表" sheetId="8" r:id="rId16"/>
     <sheet name="原始" sheetId="2" r:id="rId17"/>
     <sheet name="通用" sheetId="25" r:id="rId18"/>
-    <sheet name="Performance监视" sheetId="5" r:id="rId19"/>
-    <sheet name="Perf方法调用时段" sheetId="27" r:id="rId20"/>
-    <sheet name="Performance原始" sheetId="26" r:id="rId21"/>
-    <sheet name="交易查询" sheetId="16" r:id="rId22"/>
-    <sheet name="现金流" sheetId="9" r:id="rId23"/>
-    <sheet name="其他" sheetId="17" r:id="rId24"/>
+    <sheet name="Perf事项耗时与次数" sheetId="28" r:id="rId19"/>
+    <sheet name="Perf事项调用时段" sheetId="29" r:id="rId20"/>
+    <sheet name="Performance监视" sheetId="5" r:id="rId21"/>
+    <sheet name="Perf方法调用时段" sheetId="27" r:id="rId22"/>
+    <sheet name="Performance原始" sheetId="26" r:id="rId23"/>
+    <sheet name="交易查询" sheetId="16" r:id="rId24"/>
+    <sheet name="现金流" sheetId="9" r:id="rId25"/>
+    <sheet name="其他" sheetId="17" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="切片器_日志时间">#N/A</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId25"/>
-    <pivotCache cacheId="18" r:id="rId26"/>
-    <pivotCache cacheId="19" r:id="rId27"/>
-    <pivotCache cacheId="20" r:id="rId28"/>
-    <pivotCache cacheId="52" r:id="rId29"/>
+    <pivotCache cacheId="55" r:id="rId27"/>
+    <pivotCache cacheId="59" r:id="rId28"/>
+    <pivotCache cacheId="65" r:id="rId29"/>
+    <pivotCache cacheId="71" r:id="rId30"/>
+    <pivotCache cacheId="74" r:id="rId31"/>
+    <pivotCache cacheId="80" r:id="rId32"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId30"/>
+        <x14:slicerCache r:id="rId33"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -63,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="71">
   <si>
     <t>事项</t>
   </si>
@@ -260,10 +263,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>I</t>
     </r>
@@ -320,21 +319,33 @@
   <si>
     <t>计数项:行号</t>
   </si>
+  <si>
+    <t>最大值项:耗时</t>
+  </si>
+  <si>
+    <t>最小值项:耗时</t>
+  </si>
+  <si>
+    <t>平均值项:耗时</t>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="0_ "/>
     <numFmt numFmtId="180" formatCode="#,##0_ "/>
     <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="182" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +356,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -352,6 +364,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -374,6 +387,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -382,6 +396,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -390,6 +405,12 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -511,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,9 +683,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -672,9 +690,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,6 +1071,979 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf事项耗时与次数!数据透视表4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf事项耗时与次数!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>最大值项:耗时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf事项耗时与次数!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf事项耗时与次数!$C$4:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D21-40BF-A3B1-D8A6C6D13FE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf事项耗时与次数!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>最小值项:耗时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf事项耗时与次数!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf事项耗时与次数!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6D21-40BF-A3B1-D8A6C6D13FE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="748201008"/>
+        <c:axId val="748164600"/>
+      </c:areaChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf事项耗时与次数!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均值项:耗时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf事项耗时与次数!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf事项耗时与次数!$E$4:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6D21-40BF-A3B1-D8A6C6D13FE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="748201008"/>
+        <c:axId val="748164600"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf事项耗时与次数!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>计数项:行号</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf事项耗时与次数!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf事项耗时与次数!$B$4:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D21-40BF-A3B1-D8A6C6D13FE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="726463720"/>
+        <c:axId val="726463392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="748201008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="748164600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="748164600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="748201008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="726463392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726463720"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="726463720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="726463392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf事项调用时段!数据透视表2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf事项调用时段!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>汇总</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf事项调用时段!$A$5:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf事项调用时段!$B$5:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDE2-4F63-9D76-D8477A0CA5E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="801018896"/>
+        <c:axId val="801014304"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="801018896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="801014304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="801014304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="801018896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1512,6 +2500,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2016,6 +3084,1003 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2632,16 +4697,98 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811B1362-1B90-4A86-A70F-B3AF12C127D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>33336</xdr:colOff>
+      <xdr:colOff>14287</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1458F42B-1C8C-44B1-8A49-039B00C36CBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2670,196 +4817,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="王伟" refreshedDate="43445.711748495371" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J1048576" sheet="Core服务"/>
-  </cacheSource>
-  <cacheFields count="12">
-    <cacheField name="事项" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="父事项" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="版本" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="执行序号" numFmtId="178">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="耗时" numFmtId="177">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="服务名称" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="服务启动序号" numFmtId="179">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="开始时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="完成时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="日志文件名称" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="开始日志行号" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="结束行号" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="王伟" refreshedDate="43445.790250578706" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I1048576" sheet="客户端启动"/>
-  </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="事项" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="父事项" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="版本" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="执行序号" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="耗时" numFmtId="176">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="开始时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="完成时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="日志文件名称" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="开始日志行号" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="王伟" refreshedDate="43445.803614930555" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I1048576" sheet="中间件启动"/>
-  </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="事项" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="父事项" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="版本" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="执行序号" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="耗时" numFmtId="176">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="开始时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="完成时间" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="日志文件名称" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="开始日志行号" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="王伟" refreshedDate="43446.402802777775" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E1048576" sheet="内存"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="事项" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="版本" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="客户端" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="日志时间" numFmtId="49">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="内存" numFmtId="176">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.424613425923" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{2C1B0F87-52ED-4D69-956F-6E565F922272}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446674537037" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{2C1B0F87-52ED-4D69-956F-6E565F922272}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K1048576" sheet="Performance原始"/>
   </cacheSource>
@@ -3318,16 +5276,313 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446674884261" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E1048576" sheet="内存"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="事项" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="版本" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="客户端" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日志时间" numFmtId="49">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="内存" numFmtId="176">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446675115738" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I1048576" sheet="中间件启动"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="事项" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="父事项" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="版本" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="执行序号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="耗时" numFmtId="179">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="开始时间" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="完成时间" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日志文件名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="开始日志行号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446675347222" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I1048576" sheet="客户端启动"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="事项" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="父事项" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="版本" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="执行序号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="耗时" numFmtId="181">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="开始时间" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="完成时间" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日志文件名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="开始日志行号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446675462961" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J1048576" sheet="Core服务"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="版本" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="服务名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="服务执行序号" numFmtId="179">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="触发" numFmtId="179">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="耗时" numFmtId="178">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="开始时间" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="完成时间" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日志文件名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="开始日志行号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="结束行号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.447277893516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{46C8EF50-1223-49FA-82B4-BA55D3D30F2B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J1048576" sheet="Performance监视"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="IP地址" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="用户代码" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="事项" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="父事项" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="执行序号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="耗时" numFmtId="179">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="开始时间" numFmtId="182">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1905-01-01T00:00:00" maxDate="1905-01-01T00:00:00" count="1">
+        <m/>
+      </sharedItems>
+      <fieldGroup base="6">
+        <rangePr groupBy="hours" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="26">
+          <s v="(空白)"/>
+          <s v="0时"/>
+          <s v="1时"/>
+          <s v="2时"/>
+          <s v="3时"/>
+          <s v="4时"/>
+          <s v="5时"/>
+          <s v="6时"/>
+          <s v="7时"/>
+          <s v="8时"/>
+          <s v="9时"/>
+          <s v="10时"/>
+          <s v="11时"/>
+          <s v="12时"/>
+          <s v="13时"/>
+          <s v="14时"/>
+          <s v="15时"/>
+          <s v="16时"/>
+          <s v="17时"/>
+          <s v="18时"/>
+          <s v="19时"/>
+          <s v="20时"/>
+          <s v="21时"/>
+          <s v="22时"/>
+          <s v="23时"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="结束时间" numFmtId="49">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日志文件名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="行号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
     <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
+  <r>
     <m/>
     <x v="0"/>
     <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <m/>
     <m/>
     <m/>
@@ -3337,8 +5592,8 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -3364,13 +5619,14 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
+    <m/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -3380,36 +5636,16 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
-  <r>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
-    <m/>
     <x v="0"/>
     <m/>
     <x v="0"/>
     <m/>
     <m/>
+    <m/>
     <x v="0"/>
-    <m/>
     <m/>
     <m/>
     <m/>
@@ -3418,7 +5654,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -3496,7 +5732,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="71" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -3564,7 +5800,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="数据透视表2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="数据透视表2" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -3581,12 +5817,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -3649,14 +5880,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="74" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
+  <pivotFields count="10">
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="2">
         <item x="0"/>
@@ -3665,13 +5892,15 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="5"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="2">
     <i>
@@ -3700,7 +5929,218 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CA14DE-6471-4D9D-9662-D5829C84DB00}" name="数据透视表4" cacheId="80" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="计数项:行号" fld="9" subtotal="count" baseField="9" baseItem="0"/>
+    <dataField name="最大值项:耗时" fld="5" subtotal="max" baseField="9" baseItem="0"/>
+    <dataField name="最小值项:耗时" fld="5" subtotal="min" baseField="9" baseItem="0"/>
+    <dataField name="平均值项:耗时" fld="5" subtotal="average" baseField="9" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B970ABD-30AD-460C-B154-2973567B1E66}" name="数据透视表2" cacheId="80" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="27">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:行号" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -5442,66 +7882,69 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2607E-26E5-48A8-A868-5CDEAA28EEF0}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="A1:XFD1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="9" style="19"/>
-    <col min="7" max="7" width="25.5" style="53" customWidth="1"/>
-    <col min="8" max="8" width="25.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B2" s="9"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="8"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5585,11 +8028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC921DF-734D-4BD3-9436-B73C085D5B39}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25422AEA-C00F-486C-A423-C13C8DAF7B56}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5608,15 +8051,131 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="9" style="19"/>
+    <col min="7" max="7" width="25.5" style="52" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC921DF-734D-4BD3-9436-B73C085D5B39}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -5627,7 +8186,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -5649,7 +8208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -5659,10 +8218,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="53" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="52" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="52" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
     <col min="7" max="7" width="20.75" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
@@ -5671,38 +8230,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>56</v>
+      <c r="A1" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>55</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="51" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="44" t="s">
-        <v>63</v>
-      </c>
       <c r="J1" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="49" t="s">
         <v>57</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5712,7 +8271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -5765,7 +8324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -5822,7 +8381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FEEA81-2CE4-4A31-84B4-7EDBBEC70FAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E9DB01-BDA0-4650-861E-2A210D79DA02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="19" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -31,10 +31,10 @@
     <sheet name="报表" sheetId="8" r:id="rId16"/>
     <sheet name="原始" sheetId="2" r:id="rId17"/>
     <sheet name="通用" sheetId="25" r:id="rId18"/>
-    <sheet name="Perf事项耗时与次数" sheetId="28" r:id="rId19"/>
-    <sheet name="Perf事项调用时段" sheetId="29" r:id="rId20"/>
+    <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId19"/>
+    <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId20"/>
     <sheet name="Performance监视" sheetId="5" r:id="rId21"/>
-    <sheet name="Perf方法调用时段" sheetId="27" r:id="rId22"/>
+    <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId22"/>
     <sheet name="Performance原始" sheetId="26" r:id="rId23"/>
     <sheet name="交易查询" sheetId="16" r:id="rId24"/>
     <sheet name="现金流" sheetId="9" r:id="rId25"/>
@@ -45,12 +45,12 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="55" r:id="rId27"/>
-    <pivotCache cacheId="59" r:id="rId28"/>
-    <pivotCache cacheId="65" r:id="rId29"/>
-    <pivotCache cacheId="71" r:id="rId30"/>
-    <pivotCache cacheId="74" r:id="rId31"/>
-    <pivotCache cacheId="80" r:id="rId32"/>
+    <pivotCache cacheId="0" r:id="rId27"/>
+    <pivotCache cacheId="1" r:id="rId28"/>
+    <pivotCache cacheId="2" r:id="rId29"/>
+    <pivotCache cacheId="3" r:id="rId30"/>
+    <pivotCache cacheId="4" r:id="rId31"/>
+    <pivotCache cacheId="5" r:id="rId32"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -339,11 +339,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -557,9 +557,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -587,10 +584,10 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
@@ -602,13 +599,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,7 +620,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -662,22 +659,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -686,10 +683,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,7 +1084,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf事项耗时与次数!数据透视表4</c:name>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf事项耗时与次数分析!数据透视表4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1161,7 +1161,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf事项耗时与次数!$C$3</c:f>
+              <c:f>Perf事项耗时与次数分析!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1181,7 +1181,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Perf事项耗时与次数!$A$4:$A$5</c:f>
+              <c:f>Perf事项耗时与次数分析!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1192,7 +1192,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf事项耗时与次数!$C$4:$C$5</c:f>
+              <c:f>Perf事项耗时与次数分析!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1210,7 +1210,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf事项耗时与次数!$D$3</c:f>
+              <c:f>Perf事项耗时与次数分析!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1230,7 +1230,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Perf事项耗时与次数!$A$4:$A$5</c:f>
+              <c:f>Perf事项耗时与次数分析!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1241,7 +1241,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf事项耗时与次数!$D$4:$D$5</c:f>
+              <c:f>Perf事项耗时与次数分析!$D$4:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1274,7 +1274,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf事项耗时与次数!$E$3</c:f>
+              <c:f>Perf事项耗时与次数分析!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1295,7 +1295,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Perf事项耗时与次数!$A$4:$A$5</c:f>
+              <c:f>Perf事项耗时与次数分析!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1306,7 +1306,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf事项耗时与次数!$E$4:$E$5</c:f>
+              <c:f>Perf事项耗时与次数分析!$E$4:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1339,7 +1339,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf事项耗时与次数!$B$3</c:f>
+              <c:f>Perf事项耗时与次数分析!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1362,7 +1362,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Perf事项耗时与次数!$A$4:$A$5</c:f>
+              <c:f>Perf事项耗时与次数分析!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1373,7 +1373,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf事项耗时与次数!$B$4:$B$5</c:f>
+              <c:f>Perf事项耗时与次数分析!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1680,7 +1680,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf事项调用时段!数据透视表2</c:name>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf事项调用时段分析!数据透视表2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1783,7 +1783,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf事项调用时段!$B$4</c:f>
+              <c:f>Perf事项调用时段分析!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1805,7 +1805,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Perf事项调用时段!$A$5:$A$6</c:f>
+              <c:f>Perf事项调用时段分析!$A$5:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1816,7 +1816,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf事项调用时段!$B$5:$B$6</c:f>
+              <c:f>Perf事项调用时段分析!$B$5:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2057,7 +2057,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf方法调用时段!数据透视表3</c:name>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf方法调用时段分析!数据透视表3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2160,7 +2160,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf方法调用时段!$B$5</c:f>
+              <c:f>Perf方法调用时段分析!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2182,7 +2182,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Perf方法调用时段!$A$6:$A$7</c:f>
+              <c:f>Perf方法调用时段分析!$A$6:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2193,7 +2193,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf方法调用时段!$B$6:$B$7</c:f>
+              <c:f>Perf方法调用时段分析!$B$6:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4822,7 +4822,7 @@
     <worksheetSource ref="A1:K1048576" sheet="Performance原始"/>
   </cacheSource>
   <cacheFields count="12">
-    <cacheField name="日志时间" numFmtId="182">
+    <cacheField name="日志时间" numFmtId="181">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="IP地址" numFmtId="0">
@@ -4833,7 +4833,7 @@
     <cacheField name="用户代码" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="开始时间" numFmtId="182">
+    <cacheField name="开始时间" numFmtId="181">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1905-01-01T00:00:00" maxDate="1905-01-01T00:00:00" count="1">
         <m/>
       </sharedItems>
@@ -5336,7 +5336,7 @@
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="耗时" numFmtId="179">
+    <cacheField name="耗时" numFmtId="178">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="开始时间" numFmtId="0">
@@ -5386,7 +5386,7 @@
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="耗时" numFmtId="181">
+    <cacheField name="耗时" numFmtId="180">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="开始时间" numFmtId="0">
@@ -5424,13 +5424,13 @@
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="服务执行序号" numFmtId="179">
+    <cacheField name="服务执行序号" numFmtId="178">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="触发" numFmtId="179">
+    <cacheField name="触发" numFmtId="178">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="耗时" numFmtId="178">
+    <cacheField name="耗时" numFmtId="177">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="开始时间" numFmtId="0">
@@ -5482,10 +5482,10 @@
     <cacheField name="执行序号" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="耗时" numFmtId="179">
+    <cacheField name="耗时" numFmtId="178">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="开始时间" numFmtId="182">
+    <cacheField name="开始时间" numFmtId="181">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1905-01-01T00:00:00" maxDate="1905-01-01T00:00:00" count="1">
         <m/>
       </sharedItems>
@@ -5654,7 +5654,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -5717,7 +5717,7 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="求和项:耗时" fld="4" baseField="1" baseItem="0" numFmtId="180"/>
+    <dataField name="求和项:耗时" fld="4" baseField="1" baseItem="0" numFmtId="179"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5732,7 +5732,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="71" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -5785,7 +5785,7 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="求和项:耗时" fld="4" baseField="1" baseItem="0" numFmtId="180"/>
+    <dataField name="求和项:耗时" fld="4" baseField="1" baseItem="0" numFmtId="179"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5800,7 +5800,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="数据透视表2" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -5880,7 +5880,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="74" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5929,7 +5929,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CA14DE-6471-4D9D-9662-D5829C84DB00}" name="数据透视表4" cacheId="80" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CA14DE-6471-4D9D-9662-D5829C84DB00}" name="数据透视表4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -6041,7 +6041,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B970ABD-30AD-460C-B154-2973567B1E66}" name="数据透视表2" cacheId="80" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B970ABD-30AD-460C-B154-2973567B1E66}" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -6140,7 +6140,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -6910,98 +6910,98 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="35"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="36"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="36" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="35"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="36"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="36"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="14" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -7009,91 +7009,91 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="31"/>
+      <c r="F15" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="41" t="s">
+      <c r="E17" s="12"/>
+      <c r="F17" s="40" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="35"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="42" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="35"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="36"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="35"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="36"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38" t="s">
+      <c r="C23" s="37"/>
+      <c r="D23" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7127,37 +7127,37 @@
   <cols>
     <col min="1" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="18" customWidth="1"/>
     <col min="6" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7181,8 +7181,8 @@
     <col min="1" max="1" width="34.625" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="51" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -7195,10 +7195,10 @@
       <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="6"/>
@@ -7206,7 +7206,7 @@
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D2" s="8"/>
+      <c r="D2" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7230,45 +7230,45 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="18" customWidth="1"/>
     <col min="8" max="10" width="16.875" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7293,9 +7293,9 @@
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
     <col min="7" max="7" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="18.875" customWidth="1"/>
@@ -7303,31 +7303,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>44</v>
       </c>
       <c r="J1" s="7" t="s">
@@ -7352,7 +7352,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="9" style="19"/>
+    <col min="5" max="5" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -7368,7 +7368,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -7406,46 +7406,46 @@
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="19" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="21" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="21" style="9" customWidth="1"/>
     <col min="8" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7471,47 +7471,47 @@
     <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10" style="19" customWidth="1"/>
-    <col min="6" max="8" width="13.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10" style="18" customWidth="1"/>
+    <col min="6" max="8" width="13.875" style="9" customWidth="1"/>
     <col min="9" max="11" width="15.75" customWidth="1"/>
     <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="18" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="25.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="29.625" customWidth="1"/>
@@ -7556,7 +7556,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -7573,257 +7573,257 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7842,7 +7842,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="9" style="46"/>
+    <col min="5" max="5" width="9" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -7858,7 +7858,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -7899,7 +7899,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -7907,7 +7907,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -7964,12 +7964,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -7977,15 +7977,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -7999,22 +7999,22 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8031,7 +8031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25422AEA-C00F-486C-A423-C13C8DAF7B56}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A4:B6"/>
     </sheetView>
   </sheetViews>
@@ -8042,7 +8042,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B1" t="s">
@@ -8050,7 +8050,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -8058,7 +8058,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
@@ -8098,41 +8098,41 @@
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="9" style="19"/>
-    <col min="7" max="7" width="25.5" style="52" customWidth="1"/>
+    <col min="6" max="6" width="9" style="18"/>
+    <col min="7" max="7" width="25.5" style="51" customWidth="1"/>
     <col min="8" max="8" width="25.125" style="4" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC921DF-734D-4BD3-9436-B73C085D5B39}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -8158,7 +8158,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
@@ -8166,7 +8166,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B2" t="s">
@@ -8174,7 +8174,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B3" t="s">
@@ -8182,7 +8182,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -8218,10 +8218,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="52" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="51" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="52" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="51" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
     <col min="7" max="7" width="20.75" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
@@ -8230,37 +8230,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="48" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8284,37 +8284,37 @@
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="19"/>
+    <col min="5" max="5" width="9" style="18"/>
     <col min="6" max="8" width="22.125" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8339,7 +8339,7 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="18" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
@@ -8359,7 +8359,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -8394,7 +8394,7 @@
   <cols>
     <col min="1" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="9" style="19"/>
+    <col min="5" max="5" width="9" style="18"/>
     <col min="6" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8412,7 +8412,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -8450,12 +8450,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -8463,15 +8463,15 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -8482,13 +8482,13 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="22"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8517,15 +8517,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
@@ -8578,7 +8578,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -8617,7 +8617,7 @@
     <col min="1" max="2" width="29.625" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="19" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="18" customWidth="1"/>
     <col min="6" max="6" width="26.5" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
@@ -8625,31 +8625,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8675,7 +8675,7 @@
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="25" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="24" customWidth="1"/>
     <col min="6" max="6" width="24.875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="19.375" customWidth="1"/>
@@ -8683,36 +8683,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="24"/>
+    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E2" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8735,7 +8735,7 @@
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="18" customWidth="1"/>
     <col min="6" max="8" width="23.125" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="19.75" customWidth="1"/>
@@ -8756,7 +8756,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -8800,37 +8800,37 @@
   <cols>
     <col min="1" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="19" customWidth="1"/>
+    <col min="5" max="5" width="11" style="18" customWidth="1"/>
     <col min="6" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
     </row>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E9DB01-BDA0-4650-861E-2A210D79DA02}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA39A991-E619-4CF1-8585-E6D746B95F51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="20" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -1214,7 +1214,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>最小值项:耗时</c:v>
+                  <c:v>平均值项:耗时</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1254,21 +1254,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="748201008"/>
-        <c:axId val="748164600"/>
-      </c:areaChart>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
@@ -1278,7 +1263,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>平均值项:耗时</c:v>
+                  <c:v>最小值项:耗时</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1292,7 +1277,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Perf事项耗时与次数分析!$A$4:$A$5</c:f>
@@ -1327,10 +1311,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
         <c:axId val="748201008"/>
         <c:axId val="748164600"/>
-      </c:barChart>
+      </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -5987,8 +5970,8 @@
   <dataFields count="4">
     <dataField name="计数项:行号" fld="9" subtotal="count" baseField="9" baseItem="0"/>
     <dataField name="最大值项:耗时" fld="5" subtotal="max" baseField="9" baseItem="0"/>
+    <dataField name="平均值项:耗时" fld="5" subtotal="average" baseField="9" baseItem="0"/>
     <dataField name="最小值项:耗时" fld="5" subtotal="min" baseField="9" baseItem="0"/>
-    <dataField name="平均值项:耗时" fld="5" subtotal="average" baseField="9" baseItem="0"/>
   </dataFields>
   <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
@@ -6013,7 +5996,7 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -6022,7 +6005,7 @@
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -7917,10 +7900,10 @@
         <v>67</v>
       </c>
       <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -8147,7 +8130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC921DF-734D-4BD3-9436-B73C085D5B39}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -8212,8 +8195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA39A991-E619-4CF1-8585-E6D746B95F51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F1BF5-4C09-4107-A113-DE128034F74F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +690,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7103,7 +7118,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7111,7 +7126,8 @@
     <col min="1" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="18" customWidth="1"/>
-    <col min="6" max="8" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="51" customWidth="1"/>
+    <col min="7" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7131,7 +7147,7 @@
       <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="27" t="s">
@@ -7156,7 +7172,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7204,7 +7220,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7216,7 +7232,8 @@
     <col min="5" max="5" width="11.625" style="18" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="9" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="18" customWidth="1"/>
-    <col min="8" max="10" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="51" customWidth="1"/>
+    <col min="9" max="10" width="16.875" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7242,7 +7259,7 @@
       <c r="G1" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="27" t="s">
@@ -7269,7 +7286,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7279,7 +7296,7 @@
     <col min="3" max="3" width="14.125" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="18" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="51" customWidth="1"/>
     <col min="7" max="7" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="18.875" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
@@ -7301,7 +7318,7 @@
       <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="16" t="s">
@@ -7330,12 +7347,13 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="9" style="18"/>
+    <col min="6" max="6" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -7354,7 +7372,7 @@
       <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -7380,7 +7398,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7392,7 +7410,8 @@
     <col min="5" max="5" width="11.25" style="18" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="9" customWidth="1"/>
     <col min="7" max="7" width="21" style="9" customWidth="1"/>
-    <col min="8" max="9" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="51" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
@@ -7419,7 +7438,7 @@
       <c r="G1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="27" t="s">
@@ -7445,7 +7464,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7456,7 +7475,8 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="18" customWidth="1"/>
     <col min="6" max="8" width="13.875" style="9" customWidth="1"/>
-    <col min="9" max="11" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="51" customWidth="1"/>
+    <col min="10" max="11" width="15.75" customWidth="1"/>
     <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7485,7 +7505,7 @@
       <c r="H1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="27" t="s">
@@ -7510,7 +7530,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7520,7 +7540,7 @@
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="51" customWidth="1"/>
     <col min="7" max="7" width="25.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="29.625" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
@@ -7542,7 +7562,7 @@
       <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -7561,7 +7581,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="13"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="13"/>
       <c r="H2" s="8"/>
     </row>
@@ -7571,7 +7591,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="46"/>
-      <c r="F3" s="14"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -7580,7 +7600,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="46"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -7589,7 +7609,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="46"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="57"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -7598,7 +7618,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="46"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -7607,7 +7627,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="46"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -7616,7 +7636,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -7625,7 +7645,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="14"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -7634,7 +7654,7 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="46"/>
-      <c r="F10" s="14"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -7643,7 +7663,7 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -7652,7 +7672,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="46"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -7661,7 +7681,7 @@
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="46"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -7670,7 +7690,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="46"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -7679,7 +7699,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="46"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -7688,7 +7708,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="46"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -7697,7 +7717,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="46"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -7706,7 +7726,7 @@
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="46"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -7715,7 +7735,7 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="46"/>
-      <c r="F19" s="14"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -7724,7 +7744,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -7733,7 +7753,7 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -7742,7 +7762,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -7751,7 +7771,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -7760,7 +7780,7 @@
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -7769,7 +7789,7 @@
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -7778,7 +7798,7 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -7787,7 +7807,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="46"/>
-      <c r="F27" s="14"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -7796,7 +7816,7 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="46"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -7805,7 +7825,7 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="46"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="14"/>
     </row>
   </sheetData>
@@ -7820,12 +7840,13 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="9" style="45"/>
+    <col min="6" max="6" width="9" style="51"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -7844,7 +7865,7 @@
       <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -8260,7 +8281,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8268,7 +8289,8 @@
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="18"/>
-    <col min="6" max="8" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="51" customWidth="1"/>
+    <col min="7" max="8" width="22.125" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8288,7 +8310,7 @@
       <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="27" t="s">
@@ -8313,7 +8335,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8323,7 +8345,7 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="51" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
@@ -8345,7 +8367,7 @@
       <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -8370,7 +8392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8378,7 +8400,8 @@
     <col min="1" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="9" style="18"/>
-    <col min="6" max="8" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="51" customWidth="1"/>
+    <col min="7" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8398,7 +8421,7 @@
       <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -8592,7 +8615,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8601,7 +8624,7 @@
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="51" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
@@ -8623,7 +8646,7 @@
       <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="27" t="s">
@@ -8649,7 +8672,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8659,7 +8682,7 @@
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="24" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="51" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="19.375" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
@@ -8681,7 +8704,7 @@
       <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="27" t="s">
@@ -8696,6 +8719,7 @@
     </row>
     <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E2" s="23"/>
+      <c r="F2" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8710,7 +8734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8720,7 +8744,7 @@
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="18" customWidth="1"/>
     <col min="6" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="9" max="9" width="20" style="51" customWidth="1"/>
     <col min="10" max="10" width="19.75" customWidth="1"/>
     <col min="11" max="11" width="20.875" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
@@ -8751,7 +8775,7 @@
       <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="50" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -8776,7 +8800,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8784,7 +8808,8 @@
     <col min="1" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="18" customWidth="1"/>
-    <col min="6" max="8" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="51" customWidth="1"/>
+    <col min="7" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8804,7 +8829,7 @@
       <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="27" t="s">

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F1BF5-4C09-4107-A113-DE128034F74F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2D592F-19BE-48E7-87D3-7F5263763EC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
     <sheet name="中间件启动分析" sheetId="21" r:id="rId2"/>
     <sheet name="客户端启动分析" sheetId="20" r:id="rId3"/>
-    <sheet name="内存分析" sheetId="24" r:id="rId4"/>
-    <sheet name="Core服务分析" sheetId="19" r:id="rId5"/>
-    <sheet name="中间件启动" sheetId="6" r:id="rId6"/>
-    <sheet name="客户端启动" sheetId="12" r:id="rId7"/>
-    <sheet name="清算" sheetId="11" r:id="rId8"/>
-    <sheet name="限额刷新" sheetId="14" r:id="rId9"/>
-    <sheet name="组合动态核算" sheetId="15" r:id="rId10"/>
+    <sheet name="Core服务分析" sheetId="19" r:id="rId4"/>
+    <sheet name="中间件启动" sheetId="6" r:id="rId5"/>
+    <sheet name="客户端启动" sheetId="12" r:id="rId6"/>
+    <sheet name="清算" sheetId="11" r:id="rId7"/>
+    <sheet name="限额刷新" sheetId="14" r:id="rId8"/>
+    <sheet name="组合动态核算" sheetId="15" r:id="rId9"/>
+    <sheet name="内存分析" sheetId="30" r:id="rId10"/>
     <sheet name="内存" sheetId="4" r:id="rId11"/>
     <sheet name="缓存" sheetId="10" r:id="rId12"/>
     <sheet name="Core服务" sheetId="18" r:id="rId13"/>
@@ -40,9 +40,6 @@
     <sheet name="现金流" sheetId="9" r:id="rId25"/>
     <sheet name="其他" sheetId="17" r:id="rId26"/>
   </sheets>
-  <definedNames>
-    <definedName name="切片器_日志时间">#N/A</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId27"/>
@@ -50,23 +47,13 @@
     <pivotCache cacheId="2" r:id="rId29"/>
     <pivotCache cacheId="3" r:id="rId30"/>
     <pivotCache cacheId="4" r:id="rId31"/>
-    <pivotCache cacheId="5" r:id="rId32"/>
+    <pivotCache cacheId="9" r:id="rId32"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
-      <x14:slicerCaches>
-        <x14:slicerCache r:id="rId33"/>
-      </x14:slicerCaches>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="74">
   <si>
     <t>事项</t>
   </si>
@@ -332,6 +319,15 @@
     <t>结束时间</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>计数项:内存</t>
+  </si>
+  <si>
+    <t>平均值项:内存</t>
+  </si>
+  <si>
+    <t>&lt;1905/1/1</t>
+  </si>
 </sst>
 </file>
 
@@ -345,7 +341,7 @@
     <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +408,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -532,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,9 +564,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -689,9 +689,6 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,6 +702,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,44 +745,44 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[xQuant_EXCEL_Templet.xlsx]内存分析!数据透视表2</c:name>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]内存分析!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -790,39 +796,75 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>内存分析!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>计数项:内存</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>内存分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt;1905/1/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>内存分析!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9035-4A76-A74F-165023A87D2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="815557440"/>
+        <c:axId val="815552192"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -831,11 +873,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>内存分析!$B$3:$B$4</c:f>
+              <c:f>内存分析!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(空白)</c:v>
+                  <c:v>求和项:内存</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -854,18 +896,18 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>内存分析!$A$5:$A$6</c:f>
+              <c:f>内存分析!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(空白)</c:v>
+                  <c:v>&lt;1905/1/1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>内存分析!$B$5:$B$6</c:f>
+              <c:f>内存分析!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -875,7 +917,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-00F5-4DB7-B2B7-3A89CF90B71B}"/>
+              <c16:uniqueId val="{00000000-9035-4A76-A74F-165023A87D2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -887,12 +929,82 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-568514112"/>
-        <c:axId val="-568509760"/>
+        <c:axId val="588775688"/>
+        <c:axId val="588776672"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>内存分析!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均值项:内存</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>内存分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt;1905/1/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>内存分析!$C$4:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9035-4A76-A74F-165023A87D2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="815557440"/>
+        <c:axId val="815552192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-568514112"/>
+        <c:axId val="588775688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -935,7 +1047,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-568509760"/>
+        <c:crossAx val="588776672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -943,7 +1055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-568509760"/>
+        <c:axId val="588776672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -994,10 +1106,70 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-568514112"/>
+        <c:crossAx val="588775688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="815552192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="815557440"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="815557440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="815552192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1039,6 +1211,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1080,6 +1259,11 @@
         <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -4576,23 +4760,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B3C149-F234-490A-89E0-6AC39845C608}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4608,84 +4792,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="日志时间">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="日志时间"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10496550" y="438150"/>
-              <a:ext cx="1828800" cy="2381250"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                <a:t>此形状表示切片器。Excel 2010 或更高版本中支持切片器。
-如果在较早版本的 Excel 中修改了形状，或此工作簿是在 Excel 2003 或更早版本中保存的，则不能使用切片器。</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5275,40 +5381,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446674884261" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E1048576" sheet="内存"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="事项" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="版本" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="客户端" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="日志时间" numFmtId="49">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="内存" numFmtId="176">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446675115738" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="中间件启动"/>
@@ -5358,7 +5430,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446675347222" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="客户端启动"/>
@@ -5408,7 +5480,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446675462961" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J1048576" sheet="Core服务"/>
@@ -5455,7 +5527,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.447277893516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{46C8EF50-1223-49FA-82B4-BA55D3D30F2B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J1048576" sheet="Performance监视"/>
@@ -5537,6 +5609,582 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43467.697310416668" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{485EDB88-9D69-45B0-8E71-3C3DEEC2B5A6}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E1048576" sheet="内存"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="事项" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="版本" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="客户端" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日志时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1905-01-01T00:00:00" maxDate="1905-01-01T00:00:00" count="1">
+        <m/>
+      </sharedItems>
+      <fieldGroup par="7" base="3">
+        <rangePr groupBy="seconds" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="62">
+          <s v="(空白)"/>
+          <s v="0秒"/>
+          <s v="1秒"/>
+          <s v="2秒"/>
+          <s v="3秒"/>
+          <s v="4秒"/>
+          <s v="5秒"/>
+          <s v="6秒"/>
+          <s v="7秒"/>
+          <s v="8秒"/>
+          <s v="9秒"/>
+          <s v="10秒"/>
+          <s v="11秒"/>
+          <s v="12秒"/>
+          <s v="13秒"/>
+          <s v="14秒"/>
+          <s v="15秒"/>
+          <s v="16秒"/>
+          <s v="17秒"/>
+          <s v="18秒"/>
+          <s v="19秒"/>
+          <s v="20秒"/>
+          <s v="21秒"/>
+          <s v="22秒"/>
+          <s v="23秒"/>
+          <s v="24秒"/>
+          <s v="25秒"/>
+          <s v="26秒"/>
+          <s v="27秒"/>
+          <s v="28秒"/>
+          <s v="29秒"/>
+          <s v="30秒"/>
+          <s v="31秒"/>
+          <s v="32秒"/>
+          <s v="33秒"/>
+          <s v="34秒"/>
+          <s v="35秒"/>
+          <s v="36秒"/>
+          <s v="37秒"/>
+          <s v="38秒"/>
+          <s v="39秒"/>
+          <s v="40秒"/>
+          <s v="41秒"/>
+          <s v="42秒"/>
+          <s v="43秒"/>
+          <s v="44秒"/>
+          <s v="45秒"/>
+          <s v="46秒"/>
+          <s v="47秒"/>
+          <s v="48秒"/>
+          <s v="49秒"/>
+          <s v="50秒"/>
+          <s v="51秒"/>
+          <s v="52秒"/>
+          <s v="53秒"/>
+          <s v="54秒"/>
+          <s v="55秒"/>
+          <s v="56秒"/>
+          <s v="57秒"/>
+          <s v="58秒"/>
+          <s v="59秒"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="内存" numFmtId="176">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="分" numFmtId="0" databaseField="0">
+      <fieldGroup base="3">
+        <rangePr groupBy="minutes" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="62">
+          <s v="&lt;1905/1/1"/>
+          <s v="0分"/>
+          <s v="1分"/>
+          <s v="2分"/>
+          <s v="3分"/>
+          <s v="4分"/>
+          <s v="5分"/>
+          <s v="6分"/>
+          <s v="7分"/>
+          <s v="8分"/>
+          <s v="9分"/>
+          <s v="10分"/>
+          <s v="11分"/>
+          <s v="12分"/>
+          <s v="13分"/>
+          <s v="14分"/>
+          <s v="15分"/>
+          <s v="16分"/>
+          <s v="17分"/>
+          <s v="18分"/>
+          <s v="19分"/>
+          <s v="20分"/>
+          <s v="21分"/>
+          <s v="22分"/>
+          <s v="23分"/>
+          <s v="24分"/>
+          <s v="25分"/>
+          <s v="26分"/>
+          <s v="27分"/>
+          <s v="28分"/>
+          <s v="29分"/>
+          <s v="30分"/>
+          <s v="31分"/>
+          <s v="32分"/>
+          <s v="33分"/>
+          <s v="34分"/>
+          <s v="35分"/>
+          <s v="36分"/>
+          <s v="37分"/>
+          <s v="38分"/>
+          <s v="39分"/>
+          <s v="40分"/>
+          <s v="41分"/>
+          <s v="42分"/>
+          <s v="43分"/>
+          <s v="44分"/>
+          <s v="45分"/>
+          <s v="46分"/>
+          <s v="47分"/>
+          <s v="48分"/>
+          <s v="49分"/>
+          <s v="50分"/>
+          <s v="51分"/>
+          <s v="52分"/>
+          <s v="53分"/>
+          <s v="54分"/>
+          <s v="55分"/>
+          <s v="56分"/>
+          <s v="57分"/>
+          <s v="58分"/>
+          <s v="59分"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="小时" numFmtId="0" databaseField="0">
+      <fieldGroup base="3">
+        <rangePr groupBy="hours" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="26">
+          <s v="&lt;1905/1/1"/>
+          <s v="0时"/>
+          <s v="1时"/>
+          <s v="2时"/>
+          <s v="3时"/>
+          <s v="4时"/>
+          <s v="5时"/>
+          <s v="6时"/>
+          <s v="7时"/>
+          <s v="8时"/>
+          <s v="9时"/>
+          <s v="10时"/>
+          <s v="11时"/>
+          <s v="12时"/>
+          <s v="13时"/>
+          <s v="14时"/>
+          <s v="15时"/>
+          <s v="16时"/>
+          <s v="17时"/>
+          <s v="18时"/>
+          <s v="19时"/>
+          <s v="20时"/>
+          <s v="21时"/>
+          <s v="22时"/>
+          <s v="23时"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="日" numFmtId="0" databaseField="0">
+      <fieldGroup base="3">
+        <rangePr groupBy="days" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;1905/1/1"/>
+          <s v="1月1日"/>
+          <s v="1月2日"/>
+          <s v="1月3日"/>
+          <s v="1月4日"/>
+          <s v="1月5日"/>
+          <s v="1月6日"/>
+          <s v="1月7日"/>
+          <s v="1月8日"/>
+          <s v="1月9日"/>
+          <s v="1月10日"/>
+          <s v="1月11日"/>
+          <s v="1月12日"/>
+          <s v="1月13日"/>
+          <s v="1月14日"/>
+          <s v="1月15日"/>
+          <s v="1月16日"/>
+          <s v="1月17日"/>
+          <s v="1月18日"/>
+          <s v="1月19日"/>
+          <s v="1月20日"/>
+          <s v="1月21日"/>
+          <s v="1月22日"/>
+          <s v="1月23日"/>
+          <s v="1月24日"/>
+          <s v="1月25日"/>
+          <s v="1月26日"/>
+          <s v="1月27日"/>
+          <s v="1月28日"/>
+          <s v="1月29日"/>
+          <s v="1月30日"/>
+          <s v="1月31日"/>
+          <s v="2月1日"/>
+          <s v="2月2日"/>
+          <s v="2月3日"/>
+          <s v="2月4日"/>
+          <s v="2月5日"/>
+          <s v="2月6日"/>
+          <s v="2月7日"/>
+          <s v="2月8日"/>
+          <s v="2月9日"/>
+          <s v="2月10日"/>
+          <s v="2月11日"/>
+          <s v="2月12日"/>
+          <s v="2月13日"/>
+          <s v="2月14日"/>
+          <s v="2月15日"/>
+          <s v="2月16日"/>
+          <s v="2月17日"/>
+          <s v="2月18日"/>
+          <s v="2月19日"/>
+          <s v="2月20日"/>
+          <s v="2月21日"/>
+          <s v="2月22日"/>
+          <s v="2月23日"/>
+          <s v="2月24日"/>
+          <s v="2月25日"/>
+          <s v="2月26日"/>
+          <s v="2月27日"/>
+          <s v="2月28日"/>
+          <s v="2月29日"/>
+          <s v="3月1日"/>
+          <s v="3月2日"/>
+          <s v="3月3日"/>
+          <s v="3月4日"/>
+          <s v="3月5日"/>
+          <s v="3月6日"/>
+          <s v="3月7日"/>
+          <s v="3月8日"/>
+          <s v="3月9日"/>
+          <s v="3月10日"/>
+          <s v="3月11日"/>
+          <s v="3月12日"/>
+          <s v="3月13日"/>
+          <s v="3月14日"/>
+          <s v="3月15日"/>
+          <s v="3月16日"/>
+          <s v="3月17日"/>
+          <s v="3月18日"/>
+          <s v="3月19日"/>
+          <s v="3月20日"/>
+          <s v="3月21日"/>
+          <s v="3月22日"/>
+          <s v="3月23日"/>
+          <s v="3月24日"/>
+          <s v="3月25日"/>
+          <s v="3月26日"/>
+          <s v="3月27日"/>
+          <s v="3月28日"/>
+          <s v="3月29日"/>
+          <s v="3月30日"/>
+          <s v="3月31日"/>
+          <s v="4月1日"/>
+          <s v="4月2日"/>
+          <s v="4月3日"/>
+          <s v="4月4日"/>
+          <s v="4月5日"/>
+          <s v="4月6日"/>
+          <s v="4月7日"/>
+          <s v="4月8日"/>
+          <s v="4月9日"/>
+          <s v="4月10日"/>
+          <s v="4月11日"/>
+          <s v="4月12日"/>
+          <s v="4月13日"/>
+          <s v="4月14日"/>
+          <s v="4月15日"/>
+          <s v="4月16日"/>
+          <s v="4月17日"/>
+          <s v="4月18日"/>
+          <s v="4月19日"/>
+          <s v="4月20日"/>
+          <s v="4月21日"/>
+          <s v="4月22日"/>
+          <s v="4月23日"/>
+          <s v="4月24日"/>
+          <s v="4月25日"/>
+          <s v="4月26日"/>
+          <s v="4月27日"/>
+          <s v="4月28日"/>
+          <s v="4月29日"/>
+          <s v="4月30日"/>
+          <s v="5月1日"/>
+          <s v="5月2日"/>
+          <s v="5月3日"/>
+          <s v="5月4日"/>
+          <s v="5月5日"/>
+          <s v="5月6日"/>
+          <s v="5月7日"/>
+          <s v="5月8日"/>
+          <s v="5月9日"/>
+          <s v="5月10日"/>
+          <s v="5月11日"/>
+          <s v="5月12日"/>
+          <s v="5月13日"/>
+          <s v="5月14日"/>
+          <s v="5月15日"/>
+          <s v="5月16日"/>
+          <s v="5月17日"/>
+          <s v="5月18日"/>
+          <s v="5月19日"/>
+          <s v="5月20日"/>
+          <s v="5月21日"/>
+          <s v="5月22日"/>
+          <s v="5月23日"/>
+          <s v="5月24日"/>
+          <s v="5月25日"/>
+          <s v="5月26日"/>
+          <s v="5月27日"/>
+          <s v="5月28日"/>
+          <s v="5月29日"/>
+          <s v="5月30日"/>
+          <s v="5月31日"/>
+          <s v="6月1日"/>
+          <s v="6月2日"/>
+          <s v="6月3日"/>
+          <s v="6月4日"/>
+          <s v="6月5日"/>
+          <s v="6月6日"/>
+          <s v="6月7日"/>
+          <s v="6月8日"/>
+          <s v="6月9日"/>
+          <s v="6月10日"/>
+          <s v="6月11日"/>
+          <s v="6月12日"/>
+          <s v="6月13日"/>
+          <s v="6月14日"/>
+          <s v="6月15日"/>
+          <s v="6月16日"/>
+          <s v="6月17日"/>
+          <s v="6月18日"/>
+          <s v="6月19日"/>
+          <s v="6月20日"/>
+          <s v="6月21日"/>
+          <s v="6月22日"/>
+          <s v="6月23日"/>
+          <s v="6月24日"/>
+          <s v="6月25日"/>
+          <s v="6月26日"/>
+          <s v="6月27日"/>
+          <s v="6月28日"/>
+          <s v="6月29日"/>
+          <s v="6月30日"/>
+          <s v="7月1日"/>
+          <s v="7月2日"/>
+          <s v="7月3日"/>
+          <s v="7月4日"/>
+          <s v="7月5日"/>
+          <s v="7月6日"/>
+          <s v="7月7日"/>
+          <s v="7月8日"/>
+          <s v="7月9日"/>
+          <s v="7月10日"/>
+          <s v="7月11日"/>
+          <s v="7月12日"/>
+          <s v="7月13日"/>
+          <s v="7月14日"/>
+          <s v="7月15日"/>
+          <s v="7月16日"/>
+          <s v="7月17日"/>
+          <s v="7月18日"/>
+          <s v="7月19日"/>
+          <s v="7月20日"/>
+          <s v="7月21日"/>
+          <s v="7月22日"/>
+          <s v="7月23日"/>
+          <s v="7月24日"/>
+          <s v="7月25日"/>
+          <s v="7月26日"/>
+          <s v="7月27日"/>
+          <s v="7月28日"/>
+          <s v="7月29日"/>
+          <s v="7月30日"/>
+          <s v="7月31日"/>
+          <s v="8月1日"/>
+          <s v="8月2日"/>
+          <s v="8月3日"/>
+          <s v="8月4日"/>
+          <s v="8月5日"/>
+          <s v="8月6日"/>
+          <s v="8月7日"/>
+          <s v="8月8日"/>
+          <s v="8月9日"/>
+          <s v="8月10日"/>
+          <s v="8月11日"/>
+          <s v="8月12日"/>
+          <s v="8月13日"/>
+          <s v="8月14日"/>
+          <s v="8月15日"/>
+          <s v="8月16日"/>
+          <s v="8月17日"/>
+          <s v="8月18日"/>
+          <s v="8月19日"/>
+          <s v="8月20日"/>
+          <s v="8月21日"/>
+          <s v="8月22日"/>
+          <s v="8月23日"/>
+          <s v="8月24日"/>
+          <s v="8月25日"/>
+          <s v="8月26日"/>
+          <s v="8月27日"/>
+          <s v="8月28日"/>
+          <s v="8月29日"/>
+          <s v="8月30日"/>
+          <s v="8月31日"/>
+          <s v="9月1日"/>
+          <s v="9月2日"/>
+          <s v="9月3日"/>
+          <s v="9月4日"/>
+          <s v="9月5日"/>
+          <s v="9月6日"/>
+          <s v="9月7日"/>
+          <s v="9月8日"/>
+          <s v="9月9日"/>
+          <s v="9月10日"/>
+          <s v="9月11日"/>
+          <s v="9月12日"/>
+          <s v="9月13日"/>
+          <s v="9月14日"/>
+          <s v="9月15日"/>
+          <s v="9月16日"/>
+          <s v="9月17日"/>
+          <s v="9月18日"/>
+          <s v="9月19日"/>
+          <s v="9月20日"/>
+          <s v="9月21日"/>
+          <s v="9月22日"/>
+          <s v="9月23日"/>
+          <s v="9月24日"/>
+          <s v="9月25日"/>
+          <s v="9月26日"/>
+          <s v="9月27日"/>
+          <s v="9月28日"/>
+          <s v="9月29日"/>
+          <s v="9月30日"/>
+          <s v="10月1日"/>
+          <s v="10月2日"/>
+          <s v="10月3日"/>
+          <s v="10月4日"/>
+          <s v="10月5日"/>
+          <s v="10月6日"/>
+          <s v="10月7日"/>
+          <s v="10月8日"/>
+          <s v="10月9日"/>
+          <s v="10月10日"/>
+          <s v="10月11日"/>
+          <s v="10月12日"/>
+          <s v="10月13日"/>
+          <s v="10月14日"/>
+          <s v="10月15日"/>
+          <s v="10月16日"/>
+          <s v="10月17日"/>
+          <s v="10月18日"/>
+          <s v="10月19日"/>
+          <s v="10月20日"/>
+          <s v="10月21日"/>
+          <s v="10月22日"/>
+          <s v="10月23日"/>
+          <s v="10月24日"/>
+          <s v="10月25日"/>
+          <s v="10月26日"/>
+          <s v="10月27日"/>
+          <s v="10月28日"/>
+          <s v="10月29日"/>
+          <s v="10月30日"/>
+          <s v="10月31日"/>
+          <s v="11月1日"/>
+          <s v="11月2日"/>
+          <s v="11月3日"/>
+          <s v="11月4日"/>
+          <s v="11月5日"/>
+          <s v="11月6日"/>
+          <s v="11月7日"/>
+          <s v="11月8日"/>
+          <s v="11月9日"/>
+          <s v="11月10日"/>
+          <s v="11月11日"/>
+          <s v="11月12日"/>
+          <s v="11月13日"/>
+          <s v="11月14日"/>
+          <s v="11月15日"/>
+          <s v="11月16日"/>
+          <s v="11月17日"/>
+          <s v="11月18日"/>
+          <s v="11月19日"/>
+          <s v="11月20日"/>
+          <s v="11月21日"/>
+          <s v="11月22日"/>
+          <s v="11月23日"/>
+          <s v="11月24日"/>
+          <s v="11月25日"/>
+          <s v="11月26日"/>
+          <s v="11月27日"/>
+          <s v="11月28日"/>
+          <s v="11月29日"/>
+          <s v="11月30日"/>
+          <s v="12月1日"/>
+          <s v="12月2日"/>
+          <s v="12月3日"/>
+          <s v="12月4日"/>
+          <s v="12月5日"/>
+          <s v="12月6日"/>
+          <s v="12月7日"/>
+          <s v="12月8日"/>
+          <s v="12月9日"/>
+          <s v="12月10日"/>
+          <s v="12月11日"/>
+          <s v="12月12日"/>
+          <s v="12月13日"/>
+          <s v="12月14日"/>
+          <s v="12月15日"/>
+          <s v="12月16日"/>
+          <s v="12月17日"/>
+          <s v="12月18日"/>
+          <s v="12月19日"/>
+          <s v="12月20日"/>
+          <s v="12月21日"/>
+          <s v="12月22日"/>
+          <s v="12月23日"/>
+          <s v="12月24日"/>
+          <s v="12月25日"/>
+          <s v="12月26日"/>
+          <s v="12月27日"/>
+          <s v="12月28日"/>
+          <s v="12月29日"/>
+          <s v="12月30日"/>
+          <s v="12月31日"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
@@ -5556,25 +6204,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
-  <r>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <x v="0"/>
@@ -5590,7 +6219,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
   <r>
     <x v="0"/>
@@ -5617,7 +6246,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <m/>
@@ -5634,7 +6263,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <x v="0"/>
@@ -5651,8 +6280,20 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -5730,7 +6371,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -5798,87 +6439,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="数据透视表2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A3:C6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="求和项:内存" fld="4" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -5926,8 +6487,629 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58BE29B3-FC12-4B8E-8498-78CB417F6804}" name="数据透视表1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="63">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="63">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="0"/>
+        <item x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="27">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="0"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="369">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="0"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="7" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="求和项:内存" fld="4" baseField="6" baseItem="0"/>
+    <dataField name="平均值项:内存" fld="4" subtotal="average" baseField="6" baseItem="0"/>
+    <dataField name="计数项:内存" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CA14DE-6471-4D9D-9662-D5829C84DB00}" name="数据透视表4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CA14DE-6471-4D9D-9662-D5829C84DB00}" name="数据透视表4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -6039,7 +7221,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B970ABD-30AD-460C-B154-2973567B1E66}" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B970ABD-30AD-460C-B154-2973567B1E66}" name="数据透视表2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -6611,27 +7793,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="切片器_日志时间" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="日志时间">
-  <pivotTables>
-    <pivotTable tabId="24" name="数据透视表2"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="1">
-        <i x="0" s="1" nd="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="日志时间" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="切片器_日志时间" caption="日志时间" rowHeight="225425"/>
-</slicers>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -6908,98 +8069,98 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="34"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="35"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="35" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="34"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="35"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="34"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="35"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="34"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="14" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -7007,91 +8168,91 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="33" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="34"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="35"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="41" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="40" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="34"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="35"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="35"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="34"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="35"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="35"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="34"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="35"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7113,66 +8274,73 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401842A-9777-4C0B-9C5E-BA7A6B30C54D}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="18" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="51" customWidth="1"/>
-    <col min="7" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7180,32 +8348,29 @@
     <col min="1" max="1" width="34.625" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="51" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="50" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="58" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D2" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7229,46 +8394,46 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="17" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="51" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="50" customWidth="1"/>
     <col min="9" max="10" width="16.875" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7293,41 +8458,41 @@
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="50" customWidth="1"/>
     <col min="7" max="7" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="18.875" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>44</v>
       </c>
       <c r="J1" s="7" t="s">
@@ -7352,8 +8517,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="9" style="18"/>
-    <col min="6" max="6" width="9" style="51"/>
+    <col min="5" max="5" width="9" style="17"/>
+    <col min="6" max="6" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -7369,10 +8534,10 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -7407,47 +8572,47 @@
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="17" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="9" customWidth="1"/>
     <col min="7" max="7" width="21" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="51" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="50" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7473,48 +8638,48 @@
     <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10" style="18" customWidth="1"/>
+    <col min="5" max="5" width="10" style="17" customWidth="1"/>
     <col min="6" max="8" width="13.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="51" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="50" customWidth="1"/>
     <col min="10" max="11" width="15.75" customWidth="1"/>
     <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7528,9 +8693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7539,8 +8704,8 @@
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="50" customWidth="1"/>
     <col min="7" max="7" width="25.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="29.625" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
@@ -7559,10 +8724,10 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -7576,257 +8741,257 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="14"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="14"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="14"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="14"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="14"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="14"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="14"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="14"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="14"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="14"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="14"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="14"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="14"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="14"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="14"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7845,8 +9010,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="9" style="45"/>
-    <col min="6" max="6" width="9" style="51"/>
+    <col min="5" max="5" width="9" style="44"/>
+    <col min="6" max="6" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -7862,10 +9027,10 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -7903,7 +9068,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -7911,7 +9076,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -7968,12 +9133,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -7981,15 +9146,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -8003,22 +9168,22 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8046,7 +9211,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B1" t="s">
@@ -8054,7 +9219,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -8062,7 +9227,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
@@ -8102,41 +9267,41 @@
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="9" style="18"/>
-    <col min="7" max="7" width="25.5" style="51" customWidth="1"/>
+    <col min="6" max="6" width="9" style="17"/>
+    <col min="7" max="7" width="25.5" style="50" customWidth="1"/>
     <col min="8" max="8" width="25.125" style="4" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="47" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8162,7 +9327,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B1" t="s">
@@ -8170,7 +9335,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B2" t="s">
@@ -8178,7 +9343,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B3" t="s">
@@ -8186,7 +9351,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -8216,16 +9381,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="51" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="50" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="50" customWidth="1"/>
     <col min="6" max="6" width="20.875" customWidth="1"/>
     <col min="7" max="7" width="20.75" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
@@ -8234,37 +9399,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="47" t="s">
         <v>57</v>
       </c>
     </row>
@@ -8288,38 +9453,38 @@
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="18"/>
-    <col min="6" max="6" width="22.125" style="51" customWidth="1"/>
+    <col min="5" max="5" width="9" style="17"/>
+    <col min="6" max="6" width="22.125" style="50" customWidth="1"/>
     <col min="7" max="8" width="22.125" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8344,8 +9509,8 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="50" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
@@ -8364,10 +9529,10 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -8399,8 +9564,8 @@
   <cols>
     <col min="1" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="9" style="18"/>
-    <col min="6" max="6" width="22.5" style="51" customWidth="1"/>
+    <col min="5" max="5" width="9" style="17"/>
+    <col min="6" max="6" width="22.5" style="50" customWidth="1"/>
     <col min="7" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -8418,10 +9583,10 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -8456,12 +9621,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -8469,15 +9634,15 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -8488,13 +9653,13 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -8507,69 +9672,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:C6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-    <col min="4" max="5" width="17.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A3:B5"/>
   <sheetViews>
@@ -8584,7 +9686,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -8609,7 +9711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -8623,39 +9725,39 @@
     <col min="1" max="2" width="29.625" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="18" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="51" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="17" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="50" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8666,7 +9768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -8681,45 +9783,45 @@
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="24" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="51" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="50" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="19.375" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="23"/>
-      <c r="F2" s="54"/>
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E2" s="22"/>
+      <c r="F2" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -8728,7 +9830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -8742,9 +9844,9 @@
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="17" customWidth="1"/>
     <col min="6" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="20" style="51" customWidth="1"/>
+    <col min="9" max="9" width="20" style="50" customWidth="1"/>
     <col min="10" max="10" width="19.75" customWidth="1"/>
     <col min="11" max="11" width="20.875" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
@@ -8763,7 +9865,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -8775,7 +9877,7 @@
       <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -8794,7 +9896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -8807,38 +9909,38 @@
   <cols>
     <col min="1" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="51" customWidth="1"/>
+    <col min="5" max="5" width="11" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="50" customWidth="1"/>
     <col min="7" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8847,4 +9949,58 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="17" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="50" customWidth="1"/>
+    <col min="7" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2D592F-19BE-48E7-87D3-7F5263763EC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E29B7E-AF35-4A1B-BF4B-C31B6B3A1AB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -47,13 +47,13 @@
     <pivotCache cacheId="2" r:id="rId29"/>
     <pivotCache cacheId="3" r:id="rId30"/>
     <pivotCache cacheId="4" r:id="rId31"/>
-    <pivotCache cacheId="9" r:id="rId32"/>
+    <pivotCache cacheId="5" r:id="rId32"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="79">
   <si>
     <t>事项</t>
   </si>
@@ -287,10 +287,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>流长度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>消息</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -327,6 +323,26 @@
   </si>
   <si>
     <t>&lt;1905/1/1</t>
+  </si>
+  <si>
+    <t>请求发送时间</t>
+  </si>
+  <si>
+    <t>请求接收时间</t>
+  </si>
+  <si>
+    <t>响应发送时间</t>
+  </si>
+  <si>
+    <t>响应接受时间</t>
+  </si>
+  <si>
+    <t>请求流长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应流长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2291,6 +2307,22 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
       <c:rotX val="15"/>
@@ -2384,7 +2416,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9927-4B0C-9CD3-6B06C30B545E}"/>
+              <c16:uniqueId val="{00000000-CCCF-4AF5-9B7D-7641AD43B4DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4921,466 +4953,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446674537037" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{2C1B0F87-52ED-4D69-956F-6E565F922272}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K1048576" sheet="Performance原始"/>
-  </cacheSource>
-  <cacheFields count="12">
-    <cacheField name="日志时间" numFmtId="181">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="IP地址" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="用户代码" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="开始时间" numFmtId="181">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1905-01-01T00:00:00" maxDate="1905-01-01T00:00:00" count="1">
-        <m/>
-      </sharedItems>
-      <fieldGroup par="11" base="3">
-        <rangePr groupBy="hours" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
-        <groupItems count="26">
-          <s v="(空白)"/>
-          <s v="0时"/>
-          <s v="1时"/>
-          <s v="2时"/>
-          <s v="3时"/>
-          <s v="4时"/>
-          <s v="5时"/>
-          <s v="6时"/>
-          <s v="7时"/>
-          <s v="8时"/>
-          <s v="9时"/>
-          <s v="10时"/>
-          <s v="11时"/>
-          <s v="12时"/>
-          <s v="13时"/>
-          <s v="14时"/>
-          <s v="15时"/>
-          <s v="16时"/>
-          <s v="17时"/>
-          <s v="18时"/>
-          <s v="19时"/>
-          <s v="20时"/>
-          <s v="21时"/>
-          <s v="22时"/>
-          <s v="23时"/>
-          <s v="&gt;1905/1/1"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="耗时" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="请求路径" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="方法名称" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="流长度" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="消息" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="日志文件名称" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="行号" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="日" numFmtId="0" databaseField="0">
-      <fieldGroup base="3">
-        <rangePr groupBy="days" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
-        <groupItems count="368">
-          <s v="&lt;1905/1/1"/>
-          <s v="1月1日"/>
-          <s v="1月2日"/>
-          <s v="1月3日"/>
-          <s v="1月4日"/>
-          <s v="1月5日"/>
-          <s v="1月6日"/>
-          <s v="1月7日"/>
-          <s v="1月8日"/>
-          <s v="1月9日"/>
-          <s v="1月10日"/>
-          <s v="1月11日"/>
-          <s v="1月12日"/>
-          <s v="1月13日"/>
-          <s v="1月14日"/>
-          <s v="1月15日"/>
-          <s v="1月16日"/>
-          <s v="1月17日"/>
-          <s v="1月18日"/>
-          <s v="1月19日"/>
-          <s v="1月20日"/>
-          <s v="1月21日"/>
-          <s v="1月22日"/>
-          <s v="1月23日"/>
-          <s v="1月24日"/>
-          <s v="1月25日"/>
-          <s v="1月26日"/>
-          <s v="1月27日"/>
-          <s v="1月28日"/>
-          <s v="1月29日"/>
-          <s v="1月30日"/>
-          <s v="1月31日"/>
-          <s v="2月1日"/>
-          <s v="2月2日"/>
-          <s v="2月3日"/>
-          <s v="2月4日"/>
-          <s v="2月5日"/>
-          <s v="2月6日"/>
-          <s v="2月7日"/>
-          <s v="2月8日"/>
-          <s v="2月9日"/>
-          <s v="2月10日"/>
-          <s v="2月11日"/>
-          <s v="2月12日"/>
-          <s v="2月13日"/>
-          <s v="2月14日"/>
-          <s v="2月15日"/>
-          <s v="2月16日"/>
-          <s v="2月17日"/>
-          <s v="2月18日"/>
-          <s v="2月19日"/>
-          <s v="2月20日"/>
-          <s v="2月21日"/>
-          <s v="2月22日"/>
-          <s v="2月23日"/>
-          <s v="2月24日"/>
-          <s v="2月25日"/>
-          <s v="2月26日"/>
-          <s v="2月27日"/>
-          <s v="2月28日"/>
-          <s v="2月29日"/>
-          <s v="3月1日"/>
-          <s v="3月2日"/>
-          <s v="3月3日"/>
-          <s v="3月4日"/>
-          <s v="3月5日"/>
-          <s v="3月6日"/>
-          <s v="3月7日"/>
-          <s v="3月8日"/>
-          <s v="3月9日"/>
-          <s v="3月10日"/>
-          <s v="3月11日"/>
-          <s v="3月12日"/>
-          <s v="3月13日"/>
-          <s v="3月14日"/>
-          <s v="3月15日"/>
-          <s v="3月16日"/>
-          <s v="3月17日"/>
-          <s v="3月18日"/>
-          <s v="3月19日"/>
-          <s v="3月20日"/>
-          <s v="3月21日"/>
-          <s v="3月22日"/>
-          <s v="3月23日"/>
-          <s v="3月24日"/>
-          <s v="3月25日"/>
-          <s v="3月26日"/>
-          <s v="3月27日"/>
-          <s v="3月28日"/>
-          <s v="3月29日"/>
-          <s v="3月30日"/>
-          <s v="3月31日"/>
-          <s v="4月1日"/>
-          <s v="4月2日"/>
-          <s v="4月3日"/>
-          <s v="4月4日"/>
-          <s v="4月5日"/>
-          <s v="4月6日"/>
-          <s v="4月7日"/>
-          <s v="4月8日"/>
-          <s v="4月9日"/>
-          <s v="4月10日"/>
-          <s v="4月11日"/>
-          <s v="4月12日"/>
-          <s v="4月13日"/>
-          <s v="4月14日"/>
-          <s v="4月15日"/>
-          <s v="4月16日"/>
-          <s v="4月17日"/>
-          <s v="4月18日"/>
-          <s v="4月19日"/>
-          <s v="4月20日"/>
-          <s v="4月21日"/>
-          <s v="4月22日"/>
-          <s v="4月23日"/>
-          <s v="4月24日"/>
-          <s v="4月25日"/>
-          <s v="4月26日"/>
-          <s v="4月27日"/>
-          <s v="4月28日"/>
-          <s v="4月29日"/>
-          <s v="4月30日"/>
-          <s v="5月1日"/>
-          <s v="5月2日"/>
-          <s v="5月3日"/>
-          <s v="5月4日"/>
-          <s v="5月5日"/>
-          <s v="5月6日"/>
-          <s v="5月7日"/>
-          <s v="5月8日"/>
-          <s v="5月9日"/>
-          <s v="5月10日"/>
-          <s v="5月11日"/>
-          <s v="5月12日"/>
-          <s v="5月13日"/>
-          <s v="5月14日"/>
-          <s v="5月15日"/>
-          <s v="5月16日"/>
-          <s v="5月17日"/>
-          <s v="5月18日"/>
-          <s v="5月19日"/>
-          <s v="5月20日"/>
-          <s v="5月21日"/>
-          <s v="5月22日"/>
-          <s v="5月23日"/>
-          <s v="5月24日"/>
-          <s v="5月25日"/>
-          <s v="5月26日"/>
-          <s v="5月27日"/>
-          <s v="5月28日"/>
-          <s v="5月29日"/>
-          <s v="5月30日"/>
-          <s v="5月31日"/>
-          <s v="6月1日"/>
-          <s v="6月2日"/>
-          <s v="6月3日"/>
-          <s v="6月4日"/>
-          <s v="6月5日"/>
-          <s v="6月6日"/>
-          <s v="6月7日"/>
-          <s v="6月8日"/>
-          <s v="6月9日"/>
-          <s v="6月10日"/>
-          <s v="6月11日"/>
-          <s v="6月12日"/>
-          <s v="6月13日"/>
-          <s v="6月14日"/>
-          <s v="6月15日"/>
-          <s v="6月16日"/>
-          <s v="6月17日"/>
-          <s v="6月18日"/>
-          <s v="6月19日"/>
-          <s v="6月20日"/>
-          <s v="6月21日"/>
-          <s v="6月22日"/>
-          <s v="6月23日"/>
-          <s v="6月24日"/>
-          <s v="6月25日"/>
-          <s v="6月26日"/>
-          <s v="6月27日"/>
-          <s v="6月28日"/>
-          <s v="6月29日"/>
-          <s v="6月30日"/>
-          <s v="7月1日"/>
-          <s v="7月2日"/>
-          <s v="7月3日"/>
-          <s v="7月4日"/>
-          <s v="7月5日"/>
-          <s v="7月6日"/>
-          <s v="7月7日"/>
-          <s v="7月8日"/>
-          <s v="7月9日"/>
-          <s v="7月10日"/>
-          <s v="7月11日"/>
-          <s v="7月12日"/>
-          <s v="7月13日"/>
-          <s v="7月14日"/>
-          <s v="7月15日"/>
-          <s v="7月16日"/>
-          <s v="7月17日"/>
-          <s v="7月18日"/>
-          <s v="7月19日"/>
-          <s v="7月20日"/>
-          <s v="7月21日"/>
-          <s v="7月22日"/>
-          <s v="7月23日"/>
-          <s v="7月24日"/>
-          <s v="7月25日"/>
-          <s v="7月26日"/>
-          <s v="7月27日"/>
-          <s v="7月28日"/>
-          <s v="7月29日"/>
-          <s v="7月30日"/>
-          <s v="7月31日"/>
-          <s v="8月1日"/>
-          <s v="8月2日"/>
-          <s v="8月3日"/>
-          <s v="8月4日"/>
-          <s v="8月5日"/>
-          <s v="8月6日"/>
-          <s v="8月7日"/>
-          <s v="8月8日"/>
-          <s v="8月9日"/>
-          <s v="8月10日"/>
-          <s v="8月11日"/>
-          <s v="8月12日"/>
-          <s v="8月13日"/>
-          <s v="8月14日"/>
-          <s v="8月15日"/>
-          <s v="8月16日"/>
-          <s v="8月17日"/>
-          <s v="8月18日"/>
-          <s v="8月19日"/>
-          <s v="8月20日"/>
-          <s v="8月21日"/>
-          <s v="8月22日"/>
-          <s v="8月23日"/>
-          <s v="8月24日"/>
-          <s v="8月25日"/>
-          <s v="8月26日"/>
-          <s v="8月27日"/>
-          <s v="8月28日"/>
-          <s v="8月29日"/>
-          <s v="8月30日"/>
-          <s v="8月31日"/>
-          <s v="9月1日"/>
-          <s v="9月2日"/>
-          <s v="9月3日"/>
-          <s v="9月4日"/>
-          <s v="9月5日"/>
-          <s v="9月6日"/>
-          <s v="9月7日"/>
-          <s v="9月8日"/>
-          <s v="9月9日"/>
-          <s v="9月10日"/>
-          <s v="9月11日"/>
-          <s v="9月12日"/>
-          <s v="9月13日"/>
-          <s v="9月14日"/>
-          <s v="9月15日"/>
-          <s v="9月16日"/>
-          <s v="9月17日"/>
-          <s v="9月18日"/>
-          <s v="9月19日"/>
-          <s v="9月20日"/>
-          <s v="9月21日"/>
-          <s v="9月22日"/>
-          <s v="9月23日"/>
-          <s v="9月24日"/>
-          <s v="9月25日"/>
-          <s v="9月26日"/>
-          <s v="9月27日"/>
-          <s v="9月28日"/>
-          <s v="9月29日"/>
-          <s v="9月30日"/>
-          <s v="10月1日"/>
-          <s v="10月2日"/>
-          <s v="10月3日"/>
-          <s v="10月4日"/>
-          <s v="10月5日"/>
-          <s v="10月6日"/>
-          <s v="10月7日"/>
-          <s v="10月8日"/>
-          <s v="10月9日"/>
-          <s v="10月10日"/>
-          <s v="10月11日"/>
-          <s v="10月12日"/>
-          <s v="10月13日"/>
-          <s v="10月14日"/>
-          <s v="10月15日"/>
-          <s v="10月16日"/>
-          <s v="10月17日"/>
-          <s v="10月18日"/>
-          <s v="10月19日"/>
-          <s v="10月20日"/>
-          <s v="10月21日"/>
-          <s v="10月22日"/>
-          <s v="10月23日"/>
-          <s v="10月24日"/>
-          <s v="10月25日"/>
-          <s v="10月26日"/>
-          <s v="10月27日"/>
-          <s v="10月28日"/>
-          <s v="10月29日"/>
-          <s v="10月30日"/>
-          <s v="10月31日"/>
-          <s v="11月1日"/>
-          <s v="11月2日"/>
-          <s v="11月3日"/>
-          <s v="11月4日"/>
-          <s v="11月5日"/>
-          <s v="11月6日"/>
-          <s v="11月7日"/>
-          <s v="11月8日"/>
-          <s v="11月9日"/>
-          <s v="11月10日"/>
-          <s v="11月11日"/>
-          <s v="11月12日"/>
-          <s v="11月13日"/>
-          <s v="11月14日"/>
-          <s v="11月15日"/>
-          <s v="11月16日"/>
-          <s v="11月17日"/>
-          <s v="11月18日"/>
-          <s v="11月19日"/>
-          <s v="11月20日"/>
-          <s v="11月21日"/>
-          <s v="11月22日"/>
-          <s v="11月23日"/>
-          <s v="11月24日"/>
-          <s v="11月25日"/>
-          <s v="11月26日"/>
-          <s v="11月27日"/>
-          <s v="11月28日"/>
-          <s v="11月29日"/>
-          <s v="11月30日"/>
-          <s v="12月1日"/>
-          <s v="12月2日"/>
-          <s v="12月3日"/>
-          <s v="12月4日"/>
-          <s v="12月5日"/>
-          <s v="12月6日"/>
-          <s v="12月7日"/>
-          <s v="12月8日"/>
-          <s v="12月9日"/>
-          <s v="12月10日"/>
-          <s v="12月11日"/>
-          <s v="12月12日"/>
-          <s v="12月13日"/>
-          <s v="12月14日"/>
-          <s v="12月15日"/>
-          <s v="12月16日"/>
-          <s v="12月17日"/>
-          <s v="12月18日"/>
-          <s v="12月19日"/>
-          <s v="12月20日"/>
-          <s v="12月21日"/>
-          <s v="12月22日"/>
-          <s v="12月23日"/>
-          <s v="12月24日"/>
-          <s v="12月25日"/>
-          <s v="12月26日"/>
-          <s v="12月27日"/>
-          <s v="12月28日"/>
-          <s v="12月29日"/>
-          <s v="12月30日"/>
-          <s v="12月31日"/>
-          <s v="&gt;1905/1/1"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446675115738" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="中间件启动"/>
@@ -5430,7 +5002,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446675347222" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1048576" sheet="客户端启动"/>
@@ -5480,7 +5052,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.446675462961" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J1048576" sheet="Core服务"/>
@@ -5527,7 +5099,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43463.447277893516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{46C8EF50-1223-49FA-82B4-BA55D3D30F2B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J1048576" sheet="Performance监视"/>
@@ -5609,7 +5181,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43467.697310416668" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{485EDB88-9D69-45B0-8E71-3C3DEEC2B5A6}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="内存"/>
@@ -6185,25 +5757,476 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
-  <r>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43474.62953622685" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{2C1B0F87-52ED-4D69-956F-6E565F922272}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:N1048576" sheet="Performance原始"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="日志时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="IP地址" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="请求发送时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="请求接收时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1905-01-01T00:00:00" maxDate="1905-01-01T00:00:00" count="1">
+        <m/>
+      </sharedItems>
+      <fieldGroup par="14" base="3">
+        <rangePr groupBy="hours" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="26">
+          <s v="(空白)"/>
+          <s v="0时"/>
+          <s v="1时"/>
+          <s v="2时"/>
+          <s v="3时"/>
+          <s v="4时"/>
+          <s v="5时"/>
+          <s v="6时"/>
+          <s v="7时"/>
+          <s v="8时"/>
+          <s v="9时"/>
+          <s v="10时"/>
+          <s v="11时"/>
+          <s v="12时"/>
+          <s v="13时"/>
+          <s v="14时"/>
+          <s v="15时"/>
+          <s v="16时"/>
+          <s v="17时"/>
+          <s v="18时"/>
+          <s v="19时"/>
+          <s v="20时"/>
+          <s v="21时"/>
+          <s v="22时"/>
+          <s v="23时"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="响应发送时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="响应接受时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="耗时" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="请求路径" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="方法名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="请求流长度" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="响应流长度" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="消息" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日志文件名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="行号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日" numFmtId="0" databaseField="0">
+      <fieldGroup base="3">
+        <rangePr groupBy="days" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;1905/1/1"/>
+          <s v="1月1日"/>
+          <s v="1月2日"/>
+          <s v="1月3日"/>
+          <s v="1月4日"/>
+          <s v="1月5日"/>
+          <s v="1月6日"/>
+          <s v="1月7日"/>
+          <s v="1月8日"/>
+          <s v="1月9日"/>
+          <s v="1月10日"/>
+          <s v="1月11日"/>
+          <s v="1月12日"/>
+          <s v="1月13日"/>
+          <s v="1月14日"/>
+          <s v="1月15日"/>
+          <s v="1月16日"/>
+          <s v="1月17日"/>
+          <s v="1月18日"/>
+          <s v="1月19日"/>
+          <s v="1月20日"/>
+          <s v="1月21日"/>
+          <s v="1月22日"/>
+          <s v="1月23日"/>
+          <s v="1月24日"/>
+          <s v="1月25日"/>
+          <s v="1月26日"/>
+          <s v="1月27日"/>
+          <s v="1月28日"/>
+          <s v="1月29日"/>
+          <s v="1月30日"/>
+          <s v="1月31日"/>
+          <s v="2月1日"/>
+          <s v="2月2日"/>
+          <s v="2月3日"/>
+          <s v="2月4日"/>
+          <s v="2月5日"/>
+          <s v="2月6日"/>
+          <s v="2月7日"/>
+          <s v="2月8日"/>
+          <s v="2月9日"/>
+          <s v="2月10日"/>
+          <s v="2月11日"/>
+          <s v="2月12日"/>
+          <s v="2月13日"/>
+          <s v="2月14日"/>
+          <s v="2月15日"/>
+          <s v="2月16日"/>
+          <s v="2月17日"/>
+          <s v="2月18日"/>
+          <s v="2月19日"/>
+          <s v="2月20日"/>
+          <s v="2月21日"/>
+          <s v="2月22日"/>
+          <s v="2月23日"/>
+          <s v="2月24日"/>
+          <s v="2月25日"/>
+          <s v="2月26日"/>
+          <s v="2月27日"/>
+          <s v="2月28日"/>
+          <s v="2月29日"/>
+          <s v="3月1日"/>
+          <s v="3月2日"/>
+          <s v="3月3日"/>
+          <s v="3月4日"/>
+          <s v="3月5日"/>
+          <s v="3月6日"/>
+          <s v="3月7日"/>
+          <s v="3月8日"/>
+          <s v="3月9日"/>
+          <s v="3月10日"/>
+          <s v="3月11日"/>
+          <s v="3月12日"/>
+          <s v="3月13日"/>
+          <s v="3月14日"/>
+          <s v="3月15日"/>
+          <s v="3月16日"/>
+          <s v="3月17日"/>
+          <s v="3月18日"/>
+          <s v="3月19日"/>
+          <s v="3月20日"/>
+          <s v="3月21日"/>
+          <s v="3月22日"/>
+          <s v="3月23日"/>
+          <s v="3月24日"/>
+          <s v="3月25日"/>
+          <s v="3月26日"/>
+          <s v="3月27日"/>
+          <s v="3月28日"/>
+          <s v="3月29日"/>
+          <s v="3月30日"/>
+          <s v="3月31日"/>
+          <s v="4月1日"/>
+          <s v="4月2日"/>
+          <s v="4月3日"/>
+          <s v="4月4日"/>
+          <s v="4月5日"/>
+          <s v="4月6日"/>
+          <s v="4月7日"/>
+          <s v="4月8日"/>
+          <s v="4月9日"/>
+          <s v="4月10日"/>
+          <s v="4月11日"/>
+          <s v="4月12日"/>
+          <s v="4月13日"/>
+          <s v="4月14日"/>
+          <s v="4月15日"/>
+          <s v="4月16日"/>
+          <s v="4月17日"/>
+          <s v="4月18日"/>
+          <s v="4月19日"/>
+          <s v="4月20日"/>
+          <s v="4月21日"/>
+          <s v="4月22日"/>
+          <s v="4月23日"/>
+          <s v="4月24日"/>
+          <s v="4月25日"/>
+          <s v="4月26日"/>
+          <s v="4月27日"/>
+          <s v="4月28日"/>
+          <s v="4月29日"/>
+          <s v="4月30日"/>
+          <s v="5月1日"/>
+          <s v="5月2日"/>
+          <s v="5月3日"/>
+          <s v="5月4日"/>
+          <s v="5月5日"/>
+          <s v="5月6日"/>
+          <s v="5月7日"/>
+          <s v="5月8日"/>
+          <s v="5月9日"/>
+          <s v="5月10日"/>
+          <s v="5月11日"/>
+          <s v="5月12日"/>
+          <s v="5月13日"/>
+          <s v="5月14日"/>
+          <s v="5月15日"/>
+          <s v="5月16日"/>
+          <s v="5月17日"/>
+          <s v="5月18日"/>
+          <s v="5月19日"/>
+          <s v="5月20日"/>
+          <s v="5月21日"/>
+          <s v="5月22日"/>
+          <s v="5月23日"/>
+          <s v="5月24日"/>
+          <s v="5月25日"/>
+          <s v="5月26日"/>
+          <s v="5月27日"/>
+          <s v="5月28日"/>
+          <s v="5月29日"/>
+          <s v="5月30日"/>
+          <s v="5月31日"/>
+          <s v="6月1日"/>
+          <s v="6月2日"/>
+          <s v="6月3日"/>
+          <s v="6月4日"/>
+          <s v="6月5日"/>
+          <s v="6月6日"/>
+          <s v="6月7日"/>
+          <s v="6月8日"/>
+          <s v="6月9日"/>
+          <s v="6月10日"/>
+          <s v="6月11日"/>
+          <s v="6月12日"/>
+          <s v="6月13日"/>
+          <s v="6月14日"/>
+          <s v="6月15日"/>
+          <s v="6月16日"/>
+          <s v="6月17日"/>
+          <s v="6月18日"/>
+          <s v="6月19日"/>
+          <s v="6月20日"/>
+          <s v="6月21日"/>
+          <s v="6月22日"/>
+          <s v="6月23日"/>
+          <s v="6月24日"/>
+          <s v="6月25日"/>
+          <s v="6月26日"/>
+          <s v="6月27日"/>
+          <s v="6月28日"/>
+          <s v="6月29日"/>
+          <s v="6月30日"/>
+          <s v="7月1日"/>
+          <s v="7月2日"/>
+          <s v="7月3日"/>
+          <s v="7月4日"/>
+          <s v="7月5日"/>
+          <s v="7月6日"/>
+          <s v="7月7日"/>
+          <s v="7月8日"/>
+          <s v="7月9日"/>
+          <s v="7月10日"/>
+          <s v="7月11日"/>
+          <s v="7月12日"/>
+          <s v="7月13日"/>
+          <s v="7月14日"/>
+          <s v="7月15日"/>
+          <s v="7月16日"/>
+          <s v="7月17日"/>
+          <s v="7月18日"/>
+          <s v="7月19日"/>
+          <s v="7月20日"/>
+          <s v="7月21日"/>
+          <s v="7月22日"/>
+          <s v="7月23日"/>
+          <s v="7月24日"/>
+          <s v="7月25日"/>
+          <s v="7月26日"/>
+          <s v="7月27日"/>
+          <s v="7月28日"/>
+          <s v="7月29日"/>
+          <s v="7月30日"/>
+          <s v="7月31日"/>
+          <s v="8月1日"/>
+          <s v="8月2日"/>
+          <s v="8月3日"/>
+          <s v="8月4日"/>
+          <s v="8月5日"/>
+          <s v="8月6日"/>
+          <s v="8月7日"/>
+          <s v="8月8日"/>
+          <s v="8月9日"/>
+          <s v="8月10日"/>
+          <s v="8月11日"/>
+          <s v="8月12日"/>
+          <s v="8月13日"/>
+          <s v="8月14日"/>
+          <s v="8月15日"/>
+          <s v="8月16日"/>
+          <s v="8月17日"/>
+          <s v="8月18日"/>
+          <s v="8月19日"/>
+          <s v="8月20日"/>
+          <s v="8月21日"/>
+          <s v="8月22日"/>
+          <s v="8月23日"/>
+          <s v="8月24日"/>
+          <s v="8月25日"/>
+          <s v="8月26日"/>
+          <s v="8月27日"/>
+          <s v="8月28日"/>
+          <s v="8月29日"/>
+          <s v="8月30日"/>
+          <s v="8月31日"/>
+          <s v="9月1日"/>
+          <s v="9月2日"/>
+          <s v="9月3日"/>
+          <s v="9月4日"/>
+          <s v="9月5日"/>
+          <s v="9月6日"/>
+          <s v="9月7日"/>
+          <s v="9月8日"/>
+          <s v="9月9日"/>
+          <s v="9月10日"/>
+          <s v="9月11日"/>
+          <s v="9月12日"/>
+          <s v="9月13日"/>
+          <s v="9月14日"/>
+          <s v="9月15日"/>
+          <s v="9月16日"/>
+          <s v="9月17日"/>
+          <s v="9月18日"/>
+          <s v="9月19日"/>
+          <s v="9月20日"/>
+          <s v="9月21日"/>
+          <s v="9月22日"/>
+          <s v="9月23日"/>
+          <s v="9月24日"/>
+          <s v="9月25日"/>
+          <s v="9月26日"/>
+          <s v="9月27日"/>
+          <s v="9月28日"/>
+          <s v="9月29日"/>
+          <s v="9月30日"/>
+          <s v="10月1日"/>
+          <s v="10月2日"/>
+          <s v="10月3日"/>
+          <s v="10月4日"/>
+          <s v="10月5日"/>
+          <s v="10月6日"/>
+          <s v="10月7日"/>
+          <s v="10月8日"/>
+          <s v="10月9日"/>
+          <s v="10月10日"/>
+          <s v="10月11日"/>
+          <s v="10月12日"/>
+          <s v="10月13日"/>
+          <s v="10月14日"/>
+          <s v="10月15日"/>
+          <s v="10月16日"/>
+          <s v="10月17日"/>
+          <s v="10月18日"/>
+          <s v="10月19日"/>
+          <s v="10月20日"/>
+          <s v="10月21日"/>
+          <s v="10月22日"/>
+          <s v="10月23日"/>
+          <s v="10月24日"/>
+          <s v="10月25日"/>
+          <s v="10月26日"/>
+          <s v="10月27日"/>
+          <s v="10月28日"/>
+          <s v="10月29日"/>
+          <s v="10月30日"/>
+          <s v="10月31日"/>
+          <s v="11月1日"/>
+          <s v="11月2日"/>
+          <s v="11月3日"/>
+          <s v="11月4日"/>
+          <s v="11月5日"/>
+          <s v="11月6日"/>
+          <s v="11月7日"/>
+          <s v="11月8日"/>
+          <s v="11月9日"/>
+          <s v="11月10日"/>
+          <s v="11月11日"/>
+          <s v="11月12日"/>
+          <s v="11月13日"/>
+          <s v="11月14日"/>
+          <s v="11月15日"/>
+          <s v="11月16日"/>
+          <s v="11月17日"/>
+          <s v="11月18日"/>
+          <s v="11月19日"/>
+          <s v="11月20日"/>
+          <s v="11月21日"/>
+          <s v="11月22日"/>
+          <s v="11月23日"/>
+          <s v="11月24日"/>
+          <s v="11月25日"/>
+          <s v="11月26日"/>
+          <s v="11月27日"/>
+          <s v="11月28日"/>
+          <s v="11月29日"/>
+          <s v="11月30日"/>
+          <s v="12月1日"/>
+          <s v="12月2日"/>
+          <s v="12月3日"/>
+          <s v="12月4日"/>
+          <s v="12月5日"/>
+          <s v="12月6日"/>
+          <s v="12月7日"/>
+          <s v="12月8日"/>
+          <s v="12月9日"/>
+          <s v="12月10日"/>
+          <s v="12月11日"/>
+          <s v="12月12日"/>
+          <s v="12月13日"/>
+          <s v="12月14日"/>
+          <s v="12月15日"/>
+          <s v="12月16日"/>
+          <s v="12月17日"/>
+          <s v="12月18日"/>
+          <s v="12月19日"/>
+          <s v="12月20日"/>
+          <s v="12月21日"/>
+          <s v="12月22日"/>
+          <s v="12月23日"/>
+          <s v="12月24日"/>
+          <s v="12月25日"/>
+          <s v="12月26日"/>
+          <s v="12月27日"/>
+          <s v="12月28日"/>
+          <s v="12月29日"/>
+          <s v="12月30日"/>
+          <s v="12月31日"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <x v="0"/>
@@ -6219,7 +6242,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
   <r>
     <x v="0"/>
@@ -6246,7 +6269,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <m/>
@@ -6263,7 +6286,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <x v="0"/>
@@ -6280,7 +6303,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <m/>
@@ -6292,8 +6315,29 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -6371,7 +6415,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -6439,7 +6483,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -6488,7 +6532,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58BE29B3-FC12-4B8E-8498-78CB417F6804}" name="数据透视表1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58BE29B3-FC12-4B8E-8498-78CB417F6804}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -7109,7 +7153,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CA14DE-6471-4D9D-9662-D5829C84DB00}" name="数据透视表4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CA14DE-6471-4D9D-9662-D5829C84DB00}" name="数据透视表4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -7221,7 +7265,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B970ABD-30AD-460C-B154-2973567B1E66}" name="数据透视表2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B970ABD-30AD-460C-B154-2973567B1E66}" name="数据透视表2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -7320,9 +7364,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="12">
+  <pivotFields count="15">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="2">
@@ -7364,6 +7408,8 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="2">
         <item x="0"/>
@@ -7373,10 +7419,11 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="369">
-        <item x="0"/>
+        <item sd="0" x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
@@ -7763,12 +7810,12 @@
     <i/>
   </colItems>
   <pageFields count="3">
-    <pageField fld="11" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="6" hier="-1"/>
+    <pageField fld="8" hier="-1"/>
+    <pageField fld="14" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="计数项:行号" fld="10" subtotal="count" baseField="3" baseItem="0"/>
+    <dataField name="计数项:行号" fld="13" subtotal="count" baseField="3" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -8291,7 +8338,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -8305,15 +8352,15 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8693,7 +8740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
@@ -9080,16 +9127,16 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
         <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -9212,7 +9259,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
@@ -9231,7 +9278,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -9258,7 +9305,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9296,7 +9343,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="47" t="s">
         <v>56</v>
@@ -9324,6 +9371,7 @@
   <cols>
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -9344,7 +9392,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -9355,7 +9403,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -9379,9 +9427,9 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -9389,47 +9437,55 @@
   <cols>
     <col min="1" max="1" width="17.25" style="50" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="50" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="3" max="6" width="15.5" style="50" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col min="10" max="11" width="10.625" customWidth="1"/>
+    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="49" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>16</v>
+      <c r="C1" s="49" t="s">
+        <v>73</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="H1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="I1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="J1" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="47" t="s">
+      <c r="M1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="N1" s="47" t="s">
         <v>57</v>
       </c>
     </row>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E29B7E-AF35-4A1B-BF4B-C31B6B3A1AB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4A078C-78D2-4608-9189-62B638CD37F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="20" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="81">
   <si>
     <t>事项</t>
   </si>
@@ -343,6 +343,14 @@
   <si>
     <t>响应流长度</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8387,7 +8395,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8421,6 +8429,23 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{1A110428-E6CD-4314-BD58-AE92078AE7B3}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{B269E0B3-98AD-40FE-85D3-8F7FD3F92B22}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{510F95C7-AFBE-4850-B8DF-6A80B1E785FC}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{EAD1BC1E-1335-4A98-91D9-43A75C56DDC7}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{82B109A0-A9D3-4814-8555-2B4F490C60F2}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8432,7 +8457,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8486,6 +8511,41 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{390F925B-110E-41F9-B332-71FE67867035}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{45409089-C677-4A43-9DAC-D9C1B9BB70E8}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{394D5CE0-9D7D-4D91-BCA8-CD844BD2A222}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{C4CE0BCD-8080-4F60-9987-D0A0E07586B3}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{57DC448E-F2E3-4645-A629-B0057B4C6C5B}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{79CBEF0D-971F-43A9-B13E-B8A466B4A59D}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{A28210D6-0FCA-4EB9-A259-282E10AE8F5B}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{23244605-6C02-41FA-9AE1-30D5F22B9B46}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{91A4FE76-29C1-4BF9-9C85-09FDEBFC566D}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{7140D851-82EA-42BA-8AE5-977264EE7DD7}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{3A0E4543-56DB-4A1F-BC84-1F26E9A065E7}">
+      <formula1>$K:$K</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8498,7 +8558,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8548,6 +8608,38 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{0FA78F12-BB9C-4D0F-B5E1-877F10B4BD7E}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{9846F81A-6B40-4EA1-B0F1-6564BCA107BA}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{5E1186C7-5334-4174-B5C7-4D942F3C06B7}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{AB9DF3FB-3D2C-43B4-9564-DFBDA72A8346}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{D627003E-DB4A-4610-9349-AEA7BA923BAC}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{42E3475B-F0E1-448C-AC4B-1EBFF08D81D3}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{F70EF6E8-A536-4412-BF69-E92E536989C8}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{6993DE85-93EC-4671-8FD2-FB62C1087F0A}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{12EA1479-9EF1-4291-9617-053147658B25}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{B96491A0-1416-4627-8584-80B83258E8F4}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8559,13 +8651,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="9" style="17"/>
-    <col min="6" max="6" width="9" style="50"/>
+    <col min="6" max="6" width="17.25" style="50" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -8594,11 +8690,40 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{4B33B2DA-5692-43B4-8F3A-D552D135D9C9}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{D3C56693-BB73-4574-84B3-2ED9FE12E0F3}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{D8E1FFE1-CA61-4107-B595-A38D38398032}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{785B4E6E-3E69-489F-9345-66530436D903}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{4BF15666-062A-4174-9B1C-2F4EADE18188}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{B8463DCE-74C9-4F79-9264-D0DF5BCFEFB2}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{C597B113-67A1-4803-ADD6-4ED6A7E2EDE6}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{5E8FB0A9-F027-4165-99BE-3C3521F915D8}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{59C83F62-7DB8-435E-A518-7706D445B589}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8610,7 +8735,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8665,6 +8790,41 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{926860CA-3AD8-424E-81F7-1C7BD512F192}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{51CC8B79-2969-42F3-9CFA-653110EDE08C}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{23458F1A-4757-4E89-94A0-FD77E7621D31}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{C45F88B6-D520-4094-9051-CB5AF4F16E62}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{ABE6CB7C-AD87-4AF6-84ED-6A64A032163D}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{A0184AA9-BE8F-450B-9291-EFF69E7DA427}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{2CC255A9-2764-4F3D-8AF2-63912266EEB6}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{6F32DBD3-75EB-437A-9267-1F6A0C0238BA}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{F08D46A8-371D-4485-B17C-93F5B8CFC1C5}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{84493707-16F8-4C9E-B88B-37591D7E5BE8}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{B6145A0A-AF76-4BEC-A7C9-5EDB56A1068C}">
+      <formula1>$K:$K</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8676,7 +8836,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E15" sqref="E15"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8732,6 +8892,44 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{8CDEC60F-C1D0-4D91-95AA-5EBF965053FE}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{DC8DDCEF-7662-41F7-BE0F-94E8D205AE2D}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{807FD280-EF68-4C13-9BEC-EAB24F8ACF3F}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{3FC8A48C-BF0F-4E2E-9A6B-2BE0C113A322}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{FD97E57A-9E13-4476-941A-EB218C8C5491}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{BF5B463B-BE7C-4435-A5B8-FA6629A49A8D}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{164EF5AE-EBD6-48C8-993B-5CB7B59231E3}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{28E9CB51-3C70-4682-8ADA-96CA1A70A805}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{07DFC8A9-1BDB-4BF1-AF5D-3D2C35A59D02}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{67CBC844-6F42-43A1-8FF0-E9F0A1E5E9DE}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{6156794A-55D2-4C99-8646-7DA16828F195}">
+      <formula1>$K:$K</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{BB0718B6-3A45-49FD-B523-519C4FB60539}">
+      <formula1>$L:$L</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8740,9 +8938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9042,6 +9240,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{7BA29C73-CA57-4C03-9F32-EC3D385B62E4}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{79EF27A9-C49C-41F5-B991-0019F9CAEFD5}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{75CC2FDE-7441-4559-B76B-F6086A9B00E6}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{92F375BD-BCE7-4F19-ADEF-829DF4677447}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{A98A5642-D676-48CD-8D37-103BDA4861E9}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{C9B71397-EEF1-447E-BABB-5918A1568D86}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{186C3DE1-C8AA-47BD-B1B7-7E48616CF8E4}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{6655C778-9A89-496B-A3DA-2174C4CA7178}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{8575E0E1-081D-420D-9D49-0FD9E91437BC}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -9052,13 +9279,19 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="5" max="5" width="9" style="44"/>
-    <col min="6" max="6" width="9" style="50"/>
+    <col min="6" max="6" width="19.25" style="50" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
@@ -9092,6 +9325,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{E9E1E4E0-F27C-430B-97B0-EC0197391299}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{BA85F0CB-5FB5-4CBF-96A0-BDC11C8EA118}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{44EF303E-2222-4D90-837D-1FA9DD5556FA}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{E4CF64EF-8CA3-44A6-B129-507A686FB497}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{4060E3D8-EA42-47D3-AA6D-8B5BABDFB6AE}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{F53CDC77-9BF3-47BF-A53B-1F1FC03CAD0A}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{A8F8F831-C4EB-4BBC-9C0F-EE40471DA6F4}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{A7D44F0A-1DD6-4013-9C24-CB5187343674}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{4773A13F-4B8E-4EF4-8BD3-5EC9D708BC3A}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9305,7 +9567,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9354,6 +9616,38 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{9064C04D-6A7A-4CB8-810B-B4D255B6EA53}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{ECF7D013-D496-4F04-AC41-8818AE8A2410}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{08F65DEF-966E-4751-BE85-D4E484C6535B}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{2E4A4D50-489D-412E-9359-4E8420D5F487}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{F158AD8B-671A-493A-8A9C-8761682331A3}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{DC4CF800-A7A3-49A2-B388-84170E6B229F}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{E68928AA-5E8A-4B08-80E3-02C305A90B13}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{D1572D47-6A07-409B-A127-85F052040DB9}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{620073B9-1EB7-4B81-8896-F1B9FEFC4D34}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{CDC6982B-F1A2-497D-AD7A-1877339F7EE3}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9429,8 +9723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9491,6 +9785,50 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{6EC58391-D6A5-4A6B-8CD8-63C7096FFD57}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{C78851B0-19A9-4CF6-8A99-B099543B0F57}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{F5CC629D-4F20-42BE-A93F-DB188DEBB0AA}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{4642BEB3-09FB-48A1-9E22-004868002057}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{1B07CB41-9753-4855-A829-05A85ED72E66}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{65440D36-AAF4-40FC-8877-ABADBFA23449}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{C0590146-5FF1-44F5-A578-070688BAA8AF}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{5CED00CA-B4A4-4460-B319-147778BED3D3}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{1332BF42-1767-46F4-8D7E-32066BBB32F5}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{56A94B98-833C-4C68-8606-FC82050CE106}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{E07260DD-9C74-48C3-88EE-6FDC6B15AC5E}">
+      <formula1>$K:$K</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{E34557B3-9BD2-46AD-AF2F-86804EC15E55}">
+      <formula1>$L:$L</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{B330A145-B89E-4485-BAE2-027E0CB272E6}">
+      <formula1>$M:$M</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1" xr:uid="{7231AA8C-CD67-477B-8906-EA7589EEDAEC}">
+      <formula1>$N:$N</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9502,7 +9840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9546,6 +9884,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{D7AC643F-E16F-4719-839F-2B62327235B7}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{55704EA9-F0AF-403E-964E-37575CD92210}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{1013E20B-33CC-44C1-A9BD-CFC479397B80}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{321E9983-DC38-4310-8626-25CDDE12AD68}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{A188EAF5-5746-4B52-ACD9-7DF5EF7DDE88}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{AB5ADC05-E1DC-4C4A-B46A-97F64830A86F}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{F6E0EEEE-EC88-44F9-BABA-25EA66C89181}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{419A8E3A-A521-4985-9417-82416EBB6FB0}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{0E4E71C4-EBEB-434F-8598-2EE729C8C2C6}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9556,7 +9923,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9603,6 +9970,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{CC980595-B6F3-443E-996B-EC80A7C8DF99}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{BAC4FE18-C52E-4EAE-BDD0-737FBC6D0957}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{B91935D8-C5C6-4414-BB90-6B14ABB7225F}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{675E6D7C-EF84-4CC6-82AD-8FC440D4A9AB}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{F0A959CA-C369-49C7-94AB-973693871F10}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{2EB0006B-764C-477C-B1C7-6CAE3E865BD3}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{C5B9B148-1F0B-430E-9B59-77CF910B5117}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{9CBC2F21-F074-4663-9DDB-C4C9DAFFC179}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{3D6F482F-9F41-4ECF-A287-6CF5BB450B05}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9613,7 +10009,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9657,6 +10053,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{13B98243-E52F-4899-91A1-813EE4779986}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{8E2A9AD5-F520-4B30-82C1-A564347C3701}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{B4D60514-9508-4A67-99DA-4550429D5F0F}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{6474F451-50A5-4B50-A4EC-B0336652C01E}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{7EDB70BD-448C-404A-938D-849B9651230F}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{5AB1D009-7E26-43BA-9019-3A0C098C55CB}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{DC32ED69-413D-4BBF-80A6-DA4629B4E492}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{C62D4148-3F78-4F5C-85CC-00C23FDA64A3}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{2D090CD8-D65A-419F-9008-FA6481E44852}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9773,7 +10198,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9819,6 +10244,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{088A2E9F-8CEE-439D-9C0B-46B691B6C89A}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{A1C98953-4262-4AA1-AAA5-859AA53B558D}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{DE231B06-E0FC-406B-A41E-579219C1AAB8}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{6384D9F3-84B8-426A-A6C8-E0E864FF3B15}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{F5BB68D3-36FB-4017-8F65-EBA6C6489C34}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{AEDF2637-6503-4497-969B-3FC9143D8BB5}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{70139192-445F-4286-97F1-86159786AEBD}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{C215B5A5-A91B-4C78-989B-FA17ABE5BDC1}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{D246ADE2-6C89-4A49-A0A8-D5F0443CF997}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9828,9 +10282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9881,6 +10335,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{3EF9F0E0-C71F-4555-8087-76ED040069D2}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{8E17E356-9639-4718-855A-17FAEC5A53BD}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{949F0D8C-B161-4CCB-BFE0-9F3575814663}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{D9337600-7A8F-4666-8E86-234A6282BF24}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{3DF742B4-9B31-4A6E-87D3-B693344846B2}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{BF8D8A55-E871-4A5E-8CC5-EE0662954B4C}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{DCD1D38E-72C0-4926-9F48-33263B9C03C6}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{989E9F39-451B-4D1E-84B4-86B21E1AF572}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{3651AD6A-8250-48DE-85EE-387EE428B804}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9892,7 +10375,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9948,6 +10431,44 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{823DDA48-F460-44EE-9D26-D72894E6B2BC}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{C4BE759E-5807-4042-8D36-67D494D32159}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{B4D14DBB-F2B1-44AF-84F6-01EAABB9D271}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{623CC648-E3CC-4B9B-B965-0282DF029A40}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{C91F3846-0B8A-4724-B9C7-45E482DC0CF1}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{F63C55DC-DE2A-4A48-A1A2-84BD79E4E137}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{126EEA34-E967-4620-BE32-F05CF6182ED8}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{D94E7D97-3A6B-4D43-AC23-FD83258203D5}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{6F4A95C0-A432-4843-A521-B491CF3079A7}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{B9802CC7-308E-417C-AE21-B7C1B0ED9838}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{D71BA676-C5FA-4077-B839-A92E800FFC76}">
+      <formula1>$K:$K</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{42BFED48-D666-425B-8603-ABB6B0BD4A90}">
+      <formula1>$L:$L</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9958,7 +10479,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9988,7 +10509,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>6</v>
@@ -10002,6 +10523,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{32B8A555-952A-4795-801F-253D64E99CE3}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{07C798C2-3BBC-4878-9715-D31B687A8FC4}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{06CD5F6A-7DB5-4112-A01E-04C99C5F3770}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{821054AB-8329-4FFC-9D97-CE699AD58863}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{91EBDB1A-D4A7-485C-A2E0-BB71852602ED}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{9EED56C9-581A-472C-9BE8-875C9641CF73}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{9E502D94-7B0D-461D-A6A9-AECC4D2939B3}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{83A5C93D-C765-4BC0-AE4A-1CE5382B963E}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{095F8E32-43E7-40A0-876B-BAF4B507F120}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -10011,9 +10561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10057,6 +10607,35 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{D5F9A3B5-344F-471F-9722-CC854AE41FF7}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{1D7DC245-D605-4FF9-8080-A37B56B91F5D}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{2E936BD4-D24E-4519-830C-E6EFF2A3EFAA}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{38DEE3FA-7781-4C49-8312-ADC7B03D2E64}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{645C8D83-587A-422F-A40D-319B9802B781}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{000FC4A7-0967-4ED8-A364-B23CDB2F0BF7}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{2A0B3242-AE1D-4E21-AAA3-C6C3E46C369C}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{32CC7260-1F4B-43EE-8743-C45C5DF79961}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{499571EA-728F-4EEC-A02D-EABF753F71BE}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4A078C-78D2-4608-9189-62B638CD37F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520F5F5F-84A0-4775-A42F-CE1AF933CBBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -46,14 +46,14 @@
     <pivotCache cacheId="1" r:id="rId28"/>
     <pivotCache cacheId="2" r:id="rId29"/>
     <pivotCache cacheId="3" r:id="rId30"/>
-    <pivotCache cacheId="4" r:id="rId31"/>
-    <pivotCache cacheId="5" r:id="rId32"/>
+    <pivotCache cacheId="5" r:id="rId31"/>
+    <pivotCache cacheId="19" r:id="rId32"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="83">
   <si>
     <t>事项</t>
   </si>
@@ -352,6 +352,13 @@
     <t>行号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均值项:CPU</t>
+  </si>
 </sst>
 </file>
 
@@ -559,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -737,6 +744,9 @@
     <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -778,11 +788,11 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -793,11 +803,11 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -807,6 +817,21 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -877,21 +902,6 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="815557440"/>
-        <c:axId val="815552192"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -907,17 +917,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>内存分析!$A$4:$A$5</c:f>
@@ -938,29 +946,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9035-4A76-A74F-165023A87D2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="588775688"/>
-        <c:axId val="588776672"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -976,17 +967,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>内存分析!$A$4:$A$5</c:f>
@@ -1007,10 +996,59 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9035-4A76-A74F-165023A87D2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>内存分析!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均值项:CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>内存分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt;1905/1/1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>内存分析!$E$4:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8A5-4B43-869B-3E1834013E5D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1022,118 +1060,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="219"/>
         <c:axId val="815557440"/>
         <c:axId val="815552192"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="588775688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="588776672"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="588776672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="588775688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+      </c:barChart>
       <c:valAx>
         <c:axId val="815552192"/>
         <c:scaling>
@@ -5190,11 +5120,480 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43467.697310416668" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{485EDB88-9D69-45B0-8E71-3C3DEEC2B5A6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43474.62953622685" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{2C1B0F87-52ED-4D69-956F-6E565F922272}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E1048576" sheet="内存"/>
+    <worksheetSource ref="A1:N1048576" sheet="Performance原始"/>
   </cacheSource>
-  <cacheFields count="8">
+  <cacheFields count="15">
+    <cacheField name="日志时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="IP地址" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="请求发送时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="请求接收时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1905-01-01T00:00:00" maxDate="1905-01-01T00:00:00" count="1">
+        <m/>
+      </sharedItems>
+      <fieldGroup par="14" base="3">
+        <rangePr groupBy="hours" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="26">
+          <s v="(空白)"/>
+          <s v="0时"/>
+          <s v="1时"/>
+          <s v="2时"/>
+          <s v="3时"/>
+          <s v="4时"/>
+          <s v="5时"/>
+          <s v="6时"/>
+          <s v="7时"/>
+          <s v="8时"/>
+          <s v="9时"/>
+          <s v="10时"/>
+          <s v="11时"/>
+          <s v="12时"/>
+          <s v="13时"/>
+          <s v="14时"/>
+          <s v="15时"/>
+          <s v="16时"/>
+          <s v="17时"/>
+          <s v="18时"/>
+          <s v="19时"/>
+          <s v="20时"/>
+          <s v="21时"/>
+          <s v="22时"/>
+          <s v="23时"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="响应发送时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="响应接受时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="耗时" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="请求路径" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="方法名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="请求流长度" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="响应流长度" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="消息" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日志文件名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="行号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日" numFmtId="0" databaseField="0">
+      <fieldGroup base="3">
+        <rangePr groupBy="days" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;1905/1/1"/>
+          <s v="1月1日"/>
+          <s v="1月2日"/>
+          <s v="1月3日"/>
+          <s v="1月4日"/>
+          <s v="1月5日"/>
+          <s v="1月6日"/>
+          <s v="1月7日"/>
+          <s v="1月8日"/>
+          <s v="1月9日"/>
+          <s v="1月10日"/>
+          <s v="1月11日"/>
+          <s v="1月12日"/>
+          <s v="1月13日"/>
+          <s v="1月14日"/>
+          <s v="1月15日"/>
+          <s v="1月16日"/>
+          <s v="1月17日"/>
+          <s v="1月18日"/>
+          <s v="1月19日"/>
+          <s v="1月20日"/>
+          <s v="1月21日"/>
+          <s v="1月22日"/>
+          <s v="1月23日"/>
+          <s v="1月24日"/>
+          <s v="1月25日"/>
+          <s v="1月26日"/>
+          <s v="1月27日"/>
+          <s v="1月28日"/>
+          <s v="1月29日"/>
+          <s v="1月30日"/>
+          <s v="1月31日"/>
+          <s v="2月1日"/>
+          <s v="2月2日"/>
+          <s v="2月3日"/>
+          <s v="2月4日"/>
+          <s v="2月5日"/>
+          <s v="2月6日"/>
+          <s v="2月7日"/>
+          <s v="2月8日"/>
+          <s v="2月9日"/>
+          <s v="2月10日"/>
+          <s v="2月11日"/>
+          <s v="2月12日"/>
+          <s v="2月13日"/>
+          <s v="2月14日"/>
+          <s v="2月15日"/>
+          <s v="2月16日"/>
+          <s v="2月17日"/>
+          <s v="2月18日"/>
+          <s v="2月19日"/>
+          <s v="2月20日"/>
+          <s v="2月21日"/>
+          <s v="2月22日"/>
+          <s v="2月23日"/>
+          <s v="2月24日"/>
+          <s v="2月25日"/>
+          <s v="2月26日"/>
+          <s v="2月27日"/>
+          <s v="2月28日"/>
+          <s v="2月29日"/>
+          <s v="3月1日"/>
+          <s v="3月2日"/>
+          <s v="3月3日"/>
+          <s v="3月4日"/>
+          <s v="3月5日"/>
+          <s v="3月6日"/>
+          <s v="3月7日"/>
+          <s v="3月8日"/>
+          <s v="3月9日"/>
+          <s v="3月10日"/>
+          <s v="3月11日"/>
+          <s v="3月12日"/>
+          <s v="3月13日"/>
+          <s v="3月14日"/>
+          <s v="3月15日"/>
+          <s v="3月16日"/>
+          <s v="3月17日"/>
+          <s v="3月18日"/>
+          <s v="3月19日"/>
+          <s v="3月20日"/>
+          <s v="3月21日"/>
+          <s v="3月22日"/>
+          <s v="3月23日"/>
+          <s v="3月24日"/>
+          <s v="3月25日"/>
+          <s v="3月26日"/>
+          <s v="3月27日"/>
+          <s v="3月28日"/>
+          <s v="3月29日"/>
+          <s v="3月30日"/>
+          <s v="3月31日"/>
+          <s v="4月1日"/>
+          <s v="4月2日"/>
+          <s v="4月3日"/>
+          <s v="4月4日"/>
+          <s v="4月5日"/>
+          <s v="4月6日"/>
+          <s v="4月7日"/>
+          <s v="4月8日"/>
+          <s v="4月9日"/>
+          <s v="4月10日"/>
+          <s v="4月11日"/>
+          <s v="4月12日"/>
+          <s v="4月13日"/>
+          <s v="4月14日"/>
+          <s v="4月15日"/>
+          <s v="4月16日"/>
+          <s v="4月17日"/>
+          <s v="4月18日"/>
+          <s v="4月19日"/>
+          <s v="4月20日"/>
+          <s v="4月21日"/>
+          <s v="4月22日"/>
+          <s v="4月23日"/>
+          <s v="4月24日"/>
+          <s v="4月25日"/>
+          <s v="4月26日"/>
+          <s v="4月27日"/>
+          <s v="4月28日"/>
+          <s v="4月29日"/>
+          <s v="4月30日"/>
+          <s v="5月1日"/>
+          <s v="5月2日"/>
+          <s v="5月3日"/>
+          <s v="5月4日"/>
+          <s v="5月5日"/>
+          <s v="5月6日"/>
+          <s v="5月7日"/>
+          <s v="5月8日"/>
+          <s v="5月9日"/>
+          <s v="5月10日"/>
+          <s v="5月11日"/>
+          <s v="5月12日"/>
+          <s v="5月13日"/>
+          <s v="5月14日"/>
+          <s v="5月15日"/>
+          <s v="5月16日"/>
+          <s v="5月17日"/>
+          <s v="5月18日"/>
+          <s v="5月19日"/>
+          <s v="5月20日"/>
+          <s v="5月21日"/>
+          <s v="5月22日"/>
+          <s v="5月23日"/>
+          <s v="5月24日"/>
+          <s v="5月25日"/>
+          <s v="5月26日"/>
+          <s v="5月27日"/>
+          <s v="5月28日"/>
+          <s v="5月29日"/>
+          <s v="5月30日"/>
+          <s v="5月31日"/>
+          <s v="6月1日"/>
+          <s v="6月2日"/>
+          <s v="6月3日"/>
+          <s v="6月4日"/>
+          <s v="6月5日"/>
+          <s v="6月6日"/>
+          <s v="6月7日"/>
+          <s v="6月8日"/>
+          <s v="6月9日"/>
+          <s v="6月10日"/>
+          <s v="6月11日"/>
+          <s v="6月12日"/>
+          <s v="6月13日"/>
+          <s v="6月14日"/>
+          <s v="6月15日"/>
+          <s v="6月16日"/>
+          <s v="6月17日"/>
+          <s v="6月18日"/>
+          <s v="6月19日"/>
+          <s v="6月20日"/>
+          <s v="6月21日"/>
+          <s v="6月22日"/>
+          <s v="6月23日"/>
+          <s v="6月24日"/>
+          <s v="6月25日"/>
+          <s v="6月26日"/>
+          <s v="6月27日"/>
+          <s v="6月28日"/>
+          <s v="6月29日"/>
+          <s v="6月30日"/>
+          <s v="7月1日"/>
+          <s v="7月2日"/>
+          <s v="7月3日"/>
+          <s v="7月4日"/>
+          <s v="7月5日"/>
+          <s v="7月6日"/>
+          <s v="7月7日"/>
+          <s v="7月8日"/>
+          <s v="7月9日"/>
+          <s v="7月10日"/>
+          <s v="7月11日"/>
+          <s v="7月12日"/>
+          <s v="7月13日"/>
+          <s v="7月14日"/>
+          <s v="7月15日"/>
+          <s v="7月16日"/>
+          <s v="7月17日"/>
+          <s v="7月18日"/>
+          <s v="7月19日"/>
+          <s v="7月20日"/>
+          <s v="7月21日"/>
+          <s v="7月22日"/>
+          <s v="7月23日"/>
+          <s v="7月24日"/>
+          <s v="7月25日"/>
+          <s v="7月26日"/>
+          <s v="7月27日"/>
+          <s v="7月28日"/>
+          <s v="7月29日"/>
+          <s v="7月30日"/>
+          <s v="7月31日"/>
+          <s v="8月1日"/>
+          <s v="8月2日"/>
+          <s v="8月3日"/>
+          <s v="8月4日"/>
+          <s v="8月5日"/>
+          <s v="8月6日"/>
+          <s v="8月7日"/>
+          <s v="8月8日"/>
+          <s v="8月9日"/>
+          <s v="8月10日"/>
+          <s v="8月11日"/>
+          <s v="8月12日"/>
+          <s v="8月13日"/>
+          <s v="8月14日"/>
+          <s v="8月15日"/>
+          <s v="8月16日"/>
+          <s v="8月17日"/>
+          <s v="8月18日"/>
+          <s v="8月19日"/>
+          <s v="8月20日"/>
+          <s v="8月21日"/>
+          <s v="8月22日"/>
+          <s v="8月23日"/>
+          <s v="8月24日"/>
+          <s v="8月25日"/>
+          <s v="8月26日"/>
+          <s v="8月27日"/>
+          <s v="8月28日"/>
+          <s v="8月29日"/>
+          <s v="8月30日"/>
+          <s v="8月31日"/>
+          <s v="9月1日"/>
+          <s v="9月2日"/>
+          <s v="9月3日"/>
+          <s v="9月4日"/>
+          <s v="9月5日"/>
+          <s v="9月6日"/>
+          <s v="9月7日"/>
+          <s v="9月8日"/>
+          <s v="9月9日"/>
+          <s v="9月10日"/>
+          <s v="9月11日"/>
+          <s v="9月12日"/>
+          <s v="9月13日"/>
+          <s v="9月14日"/>
+          <s v="9月15日"/>
+          <s v="9月16日"/>
+          <s v="9月17日"/>
+          <s v="9月18日"/>
+          <s v="9月19日"/>
+          <s v="9月20日"/>
+          <s v="9月21日"/>
+          <s v="9月22日"/>
+          <s v="9月23日"/>
+          <s v="9月24日"/>
+          <s v="9月25日"/>
+          <s v="9月26日"/>
+          <s v="9月27日"/>
+          <s v="9月28日"/>
+          <s v="9月29日"/>
+          <s v="9月30日"/>
+          <s v="10月1日"/>
+          <s v="10月2日"/>
+          <s v="10月3日"/>
+          <s v="10月4日"/>
+          <s v="10月5日"/>
+          <s v="10月6日"/>
+          <s v="10月7日"/>
+          <s v="10月8日"/>
+          <s v="10月9日"/>
+          <s v="10月10日"/>
+          <s v="10月11日"/>
+          <s v="10月12日"/>
+          <s v="10月13日"/>
+          <s v="10月14日"/>
+          <s v="10月15日"/>
+          <s v="10月16日"/>
+          <s v="10月17日"/>
+          <s v="10月18日"/>
+          <s v="10月19日"/>
+          <s v="10月20日"/>
+          <s v="10月21日"/>
+          <s v="10月22日"/>
+          <s v="10月23日"/>
+          <s v="10月24日"/>
+          <s v="10月25日"/>
+          <s v="10月26日"/>
+          <s v="10月27日"/>
+          <s v="10月28日"/>
+          <s v="10月29日"/>
+          <s v="10月30日"/>
+          <s v="10月31日"/>
+          <s v="11月1日"/>
+          <s v="11月2日"/>
+          <s v="11月3日"/>
+          <s v="11月4日"/>
+          <s v="11月5日"/>
+          <s v="11月6日"/>
+          <s v="11月7日"/>
+          <s v="11月8日"/>
+          <s v="11月9日"/>
+          <s v="11月10日"/>
+          <s v="11月11日"/>
+          <s v="11月12日"/>
+          <s v="11月13日"/>
+          <s v="11月14日"/>
+          <s v="11月15日"/>
+          <s v="11月16日"/>
+          <s v="11月17日"/>
+          <s v="11月18日"/>
+          <s v="11月19日"/>
+          <s v="11月20日"/>
+          <s v="11月21日"/>
+          <s v="11月22日"/>
+          <s v="11月23日"/>
+          <s v="11月24日"/>
+          <s v="11月25日"/>
+          <s v="11月26日"/>
+          <s v="11月27日"/>
+          <s v="11月28日"/>
+          <s v="11月29日"/>
+          <s v="11月30日"/>
+          <s v="12月1日"/>
+          <s v="12月2日"/>
+          <s v="12月3日"/>
+          <s v="12月4日"/>
+          <s v="12月5日"/>
+          <s v="12月6日"/>
+          <s v="12月7日"/>
+          <s v="12月8日"/>
+          <s v="12月9日"/>
+          <s v="12月10日"/>
+          <s v="12月11日"/>
+          <s v="12月12日"/>
+          <s v="12月13日"/>
+          <s v="12月14日"/>
+          <s v="12月15日"/>
+          <s v="12月16日"/>
+          <s v="12月17日"/>
+          <s v="12月18日"/>
+          <s v="12月19日"/>
+          <s v="12月20日"/>
+          <s v="12月21日"/>
+          <s v="12月22日"/>
+          <s v="12月23日"/>
+          <s v="12月24日"/>
+          <s v="12月25日"/>
+          <s v="12月26日"/>
+          <s v="12月27日"/>
+          <s v="12月28日"/>
+          <s v="12月29日"/>
+          <s v="12月30日"/>
+          <s v="12月31日"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43476.645009490741" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{E1926D0F-CF6B-45E4-84F9-CC6D58AABFB9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F1048576" sheet="内存"/>
+  </cacheSource>
+  <cacheFields count="9">
     <cacheField name="事项" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
@@ -5208,7 +5607,7 @@
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1905-01-01T00:00:00" maxDate="1905-01-01T00:00:00" count="1">
         <m/>
       </sharedItems>
-      <fieldGroup par="7" base="3">
+      <fieldGroup par="8" base="3">
         <rangePr groupBy="seconds" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
         <groupItems count="62">
           <s v="(空白)"/>
@@ -5277,6 +5676,9 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="内存" numFmtId="176">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CPU" numFmtId="176">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="分" numFmtId="0" databaseField="0">
@@ -5765,475 +6167,6 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43474.62953622685" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{2C1B0F87-52ED-4D69-956F-6E565F922272}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N1048576" sheet="Performance原始"/>
-  </cacheSource>
-  <cacheFields count="15">
-    <cacheField name="日志时间" numFmtId="181">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="IP地址" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="请求发送时间" numFmtId="181">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="请求接收时间" numFmtId="181">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1905-01-01T00:00:00" maxDate="1905-01-01T00:00:00" count="1">
-        <m/>
-      </sharedItems>
-      <fieldGroup par="14" base="3">
-        <rangePr groupBy="hours" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
-        <groupItems count="26">
-          <s v="(空白)"/>
-          <s v="0时"/>
-          <s v="1时"/>
-          <s v="2时"/>
-          <s v="3时"/>
-          <s v="4时"/>
-          <s v="5时"/>
-          <s v="6时"/>
-          <s v="7时"/>
-          <s v="8时"/>
-          <s v="9时"/>
-          <s v="10时"/>
-          <s v="11时"/>
-          <s v="12时"/>
-          <s v="13时"/>
-          <s v="14时"/>
-          <s v="15时"/>
-          <s v="16时"/>
-          <s v="17时"/>
-          <s v="18时"/>
-          <s v="19时"/>
-          <s v="20时"/>
-          <s v="21时"/>
-          <s v="22时"/>
-          <s v="23时"/>
-          <s v="&gt;1905/1/1"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="响应发送时间" numFmtId="181">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="响应接受时间" numFmtId="181">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="耗时" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="请求路径" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="方法名称" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="请求流长度" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="响应流长度" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="消息" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="日志文件名称" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="行号" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="日" numFmtId="0" databaseField="0">
-      <fieldGroup base="3">
-        <rangePr groupBy="days" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
-        <groupItems count="368">
-          <s v="&lt;1905/1/1"/>
-          <s v="1月1日"/>
-          <s v="1月2日"/>
-          <s v="1月3日"/>
-          <s v="1月4日"/>
-          <s v="1月5日"/>
-          <s v="1月6日"/>
-          <s v="1月7日"/>
-          <s v="1月8日"/>
-          <s v="1月9日"/>
-          <s v="1月10日"/>
-          <s v="1月11日"/>
-          <s v="1月12日"/>
-          <s v="1月13日"/>
-          <s v="1月14日"/>
-          <s v="1月15日"/>
-          <s v="1月16日"/>
-          <s v="1月17日"/>
-          <s v="1月18日"/>
-          <s v="1月19日"/>
-          <s v="1月20日"/>
-          <s v="1月21日"/>
-          <s v="1月22日"/>
-          <s v="1月23日"/>
-          <s v="1月24日"/>
-          <s v="1月25日"/>
-          <s v="1月26日"/>
-          <s v="1月27日"/>
-          <s v="1月28日"/>
-          <s v="1月29日"/>
-          <s v="1月30日"/>
-          <s v="1月31日"/>
-          <s v="2月1日"/>
-          <s v="2月2日"/>
-          <s v="2月3日"/>
-          <s v="2月4日"/>
-          <s v="2月5日"/>
-          <s v="2月6日"/>
-          <s v="2月7日"/>
-          <s v="2月8日"/>
-          <s v="2月9日"/>
-          <s v="2月10日"/>
-          <s v="2月11日"/>
-          <s v="2月12日"/>
-          <s v="2月13日"/>
-          <s v="2月14日"/>
-          <s v="2月15日"/>
-          <s v="2月16日"/>
-          <s v="2月17日"/>
-          <s v="2月18日"/>
-          <s v="2月19日"/>
-          <s v="2月20日"/>
-          <s v="2月21日"/>
-          <s v="2月22日"/>
-          <s v="2月23日"/>
-          <s v="2月24日"/>
-          <s v="2月25日"/>
-          <s v="2月26日"/>
-          <s v="2月27日"/>
-          <s v="2月28日"/>
-          <s v="2月29日"/>
-          <s v="3月1日"/>
-          <s v="3月2日"/>
-          <s v="3月3日"/>
-          <s v="3月4日"/>
-          <s v="3月5日"/>
-          <s v="3月6日"/>
-          <s v="3月7日"/>
-          <s v="3月8日"/>
-          <s v="3月9日"/>
-          <s v="3月10日"/>
-          <s v="3月11日"/>
-          <s v="3月12日"/>
-          <s v="3月13日"/>
-          <s v="3月14日"/>
-          <s v="3月15日"/>
-          <s v="3月16日"/>
-          <s v="3月17日"/>
-          <s v="3月18日"/>
-          <s v="3月19日"/>
-          <s v="3月20日"/>
-          <s v="3月21日"/>
-          <s v="3月22日"/>
-          <s v="3月23日"/>
-          <s v="3月24日"/>
-          <s v="3月25日"/>
-          <s v="3月26日"/>
-          <s v="3月27日"/>
-          <s v="3月28日"/>
-          <s v="3月29日"/>
-          <s v="3月30日"/>
-          <s v="3月31日"/>
-          <s v="4月1日"/>
-          <s v="4月2日"/>
-          <s v="4月3日"/>
-          <s v="4月4日"/>
-          <s v="4月5日"/>
-          <s v="4月6日"/>
-          <s v="4月7日"/>
-          <s v="4月8日"/>
-          <s v="4月9日"/>
-          <s v="4月10日"/>
-          <s v="4月11日"/>
-          <s v="4月12日"/>
-          <s v="4月13日"/>
-          <s v="4月14日"/>
-          <s v="4月15日"/>
-          <s v="4月16日"/>
-          <s v="4月17日"/>
-          <s v="4月18日"/>
-          <s v="4月19日"/>
-          <s v="4月20日"/>
-          <s v="4月21日"/>
-          <s v="4月22日"/>
-          <s v="4月23日"/>
-          <s v="4月24日"/>
-          <s v="4月25日"/>
-          <s v="4月26日"/>
-          <s v="4月27日"/>
-          <s v="4月28日"/>
-          <s v="4月29日"/>
-          <s v="4月30日"/>
-          <s v="5月1日"/>
-          <s v="5月2日"/>
-          <s v="5月3日"/>
-          <s v="5月4日"/>
-          <s v="5月5日"/>
-          <s v="5月6日"/>
-          <s v="5月7日"/>
-          <s v="5月8日"/>
-          <s v="5月9日"/>
-          <s v="5月10日"/>
-          <s v="5月11日"/>
-          <s v="5月12日"/>
-          <s v="5月13日"/>
-          <s v="5月14日"/>
-          <s v="5月15日"/>
-          <s v="5月16日"/>
-          <s v="5月17日"/>
-          <s v="5月18日"/>
-          <s v="5月19日"/>
-          <s v="5月20日"/>
-          <s v="5月21日"/>
-          <s v="5月22日"/>
-          <s v="5月23日"/>
-          <s v="5月24日"/>
-          <s v="5月25日"/>
-          <s v="5月26日"/>
-          <s v="5月27日"/>
-          <s v="5月28日"/>
-          <s v="5月29日"/>
-          <s v="5月30日"/>
-          <s v="5月31日"/>
-          <s v="6月1日"/>
-          <s v="6月2日"/>
-          <s v="6月3日"/>
-          <s v="6月4日"/>
-          <s v="6月5日"/>
-          <s v="6月6日"/>
-          <s v="6月7日"/>
-          <s v="6月8日"/>
-          <s v="6月9日"/>
-          <s v="6月10日"/>
-          <s v="6月11日"/>
-          <s v="6月12日"/>
-          <s v="6月13日"/>
-          <s v="6月14日"/>
-          <s v="6月15日"/>
-          <s v="6月16日"/>
-          <s v="6月17日"/>
-          <s v="6月18日"/>
-          <s v="6月19日"/>
-          <s v="6月20日"/>
-          <s v="6月21日"/>
-          <s v="6月22日"/>
-          <s v="6月23日"/>
-          <s v="6月24日"/>
-          <s v="6月25日"/>
-          <s v="6月26日"/>
-          <s v="6月27日"/>
-          <s v="6月28日"/>
-          <s v="6月29日"/>
-          <s v="6月30日"/>
-          <s v="7月1日"/>
-          <s v="7月2日"/>
-          <s v="7月3日"/>
-          <s v="7月4日"/>
-          <s v="7月5日"/>
-          <s v="7月6日"/>
-          <s v="7月7日"/>
-          <s v="7月8日"/>
-          <s v="7月9日"/>
-          <s v="7月10日"/>
-          <s v="7月11日"/>
-          <s v="7月12日"/>
-          <s v="7月13日"/>
-          <s v="7月14日"/>
-          <s v="7月15日"/>
-          <s v="7月16日"/>
-          <s v="7月17日"/>
-          <s v="7月18日"/>
-          <s v="7月19日"/>
-          <s v="7月20日"/>
-          <s v="7月21日"/>
-          <s v="7月22日"/>
-          <s v="7月23日"/>
-          <s v="7月24日"/>
-          <s v="7月25日"/>
-          <s v="7月26日"/>
-          <s v="7月27日"/>
-          <s v="7月28日"/>
-          <s v="7月29日"/>
-          <s v="7月30日"/>
-          <s v="7月31日"/>
-          <s v="8月1日"/>
-          <s v="8月2日"/>
-          <s v="8月3日"/>
-          <s v="8月4日"/>
-          <s v="8月5日"/>
-          <s v="8月6日"/>
-          <s v="8月7日"/>
-          <s v="8月8日"/>
-          <s v="8月9日"/>
-          <s v="8月10日"/>
-          <s v="8月11日"/>
-          <s v="8月12日"/>
-          <s v="8月13日"/>
-          <s v="8月14日"/>
-          <s v="8月15日"/>
-          <s v="8月16日"/>
-          <s v="8月17日"/>
-          <s v="8月18日"/>
-          <s v="8月19日"/>
-          <s v="8月20日"/>
-          <s v="8月21日"/>
-          <s v="8月22日"/>
-          <s v="8月23日"/>
-          <s v="8月24日"/>
-          <s v="8月25日"/>
-          <s v="8月26日"/>
-          <s v="8月27日"/>
-          <s v="8月28日"/>
-          <s v="8月29日"/>
-          <s v="8月30日"/>
-          <s v="8月31日"/>
-          <s v="9月1日"/>
-          <s v="9月2日"/>
-          <s v="9月3日"/>
-          <s v="9月4日"/>
-          <s v="9月5日"/>
-          <s v="9月6日"/>
-          <s v="9月7日"/>
-          <s v="9月8日"/>
-          <s v="9月9日"/>
-          <s v="9月10日"/>
-          <s v="9月11日"/>
-          <s v="9月12日"/>
-          <s v="9月13日"/>
-          <s v="9月14日"/>
-          <s v="9月15日"/>
-          <s v="9月16日"/>
-          <s v="9月17日"/>
-          <s v="9月18日"/>
-          <s v="9月19日"/>
-          <s v="9月20日"/>
-          <s v="9月21日"/>
-          <s v="9月22日"/>
-          <s v="9月23日"/>
-          <s v="9月24日"/>
-          <s v="9月25日"/>
-          <s v="9月26日"/>
-          <s v="9月27日"/>
-          <s v="9月28日"/>
-          <s v="9月29日"/>
-          <s v="9月30日"/>
-          <s v="10月1日"/>
-          <s v="10月2日"/>
-          <s v="10月3日"/>
-          <s v="10月4日"/>
-          <s v="10月5日"/>
-          <s v="10月6日"/>
-          <s v="10月7日"/>
-          <s v="10月8日"/>
-          <s v="10月9日"/>
-          <s v="10月10日"/>
-          <s v="10月11日"/>
-          <s v="10月12日"/>
-          <s v="10月13日"/>
-          <s v="10月14日"/>
-          <s v="10月15日"/>
-          <s v="10月16日"/>
-          <s v="10月17日"/>
-          <s v="10月18日"/>
-          <s v="10月19日"/>
-          <s v="10月20日"/>
-          <s v="10月21日"/>
-          <s v="10月22日"/>
-          <s v="10月23日"/>
-          <s v="10月24日"/>
-          <s v="10月25日"/>
-          <s v="10月26日"/>
-          <s v="10月27日"/>
-          <s v="10月28日"/>
-          <s v="10月29日"/>
-          <s v="10月30日"/>
-          <s v="10月31日"/>
-          <s v="11月1日"/>
-          <s v="11月2日"/>
-          <s v="11月3日"/>
-          <s v="11月4日"/>
-          <s v="11月5日"/>
-          <s v="11月6日"/>
-          <s v="11月7日"/>
-          <s v="11月8日"/>
-          <s v="11月9日"/>
-          <s v="11月10日"/>
-          <s v="11月11日"/>
-          <s v="11月12日"/>
-          <s v="11月13日"/>
-          <s v="11月14日"/>
-          <s v="11月15日"/>
-          <s v="11月16日"/>
-          <s v="11月17日"/>
-          <s v="11月18日"/>
-          <s v="11月19日"/>
-          <s v="11月20日"/>
-          <s v="11月21日"/>
-          <s v="11月22日"/>
-          <s v="11月23日"/>
-          <s v="11月24日"/>
-          <s v="11月25日"/>
-          <s v="11月26日"/>
-          <s v="11月27日"/>
-          <s v="11月28日"/>
-          <s v="11月29日"/>
-          <s v="11月30日"/>
-          <s v="12月1日"/>
-          <s v="12月2日"/>
-          <s v="12月3日"/>
-          <s v="12月4日"/>
-          <s v="12月5日"/>
-          <s v="12月6日"/>
-          <s v="12月7日"/>
-          <s v="12月8日"/>
-          <s v="12月9日"/>
-          <s v="12月10日"/>
-          <s v="12月11日"/>
-          <s v="12月12日"/>
-          <s v="12月13日"/>
-          <s v="12月14日"/>
-          <s v="12月15日"/>
-          <s v="12月16日"/>
-          <s v="12月17日"/>
-          <s v="12月18日"/>
-          <s v="12月19日"/>
-          <s v="12月20日"/>
-          <s v="12月21日"/>
-          <s v="12月22日"/>
-          <s v="12月23日"/>
-          <s v="12月24日"/>
-          <s v="12月25日"/>
-          <s v="12月26日"/>
-          <s v="12月27日"/>
-          <s v="12月28日"/>
-          <s v="12月29日"/>
-          <s v="12月30日"/>
-          <s v="12月31日"/>
-          <s v="&gt;1905/1/1"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
@@ -6315,18 +6248,6 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
-  <r>
-    <m/>
     <x v="0"/>
     <m/>
     <x v="0"/>
@@ -6338,6 +6259,19 @@
     <m/>
     <m/>
     <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -6540,9 +6474,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58BE29B3-FC12-4B8E-8498-78CB417F6804}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48CB5F0-0495-4CBC-80C7-ACB002C4C48D}" name="数据透视表1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6613,6 +6547,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0">
       <items count="63">
@@ -7087,7 +7022,7 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="6"/>
+    <field x="7"/>
   </rowFields>
   <rowItems count="2">
     <i>
@@ -7100,7 +7035,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
       <x/>
     </i>
@@ -7110,16 +7045,20 @@
     <i i="2">
       <x v="2"/>
     </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="7" hier="-1"/>
+    <pageField fld="8" hier="-1"/>
   </pageFields>
-  <dataFields count="3">
+  <dataFields count="4">
     <dataField name="求和项:内存" fld="4" baseField="6" baseItem="0"/>
     <dataField name="平均值项:内存" fld="4" subtotal="average" baseField="6" baseItem="0"/>
     <dataField name="计数项:内存" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="平均值项:CPU" fld="5" subtotal="average" baseField="7" baseItem="24"/>
   </dataFields>
-  <chartFormats count="3">
+  <chartFormats count="4">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -7143,6 +7082,15 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -8330,9 +8278,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401842A-9777-4C0B-9C5E-BA7A6B30C54D}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -8342,9 +8290,10 @@
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="18" t="s">
         <v>62</v>
       </c>
@@ -8352,7 +8301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>20</v>
       </c>
@@ -8365,22 +8314,27 @@
       <c r="D3" t="s">
         <v>70</v>
       </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -8395,7 +8349,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8405,6 +8359,7 @@
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="24.75" style="50" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -8423,13 +8378,15 @@
       <c r="E1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="59" t="s">
+        <v>81</v>
+      </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{1A110428-E6CD-4314-BD58-AE92078AE7B3}">
       <formula1>$A:$A</formula1>
     </dataValidation>
@@ -8444,6 +8401,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{82B109A0-A9D3-4814-8555-2B4F490C60F2}">
       <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{717E31E1-D8F8-43C6-AB00-71FD2CD3431C}">
+      <formula1>$F:$F</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8938,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520F5F5F-84A0-4775-A42F-CE1AF933CBBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B31E4B5-F130-4F51-9D7D-21F65BD06206}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -40,20 +40,20 @@
     <sheet name="现金流" sheetId="9" r:id="rId25"/>
     <sheet name="其他" sheetId="17" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId27"/>
     <pivotCache cacheId="1" r:id="rId28"/>
     <pivotCache cacheId="2" r:id="rId29"/>
     <pivotCache cacheId="3" r:id="rId30"/>
-    <pivotCache cacheId="5" r:id="rId31"/>
-    <pivotCache cacheId="19" r:id="rId32"/>
+    <pivotCache cacheId="4" r:id="rId31"/>
+    <pivotCache cacheId="5" r:id="rId32"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="87">
   <si>
     <t>事项</t>
   </si>
@@ -328,9 +328,6 @@
     <t>请求发送时间</t>
   </si>
   <si>
-    <t>请求接收时间</t>
-  </si>
-  <si>
     <t>响应发送时间</t>
   </si>
   <si>
@@ -359,18 +356,39 @@
   <si>
     <t>平均值项:CPU</t>
   </si>
+  <si>
+    <t>响应处理耗时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应网络延时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求接收时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求网络延时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="#,##0_ "/>
     <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="182" formatCode="yyyy/mm/dd\ hh:mm:ss.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -566,7 +584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +763,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5122,7 +5146,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43474.62953622685" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{2C1B0F87-52ED-4D69-956F-6E565F922272}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N1048576" sheet="Performance原始"/>
+    <worksheetSource ref="A1:Q1048576" sheet="Performance原始"/>
   </cacheSource>
   <cacheFields count="15">
     <cacheField name="日志时间" numFmtId="181">
@@ -6474,7 +6498,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48CB5F0-0495-4CBC-80C7-ACB002C4C48D}" name="数据透视表1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48CB5F0-0495-4CBC-80C7-ACB002C4C48D}" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -7320,7 +7344,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -8280,7 +8304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401842A-9777-4C0B-9C5E-BA7A6B30C54D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -8315,7 +8339,7 @@
         <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -8379,7 +8403,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
@@ -8650,7 +8674,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -9681,71 +9705,83 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" style="50" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="6" width="15.5" style="50" customWidth="1"/>
-    <col min="8" max="8" width="20.875" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
-    <col min="10" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
-    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="3" max="6" width="23.625" style="61" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="10" width="12.625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="20.75" customWidth="1"/>
+    <col min="13" max="14" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="10.125" customWidth="1"/>
+    <col min="16" max="16" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="49" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="F1" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="42" t="s">
+      <c r="N1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="42" t="s">
+      <c r="O1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="P1" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="Q1" s="47" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="14">
+  <dataValidations count="17">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{6EC58391-D6A5-4A6B-8CD8-63C7096FFD57}">
       <formula1>$A:$A</formula1>
     </dataValidation>
@@ -9767,26 +9803,35 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{C0590146-5FF1-44F5-A578-070688BAA8AF}">
       <formula1>$G:$G</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{5CED00CA-B4A4-4460-B319-147778BED3D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{5CED00CA-B4A4-4460-B319-147778BED3D3}">
+      <formula1>$K:$K</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{1332BF42-1767-46F4-8D7E-32066BBB32F5}">
+      <formula1>$L:$L</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{56A94B98-833C-4C68-8606-FC82050CE106}">
+      <formula1>$M:$M</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1" xr:uid="{E07260DD-9C74-48C3-88EE-6FDC6B15AC5E}">
+      <formula1>$N:$N</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1" xr:uid="{E34557B3-9BD2-46AD-AF2F-86804EC15E55}">
+      <formula1>$O:$O</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1" xr:uid="{B330A145-B89E-4485-BAE2-027E0CB272E6}">
+      <formula1>$P:$P</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1" xr:uid="{7231AA8C-CD67-477B-8906-EA7589EEDAEC}">
+      <formula1>$Q:$Q</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{49707720-622E-4873-9195-C21996018E62}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{062A13E3-56D6-468E-94E5-21FA762BAB87}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{6B57E482-0BAB-4ED1-964B-080A02264187}">
       <formula1>$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{1332BF42-1767-46F4-8D7E-32066BBB32F5}">
-      <formula1>$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{56A94B98-833C-4C68-8606-FC82050CE106}">
-      <formula1>$J:$J</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{E07260DD-9C74-48C3-88EE-6FDC6B15AC5E}">
-      <formula1>$K:$K</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{E34557B3-9BD2-46AD-AF2F-86804EC15E55}">
-      <formula1>$L:$L</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{B330A145-B89E-4485-BAE2-027E0CB272E6}">
-      <formula1>$M:$M</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1" xr:uid="{7231AA8C-CD67-477B-8906-EA7589EEDAEC}">
-      <formula1>$N:$N</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10469,7 +10514,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>6</v>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B31E4B5-F130-4F51-9D7D-21F65BD06206}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FAB704-A2DA-4CAD-95DC-82A11C7D4959}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -35,25 +35,26 @@
     <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId20"/>
     <sheet name="Performance监视" sheetId="5" r:id="rId21"/>
     <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId22"/>
-    <sheet name="Performance原始" sheetId="26" r:id="rId23"/>
-    <sheet name="交易查询" sheetId="16" r:id="rId24"/>
-    <sheet name="现金流" sheetId="9" r:id="rId25"/>
-    <sheet name="其他" sheetId="17" r:id="rId26"/>
+    <sheet name="Perf方法汇总分析" sheetId="32" r:id="rId23"/>
+    <sheet name="Performance原始" sheetId="26" r:id="rId24"/>
+    <sheet name="交易查询" sheetId="16" r:id="rId25"/>
+    <sheet name="现金流" sheetId="9" r:id="rId26"/>
+    <sheet name="其他" sheetId="17" r:id="rId27"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId27"/>
-    <pivotCache cacheId="1" r:id="rId28"/>
-    <pivotCache cacheId="2" r:id="rId29"/>
-    <pivotCache cacheId="3" r:id="rId30"/>
-    <pivotCache cacheId="4" r:id="rId31"/>
-    <pivotCache cacheId="5" r:id="rId32"/>
+    <pivotCache cacheId="0" r:id="rId28"/>
+    <pivotCache cacheId="1" r:id="rId29"/>
+    <pivotCache cacheId="2" r:id="rId30"/>
+    <pivotCache cacheId="3" r:id="rId31"/>
+    <pivotCache cacheId="4" r:id="rId32"/>
+    <pivotCache cacheId="5" r:id="rId33"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
   <si>
     <t>事项</t>
   </si>
@@ -376,6 +377,21 @@
     <t>耗时</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>求和项:请求流长度</t>
+  </si>
+  <si>
+    <t>求和项:响应流长度</t>
+  </si>
+  <si>
+    <t>平均值项:请求网络延时</t>
+  </si>
+  <si>
+    <t>平均值项:响应处理耗时</t>
+  </si>
+  <si>
+    <t>平均值项:响应网络延时</t>
+  </si>
 </sst>
 </file>
 
@@ -456,6 +472,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2596,6 +2613,834 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf方法汇总分析!数据透视表4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>求和项:耗时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf方法汇总分析!$B$4:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55EF-43FF-A91B-58904BF1EB2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均值项:耗时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf方法汇总分析!$C$4:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-55EF-43FF-A91B-58904BF1EB2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均值项:请求网络延时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf方法汇总分析!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-55EF-43FF-A91B-58904BF1EB2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均值项:响应处理耗时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf方法汇总分析!$E$4:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-55EF-43FF-A91B-58904BF1EB2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均值项:响应网络延时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf方法汇总分析!$F$4:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D278-4ADB-8D69-BC8074E75FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="857906176"/>
+        <c:axId val="857903224"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>求和项:请求流长度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf方法汇总分析!$G$4:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D278-4ADB-8D69-BC8074E75FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>求和项:响应流长度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Perf方法汇总分析!$H$4:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D278-4ADB-8D69-BC8074E75FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="606300760"/>
+        <c:axId val="606297152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="857906176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="857903224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="857903224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="857906176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="606297152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606300760"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="606300760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="606297152"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2756,6 +3601,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4718,6 +5603,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4894,6 +6282,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10BE699-A6DC-4143-9E57-2C16DE7A3917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02425183-4A2F-4F37-B17A-B331528DC2B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5144,475 +6573,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43474.62953622685" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{2C1B0F87-52ED-4D69-956F-6E565F922272}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Q1048576" sheet="Performance原始"/>
-  </cacheSource>
-  <cacheFields count="15">
-    <cacheField name="日志时间" numFmtId="181">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="IP地址" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="请求发送时间" numFmtId="181">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="请求接收时间" numFmtId="181">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1905-01-01T00:00:00" maxDate="1905-01-01T00:00:00" count="1">
-        <m/>
-      </sharedItems>
-      <fieldGroup par="14" base="3">
-        <rangePr groupBy="hours" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
-        <groupItems count="26">
-          <s v="(空白)"/>
-          <s v="0时"/>
-          <s v="1时"/>
-          <s v="2时"/>
-          <s v="3时"/>
-          <s v="4时"/>
-          <s v="5时"/>
-          <s v="6时"/>
-          <s v="7时"/>
-          <s v="8时"/>
-          <s v="9时"/>
-          <s v="10时"/>
-          <s v="11时"/>
-          <s v="12时"/>
-          <s v="13时"/>
-          <s v="14时"/>
-          <s v="15时"/>
-          <s v="16时"/>
-          <s v="17时"/>
-          <s v="18时"/>
-          <s v="19时"/>
-          <s v="20时"/>
-          <s v="21时"/>
-          <s v="22时"/>
-          <s v="23时"/>
-          <s v="&gt;1905/1/1"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="响应发送时间" numFmtId="181">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="响应接受时间" numFmtId="181">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="耗时" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="请求路径" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="方法名称" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="请求流长度" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="响应流长度" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="消息" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="日志文件名称" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="行号" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="日" numFmtId="0" databaseField="0">
-      <fieldGroup base="3">
-        <rangePr groupBy="days" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
-        <groupItems count="368">
-          <s v="&lt;1905/1/1"/>
-          <s v="1月1日"/>
-          <s v="1月2日"/>
-          <s v="1月3日"/>
-          <s v="1月4日"/>
-          <s v="1月5日"/>
-          <s v="1月6日"/>
-          <s v="1月7日"/>
-          <s v="1月8日"/>
-          <s v="1月9日"/>
-          <s v="1月10日"/>
-          <s v="1月11日"/>
-          <s v="1月12日"/>
-          <s v="1月13日"/>
-          <s v="1月14日"/>
-          <s v="1月15日"/>
-          <s v="1月16日"/>
-          <s v="1月17日"/>
-          <s v="1月18日"/>
-          <s v="1月19日"/>
-          <s v="1月20日"/>
-          <s v="1月21日"/>
-          <s v="1月22日"/>
-          <s v="1月23日"/>
-          <s v="1月24日"/>
-          <s v="1月25日"/>
-          <s v="1月26日"/>
-          <s v="1月27日"/>
-          <s v="1月28日"/>
-          <s v="1月29日"/>
-          <s v="1月30日"/>
-          <s v="1月31日"/>
-          <s v="2月1日"/>
-          <s v="2月2日"/>
-          <s v="2月3日"/>
-          <s v="2月4日"/>
-          <s v="2月5日"/>
-          <s v="2月6日"/>
-          <s v="2月7日"/>
-          <s v="2月8日"/>
-          <s v="2月9日"/>
-          <s v="2月10日"/>
-          <s v="2月11日"/>
-          <s v="2月12日"/>
-          <s v="2月13日"/>
-          <s v="2月14日"/>
-          <s v="2月15日"/>
-          <s v="2月16日"/>
-          <s v="2月17日"/>
-          <s v="2月18日"/>
-          <s v="2月19日"/>
-          <s v="2月20日"/>
-          <s v="2月21日"/>
-          <s v="2月22日"/>
-          <s v="2月23日"/>
-          <s v="2月24日"/>
-          <s v="2月25日"/>
-          <s v="2月26日"/>
-          <s v="2月27日"/>
-          <s v="2月28日"/>
-          <s v="2月29日"/>
-          <s v="3月1日"/>
-          <s v="3月2日"/>
-          <s v="3月3日"/>
-          <s v="3月4日"/>
-          <s v="3月5日"/>
-          <s v="3月6日"/>
-          <s v="3月7日"/>
-          <s v="3月8日"/>
-          <s v="3月9日"/>
-          <s v="3月10日"/>
-          <s v="3月11日"/>
-          <s v="3月12日"/>
-          <s v="3月13日"/>
-          <s v="3月14日"/>
-          <s v="3月15日"/>
-          <s v="3月16日"/>
-          <s v="3月17日"/>
-          <s v="3月18日"/>
-          <s v="3月19日"/>
-          <s v="3月20日"/>
-          <s v="3月21日"/>
-          <s v="3月22日"/>
-          <s v="3月23日"/>
-          <s v="3月24日"/>
-          <s v="3月25日"/>
-          <s v="3月26日"/>
-          <s v="3月27日"/>
-          <s v="3月28日"/>
-          <s v="3月29日"/>
-          <s v="3月30日"/>
-          <s v="3月31日"/>
-          <s v="4月1日"/>
-          <s v="4月2日"/>
-          <s v="4月3日"/>
-          <s v="4月4日"/>
-          <s v="4月5日"/>
-          <s v="4月6日"/>
-          <s v="4月7日"/>
-          <s v="4月8日"/>
-          <s v="4月9日"/>
-          <s v="4月10日"/>
-          <s v="4月11日"/>
-          <s v="4月12日"/>
-          <s v="4月13日"/>
-          <s v="4月14日"/>
-          <s v="4月15日"/>
-          <s v="4月16日"/>
-          <s v="4月17日"/>
-          <s v="4月18日"/>
-          <s v="4月19日"/>
-          <s v="4月20日"/>
-          <s v="4月21日"/>
-          <s v="4月22日"/>
-          <s v="4月23日"/>
-          <s v="4月24日"/>
-          <s v="4月25日"/>
-          <s v="4月26日"/>
-          <s v="4月27日"/>
-          <s v="4月28日"/>
-          <s v="4月29日"/>
-          <s v="4月30日"/>
-          <s v="5月1日"/>
-          <s v="5月2日"/>
-          <s v="5月3日"/>
-          <s v="5月4日"/>
-          <s v="5月5日"/>
-          <s v="5月6日"/>
-          <s v="5月7日"/>
-          <s v="5月8日"/>
-          <s v="5月9日"/>
-          <s v="5月10日"/>
-          <s v="5月11日"/>
-          <s v="5月12日"/>
-          <s v="5月13日"/>
-          <s v="5月14日"/>
-          <s v="5月15日"/>
-          <s v="5月16日"/>
-          <s v="5月17日"/>
-          <s v="5月18日"/>
-          <s v="5月19日"/>
-          <s v="5月20日"/>
-          <s v="5月21日"/>
-          <s v="5月22日"/>
-          <s v="5月23日"/>
-          <s v="5月24日"/>
-          <s v="5月25日"/>
-          <s v="5月26日"/>
-          <s v="5月27日"/>
-          <s v="5月28日"/>
-          <s v="5月29日"/>
-          <s v="5月30日"/>
-          <s v="5月31日"/>
-          <s v="6月1日"/>
-          <s v="6月2日"/>
-          <s v="6月3日"/>
-          <s v="6月4日"/>
-          <s v="6月5日"/>
-          <s v="6月6日"/>
-          <s v="6月7日"/>
-          <s v="6月8日"/>
-          <s v="6月9日"/>
-          <s v="6月10日"/>
-          <s v="6月11日"/>
-          <s v="6月12日"/>
-          <s v="6月13日"/>
-          <s v="6月14日"/>
-          <s v="6月15日"/>
-          <s v="6月16日"/>
-          <s v="6月17日"/>
-          <s v="6月18日"/>
-          <s v="6月19日"/>
-          <s v="6月20日"/>
-          <s v="6月21日"/>
-          <s v="6月22日"/>
-          <s v="6月23日"/>
-          <s v="6月24日"/>
-          <s v="6月25日"/>
-          <s v="6月26日"/>
-          <s v="6月27日"/>
-          <s v="6月28日"/>
-          <s v="6月29日"/>
-          <s v="6月30日"/>
-          <s v="7月1日"/>
-          <s v="7月2日"/>
-          <s v="7月3日"/>
-          <s v="7月4日"/>
-          <s v="7月5日"/>
-          <s v="7月6日"/>
-          <s v="7月7日"/>
-          <s v="7月8日"/>
-          <s v="7月9日"/>
-          <s v="7月10日"/>
-          <s v="7月11日"/>
-          <s v="7月12日"/>
-          <s v="7月13日"/>
-          <s v="7月14日"/>
-          <s v="7月15日"/>
-          <s v="7月16日"/>
-          <s v="7月17日"/>
-          <s v="7月18日"/>
-          <s v="7月19日"/>
-          <s v="7月20日"/>
-          <s v="7月21日"/>
-          <s v="7月22日"/>
-          <s v="7月23日"/>
-          <s v="7月24日"/>
-          <s v="7月25日"/>
-          <s v="7月26日"/>
-          <s v="7月27日"/>
-          <s v="7月28日"/>
-          <s v="7月29日"/>
-          <s v="7月30日"/>
-          <s v="7月31日"/>
-          <s v="8月1日"/>
-          <s v="8月2日"/>
-          <s v="8月3日"/>
-          <s v="8月4日"/>
-          <s v="8月5日"/>
-          <s v="8月6日"/>
-          <s v="8月7日"/>
-          <s v="8月8日"/>
-          <s v="8月9日"/>
-          <s v="8月10日"/>
-          <s v="8月11日"/>
-          <s v="8月12日"/>
-          <s v="8月13日"/>
-          <s v="8月14日"/>
-          <s v="8月15日"/>
-          <s v="8月16日"/>
-          <s v="8月17日"/>
-          <s v="8月18日"/>
-          <s v="8月19日"/>
-          <s v="8月20日"/>
-          <s v="8月21日"/>
-          <s v="8月22日"/>
-          <s v="8月23日"/>
-          <s v="8月24日"/>
-          <s v="8月25日"/>
-          <s v="8月26日"/>
-          <s v="8月27日"/>
-          <s v="8月28日"/>
-          <s v="8月29日"/>
-          <s v="8月30日"/>
-          <s v="8月31日"/>
-          <s v="9月1日"/>
-          <s v="9月2日"/>
-          <s v="9月3日"/>
-          <s v="9月4日"/>
-          <s v="9月5日"/>
-          <s v="9月6日"/>
-          <s v="9月7日"/>
-          <s v="9月8日"/>
-          <s v="9月9日"/>
-          <s v="9月10日"/>
-          <s v="9月11日"/>
-          <s v="9月12日"/>
-          <s v="9月13日"/>
-          <s v="9月14日"/>
-          <s v="9月15日"/>
-          <s v="9月16日"/>
-          <s v="9月17日"/>
-          <s v="9月18日"/>
-          <s v="9月19日"/>
-          <s v="9月20日"/>
-          <s v="9月21日"/>
-          <s v="9月22日"/>
-          <s v="9月23日"/>
-          <s v="9月24日"/>
-          <s v="9月25日"/>
-          <s v="9月26日"/>
-          <s v="9月27日"/>
-          <s v="9月28日"/>
-          <s v="9月29日"/>
-          <s v="9月30日"/>
-          <s v="10月1日"/>
-          <s v="10月2日"/>
-          <s v="10月3日"/>
-          <s v="10月4日"/>
-          <s v="10月5日"/>
-          <s v="10月6日"/>
-          <s v="10月7日"/>
-          <s v="10月8日"/>
-          <s v="10月9日"/>
-          <s v="10月10日"/>
-          <s v="10月11日"/>
-          <s v="10月12日"/>
-          <s v="10月13日"/>
-          <s v="10月14日"/>
-          <s v="10月15日"/>
-          <s v="10月16日"/>
-          <s v="10月17日"/>
-          <s v="10月18日"/>
-          <s v="10月19日"/>
-          <s v="10月20日"/>
-          <s v="10月21日"/>
-          <s v="10月22日"/>
-          <s v="10月23日"/>
-          <s v="10月24日"/>
-          <s v="10月25日"/>
-          <s v="10月26日"/>
-          <s v="10月27日"/>
-          <s v="10月28日"/>
-          <s v="10月29日"/>
-          <s v="10月30日"/>
-          <s v="10月31日"/>
-          <s v="11月1日"/>
-          <s v="11月2日"/>
-          <s v="11月3日"/>
-          <s v="11月4日"/>
-          <s v="11月5日"/>
-          <s v="11月6日"/>
-          <s v="11月7日"/>
-          <s v="11月8日"/>
-          <s v="11月9日"/>
-          <s v="11月10日"/>
-          <s v="11月11日"/>
-          <s v="11月12日"/>
-          <s v="11月13日"/>
-          <s v="11月14日"/>
-          <s v="11月15日"/>
-          <s v="11月16日"/>
-          <s v="11月17日"/>
-          <s v="11月18日"/>
-          <s v="11月19日"/>
-          <s v="11月20日"/>
-          <s v="11月21日"/>
-          <s v="11月22日"/>
-          <s v="11月23日"/>
-          <s v="11月24日"/>
-          <s v="11月25日"/>
-          <s v="11月26日"/>
-          <s v="11月27日"/>
-          <s v="11月28日"/>
-          <s v="11月29日"/>
-          <s v="11月30日"/>
-          <s v="12月1日"/>
-          <s v="12月2日"/>
-          <s v="12月3日"/>
-          <s v="12月4日"/>
-          <s v="12月5日"/>
-          <s v="12月6日"/>
-          <s v="12月7日"/>
-          <s v="12月8日"/>
-          <s v="12月9日"/>
-          <s v="12月10日"/>
-          <s v="12月11日"/>
-          <s v="12月12日"/>
-          <s v="12月13日"/>
-          <s v="12月14日"/>
-          <s v="12月15日"/>
-          <s v="12月16日"/>
-          <s v="12月17日"/>
-          <s v="12月18日"/>
-          <s v="12月19日"/>
-          <s v="12月20日"/>
-          <s v="12月21日"/>
-          <s v="12月22日"/>
-          <s v="12月23日"/>
-          <s v="12月24日"/>
-          <s v="12月25日"/>
-          <s v="12月26日"/>
-          <s v="12月27日"/>
-          <s v="12月28日"/>
-          <s v="12月29日"/>
-          <s v="12月30日"/>
-          <s v="12月31日"/>
-          <s v="&gt;1905/1/1"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43476.645009490741" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{E1926D0F-CF6B-45E4-84F9-CC6D58AABFB9}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="内存"/>
@@ -6191,6 +7151,484 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43481.724870486112" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{2C1B0F87-52ED-4D69-956F-6E565F922272}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:Q1048576" sheet="Performance原始"/>
+  </cacheSource>
+  <cacheFields count="18">
+    <cacheField name="日志时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="IP地址" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="请求发送时间" numFmtId="182">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="请求接收时间" numFmtId="182">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1905-01-01T00:00:00" maxDate="1905-01-01T00:00:00" count="1">
+        <m/>
+      </sharedItems>
+      <fieldGroup par="17" base="3">
+        <rangePr groupBy="hours" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="26">
+          <s v="(空白)"/>
+          <s v="0时"/>
+          <s v="1时"/>
+          <s v="2时"/>
+          <s v="3时"/>
+          <s v="4时"/>
+          <s v="5时"/>
+          <s v="6时"/>
+          <s v="7时"/>
+          <s v="8时"/>
+          <s v="9时"/>
+          <s v="10时"/>
+          <s v="11时"/>
+          <s v="12时"/>
+          <s v="13时"/>
+          <s v="14时"/>
+          <s v="15时"/>
+          <s v="16时"/>
+          <s v="17时"/>
+          <s v="18时"/>
+          <s v="19时"/>
+          <s v="20时"/>
+          <s v="21时"/>
+          <s v="22时"/>
+          <s v="23时"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="响应发送时间" numFmtId="182">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="响应接受时间" numFmtId="182">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="耗时" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="请求网络延时" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="响应处理耗时" numFmtId="177">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="响应网络延时" numFmtId="177">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="请求路径" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="方法名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="请求流长度" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="响应流长度" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="消息" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日志文件名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="行号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日" numFmtId="0" databaseField="0">
+      <fieldGroup base="3">
+        <rangePr groupBy="days" startDate="1905-01-01T00:00:00" endDate="1905-01-01T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;1905/1/1"/>
+          <s v="1月1日"/>
+          <s v="1月2日"/>
+          <s v="1月3日"/>
+          <s v="1月4日"/>
+          <s v="1月5日"/>
+          <s v="1月6日"/>
+          <s v="1月7日"/>
+          <s v="1月8日"/>
+          <s v="1月9日"/>
+          <s v="1月10日"/>
+          <s v="1月11日"/>
+          <s v="1月12日"/>
+          <s v="1月13日"/>
+          <s v="1月14日"/>
+          <s v="1月15日"/>
+          <s v="1月16日"/>
+          <s v="1月17日"/>
+          <s v="1月18日"/>
+          <s v="1月19日"/>
+          <s v="1月20日"/>
+          <s v="1月21日"/>
+          <s v="1月22日"/>
+          <s v="1月23日"/>
+          <s v="1月24日"/>
+          <s v="1月25日"/>
+          <s v="1月26日"/>
+          <s v="1月27日"/>
+          <s v="1月28日"/>
+          <s v="1月29日"/>
+          <s v="1月30日"/>
+          <s v="1月31日"/>
+          <s v="2月1日"/>
+          <s v="2月2日"/>
+          <s v="2月3日"/>
+          <s v="2月4日"/>
+          <s v="2月5日"/>
+          <s v="2月6日"/>
+          <s v="2月7日"/>
+          <s v="2月8日"/>
+          <s v="2月9日"/>
+          <s v="2月10日"/>
+          <s v="2月11日"/>
+          <s v="2月12日"/>
+          <s v="2月13日"/>
+          <s v="2月14日"/>
+          <s v="2月15日"/>
+          <s v="2月16日"/>
+          <s v="2月17日"/>
+          <s v="2月18日"/>
+          <s v="2月19日"/>
+          <s v="2月20日"/>
+          <s v="2月21日"/>
+          <s v="2月22日"/>
+          <s v="2月23日"/>
+          <s v="2月24日"/>
+          <s v="2月25日"/>
+          <s v="2月26日"/>
+          <s v="2月27日"/>
+          <s v="2月28日"/>
+          <s v="2月29日"/>
+          <s v="3月1日"/>
+          <s v="3月2日"/>
+          <s v="3月3日"/>
+          <s v="3月4日"/>
+          <s v="3月5日"/>
+          <s v="3月6日"/>
+          <s v="3月7日"/>
+          <s v="3月8日"/>
+          <s v="3月9日"/>
+          <s v="3月10日"/>
+          <s v="3月11日"/>
+          <s v="3月12日"/>
+          <s v="3月13日"/>
+          <s v="3月14日"/>
+          <s v="3月15日"/>
+          <s v="3月16日"/>
+          <s v="3月17日"/>
+          <s v="3月18日"/>
+          <s v="3月19日"/>
+          <s v="3月20日"/>
+          <s v="3月21日"/>
+          <s v="3月22日"/>
+          <s v="3月23日"/>
+          <s v="3月24日"/>
+          <s v="3月25日"/>
+          <s v="3月26日"/>
+          <s v="3月27日"/>
+          <s v="3月28日"/>
+          <s v="3月29日"/>
+          <s v="3月30日"/>
+          <s v="3月31日"/>
+          <s v="4月1日"/>
+          <s v="4月2日"/>
+          <s v="4月3日"/>
+          <s v="4月4日"/>
+          <s v="4月5日"/>
+          <s v="4月6日"/>
+          <s v="4月7日"/>
+          <s v="4月8日"/>
+          <s v="4月9日"/>
+          <s v="4月10日"/>
+          <s v="4月11日"/>
+          <s v="4月12日"/>
+          <s v="4月13日"/>
+          <s v="4月14日"/>
+          <s v="4月15日"/>
+          <s v="4月16日"/>
+          <s v="4月17日"/>
+          <s v="4月18日"/>
+          <s v="4月19日"/>
+          <s v="4月20日"/>
+          <s v="4月21日"/>
+          <s v="4月22日"/>
+          <s v="4月23日"/>
+          <s v="4月24日"/>
+          <s v="4月25日"/>
+          <s v="4月26日"/>
+          <s v="4月27日"/>
+          <s v="4月28日"/>
+          <s v="4月29日"/>
+          <s v="4月30日"/>
+          <s v="5月1日"/>
+          <s v="5月2日"/>
+          <s v="5月3日"/>
+          <s v="5月4日"/>
+          <s v="5月5日"/>
+          <s v="5月6日"/>
+          <s v="5月7日"/>
+          <s v="5月8日"/>
+          <s v="5月9日"/>
+          <s v="5月10日"/>
+          <s v="5月11日"/>
+          <s v="5月12日"/>
+          <s v="5月13日"/>
+          <s v="5月14日"/>
+          <s v="5月15日"/>
+          <s v="5月16日"/>
+          <s v="5月17日"/>
+          <s v="5月18日"/>
+          <s v="5月19日"/>
+          <s v="5月20日"/>
+          <s v="5月21日"/>
+          <s v="5月22日"/>
+          <s v="5月23日"/>
+          <s v="5月24日"/>
+          <s v="5月25日"/>
+          <s v="5月26日"/>
+          <s v="5月27日"/>
+          <s v="5月28日"/>
+          <s v="5月29日"/>
+          <s v="5月30日"/>
+          <s v="5月31日"/>
+          <s v="6月1日"/>
+          <s v="6月2日"/>
+          <s v="6月3日"/>
+          <s v="6月4日"/>
+          <s v="6月5日"/>
+          <s v="6月6日"/>
+          <s v="6月7日"/>
+          <s v="6月8日"/>
+          <s v="6月9日"/>
+          <s v="6月10日"/>
+          <s v="6月11日"/>
+          <s v="6月12日"/>
+          <s v="6月13日"/>
+          <s v="6月14日"/>
+          <s v="6月15日"/>
+          <s v="6月16日"/>
+          <s v="6月17日"/>
+          <s v="6月18日"/>
+          <s v="6月19日"/>
+          <s v="6月20日"/>
+          <s v="6月21日"/>
+          <s v="6月22日"/>
+          <s v="6月23日"/>
+          <s v="6月24日"/>
+          <s v="6月25日"/>
+          <s v="6月26日"/>
+          <s v="6月27日"/>
+          <s v="6月28日"/>
+          <s v="6月29日"/>
+          <s v="6月30日"/>
+          <s v="7月1日"/>
+          <s v="7月2日"/>
+          <s v="7月3日"/>
+          <s v="7月4日"/>
+          <s v="7月5日"/>
+          <s v="7月6日"/>
+          <s v="7月7日"/>
+          <s v="7月8日"/>
+          <s v="7月9日"/>
+          <s v="7月10日"/>
+          <s v="7月11日"/>
+          <s v="7月12日"/>
+          <s v="7月13日"/>
+          <s v="7月14日"/>
+          <s v="7月15日"/>
+          <s v="7月16日"/>
+          <s v="7月17日"/>
+          <s v="7月18日"/>
+          <s v="7月19日"/>
+          <s v="7月20日"/>
+          <s v="7月21日"/>
+          <s v="7月22日"/>
+          <s v="7月23日"/>
+          <s v="7月24日"/>
+          <s v="7月25日"/>
+          <s v="7月26日"/>
+          <s v="7月27日"/>
+          <s v="7月28日"/>
+          <s v="7月29日"/>
+          <s v="7月30日"/>
+          <s v="7月31日"/>
+          <s v="8月1日"/>
+          <s v="8月2日"/>
+          <s v="8月3日"/>
+          <s v="8月4日"/>
+          <s v="8月5日"/>
+          <s v="8月6日"/>
+          <s v="8月7日"/>
+          <s v="8月8日"/>
+          <s v="8月9日"/>
+          <s v="8月10日"/>
+          <s v="8月11日"/>
+          <s v="8月12日"/>
+          <s v="8月13日"/>
+          <s v="8月14日"/>
+          <s v="8月15日"/>
+          <s v="8月16日"/>
+          <s v="8月17日"/>
+          <s v="8月18日"/>
+          <s v="8月19日"/>
+          <s v="8月20日"/>
+          <s v="8月21日"/>
+          <s v="8月22日"/>
+          <s v="8月23日"/>
+          <s v="8月24日"/>
+          <s v="8月25日"/>
+          <s v="8月26日"/>
+          <s v="8月27日"/>
+          <s v="8月28日"/>
+          <s v="8月29日"/>
+          <s v="8月30日"/>
+          <s v="8月31日"/>
+          <s v="9月1日"/>
+          <s v="9月2日"/>
+          <s v="9月3日"/>
+          <s v="9月4日"/>
+          <s v="9月5日"/>
+          <s v="9月6日"/>
+          <s v="9月7日"/>
+          <s v="9月8日"/>
+          <s v="9月9日"/>
+          <s v="9月10日"/>
+          <s v="9月11日"/>
+          <s v="9月12日"/>
+          <s v="9月13日"/>
+          <s v="9月14日"/>
+          <s v="9月15日"/>
+          <s v="9月16日"/>
+          <s v="9月17日"/>
+          <s v="9月18日"/>
+          <s v="9月19日"/>
+          <s v="9月20日"/>
+          <s v="9月21日"/>
+          <s v="9月22日"/>
+          <s v="9月23日"/>
+          <s v="9月24日"/>
+          <s v="9月25日"/>
+          <s v="9月26日"/>
+          <s v="9月27日"/>
+          <s v="9月28日"/>
+          <s v="9月29日"/>
+          <s v="9月30日"/>
+          <s v="10月1日"/>
+          <s v="10月2日"/>
+          <s v="10月3日"/>
+          <s v="10月4日"/>
+          <s v="10月5日"/>
+          <s v="10月6日"/>
+          <s v="10月7日"/>
+          <s v="10月8日"/>
+          <s v="10月9日"/>
+          <s v="10月10日"/>
+          <s v="10月11日"/>
+          <s v="10月12日"/>
+          <s v="10月13日"/>
+          <s v="10月14日"/>
+          <s v="10月15日"/>
+          <s v="10月16日"/>
+          <s v="10月17日"/>
+          <s v="10月18日"/>
+          <s v="10月19日"/>
+          <s v="10月20日"/>
+          <s v="10月21日"/>
+          <s v="10月22日"/>
+          <s v="10月23日"/>
+          <s v="10月24日"/>
+          <s v="10月25日"/>
+          <s v="10月26日"/>
+          <s v="10月27日"/>
+          <s v="10月28日"/>
+          <s v="10月29日"/>
+          <s v="10月30日"/>
+          <s v="10月31日"/>
+          <s v="11月1日"/>
+          <s v="11月2日"/>
+          <s v="11月3日"/>
+          <s v="11月4日"/>
+          <s v="11月5日"/>
+          <s v="11月6日"/>
+          <s v="11月7日"/>
+          <s v="11月8日"/>
+          <s v="11月9日"/>
+          <s v="11月10日"/>
+          <s v="11月11日"/>
+          <s v="11月12日"/>
+          <s v="11月13日"/>
+          <s v="11月14日"/>
+          <s v="11月15日"/>
+          <s v="11月16日"/>
+          <s v="11月17日"/>
+          <s v="11月18日"/>
+          <s v="11月19日"/>
+          <s v="11月20日"/>
+          <s v="11月21日"/>
+          <s v="11月22日"/>
+          <s v="11月23日"/>
+          <s v="11月24日"/>
+          <s v="11月25日"/>
+          <s v="11月26日"/>
+          <s v="11月27日"/>
+          <s v="11月28日"/>
+          <s v="11月29日"/>
+          <s v="11月30日"/>
+          <s v="12月1日"/>
+          <s v="12月2日"/>
+          <s v="12月3日"/>
+          <s v="12月4日"/>
+          <s v="12月5日"/>
+          <s v="12月6日"/>
+          <s v="12月7日"/>
+          <s v="12月8日"/>
+          <s v="12月9日"/>
+          <s v="12月10日"/>
+          <s v="12月11日"/>
+          <s v="12月12日"/>
+          <s v="12月13日"/>
+          <s v="12月14日"/>
+          <s v="12月15日"/>
+          <s v="12月16日"/>
+          <s v="12月17日"/>
+          <s v="12月18日"/>
+          <s v="12月19日"/>
+          <s v="12月20日"/>
+          <s v="12月21日"/>
+          <s v="12月22日"/>
+          <s v="12月23日"/>
+          <s v="12月24日"/>
+          <s v="12月25日"/>
+          <s v="12月26日"/>
+          <s v="12月27日"/>
+          <s v="12月28日"/>
+          <s v="12月29日"/>
+          <s v="12月30日"/>
+          <s v="12月31日"/>
+          <s v="&gt;1905/1/1"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
@@ -6272,17 +7710,9 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <m/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
     <m/>
     <m/>
     <x v="0"/>
-    <m/>
-    <m/>
-    <m/>
     <m/>
     <m/>
   </r>
@@ -6293,9 +7723,20 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <m/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
   </r>
@@ -6498,7 +7939,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48CB5F0-0495-4CBC-80C7-ACB002C4C48D}" name="数据透视表1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48CB5F0-0495-4CBC-80C7-ACB002C4C48D}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -7344,9 +8785,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
+  <pivotFields count="18">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
       <items count="2">
@@ -7386,6 +8827,9 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7791,11 +9235,11 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="8" hier="-1"/>
-    <pageField fld="14" hier="-1"/>
+    <pageField fld="11" hier="-1"/>
+    <pageField fld="17" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="计数项:行号" fld="13" subtotal="count" baseField="3" baseItem="0"/>
+    <dataField name="计数项:行号" fld="16" subtotal="count" baseField="3" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -7803,6 +9247,157 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F9BA0EF-8F6F-491E-B7D2-9348863C473E}" name="数据透视表4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:H5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="182" showAll="0"/>
+    <pivotField numFmtId="182" showAll="0"/>
+    <pivotField numFmtId="182" showAll="0"/>
+    <pivotField numFmtId="182" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+  </colItems>
+  <dataFields count="7">
+    <dataField name="求和项:耗时" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="平均值项:耗时" fld="6" subtotal="average" baseField="11" baseItem="0"/>
+    <dataField name="平均值项:请求网络延时" fld="7" subtotal="average" baseField="11" baseItem="0"/>
+    <dataField name="平均值项:响应处理耗时" fld="8" subtotal="average" baseField="11" baseItem="0"/>
+    <dataField name="平均值项:响应网络延时" fld="9" subtotal="average" baseField="11" baseItem="0"/>
+    <dataField name="求和项:请求流长度" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="求和项:响应流长度" fld="13" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -9704,11 +11299,85 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D51F1-13E7-48BC-91C5-193A98AB72D1}">
+  <dimension ref="A3:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9839,7 +11508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -9922,7 +11591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -10008,7 +11677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FAB704-A2DA-4CAD-95DC-82A11C7D4959}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ECD665-80AE-4379-BEB6-339A13B2DA7D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" firstSheet="21" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="91">
   <si>
     <t>事项</t>
   </si>
@@ -276,10 +276,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>日志时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>请求路径</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -397,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
@@ -405,6 +401,7 @@
     <numFmt numFmtId="180" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="182" formatCode="yyyy/mm/dd\ hh:mm:ss.000"/>
+    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -601,15 +598,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -617,31 +611,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -668,25 +644,19 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
@@ -722,13 +692,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -737,55 +704,46 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3337,6 +3295,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="606297152"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7154,7 +7113,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43481.724870486112" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{2C1B0F87-52ED-4D69-956F-6E565F922272}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Q1048576" sheet="Performance原始"/>
+    <worksheetSource ref="A1:P1048576" sheet="Performance原始"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="日志时间" numFmtId="181">
@@ -9691,98 +9650,78 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="33"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="34"/>
+      <c r="B4" s="24"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="33"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="34"/>
+      <c r="B6" s="24"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="34"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="33"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="34"/>
+      <c r="B8" s="24"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="34"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="33"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="34"/>
+      <c r="B10" s="24"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="34"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="14" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -9790,91 +9729,73 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="32" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="33"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="34"/>
+      <c r="B16" s="24"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="33"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="34"/>
+      <c r="B18" s="24"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="34"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="33"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="34"/>
+      <c r="B20" s="24"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="34"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="33"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="34"/>
+      <c r="B22" s="24"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -9913,47 +9834,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>62</v>
+      <c r="A1" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -9976,32 +9889,32 @@
     <col min="1" max="1" width="34.625" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="50" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9"/>
+    <col min="4" max="4" width="24.75" style="38" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10045,46 +9958,46 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="50" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="38" customWidth="1"/>
     <col min="9" max="10" width="16.875" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10144,44 +10057,44 @@
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="38" customWidth="1"/>
     <col min="7" max="7" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="18.875" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -10237,39 +10150,39 @@
   <cols>
     <col min="1" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="9" style="17"/>
-    <col min="6" max="6" width="17.25" style="50" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="17.25" style="38" customWidth="1"/>
     <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>79</v>
+      <c r="I1" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -10323,47 +10236,47 @@
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="21" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="21" style="6" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="38" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10424,48 +10337,48 @@
     <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10" style="17" customWidth="1"/>
-    <col min="6" max="8" width="13.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="50" customWidth="1"/>
+    <col min="5" max="5" width="10" style="10" customWidth="1"/>
+    <col min="6" max="8" width="13.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="38" customWidth="1"/>
     <col min="10" max="11" width="15.75" customWidth="1"/>
     <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10515,7 +10428,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10528,294 +10441,41 @@
     <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="50" customWidth="1"/>
-    <col min="7" max="7" width="25.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="25.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="29.625" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -10866,39 +10526,39 @@
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="5" max="5" width="9" style="44"/>
-    <col min="6" max="6" width="19.25" style="50" customWidth="1"/>
+    <col min="5" max="5" width="9" style="34"/>
+    <col min="6" max="6" width="19.25" style="38" customWidth="1"/>
     <col min="7" max="7" width="20.875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10956,7 +10616,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -10964,39 +10624,31 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
         <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11021,12 +10673,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -11034,15 +10686,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -11056,22 +10708,22 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -11099,15 +10751,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>63</v>
+      <c r="A1" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -11115,24 +10767,22 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -11155,41 +10805,41 @@
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="9" style="17"/>
-    <col min="7" max="7" width="25.5" style="50" customWidth="1"/>
-    <col min="8" max="8" width="25.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9" style="10"/>
+    <col min="7" max="7" width="25.5" style="38" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="3" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="47" t="s">
+      <c r="H1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -11248,48 +10898,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
-        <v>63</v>
+      <c r="A1" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
-        <v>64</v>
+      <c r="A2" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
-        <v>62</v>
+      <c r="A3" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11302,7 +10950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D51F1-13E7-48BC-91C5-193A98AB72D1}">
   <dimension ref="A3:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -11316,54 +10964,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
         <v>89</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>90</v>
       </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
       <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
         <v>87</v>
-      </c>
-      <c r="H3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -11374,133 +11008,126 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="50" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="6" width="23.625" style="61" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="10" width="12.625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="20.75" customWidth="1"/>
-    <col min="13" max="14" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="10.125" customWidth="1"/>
-    <col min="16" max="16" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="5" width="23.625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="48" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="34" customWidth="1"/>
+    <col min="8" max="9" width="12.625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="20.875" customWidth="1"/>
+    <col min="11" max="11" width="20.75" customWidth="1"/>
+    <col min="12" max="13" width="10.625" style="34" customWidth="1"/>
+    <col min="14" max="14" width="10.125" customWidth="1"/>
+    <col min="15" max="15" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="60" t="s">
+      <c r="K1" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="42" t="s">
+      <c r="M1" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="47" t="s">
+      <c r="O1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="P1" s="36" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="17">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{6EC58391-D6A5-4A6B-8CD8-63C7096FFD57}">
+  <dataValidations count="16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{C78851B0-19A9-4CF6-8A99-B099543B0F57}">
       <formula1>$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{C78851B0-19A9-4CF6-8A99-B099543B0F57}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{F5CC629D-4F20-42BE-A93F-DB188DEBB0AA}">
       <formula1>$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{F5CC629D-4F20-42BE-A93F-DB188DEBB0AA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{4642BEB3-09FB-48A1-9E22-004868002057}">
       <formula1>$C:$C</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{4642BEB3-09FB-48A1-9E22-004868002057}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{1B07CB41-9753-4855-A829-05A85ED72E66}">
       <formula1>$D:$D</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{1B07CB41-9753-4855-A829-05A85ED72E66}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{65440D36-AAF4-40FC-8877-ABADBFA23449}">
       <formula1>$E:$E</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{65440D36-AAF4-40FC-8877-ABADBFA23449}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{C0590146-5FF1-44F5-A578-070688BAA8AF}">
       <formula1>$F:$F</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{C0590146-5FF1-44F5-A578-070688BAA8AF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{5CED00CA-B4A4-4460-B319-147778BED3D3}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{1332BF42-1767-46F4-8D7E-32066BBB32F5}">
+      <formula1>$K:$K</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{56A94B98-833C-4C68-8606-FC82050CE106}">
+      <formula1>$L:$L</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{E07260DD-9C74-48C3-88EE-6FDC6B15AC5E}">
+      <formula1>$M:$M</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1" xr:uid="{E34557B3-9BD2-46AD-AF2F-86804EC15E55}">
+      <formula1>$N:$N</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1" xr:uid="{B330A145-B89E-4485-BAE2-027E0CB272E6}">
+      <formula1>$O:$O</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1" xr:uid="{7231AA8C-CD67-477B-8906-EA7589EEDAEC}">
+      <formula1>$P:$P</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{49707720-622E-4873-9195-C21996018E62}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{062A13E3-56D6-468E-94E5-21FA762BAB87}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{6B57E482-0BAB-4ED1-964B-080A02264187}">
       <formula1>$G:$G</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{5CED00CA-B4A4-4460-B319-147778BED3D3}">
-      <formula1>$K:$K</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{1332BF42-1767-46F4-8D7E-32066BBB32F5}">
-      <formula1>$L:$L</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{56A94B98-833C-4C68-8606-FC82050CE106}">
-      <formula1>$M:$M</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1" xr:uid="{E07260DD-9C74-48C3-88EE-6FDC6B15AC5E}">
-      <formula1>$N:$N</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1" xr:uid="{E34557B3-9BD2-46AD-AF2F-86804EC15E55}">
-      <formula1>$O:$O</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1" xr:uid="{B330A145-B89E-4485-BAE2-027E0CB272E6}">
-      <formula1>$P:$P</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1" xr:uid="{7231AA8C-CD67-477B-8906-EA7589EEDAEC}">
-      <formula1>$Q:$Q</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{49707720-622E-4873-9195-C21996018E62}">
-      <formula1>$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{062A13E3-56D6-468E-94E5-21FA762BAB87}">
-      <formula1>$J:$J</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{6B57E482-0BAB-4ED1-964B-080A02264187}">
-      <formula1>$H:$H</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11521,38 +11148,38 @@
   <cols>
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="17"/>
-    <col min="6" max="6" width="22.125" style="50" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="22.125" style="38" customWidth="1"/>
     <col min="7" max="8" width="22.125" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11606,39 +11233,39 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="38" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11690,38 +11317,38 @@
   <cols>
     <col min="1" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="9" style="17"/>
-    <col min="6" max="6" width="22.5" style="50" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10"/>
+    <col min="6" max="6" width="22.5" style="38" customWidth="1"/>
     <col min="7" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11776,12 +11403,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -11789,15 +11416,15 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -11808,13 +11435,13 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -11841,7 +11468,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -11852,13 +11479,11 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -11880,39 +11505,39 @@
     <col min="1" max="2" width="29.625" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="17" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="50" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="10" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="38" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -11954,7 +11579,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -11967,45 +11592,41 @@
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="23" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="50" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="15" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="38" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="19.375" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="22"/>
-      <c r="F2" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -12057,49 +11678,49 @@
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="10" customWidth="1"/>
     <col min="6" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="20" style="50" customWidth="1"/>
+    <col min="9" max="9" width="20" style="38" customWidth="1"/>
     <col min="10" max="10" width="19.75" customWidth="1"/>
     <col min="11" max="11" width="20.875" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12160,38 +11781,38 @@
   <cols>
     <col min="1" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="17" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="11" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="38" customWidth="1"/>
     <col min="7" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12244,38 +11865,38 @@
   <cols>
     <col min="1" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="17" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="38" customWidth="1"/>
     <col min="7" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
     </row>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1ECD665-80AE-4379-BEB6-339A13B2DA7D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BEEF5B-356B-4B63-A34C-F94042FF249C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="21" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="核算" sheetId="13" r:id="rId14"/>
     <sheet name="窗体" sheetId="7" r:id="rId15"/>
     <sheet name="报表" sheetId="8" r:id="rId16"/>
-    <sheet name="原始" sheetId="2" r:id="rId17"/>
+    <sheet name="原始" sheetId="33" r:id="rId17"/>
     <sheet name="通用" sheetId="25" r:id="rId18"/>
     <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId19"/>
     <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId20"/>
@@ -10427,25 +10427,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DCF5F-57A9-430A-BEF1-58B8E0EEC839}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="25.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="29.625" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -10461,7 +10460,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="37" t="s">
@@ -10480,36 +10479,35 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{7BA29C73-CA57-4C03-9F32-EC3D385B62E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{089D233D-2BD4-4B9D-B5BD-DEEF703ADCFA}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{39A409F0-C5D5-485F-B5A4-F54FE337DF93}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{4331AF6F-A3A6-4371-9FE3-30151C13B01C}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{7811580A-5B7D-462E-9640-BEEE56539490}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{FC9E6632-22AF-44A4-886F-F500DA823062}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{9F767EB6-BEAB-45E2-BA42-423CFDC9A3CE}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{B7EF1487-914D-46CE-B5B6-9C1BFABCEEF2}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{36BDAFFB-CBA2-4F9F-A2F8-BDE53918FAF7}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{1C6B1BB4-08A8-4FDA-9709-089EAA0C9BE9}">
       <formula1>$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{79EF27A9-C49C-41F5-B991-0019F9CAEFD5}">
-      <formula1>$B:$B</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{75CC2FDE-7441-4559-B76B-F6086A9B00E6}">
-      <formula1>$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{92F375BD-BCE7-4F19-ADEF-829DF4677447}">
-      <formula1>$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{A98A5642-D676-48CD-8D37-103BDA4861E9}">
-      <formula1>$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{C9B71397-EEF1-447E-BABB-5918A1568D86}">
-      <formula1>$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{186C3DE1-C8AA-47BD-B1B7-7E48616CF8E4}">
-      <formula1>$G:$G</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{6655C778-9A89-496B-A3DA-2174C4CA7178}">
-      <formula1>$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{8575E0E1-081D-420D-9D49-0FD9E91437BC}">
-      <formula1>$I:$I</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10518,7 +10516,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10603,7 +10601,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" max="2" activeRow="3" previousRow="3" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="1">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11010,7 +11017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828A8EE5-DAC8-4A49-8E71-9ED77650B980}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B35D5-8ADB-4635-943B-98795E326435}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -44,13 +44,13 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="48" r:id="rId29"/>
-    <pivotCache cacheId="54" r:id="rId30"/>
-    <pivotCache cacheId="57" r:id="rId31"/>
-    <pivotCache cacheId="62" r:id="rId32"/>
-    <pivotCache cacheId="65" r:id="rId33"/>
-    <pivotCache cacheId="70" r:id="rId34"/>
-    <pivotCache cacheId="74" r:id="rId35"/>
+    <pivotCache cacheId="7" r:id="rId29"/>
+    <pivotCache cacheId="8" r:id="rId30"/>
+    <pivotCache cacheId="9" r:id="rId31"/>
+    <pivotCache cacheId="10" r:id="rId32"/>
+    <pivotCache cacheId="11" r:id="rId33"/>
+    <pivotCache cacheId="12" r:id="rId34"/>
+    <pivotCache cacheId="13" r:id="rId35"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -627,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,17 +763,8 @@
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -793,9 +784,6 @@
     <xf numFmtId="178" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="181" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,41 +799,7 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="超链接 2" xfId="2" xr:uid="{D87A2808-A27A-48FB-899B-9329C3754451}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -16068,7 +16022,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -16146,7 +16100,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -16214,7 +16168,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -16263,7 +16217,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48CB5F0-0495-4CBC-80C7-ACB002C4C48D}" name="数据透视表1" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48CB5F0-0495-4CBC-80C7-ACB002C4C48D}" name="数据透视表1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -16898,7 +16852,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E9E262A-D885-4003-8AA1-7187C6600F2C}" name="数据透视表1" cacheId="74" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E9E262A-D885-4003-8AA1-7187C6600F2C}" name="数据透视表1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -17010,7 +16964,7 @@
   </pageFields>
   <dataFields count="3">
     <dataField name="平均值项:缓存数量" fld="6" subtotal="average" baseField="7" baseItem="6"/>
-    <dataField name="最大值项:缓存数量" fld="6" subtotal="max" baseField="11" baseItem="15"/>
+    <dataField name="最大值项:缓存数量" fld="6" subtotal="max" baseField="0" baseItem="0"/>
     <dataField name="最小值项:缓存数量" fld="6" subtotal="min" baseField="7" baseItem="6"/>
   </dataFields>
   <chartFormats count="3">
@@ -17055,7 +17009,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CA14DE-6471-4D9D-9662-D5829C84DB00}" name="数据透视表4" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CA14DE-6471-4D9D-9662-D5829C84DB00}" name="数据透视表4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -17167,7 +17121,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B970ABD-30AD-460C-B154-2973567B1E66}" name="数据透视表2" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B970ABD-30AD-460C-B154-2973567B1E66}" name="数据透视表2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -17266,7 +17220,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="17">
     <pivotField axis="axisPage" showAll="0">
@@ -17745,7 +17699,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F9BA0EF-8F6F-491E-B7D2-9348863C473E}" name="数据透视表4" cacheId="70" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F9BA0EF-8F6F-491E-B7D2-9348863C473E}" name="数据透视表4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:H5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -18354,47 +18308,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -18476,7 +18422,7 @@
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18486,34 +18432,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -18525,7 +18468,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:K550"/>
+  <dimension ref="A1:K490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -18547,7176 +18490,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="48" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="F2"/>
+      <c r="G2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
+    <row r="63" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F63"/>
+      <c r="G63"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
+    <row r="124" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F124"/>
+      <c r="G124"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
+    <row r="185" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F185"/>
+      <c r="G185"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
+    <row r="246" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F246"/>
+      <c r="G246"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
+    <row r="307" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F307"/>
+      <c r="G307"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+    <row r="368" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F368"/>
+      <c r="G368"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+    <row r="429" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F429"/>
+      <c r="G429"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-      <c r="K33" s="45"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="45"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="45"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="45"/>
-      <c r="J38" s="45"/>
-      <c r="K38" s="45"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="45"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="45"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="45"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="45"/>
-      <c r="J52" s="45"/>
-      <c r="K52" s="45"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="45"/>
-      <c r="K54" s="45"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="45"/>
-      <c r="K56" s="45"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="45"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="45"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="45"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="45"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" s="45"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="45"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A67" s="45"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="45"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A68" s="45"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="45"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A69" s="45"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A70" s="45"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="45"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="45"/>
-      <c r="K72" s="45"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A73" s="45"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="45"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="47"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="45"/>
-      <c r="K73" s="45"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="45"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="48"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="45"/>
-      <c r="J74" s="45"/>
-      <c r="K74" s="45"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="45"/>
-      <c r="K75" s="45"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="48"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45"/>
-      <c r="K76" s="45"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="45"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="48"/>
-      <c r="F79" s="47"/>
-      <c r="G79" s="48"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="48"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="48"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="47"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A82" s="45"/>
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="47"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="45"/>
-      <c r="J82" s="45"/>
-      <c r="K82" s="45"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A83" s="45"/>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="48"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="45"/>
-      <c r="J83" s="45"/>
-      <c r="K83" s="45"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A84" s="45"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A85" s="45"/>
-      <c r="B85" s="45"/>
-      <c r="C85" s="45"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="48"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="48"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="45"/>
-      <c r="K85" s="45"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A86" s="45"/>
-      <c r="B86" s="45"/>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="45"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A87" s="45"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="45"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="45"/>
-      <c r="J87" s="45"/>
-      <c r="K87" s="45"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A88" s="45"/>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="48"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="48"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="45"/>
-      <c r="K88" s="45"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A89" s="45"/>
-      <c r="B89" s="45"/>
-      <c r="C89" s="45"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="48"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="48"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="45"/>
-      <c r="J89" s="45"/>
-      <c r="K89" s="45"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A90" s="45"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="48"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="45"/>
-      <c r="K90" s="45"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A91" s="45"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="48"/>
-      <c r="F91" s="47"/>
-      <c r="G91" s="48"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="45"/>
-      <c r="K91" s="45"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A92" s="45"/>
-      <c r="B92" s="45"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="45"/>
-      <c r="J92" s="45"/>
-      <c r="K92" s="45"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A93" s="45"/>
-      <c r="B93" s="45"/>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="48"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="45"/>
-      <c r="J93" s="45"/>
-      <c r="K93" s="45"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A94" s="45"/>
-      <c r="B94" s="45"/>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="48"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="45"/>
-      <c r="J94" s="45"/>
-      <c r="K94" s="45"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A95" s="45"/>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="48"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="45"/>
-      <c r="J95" s="45"/>
-      <c r="K95" s="45"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A96" s="45"/>
-      <c r="B96" s="45"/>
-      <c r="C96" s="45"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="45"/>
-      <c r="J96" s="45"/>
-      <c r="K96" s="45"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A97" s="45"/>
-      <c r="B97" s="45"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="48"/>
-      <c r="F97" s="47"/>
-      <c r="G97" s="48"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="45"/>
-      <c r="J97" s="45"/>
-      <c r="K97" s="45"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A98" s="45"/>
-      <c r="B98" s="45"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="48"/>
-      <c r="F98" s="47"/>
-      <c r="G98" s="48"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="45"/>
-      <c r="J98" s="45"/>
-      <c r="K98" s="45"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A99" s="45"/>
-      <c r="B99" s="45"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="48"/>
-      <c r="F99" s="47"/>
-      <c r="G99" s="48"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="45"/>
-      <c r="J99" s="45"/>
-      <c r="K99" s="45"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A100" s="45"/>
-      <c r="B100" s="45"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="48"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="48"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="45"/>
-      <c r="J100" s="45"/>
-      <c r="K100" s="45"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A101" s="45"/>
-      <c r="B101" s="45"/>
-      <c r="C101" s="45"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="48"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="45"/>
-      <c r="K101" s="45"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A102" s="45"/>
-      <c r="B102" s="45"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="48"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="45"/>
-      <c r="J102" s="45"/>
-      <c r="K102" s="45"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A103" s="45"/>
-      <c r="B103" s="45"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="47"/>
-      <c r="G103" s="48"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="45"/>
-      <c r="K103" s="45"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A104" s="45"/>
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="48"/>
-      <c r="F104" s="47"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="55"/>
-      <c r="I104" s="45"/>
-      <c r="J104" s="45"/>
-      <c r="K104" s="45"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A105" s="45"/>
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="48"/>
-      <c r="F105" s="47"/>
-      <c r="G105" s="48"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="45"/>
-      <c r="J105" s="45"/>
-      <c r="K105" s="45"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A106" s="45"/>
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="48"/>
-      <c r="F106" s="47"/>
-      <c r="G106" s="48"/>
-      <c r="H106" s="55"/>
-      <c r="I106" s="45"/>
-      <c r="J106" s="45"/>
-      <c r="K106" s="45"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A107" s="45"/>
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="48"/>
-      <c r="F107" s="47"/>
-      <c r="G107" s="48"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="45"/>
-      <c r="J107" s="45"/>
-      <c r="K107" s="45"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A108" s="45"/>
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="48"/>
-      <c r="H108" s="55"/>
-      <c r="I108" s="45"/>
-      <c r="J108" s="45"/>
-      <c r="K108" s="45"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="48"/>
-      <c r="F109" s="47"/>
-      <c r="G109" s="48"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="45"/>
-      <c r="J109" s="45"/>
-      <c r="K109" s="45"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A110" s="45"/>
-      <c r="B110" s="45"/>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="48"/>
-      <c r="F110" s="47"/>
-      <c r="G110" s="48"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="45"/>
-      <c r="J110" s="45"/>
-      <c r="K110" s="45"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A111" s="45"/>
-      <c r="B111" s="45"/>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="48"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="48"/>
-      <c r="H111" s="55"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="45"/>
-      <c r="K111" s="45"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A112" s="45"/>
-      <c r="B112" s="45"/>
-      <c r="C112" s="45"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="48"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="48"/>
-      <c r="H112" s="55"/>
-      <c r="I112" s="45"/>
-      <c r="J112" s="45"/>
-      <c r="K112" s="45"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A113" s="45"/>
-      <c r="B113" s="45"/>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="48"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="48"/>
-      <c r="H113" s="55"/>
-      <c r="I113" s="45"/>
-      <c r="J113" s="45"/>
-      <c r="K113" s="45"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A114" s="45"/>
-      <c r="B114" s="45"/>
-      <c r="C114" s="45"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="48"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="48"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="45"/>
-      <c r="K114" s="45"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A115" s="45"/>
-      <c r="B115" s="45"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="48"/>
-      <c r="H115" s="55"/>
-      <c r="I115" s="45"/>
-      <c r="J115" s="45"/>
-      <c r="K115" s="45"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A116" s="45"/>
-      <c r="B116" s="45"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="48"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="48"/>
-      <c r="H116" s="55"/>
-      <c r="I116" s="45"/>
-      <c r="J116" s="45"/>
-      <c r="K116" s="45"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A117" s="45"/>
-      <c r="B117" s="45"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="48"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="48"/>
-      <c r="H117" s="55"/>
-      <c r="I117" s="45"/>
-      <c r="J117" s="45"/>
-      <c r="K117" s="45"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A118" s="45"/>
-      <c r="B118" s="45"/>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="48"/>
-      <c r="H118" s="55"/>
-      <c r="I118" s="45"/>
-      <c r="J118" s="45"/>
-      <c r="K118" s="45"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A119" s="45"/>
-      <c r="B119" s="45"/>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="48"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="48"/>
-      <c r="H119" s="55"/>
-      <c r="I119" s="45"/>
-      <c r="J119" s="45"/>
-      <c r="K119" s="45"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A120" s="45"/>
-      <c r="B120" s="45"/>
-      <c r="C120" s="45"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="48"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="48"/>
-      <c r="H120" s="55"/>
-      <c r="I120" s="45"/>
-      <c r="J120" s="45"/>
-      <c r="K120" s="45"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A121" s="45"/>
-      <c r="B121" s="45"/>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="48"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="48"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="45"/>
-      <c r="J121" s="45"/>
-      <c r="K121" s="45"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A122" s="45"/>
-      <c r="B122" s="45"/>
-      <c r="C122" s="45"/>
-      <c r="D122" s="45"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="45"/>
-      <c r="J122" s="45"/>
-      <c r="K122" s="45"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A123" s="45"/>
-      <c r="B123" s="45"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="45"/>
-      <c r="E123" s="48"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="48"/>
-      <c r="H123" s="55"/>
-      <c r="I123" s="45"/>
-      <c r="J123" s="45"/>
-      <c r="K123" s="45"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A124" s="45"/>
-      <c r="B124" s="45"/>
-      <c r="C124" s="45"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="48"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="45"/>
-      <c r="H124" s="55"/>
-      <c r="I124" s="45"/>
-      <c r="J124" s="45"/>
-      <c r="K124" s="45"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A125" s="45"/>
-      <c r="B125" s="45"/>
-      <c r="C125" s="45"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="48"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="48"/>
-      <c r="H125" s="55"/>
-      <c r="I125" s="45"/>
-      <c r="J125" s="45"/>
-      <c r="K125" s="45"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A126" s="45"/>
-      <c r="B126" s="45"/>
-      <c r="C126" s="45"/>
-      <c r="D126" s="45"/>
-      <c r="E126" s="48"/>
-      <c r="F126" s="47"/>
-      <c r="G126" s="48"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="45"/>
-      <c r="J126" s="45"/>
-      <c r="K126" s="45"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A127" s="45"/>
-      <c r="B127" s="45"/>
-      <c r="C127" s="45"/>
-      <c r="D127" s="45"/>
-      <c r="E127" s="48"/>
-      <c r="F127" s="47"/>
-      <c r="G127" s="48"/>
-      <c r="H127" s="55"/>
-      <c r="I127" s="45"/>
-      <c r="J127" s="45"/>
-      <c r="K127" s="45"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A128" s="45"/>
-      <c r="B128" s="45"/>
-      <c r="C128" s="45"/>
-      <c r="D128" s="45"/>
-      <c r="E128" s="48"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="48"/>
-      <c r="H128" s="55"/>
-      <c r="I128" s="45"/>
-      <c r="J128" s="45"/>
-      <c r="K128" s="45"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A129" s="45"/>
-      <c r="B129" s="45"/>
-      <c r="C129" s="45"/>
-      <c r="D129" s="45"/>
-      <c r="E129" s="48"/>
-      <c r="F129" s="47"/>
-      <c r="G129" s="48"/>
-      <c r="H129" s="55"/>
-      <c r="I129" s="45"/>
-      <c r="J129" s="45"/>
-      <c r="K129" s="45"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A130" s="45"/>
-      <c r="B130" s="45"/>
-      <c r="C130" s="45"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="48"/>
-      <c r="F130" s="47"/>
-      <c r="G130" s="48"/>
-      <c r="H130" s="55"/>
-      <c r="I130" s="45"/>
-      <c r="J130" s="45"/>
-      <c r="K130" s="45"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A131" s="45"/>
-      <c r="B131" s="45"/>
-      <c r="C131" s="45"/>
-      <c r="D131" s="45"/>
-      <c r="E131" s="48"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="48"/>
-      <c r="H131" s="55"/>
-      <c r="I131" s="45"/>
-      <c r="J131" s="45"/>
-      <c r="K131" s="45"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A132" s="45"/>
-      <c r="B132" s="45"/>
-      <c r="C132" s="45"/>
-      <c r="D132" s="45"/>
-      <c r="E132" s="48"/>
-      <c r="F132" s="47"/>
-      <c r="G132" s="48"/>
-      <c r="H132" s="55"/>
-      <c r="I132" s="45"/>
-      <c r="J132" s="45"/>
-      <c r="K132" s="45"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A133" s="45"/>
-      <c r="B133" s="45"/>
-      <c r="C133" s="45"/>
-      <c r="D133" s="45"/>
-      <c r="E133" s="48"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="48"/>
-      <c r="H133" s="55"/>
-      <c r="I133" s="45"/>
-      <c r="J133" s="45"/>
-      <c r="K133" s="45"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A134" s="45"/>
-      <c r="B134" s="45"/>
-      <c r="C134" s="45"/>
-      <c r="D134" s="45"/>
-      <c r="E134" s="48"/>
-      <c r="F134" s="47"/>
-      <c r="G134" s="48"/>
-      <c r="H134" s="55"/>
-      <c r="I134" s="45"/>
-      <c r="J134" s="45"/>
-      <c r="K134" s="45"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A135" s="45"/>
-      <c r="B135" s="45"/>
-      <c r="C135" s="45"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="48"/>
-      <c r="F135" s="47"/>
-      <c r="G135" s="48"/>
-      <c r="H135" s="55"/>
-      <c r="I135" s="45"/>
-      <c r="J135" s="45"/>
-      <c r="K135" s="45"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A136" s="45"/>
-      <c r="B136" s="45"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="45"/>
-      <c r="E136" s="48"/>
-      <c r="F136" s="47"/>
-      <c r="G136" s="48"/>
-      <c r="H136" s="55"/>
-      <c r="I136" s="45"/>
-      <c r="J136" s="45"/>
-      <c r="K136" s="45"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A137" s="45"/>
-      <c r="B137" s="45"/>
-      <c r="C137" s="45"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="48"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="48"/>
-      <c r="H137" s="55"/>
-      <c r="I137" s="45"/>
-      <c r="J137" s="45"/>
-      <c r="K137" s="45"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A138" s="45"/>
-      <c r="B138" s="45"/>
-      <c r="C138" s="45"/>
-      <c r="D138" s="45"/>
-      <c r="E138" s="48"/>
-      <c r="F138" s="47"/>
-      <c r="G138" s="48"/>
-      <c r="H138" s="55"/>
-      <c r="I138" s="45"/>
-      <c r="J138" s="45"/>
-      <c r="K138" s="45"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A139" s="45"/>
-      <c r="B139" s="45"/>
-      <c r="C139" s="45"/>
-      <c r="D139" s="45"/>
-      <c r="E139" s="48"/>
-      <c r="F139" s="47"/>
-      <c r="G139" s="48"/>
-      <c r="H139" s="55"/>
-      <c r="I139" s="45"/>
-      <c r="J139" s="45"/>
-      <c r="K139" s="45"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A140" s="45"/>
-      <c r="B140" s="45"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="48"/>
-      <c r="F140" s="47"/>
-      <c r="G140" s="48"/>
-      <c r="H140" s="55"/>
-      <c r="I140" s="45"/>
-      <c r="J140" s="45"/>
-      <c r="K140" s="45"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A141" s="45"/>
-      <c r="B141" s="45"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="48"/>
-      <c r="F141" s="47"/>
-      <c r="G141" s="48"/>
-      <c r="H141" s="55"/>
-      <c r="I141" s="45"/>
-      <c r="J141" s="45"/>
-      <c r="K141" s="45"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A142" s="45"/>
-      <c r="B142" s="45"/>
-      <c r="C142" s="45"/>
-      <c r="D142" s="45"/>
-      <c r="E142" s="48"/>
-      <c r="F142" s="47"/>
-      <c r="G142" s="48"/>
-      <c r="H142" s="55"/>
-      <c r="I142" s="45"/>
-      <c r="J142" s="45"/>
-      <c r="K142" s="45"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A143" s="45"/>
-      <c r="B143" s="45"/>
-      <c r="C143" s="45"/>
-      <c r="D143" s="45"/>
-      <c r="E143" s="48"/>
-      <c r="F143" s="47"/>
-      <c r="G143" s="48"/>
-      <c r="H143" s="55"/>
-      <c r="I143" s="45"/>
-      <c r="J143" s="45"/>
-      <c r="K143" s="45"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A144" s="45"/>
-      <c r="B144" s="45"/>
-      <c r="C144" s="45"/>
-      <c r="D144" s="45"/>
-      <c r="E144" s="48"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="48"/>
-      <c r="H144" s="55"/>
-      <c r="I144" s="45"/>
-      <c r="J144" s="45"/>
-      <c r="K144" s="45"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A145" s="45"/>
-      <c r="B145" s="45"/>
-      <c r="C145" s="45"/>
-      <c r="D145" s="45"/>
-      <c r="E145" s="48"/>
-      <c r="F145" s="47"/>
-      <c r="G145" s="48"/>
-      <c r="H145" s="55"/>
-      <c r="I145" s="45"/>
-      <c r="J145" s="45"/>
-      <c r="K145" s="45"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A146" s="45"/>
-      <c r="B146" s="45"/>
-      <c r="C146" s="45"/>
-      <c r="D146" s="45"/>
-      <c r="E146" s="48"/>
-      <c r="F146" s="47"/>
-      <c r="G146" s="48"/>
-      <c r="H146" s="55"/>
-      <c r="I146" s="45"/>
-      <c r="J146" s="45"/>
-      <c r="K146" s="45"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A147" s="45"/>
-      <c r="B147" s="45"/>
-      <c r="C147" s="45"/>
-      <c r="D147" s="45"/>
-      <c r="E147" s="48"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="48"/>
-      <c r="H147" s="55"/>
-      <c r="I147" s="45"/>
-      <c r="J147" s="45"/>
-      <c r="K147" s="45"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A148" s="45"/>
-      <c r="B148" s="45"/>
-      <c r="C148" s="45"/>
-      <c r="D148" s="45"/>
-      <c r="E148" s="48"/>
-      <c r="F148" s="47"/>
-      <c r="G148" s="48"/>
-      <c r="H148" s="55"/>
-      <c r="I148" s="45"/>
-      <c r="J148" s="45"/>
-      <c r="K148" s="45"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A149" s="45"/>
-      <c r="B149" s="45"/>
-      <c r="C149" s="45"/>
-      <c r="D149" s="45"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="47"/>
-      <c r="G149" s="48"/>
-      <c r="H149" s="55"/>
-      <c r="I149" s="45"/>
-      <c r="J149" s="45"/>
-      <c r="K149" s="45"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A150" s="45"/>
-      <c r="B150" s="45"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="45"/>
-      <c r="E150" s="48"/>
-      <c r="F150" s="47"/>
-      <c r="G150" s="48"/>
-      <c r="H150" s="55"/>
-      <c r="I150" s="45"/>
-      <c r="J150" s="45"/>
-      <c r="K150" s="45"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A151" s="45"/>
-      <c r="B151" s="45"/>
-      <c r="C151" s="45"/>
-      <c r="D151" s="45"/>
-      <c r="E151" s="48"/>
-      <c r="F151" s="47"/>
-      <c r="G151" s="48"/>
-      <c r="H151" s="55"/>
-      <c r="I151" s="45"/>
-      <c r="J151" s="45"/>
-      <c r="K151" s="45"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A152" s="45"/>
-      <c r="B152" s="45"/>
-      <c r="C152" s="45"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="48"/>
-      <c r="F152" s="47"/>
-      <c r="G152" s="48"/>
-      <c r="H152" s="55"/>
-      <c r="I152" s="45"/>
-      <c r="J152" s="45"/>
-      <c r="K152" s="45"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A153" s="45"/>
-      <c r="B153" s="45"/>
-      <c r="C153" s="45"/>
-      <c r="D153" s="45"/>
-      <c r="E153" s="48"/>
-      <c r="F153" s="47"/>
-      <c r="G153" s="48"/>
-      <c r="H153" s="55"/>
-      <c r="I153" s="45"/>
-      <c r="J153" s="45"/>
-      <c r="K153" s="45"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A154" s="45"/>
-      <c r="B154" s="45"/>
-      <c r="C154" s="45"/>
-      <c r="D154" s="45"/>
-      <c r="E154" s="48"/>
-      <c r="F154" s="47"/>
-      <c r="G154" s="48"/>
-      <c r="H154" s="55"/>
-      <c r="I154" s="45"/>
-      <c r="J154" s="45"/>
-      <c r="K154" s="45"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A155" s="45"/>
-      <c r="B155" s="45"/>
-      <c r="C155" s="45"/>
-      <c r="D155" s="45"/>
-      <c r="E155" s="48"/>
-      <c r="F155" s="47"/>
-      <c r="G155" s="48"/>
-      <c r="H155" s="55"/>
-      <c r="I155" s="45"/>
-      <c r="J155" s="45"/>
-      <c r="K155" s="45"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A156" s="45"/>
-      <c r="B156" s="45"/>
-      <c r="C156" s="45"/>
-      <c r="D156" s="45"/>
-      <c r="E156" s="48"/>
-      <c r="F156" s="47"/>
-      <c r="G156" s="48"/>
-      <c r="H156" s="55"/>
-      <c r="I156" s="45"/>
-      <c r="J156" s="45"/>
-      <c r="K156" s="45"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A157" s="45"/>
-      <c r="B157" s="45"/>
-      <c r="C157" s="45"/>
-      <c r="D157" s="45"/>
-      <c r="E157" s="48"/>
-      <c r="F157" s="47"/>
-      <c r="G157" s="48"/>
-      <c r="H157" s="55"/>
-      <c r="I157" s="45"/>
-      <c r="J157" s="45"/>
-      <c r="K157" s="45"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A158" s="45"/>
-      <c r="B158" s="45"/>
-      <c r="C158" s="45"/>
-      <c r="D158" s="45"/>
-      <c r="E158" s="48"/>
-      <c r="F158" s="47"/>
-      <c r="G158" s="48"/>
-      <c r="H158" s="55"/>
-      <c r="I158" s="45"/>
-      <c r="J158" s="45"/>
-      <c r="K158" s="45"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A159" s="45"/>
-      <c r="B159" s="45"/>
-      <c r="C159" s="45"/>
-      <c r="D159" s="45"/>
-      <c r="E159" s="48"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="48"/>
-      <c r="H159" s="55"/>
-      <c r="I159" s="45"/>
-      <c r="J159" s="45"/>
-      <c r="K159" s="45"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A160" s="45"/>
-      <c r="B160" s="45"/>
-      <c r="C160" s="45"/>
-      <c r="D160" s="45"/>
-      <c r="E160" s="48"/>
-      <c r="F160" s="47"/>
-      <c r="G160" s="48"/>
-      <c r="H160" s="55"/>
-      <c r="I160" s="45"/>
-      <c r="J160" s="45"/>
-      <c r="K160" s="45"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A161" s="45"/>
-      <c r="B161" s="45"/>
-      <c r="C161" s="45"/>
-      <c r="D161" s="45"/>
-      <c r="E161" s="48"/>
-      <c r="F161" s="47"/>
-      <c r="G161" s="48"/>
-      <c r="H161" s="55"/>
-      <c r="I161" s="45"/>
-      <c r="J161" s="45"/>
-      <c r="K161" s="45"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A162" s="45"/>
-      <c r="B162" s="45"/>
-      <c r="C162" s="45"/>
-      <c r="D162" s="45"/>
-      <c r="E162" s="48"/>
-      <c r="F162" s="47"/>
-      <c r="G162" s="48"/>
-      <c r="H162" s="55"/>
-      <c r="I162" s="45"/>
-      <c r="J162" s="45"/>
-      <c r="K162" s="45"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A163" s="45"/>
-      <c r="B163" s="45"/>
-      <c r="C163" s="45"/>
-      <c r="D163" s="45"/>
-      <c r="E163" s="48"/>
-      <c r="F163" s="47"/>
-      <c r="G163" s="48"/>
-      <c r="H163" s="55"/>
-      <c r="I163" s="45"/>
-      <c r="J163" s="45"/>
-      <c r="K163" s="45"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A164" s="45"/>
-      <c r="B164" s="45"/>
-      <c r="C164" s="45"/>
-      <c r="D164" s="45"/>
-      <c r="E164" s="48"/>
-      <c r="F164" s="47"/>
-      <c r="G164" s="48"/>
-      <c r="H164" s="55"/>
-      <c r="I164" s="45"/>
-      <c r="J164" s="45"/>
-      <c r="K164" s="45"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A165" s="45"/>
-      <c r="B165" s="45"/>
-      <c r="C165" s="45"/>
-      <c r="D165" s="45"/>
-      <c r="E165" s="48"/>
-      <c r="F165" s="47"/>
-      <c r="G165" s="48"/>
-      <c r="H165" s="55"/>
-      <c r="I165" s="45"/>
-      <c r="J165" s="45"/>
-      <c r="K165" s="45"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A166" s="45"/>
-      <c r="B166" s="45"/>
-      <c r="C166" s="45"/>
-      <c r="D166" s="45"/>
-      <c r="E166" s="48"/>
-      <c r="F166" s="47"/>
-      <c r="G166" s="48"/>
-      <c r="H166" s="55"/>
-      <c r="I166" s="45"/>
-      <c r="J166" s="45"/>
-      <c r="K166" s="45"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A167" s="45"/>
-      <c r="B167" s="45"/>
-      <c r="C167" s="45"/>
-      <c r="D167" s="45"/>
-      <c r="E167" s="48"/>
-      <c r="F167" s="47"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="55"/>
-      <c r="I167" s="45"/>
-      <c r="J167" s="45"/>
-      <c r="K167" s="45"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A168" s="45"/>
-      <c r="B168" s="45"/>
-      <c r="C168" s="45"/>
-      <c r="D168" s="45"/>
-      <c r="E168" s="48"/>
-      <c r="F168" s="47"/>
-      <c r="G168" s="48"/>
-      <c r="H168" s="55"/>
-      <c r="I168" s="45"/>
-      <c r="J168" s="45"/>
-      <c r="K168" s="45"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A169" s="45"/>
-      <c r="B169" s="45"/>
-      <c r="C169" s="45"/>
-      <c r="D169" s="45"/>
-      <c r="E169" s="48"/>
-      <c r="F169" s="47"/>
-      <c r="G169" s="48"/>
-      <c r="H169" s="55"/>
-      <c r="I169" s="45"/>
-      <c r="J169" s="45"/>
-      <c r="K169" s="45"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A170" s="45"/>
-      <c r="B170" s="45"/>
-      <c r="C170" s="45"/>
-      <c r="D170" s="45"/>
-      <c r="E170" s="48"/>
-      <c r="F170" s="47"/>
-      <c r="G170" s="48"/>
-      <c r="H170" s="55"/>
-      <c r="I170" s="45"/>
-      <c r="J170" s="45"/>
-      <c r="K170" s="45"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A171" s="45"/>
-      <c r="B171" s="45"/>
-      <c r="C171" s="45"/>
-      <c r="D171" s="45"/>
-      <c r="E171" s="48"/>
-      <c r="F171" s="47"/>
-      <c r="G171" s="48"/>
-      <c r="H171" s="55"/>
-      <c r="I171" s="45"/>
-      <c r="J171" s="45"/>
-      <c r="K171" s="45"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A172" s="45"/>
-      <c r="B172" s="45"/>
-      <c r="C172" s="45"/>
-      <c r="D172" s="45"/>
-      <c r="E172" s="48"/>
-      <c r="F172" s="47"/>
-      <c r="G172" s="48"/>
-      <c r="H172" s="55"/>
-      <c r="I172" s="45"/>
-      <c r="J172" s="45"/>
-      <c r="K172" s="45"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A173" s="45"/>
-      <c r="B173" s="45"/>
-      <c r="C173" s="45"/>
-      <c r="D173" s="45"/>
-      <c r="E173" s="48"/>
-      <c r="F173" s="47"/>
-      <c r="G173" s="48"/>
-      <c r="H173" s="55"/>
-      <c r="I173" s="45"/>
-      <c r="J173" s="45"/>
-      <c r="K173" s="45"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A174" s="45"/>
-      <c r="B174" s="45"/>
-      <c r="C174" s="45"/>
-      <c r="D174" s="45"/>
-      <c r="E174" s="48"/>
-      <c r="F174" s="47"/>
-      <c r="G174" s="48"/>
-      <c r="H174" s="55"/>
-      <c r="I174" s="45"/>
-      <c r="J174" s="45"/>
-      <c r="K174" s="45"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A175" s="45"/>
-      <c r="B175" s="45"/>
-      <c r="C175" s="45"/>
-      <c r="D175" s="45"/>
-      <c r="E175" s="48"/>
-      <c r="F175" s="47"/>
-      <c r="G175" s="48"/>
-      <c r="H175" s="55"/>
-      <c r="I175" s="45"/>
-      <c r="J175" s="45"/>
-      <c r="K175" s="45"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A176" s="45"/>
-      <c r="B176" s="45"/>
-      <c r="C176" s="45"/>
-      <c r="D176" s="45"/>
-      <c r="E176" s="48"/>
-      <c r="F176" s="47"/>
-      <c r="G176" s="48"/>
-      <c r="H176" s="55"/>
-      <c r="I176" s="45"/>
-      <c r="J176" s="45"/>
-      <c r="K176" s="45"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A177" s="45"/>
-      <c r="B177" s="45"/>
-      <c r="C177" s="45"/>
-      <c r="D177" s="45"/>
-      <c r="E177" s="48"/>
-      <c r="F177" s="47"/>
-      <c r="G177" s="48"/>
-      <c r="H177" s="55"/>
-      <c r="I177" s="45"/>
-      <c r="J177" s="45"/>
-      <c r="K177" s="45"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A178" s="45"/>
-      <c r="B178" s="45"/>
-      <c r="C178" s="45"/>
-      <c r="D178" s="45"/>
-      <c r="E178" s="48"/>
-      <c r="F178" s="47"/>
-      <c r="G178" s="48"/>
-      <c r="H178" s="55"/>
-      <c r="I178" s="45"/>
-      <c r="J178" s="45"/>
-      <c r="K178" s="45"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A179" s="45"/>
-      <c r="B179" s="45"/>
-      <c r="C179" s="45"/>
-      <c r="D179" s="45"/>
-      <c r="E179" s="48"/>
-      <c r="F179" s="47"/>
-      <c r="G179" s="48"/>
-      <c r="H179" s="55"/>
-      <c r="I179" s="45"/>
-      <c r="J179" s="45"/>
-      <c r="K179" s="45"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A180" s="45"/>
-      <c r="B180" s="45"/>
-      <c r="C180" s="45"/>
-      <c r="D180" s="45"/>
-      <c r="E180" s="48"/>
-      <c r="F180" s="47"/>
-      <c r="G180" s="48"/>
-      <c r="H180" s="55"/>
-      <c r="I180" s="45"/>
-      <c r="J180" s="45"/>
-      <c r="K180" s="45"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A181" s="45"/>
-      <c r="B181" s="45"/>
-      <c r="C181" s="45"/>
-      <c r="D181" s="45"/>
-      <c r="E181" s="48"/>
-      <c r="F181" s="47"/>
-      <c r="G181" s="48"/>
-      <c r="H181" s="55"/>
-      <c r="I181" s="45"/>
-      <c r="J181" s="45"/>
-      <c r="K181" s="45"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A182" s="45"/>
-      <c r="B182" s="45"/>
-      <c r="C182" s="45"/>
-      <c r="D182" s="45"/>
-      <c r="E182" s="48"/>
-      <c r="F182" s="47"/>
-      <c r="G182" s="48"/>
-      <c r="H182" s="55"/>
-      <c r="I182" s="45"/>
-      <c r="J182" s="45"/>
-      <c r="K182" s="45"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A183" s="45"/>
-      <c r="B183" s="45"/>
-      <c r="C183" s="45"/>
-      <c r="D183" s="45"/>
-      <c r="E183" s="48"/>
-      <c r="F183" s="47"/>
-      <c r="G183" s="48"/>
-      <c r="H183" s="55"/>
-      <c r="I183" s="45"/>
-      <c r="J183" s="45"/>
-      <c r="K183" s="45"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A184" s="45"/>
-      <c r="B184" s="45"/>
-      <c r="C184" s="45"/>
-      <c r="D184" s="45"/>
-      <c r="E184" s="48"/>
-      <c r="F184" s="47"/>
-      <c r="G184" s="48"/>
-      <c r="H184" s="55"/>
-      <c r="I184" s="45"/>
-      <c r="J184" s="45"/>
-      <c r="K184" s="45"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A185" s="45"/>
-      <c r="B185" s="45"/>
-      <c r="C185" s="45"/>
-      <c r="D185" s="45"/>
-      <c r="E185" s="48"/>
-      <c r="F185" s="45"/>
-      <c r="G185" s="45"/>
-      <c r="H185" s="55"/>
-      <c r="I185" s="45"/>
-      <c r="J185" s="45"/>
-      <c r="K185" s="45"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A186" s="45"/>
-      <c r="B186" s="45"/>
-      <c r="C186" s="45"/>
-      <c r="D186" s="45"/>
-      <c r="E186" s="48"/>
-      <c r="F186" s="47"/>
-      <c r="G186" s="48"/>
-      <c r="H186" s="55"/>
-      <c r="I186" s="45"/>
-      <c r="J186" s="45"/>
-      <c r="K186" s="45"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A187" s="45"/>
-      <c r="B187" s="45"/>
-      <c r="C187" s="45"/>
-      <c r="D187" s="45"/>
-      <c r="E187" s="48"/>
-      <c r="F187" s="47"/>
-      <c r="G187" s="48"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="45"/>
-      <c r="J187" s="45"/>
-      <c r="K187" s="45"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A188" s="45"/>
-      <c r="B188" s="45"/>
-      <c r="C188" s="45"/>
-      <c r="D188" s="45"/>
-      <c r="E188" s="48"/>
-      <c r="F188" s="47"/>
-      <c r="G188" s="48"/>
-      <c r="H188" s="55"/>
-      <c r="I188" s="45"/>
-      <c r="J188" s="45"/>
-      <c r="K188" s="45"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A189" s="45"/>
-      <c r="B189" s="45"/>
-      <c r="C189" s="45"/>
-      <c r="D189" s="45"/>
-      <c r="E189" s="48"/>
-      <c r="F189" s="47"/>
-      <c r="G189" s="48"/>
-      <c r="H189" s="55"/>
-      <c r="I189" s="45"/>
-      <c r="J189" s="45"/>
-      <c r="K189" s="45"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A190" s="45"/>
-      <c r="B190" s="45"/>
-      <c r="C190" s="45"/>
-      <c r="D190" s="45"/>
-      <c r="E190" s="48"/>
-      <c r="F190" s="47"/>
-      <c r="G190" s="48"/>
-      <c r="H190" s="55"/>
-      <c r="I190" s="45"/>
-      <c r="J190" s="45"/>
-      <c r="K190" s="45"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A191" s="45"/>
-      <c r="B191" s="45"/>
-      <c r="C191" s="45"/>
-      <c r="D191" s="45"/>
-      <c r="E191" s="48"/>
-      <c r="F191" s="47"/>
-      <c r="G191" s="48"/>
-      <c r="H191" s="55"/>
-      <c r="I191" s="45"/>
-      <c r="J191" s="45"/>
-      <c r="K191" s="45"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A192" s="45"/>
-      <c r="B192" s="45"/>
-      <c r="C192" s="45"/>
-      <c r="D192" s="45"/>
-      <c r="E192" s="48"/>
-      <c r="F192" s="47"/>
-      <c r="G192" s="48"/>
-      <c r="H192" s="55"/>
-      <c r="I192" s="45"/>
-      <c r="J192" s="45"/>
-      <c r="K192" s="45"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A193" s="45"/>
-      <c r="B193" s="45"/>
-      <c r="C193" s="45"/>
-      <c r="D193" s="45"/>
-      <c r="E193" s="48"/>
-      <c r="F193" s="47"/>
-      <c r="G193" s="48"/>
-      <c r="H193" s="55"/>
-      <c r="I193" s="45"/>
-      <c r="J193" s="45"/>
-      <c r="K193" s="45"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A194" s="45"/>
-      <c r="B194" s="45"/>
-      <c r="C194" s="45"/>
-      <c r="D194" s="45"/>
-      <c r="E194" s="48"/>
-      <c r="F194" s="47"/>
-      <c r="G194" s="48"/>
-      <c r="H194" s="55"/>
-      <c r="I194" s="45"/>
-      <c r="J194" s="45"/>
-      <c r="K194" s="45"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A195" s="45"/>
-      <c r="B195" s="45"/>
-      <c r="C195" s="45"/>
-      <c r="D195" s="45"/>
-      <c r="E195" s="48"/>
-      <c r="F195" s="47"/>
-      <c r="G195" s="48"/>
-      <c r="H195" s="55"/>
-      <c r="I195" s="45"/>
-      <c r="J195" s="45"/>
-      <c r="K195" s="45"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A196" s="45"/>
-      <c r="B196" s="45"/>
-      <c r="C196" s="45"/>
-      <c r="D196" s="45"/>
-      <c r="E196" s="48"/>
-      <c r="F196" s="47"/>
-      <c r="G196" s="48"/>
-      <c r="H196" s="55"/>
-      <c r="I196" s="45"/>
-      <c r="J196" s="45"/>
-      <c r="K196" s="45"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A197" s="45"/>
-      <c r="B197" s="45"/>
-      <c r="C197" s="45"/>
-      <c r="D197" s="45"/>
-      <c r="E197" s="48"/>
-      <c r="F197" s="47"/>
-      <c r="G197" s="48"/>
-      <c r="H197" s="55"/>
-      <c r="I197" s="45"/>
-      <c r="J197" s="45"/>
-      <c r="K197" s="45"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A198" s="45"/>
-      <c r="B198" s="45"/>
-      <c r="C198" s="45"/>
-      <c r="D198" s="45"/>
-      <c r="E198" s="48"/>
-      <c r="F198" s="47"/>
-      <c r="G198" s="48"/>
-      <c r="H198" s="55"/>
-      <c r="I198" s="45"/>
-      <c r="J198" s="45"/>
-      <c r="K198" s="45"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A199" s="45"/>
-      <c r="B199" s="45"/>
-      <c r="C199" s="45"/>
-      <c r="D199" s="45"/>
-      <c r="E199" s="48"/>
-      <c r="F199" s="47"/>
-      <c r="G199" s="48"/>
-      <c r="H199" s="55"/>
-      <c r="I199" s="45"/>
-      <c r="J199" s="45"/>
-      <c r="K199" s="45"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A200" s="45"/>
-      <c r="B200" s="45"/>
-      <c r="C200" s="45"/>
-      <c r="D200" s="45"/>
-      <c r="E200" s="48"/>
-      <c r="F200" s="47"/>
-      <c r="G200" s="48"/>
-      <c r="H200" s="55"/>
-      <c r="I200" s="45"/>
-      <c r="J200" s="45"/>
-      <c r="K200" s="45"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A201" s="45"/>
-      <c r="B201" s="45"/>
-      <c r="C201" s="45"/>
-      <c r="D201" s="45"/>
-      <c r="E201" s="48"/>
-      <c r="F201" s="47"/>
-      <c r="G201" s="48"/>
-      <c r="H201" s="55"/>
-      <c r="I201" s="45"/>
-      <c r="J201" s="45"/>
-      <c r="K201" s="45"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A202" s="45"/>
-      <c r="B202" s="45"/>
-      <c r="C202" s="45"/>
-      <c r="D202" s="45"/>
-      <c r="E202" s="48"/>
-      <c r="F202" s="47"/>
-      <c r="G202" s="48"/>
-      <c r="H202" s="55"/>
-      <c r="I202" s="45"/>
-      <c r="J202" s="45"/>
-      <c r="K202" s="45"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A203" s="45"/>
-      <c r="B203" s="45"/>
-      <c r="C203" s="45"/>
-      <c r="D203" s="45"/>
-      <c r="E203" s="48"/>
-      <c r="F203" s="47"/>
-      <c r="G203" s="48"/>
-      <c r="H203" s="55"/>
-      <c r="I203" s="45"/>
-      <c r="J203" s="45"/>
-      <c r="K203" s="45"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A204" s="45"/>
-      <c r="B204" s="45"/>
-      <c r="C204" s="45"/>
-      <c r="D204" s="45"/>
-      <c r="E204" s="48"/>
-      <c r="F204" s="47"/>
-      <c r="G204" s="48"/>
-      <c r="H204" s="55"/>
-      <c r="I204" s="45"/>
-      <c r="J204" s="45"/>
-      <c r="K204" s="45"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A205" s="45"/>
-      <c r="B205" s="45"/>
-      <c r="C205" s="45"/>
-      <c r="D205" s="45"/>
-      <c r="E205" s="48"/>
-      <c r="F205" s="47"/>
-      <c r="G205" s="48"/>
-      <c r="H205" s="55"/>
-      <c r="I205" s="45"/>
-      <c r="J205" s="45"/>
-      <c r="K205" s="45"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A206" s="45"/>
-      <c r="B206" s="45"/>
-      <c r="C206" s="45"/>
-      <c r="D206" s="45"/>
-      <c r="E206" s="48"/>
-      <c r="F206" s="47"/>
-      <c r="G206" s="48"/>
-      <c r="H206" s="55"/>
-      <c r="I206" s="45"/>
-      <c r="J206" s="45"/>
-      <c r="K206" s="45"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A207" s="45"/>
-      <c r="B207" s="45"/>
-      <c r="C207" s="45"/>
-      <c r="D207" s="45"/>
-      <c r="E207" s="48"/>
-      <c r="F207" s="47"/>
-      <c r="G207" s="48"/>
-      <c r="H207" s="55"/>
-      <c r="I207" s="45"/>
-      <c r="J207" s="45"/>
-      <c r="K207" s="45"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A208" s="45"/>
-      <c r="B208" s="45"/>
-      <c r="C208" s="45"/>
-      <c r="D208" s="45"/>
-      <c r="E208" s="48"/>
-      <c r="F208" s="47"/>
-      <c r="G208" s="48"/>
-      <c r="H208" s="55"/>
-      <c r="I208" s="45"/>
-      <c r="J208" s="45"/>
-      <c r="K208" s="45"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A209" s="45"/>
-      <c r="B209" s="45"/>
-      <c r="C209" s="45"/>
-      <c r="D209" s="45"/>
-      <c r="E209" s="48"/>
-      <c r="F209" s="47"/>
-      <c r="G209" s="48"/>
-      <c r="H209" s="55"/>
-      <c r="I209" s="45"/>
-      <c r="J209" s="45"/>
-      <c r="K209" s="45"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A210" s="45"/>
-      <c r="B210" s="45"/>
-      <c r="C210" s="45"/>
-      <c r="D210" s="45"/>
-      <c r="E210" s="48"/>
-      <c r="F210" s="47"/>
-      <c r="G210" s="48"/>
-      <c r="H210" s="55"/>
-      <c r="I210" s="45"/>
-      <c r="J210" s="45"/>
-      <c r="K210" s="45"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A211" s="45"/>
-      <c r="B211" s="45"/>
-      <c r="C211" s="45"/>
-      <c r="D211" s="45"/>
-      <c r="E211" s="48"/>
-      <c r="F211" s="47"/>
-      <c r="G211" s="48"/>
-      <c r="H211" s="55"/>
-      <c r="I211" s="45"/>
-      <c r="J211" s="45"/>
-      <c r="K211" s="45"/>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A212" s="45"/>
-      <c r="B212" s="45"/>
-      <c r="C212" s="45"/>
-      <c r="D212" s="45"/>
-      <c r="E212" s="48"/>
-      <c r="F212" s="47"/>
-      <c r="G212" s="48"/>
-      <c r="H212" s="55"/>
-      <c r="I212" s="45"/>
-      <c r="J212" s="45"/>
-      <c r="K212" s="45"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A213" s="45"/>
-      <c r="B213" s="45"/>
-      <c r="C213" s="45"/>
-      <c r="D213" s="45"/>
-      <c r="E213" s="48"/>
-      <c r="F213" s="47"/>
-      <c r="G213" s="48"/>
-      <c r="H213" s="55"/>
-      <c r="I213" s="45"/>
-      <c r="J213" s="45"/>
-      <c r="K213" s="45"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A214" s="45"/>
-      <c r="B214" s="45"/>
-      <c r="C214" s="45"/>
-      <c r="D214" s="45"/>
-      <c r="E214" s="48"/>
-      <c r="F214" s="47"/>
-      <c r="G214" s="48"/>
-      <c r="H214" s="55"/>
-      <c r="I214" s="45"/>
-      <c r="J214" s="45"/>
-      <c r="K214" s="45"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A215" s="45"/>
-      <c r="B215" s="45"/>
-      <c r="C215" s="45"/>
-      <c r="D215" s="45"/>
-      <c r="E215" s="48"/>
-      <c r="F215" s="47"/>
-      <c r="G215" s="48"/>
-      <c r="H215" s="55"/>
-      <c r="I215" s="45"/>
-      <c r="J215" s="45"/>
-      <c r="K215" s="45"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A216" s="45"/>
-      <c r="B216" s="45"/>
-      <c r="C216" s="45"/>
-      <c r="D216" s="45"/>
-      <c r="E216" s="48"/>
-      <c r="F216" s="47"/>
-      <c r="G216" s="48"/>
-      <c r="H216" s="55"/>
-      <c r="I216" s="45"/>
-      <c r="J216" s="45"/>
-      <c r="K216" s="45"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A217" s="45"/>
-      <c r="B217" s="45"/>
-      <c r="C217" s="45"/>
-      <c r="D217" s="45"/>
-      <c r="E217" s="48"/>
-      <c r="F217" s="47"/>
-      <c r="G217" s="48"/>
-      <c r="H217" s="55"/>
-      <c r="I217" s="45"/>
-      <c r="J217" s="45"/>
-      <c r="K217" s="45"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A218" s="45"/>
-      <c r="B218" s="45"/>
-      <c r="C218" s="45"/>
-      <c r="D218" s="45"/>
-      <c r="E218" s="48"/>
-      <c r="F218" s="47"/>
-      <c r="G218" s="48"/>
-      <c r="H218" s="55"/>
-      <c r="I218" s="45"/>
-      <c r="J218" s="45"/>
-      <c r="K218" s="45"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A219" s="45"/>
-      <c r="B219" s="45"/>
-      <c r="C219" s="45"/>
-      <c r="D219" s="45"/>
-      <c r="E219" s="48"/>
-      <c r="F219" s="47"/>
-      <c r="G219" s="48"/>
-      <c r="H219" s="55"/>
-      <c r="I219" s="45"/>
-      <c r="J219" s="45"/>
-      <c r="K219" s="45"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A220" s="45"/>
-      <c r="B220" s="45"/>
-      <c r="C220" s="45"/>
-      <c r="D220" s="45"/>
-      <c r="E220" s="48"/>
-      <c r="F220" s="47"/>
-      <c r="G220" s="48"/>
-      <c r="H220" s="55"/>
-      <c r="I220" s="45"/>
-      <c r="J220" s="45"/>
-      <c r="K220" s="45"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A221" s="45"/>
-      <c r="B221" s="45"/>
-      <c r="C221" s="45"/>
-      <c r="D221" s="45"/>
-      <c r="E221" s="48"/>
-      <c r="F221" s="47"/>
-      <c r="G221" s="48"/>
-      <c r="H221" s="55"/>
-      <c r="I221" s="45"/>
-      <c r="J221" s="45"/>
-      <c r="K221" s="45"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A222" s="45"/>
-      <c r="B222" s="45"/>
-      <c r="C222" s="45"/>
-      <c r="D222" s="45"/>
-      <c r="E222" s="48"/>
-      <c r="F222" s="47"/>
-      <c r="G222" s="48"/>
-      <c r="H222" s="55"/>
-      <c r="I222" s="45"/>
-      <c r="J222" s="45"/>
-      <c r="K222" s="45"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A223" s="45"/>
-      <c r="B223" s="45"/>
-      <c r="C223" s="45"/>
-      <c r="D223" s="45"/>
-      <c r="E223" s="48"/>
-      <c r="F223" s="47"/>
-      <c r="G223" s="48"/>
-      <c r="H223" s="55"/>
-      <c r="I223" s="45"/>
-      <c r="J223" s="45"/>
-      <c r="K223" s="45"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A224" s="45"/>
-      <c r="B224" s="45"/>
-      <c r="C224" s="45"/>
-      <c r="D224" s="45"/>
-      <c r="E224" s="48"/>
-      <c r="F224" s="47"/>
-      <c r="G224" s="48"/>
-      <c r="H224" s="55"/>
-      <c r="I224" s="45"/>
-      <c r="J224" s="45"/>
-      <c r="K224" s="45"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A225" s="45"/>
-      <c r="B225" s="45"/>
-      <c r="C225" s="45"/>
-      <c r="D225" s="45"/>
-      <c r="E225" s="48"/>
-      <c r="F225" s="47"/>
-      <c r="G225" s="48"/>
-      <c r="H225" s="55"/>
-      <c r="I225" s="45"/>
-      <c r="J225" s="45"/>
-      <c r="K225" s="45"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A226" s="45"/>
-      <c r="B226" s="45"/>
-      <c r="C226" s="45"/>
-      <c r="D226" s="45"/>
-      <c r="E226" s="48"/>
-      <c r="F226" s="47"/>
-      <c r="G226" s="48"/>
-      <c r="H226" s="55"/>
-      <c r="I226" s="45"/>
-      <c r="J226" s="45"/>
-      <c r="K226" s="45"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A227" s="45"/>
-      <c r="B227" s="45"/>
-      <c r="C227" s="45"/>
-      <c r="D227" s="45"/>
-      <c r="E227" s="48"/>
-      <c r="F227" s="47"/>
-      <c r="G227" s="48"/>
-      <c r="H227" s="55"/>
-      <c r="I227" s="45"/>
-      <c r="J227" s="45"/>
-      <c r="K227" s="45"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A228" s="45"/>
-      <c r="B228" s="45"/>
-      <c r="C228" s="45"/>
-      <c r="D228" s="45"/>
-      <c r="E228" s="48"/>
-      <c r="F228" s="47"/>
-      <c r="G228" s="48"/>
-      <c r="H228" s="55"/>
-      <c r="I228" s="45"/>
-      <c r="J228" s="45"/>
-      <c r="K228" s="45"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A229" s="45"/>
-      <c r="B229" s="45"/>
-      <c r="C229" s="45"/>
-      <c r="D229" s="45"/>
-      <c r="E229" s="48"/>
-      <c r="F229" s="47"/>
-      <c r="G229" s="48"/>
-      <c r="H229" s="55"/>
-      <c r="I229" s="45"/>
-      <c r="J229" s="45"/>
-      <c r="K229" s="45"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A230" s="45"/>
-      <c r="B230" s="45"/>
-      <c r="C230" s="45"/>
-      <c r="D230" s="45"/>
-      <c r="E230" s="48"/>
-      <c r="F230" s="47"/>
-      <c r="G230" s="48"/>
-      <c r="H230" s="55"/>
-      <c r="I230" s="45"/>
-      <c r="J230" s="45"/>
-      <c r="K230" s="45"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A231" s="45"/>
-      <c r="B231" s="45"/>
-      <c r="C231" s="45"/>
-      <c r="D231" s="45"/>
-      <c r="E231" s="48"/>
-      <c r="F231" s="47"/>
-      <c r="G231" s="48"/>
-      <c r="H231" s="55"/>
-      <c r="I231" s="45"/>
-      <c r="J231" s="45"/>
-      <c r="K231" s="45"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A232" s="45"/>
-      <c r="B232" s="45"/>
-      <c r="C232" s="45"/>
-      <c r="D232" s="45"/>
-      <c r="E232" s="48"/>
-      <c r="F232" s="47"/>
-      <c r="G232" s="48"/>
-      <c r="H232" s="55"/>
-      <c r="I232" s="45"/>
-      <c r="J232" s="45"/>
-      <c r="K232" s="45"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A233" s="45"/>
-      <c r="B233" s="45"/>
-      <c r="C233" s="45"/>
-      <c r="D233" s="45"/>
-      <c r="E233" s="48"/>
-      <c r="F233" s="47"/>
-      <c r="G233" s="48"/>
-      <c r="H233" s="55"/>
-      <c r="I233" s="45"/>
-      <c r="J233" s="45"/>
-      <c r="K233" s="45"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A234" s="45"/>
-      <c r="B234" s="45"/>
-      <c r="C234" s="45"/>
-      <c r="D234" s="45"/>
-      <c r="E234" s="48"/>
-      <c r="F234" s="47"/>
-      <c r="G234" s="48"/>
-      <c r="H234" s="55"/>
-      <c r="I234" s="45"/>
-      <c r="J234" s="45"/>
-      <c r="K234" s="45"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A235" s="45"/>
-      <c r="B235" s="45"/>
-      <c r="C235" s="45"/>
-      <c r="D235" s="45"/>
-      <c r="E235" s="48"/>
-      <c r="F235" s="47"/>
-      <c r="G235" s="48"/>
-      <c r="H235" s="55"/>
-      <c r="I235" s="45"/>
-      <c r="J235" s="45"/>
-      <c r="K235" s="45"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A236" s="45"/>
-      <c r="B236" s="45"/>
-      <c r="C236" s="45"/>
-      <c r="D236" s="45"/>
-      <c r="E236" s="48"/>
-      <c r="F236" s="47"/>
-      <c r="G236" s="48"/>
-      <c r="H236" s="55"/>
-      <c r="I236" s="45"/>
-      <c r="J236" s="45"/>
-      <c r="K236" s="45"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A237" s="45"/>
-      <c r="B237" s="45"/>
-      <c r="C237" s="45"/>
-      <c r="D237" s="45"/>
-      <c r="E237" s="48"/>
-      <c r="F237" s="47"/>
-      <c r="G237" s="48"/>
-      <c r="H237" s="55"/>
-      <c r="I237" s="45"/>
-      <c r="J237" s="45"/>
-      <c r="K237" s="45"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A238" s="45"/>
-      <c r="B238" s="45"/>
-      <c r="C238" s="45"/>
-      <c r="D238" s="45"/>
-      <c r="E238" s="48"/>
-      <c r="F238" s="47"/>
-      <c r="G238" s="48"/>
-      <c r="H238" s="55"/>
-      <c r="I238" s="45"/>
-      <c r="J238" s="45"/>
-      <c r="K238" s="45"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A239" s="45"/>
-      <c r="B239" s="45"/>
-      <c r="C239" s="45"/>
-      <c r="D239" s="45"/>
-      <c r="E239" s="48"/>
-      <c r="F239" s="47"/>
-      <c r="G239" s="48"/>
-      <c r="H239" s="55"/>
-      <c r="I239" s="45"/>
-      <c r="J239" s="45"/>
-      <c r="K239" s="45"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A240" s="45"/>
-      <c r="B240" s="45"/>
-      <c r="C240" s="45"/>
-      <c r="D240" s="45"/>
-      <c r="E240" s="48"/>
-      <c r="F240" s="47"/>
-      <c r="G240" s="48"/>
-      <c r="H240" s="55"/>
-      <c r="I240" s="45"/>
-      <c r="J240" s="45"/>
-      <c r="K240" s="45"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A241" s="45"/>
-      <c r="B241" s="45"/>
-      <c r="C241" s="45"/>
-      <c r="D241" s="45"/>
-      <c r="E241" s="48"/>
-      <c r="F241" s="47"/>
-      <c r="G241" s="48"/>
-      <c r="H241" s="55"/>
-      <c r="I241" s="45"/>
-      <c r="J241" s="45"/>
-      <c r="K241" s="45"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A242" s="45"/>
-      <c r="B242" s="45"/>
-      <c r="C242" s="45"/>
-      <c r="D242" s="45"/>
-      <c r="E242" s="48"/>
-      <c r="F242" s="47"/>
-      <c r="G242" s="48"/>
-      <c r="H242" s="55"/>
-      <c r="I242" s="45"/>
-      <c r="J242" s="45"/>
-      <c r="K242" s="45"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A243" s="45"/>
-      <c r="B243" s="45"/>
-      <c r="C243" s="45"/>
-      <c r="D243" s="45"/>
-      <c r="E243" s="48"/>
-      <c r="F243" s="47"/>
-      <c r="G243" s="48"/>
-      <c r="H243" s="55"/>
-      <c r="I243" s="45"/>
-      <c r="J243" s="45"/>
-      <c r="K243" s="45"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A244" s="45"/>
-      <c r="B244" s="45"/>
-      <c r="C244" s="45"/>
-      <c r="D244" s="45"/>
-      <c r="E244" s="48"/>
-      <c r="F244" s="47"/>
-      <c r="G244" s="48"/>
-      <c r="H244" s="55"/>
-      <c r="I244" s="45"/>
-      <c r="J244" s="45"/>
-      <c r="K244" s="45"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A245" s="45"/>
-      <c r="B245" s="45"/>
-      <c r="C245" s="45"/>
-      <c r="D245" s="45"/>
-      <c r="E245" s="48"/>
-      <c r="F245" s="47"/>
-      <c r="G245" s="48"/>
-      <c r="H245" s="55"/>
-      <c r="I245" s="45"/>
-      <c r="J245" s="45"/>
-      <c r="K245" s="45"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A246" s="45"/>
-      <c r="B246" s="45"/>
-      <c r="C246" s="45"/>
-      <c r="D246" s="45"/>
-      <c r="E246" s="48"/>
-      <c r="F246" s="45"/>
-      <c r="G246" s="45"/>
-      <c r="H246" s="55"/>
-      <c r="I246" s="45"/>
-      <c r="J246" s="45"/>
-      <c r="K246" s="45"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A247" s="45"/>
-      <c r="B247" s="45"/>
-      <c r="C247" s="45"/>
-      <c r="D247" s="45"/>
-      <c r="E247" s="48"/>
-      <c r="F247" s="47"/>
-      <c r="G247" s="48"/>
-      <c r="H247" s="55"/>
-      <c r="I247" s="45"/>
-      <c r="J247" s="45"/>
-      <c r="K247" s="45"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A248" s="45"/>
-      <c r="B248" s="45"/>
-      <c r="C248" s="45"/>
-      <c r="D248" s="45"/>
-      <c r="E248" s="48"/>
-      <c r="F248" s="47"/>
-      <c r="G248" s="48"/>
-      <c r="H248" s="55"/>
-      <c r="I248" s="45"/>
-      <c r="J248" s="45"/>
-      <c r="K248" s="45"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A249" s="45"/>
-      <c r="B249" s="45"/>
-      <c r="C249" s="45"/>
-      <c r="D249" s="45"/>
-      <c r="E249" s="48"/>
-      <c r="F249" s="47"/>
-      <c r="G249" s="48"/>
-      <c r="H249" s="55"/>
-      <c r="I249" s="45"/>
-      <c r="J249" s="45"/>
-      <c r="K249" s="45"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A250" s="45"/>
-      <c r="B250" s="45"/>
-      <c r="C250" s="45"/>
-      <c r="D250" s="45"/>
-      <c r="E250" s="48"/>
-      <c r="F250" s="47"/>
-      <c r="G250" s="48"/>
-      <c r="H250" s="55"/>
-      <c r="I250" s="45"/>
-      <c r="J250" s="45"/>
-      <c r="K250" s="45"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A251" s="45"/>
-      <c r="B251" s="45"/>
-      <c r="C251" s="45"/>
-      <c r="D251" s="45"/>
-      <c r="E251" s="48"/>
-      <c r="F251" s="47"/>
-      <c r="G251" s="48"/>
-      <c r="H251" s="55"/>
-      <c r="I251" s="45"/>
-      <c r="J251" s="45"/>
-      <c r="K251" s="45"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A252" s="45"/>
-      <c r="B252" s="45"/>
-      <c r="C252" s="45"/>
-      <c r="D252" s="45"/>
-      <c r="E252" s="48"/>
-      <c r="F252" s="47"/>
-      <c r="G252" s="48"/>
-      <c r="H252" s="55"/>
-      <c r="I252" s="45"/>
-      <c r="J252" s="45"/>
-      <c r="K252" s="45"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A253" s="45"/>
-      <c r="B253" s="45"/>
-      <c r="C253" s="45"/>
-      <c r="D253" s="45"/>
-      <c r="E253" s="48"/>
-      <c r="F253" s="47"/>
-      <c r="G253" s="48"/>
-      <c r="H253" s="55"/>
-      <c r="I253" s="45"/>
-      <c r="J253" s="45"/>
-      <c r="K253" s="45"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A254" s="45"/>
-      <c r="B254" s="45"/>
-      <c r="C254" s="45"/>
-      <c r="D254" s="45"/>
-      <c r="E254" s="48"/>
-      <c r="F254" s="47"/>
-      <c r="G254" s="48"/>
-      <c r="H254" s="55"/>
-      <c r="I254" s="45"/>
-      <c r="J254" s="45"/>
-      <c r="K254" s="45"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A255" s="45"/>
-      <c r="B255" s="45"/>
-      <c r="C255" s="45"/>
-      <c r="D255" s="45"/>
-      <c r="E255" s="48"/>
-      <c r="F255" s="47"/>
-      <c r="G255" s="48"/>
-      <c r="H255" s="55"/>
-      <c r="I255" s="45"/>
-      <c r="J255" s="45"/>
-      <c r="K255" s="45"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A256" s="45"/>
-      <c r="B256" s="45"/>
-      <c r="C256" s="45"/>
-      <c r="D256" s="45"/>
-      <c r="E256" s="48"/>
-      <c r="F256" s="47"/>
-      <c r="G256" s="48"/>
-      <c r="H256" s="55"/>
-      <c r="I256" s="45"/>
-      <c r="J256" s="45"/>
-      <c r="K256" s="45"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A257" s="45"/>
-      <c r="B257" s="45"/>
-      <c r="C257" s="45"/>
-      <c r="D257" s="45"/>
-      <c r="E257" s="48"/>
-      <c r="F257" s="47"/>
-      <c r="G257" s="48"/>
-      <c r="H257" s="55"/>
-      <c r="I257" s="45"/>
-      <c r="J257" s="45"/>
-      <c r="K257" s="45"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A258" s="45"/>
-      <c r="B258" s="45"/>
-      <c r="C258" s="45"/>
-      <c r="D258" s="45"/>
-      <c r="E258" s="48"/>
-      <c r="F258" s="47"/>
-      <c r="G258" s="48"/>
-      <c r="H258" s="55"/>
-      <c r="I258" s="45"/>
-      <c r="J258" s="45"/>
-      <c r="K258" s="45"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A259" s="45"/>
-      <c r="B259" s="45"/>
-      <c r="C259" s="45"/>
-      <c r="D259" s="45"/>
-      <c r="E259" s="48"/>
-      <c r="F259" s="47"/>
-      <c r="G259" s="48"/>
-      <c r="H259" s="55"/>
-      <c r="I259" s="45"/>
-      <c r="J259" s="45"/>
-      <c r="K259" s="45"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A260" s="45"/>
-      <c r="B260" s="45"/>
-      <c r="C260" s="45"/>
-      <c r="D260" s="45"/>
-      <c r="E260" s="48"/>
-      <c r="F260" s="47"/>
-      <c r="G260" s="48"/>
-      <c r="H260" s="55"/>
-      <c r="I260" s="45"/>
-      <c r="J260" s="45"/>
-      <c r="K260" s="45"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A261" s="45"/>
-      <c r="B261" s="45"/>
-      <c r="C261" s="45"/>
-      <c r="D261" s="45"/>
-      <c r="E261" s="48"/>
-      <c r="F261" s="47"/>
-      <c r="G261" s="48"/>
-      <c r="H261" s="55"/>
-      <c r="I261" s="45"/>
-      <c r="J261" s="45"/>
-      <c r="K261" s="45"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A262" s="45"/>
-      <c r="B262" s="45"/>
-      <c r="C262" s="45"/>
-      <c r="D262" s="45"/>
-      <c r="E262" s="48"/>
-      <c r="F262" s="47"/>
-      <c r="G262" s="48"/>
-      <c r="H262" s="55"/>
-      <c r="I262" s="45"/>
-      <c r="J262" s="45"/>
-      <c r="K262" s="45"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A263" s="45"/>
-      <c r="B263" s="45"/>
-      <c r="C263" s="45"/>
-      <c r="D263" s="45"/>
-      <c r="E263" s="48"/>
-      <c r="F263" s="47"/>
-      <c r="G263" s="48"/>
-      <c r="H263" s="55"/>
-      <c r="I263" s="45"/>
-      <c r="J263" s="45"/>
-      <c r="K263" s="45"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A264" s="45"/>
-      <c r="B264" s="45"/>
-      <c r="C264" s="45"/>
-      <c r="D264" s="45"/>
-      <c r="E264" s="48"/>
-      <c r="F264" s="47"/>
-      <c r="G264" s="48"/>
-      <c r="H264" s="55"/>
-      <c r="I264" s="45"/>
-      <c r="J264" s="45"/>
-      <c r="K264" s="45"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A265" s="45"/>
-      <c r="B265" s="45"/>
-      <c r="C265" s="45"/>
-      <c r="D265" s="45"/>
-      <c r="E265" s="48"/>
-      <c r="F265" s="47"/>
-      <c r="G265" s="48"/>
-      <c r="H265" s="55"/>
-      <c r="I265" s="45"/>
-      <c r="J265" s="45"/>
-      <c r="K265" s="45"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A266" s="45"/>
-      <c r="B266" s="45"/>
-      <c r="C266" s="45"/>
-      <c r="D266" s="45"/>
-      <c r="E266" s="48"/>
-      <c r="F266" s="47"/>
-      <c r="G266" s="48"/>
-      <c r="H266" s="55"/>
-      <c r="I266" s="45"/>
-      <c r="J266" s="45"/>
-      <c r="K266" s="45"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A267" s="45"/>
-      <c r="B267" s="45"/>
-      <c r="C267" s="45"/>
-      <c r="D267" s="45"/>
-      <c r="E267" s="48"/>
-      <c r="F267" s="47"/>
-      <c r="G267" s="48"/>
-      <c r="H267" s="55"/>
-      <c r="I267" s="45"/>
-      <c r="J267" s="45"/>
-      <c r="K267" s="45"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A268" s="45"/>
-      <c r="B268" s="45"/>
-      <c r="C268" s="45"/>
-      <c r="D268" s="45"/>
-      <c r="E268" s="48"/>
-      <c r="F268" s="47"/>
-      <c r="G268" s="48"/>
-      <c r="H268" s="55"/>
-      <c r="I268" s="45"/>
-      <c r="J268" s="45"/>
-      <c r="K268" s="45"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A269" s="45"/>
-      <c r="B269" s="45"/>
-      <c r="C269" s="45"/>
-      <c r="D269" s="45"/>
-      <c r="E269" s="48"/>
-      <c r="F269" s="47"/>
-      <c r="G269" s="48"/>
-      <c r="H269" s="55"/>
-      <c r="I269" s="45"/>
-      <c r="J269" s="45"/>
-      <c r="K269" s="45"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A270" s="45"/>
-      <c r="B270" s="45"/>
-      <c r="C270" s="45"/>
-      <c r="D270" s="45"/>
-      <c r="E270" s="48"/>
-      <c r="F270" s="47"/>
-      <c r="G270" s="48"/>
-      <c r="H270" s="55"/>
-      <c r="I270" s="45"/>
-      <c r="J270" s="45"/>
-      <c r="K270" s="45"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A271" s="45"/>
-      <c r="B271" s="45"/>
-      <c r="C271" s="45"/>
-      <c r="D271" s="45"/>
-      <c r="E271" s="48"/>
-      <c r="F271" s="47"/>
-      <c r="G271" s="48"/>
-      <c r="H271" s="55"/>
-      <c r="I271" s="45"/>
-      <c r="J271" s="45"/>
-      <c r="K271" s="45"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A272" s="45"/>
-      <c r="B272" s="45"/>
-      <c r="C272" s="45"/>
-      <c r="D272" s="45"/>
-      <c r="E272" s="48"/>
-      <c r="F272" s="47"/>
-      <c r="G272" s="48"/>
-      <c r="H272" s="55"/>
-      <c r="I272" s="45"/>
-      <c r="J272" s="45"/>
-      <c r="K272" s="45"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A273" s="45"/>
-      <c r="B273" s="45"/>
-      <c r="C273" s="45"/>
-      <c r="D273" s="45"/>
-      <c r="E273" s="48"/>
-      <c r="F273" s="47"/>
-      <c r="G273" s="48"/>
-      <c r="H273" s="55"/>
-      <c r="I273" s="45"/>
-      <c r="J273" s="45"/>
-      <c r="K273" s="45"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A274" s="45"/>
-      <c r="B274" s="45"/>
-      <c r="C274" s="45"/>
-      <c r="D274" s="45"/>
-      <c r="E274" s="48"/>
-      <c r="F274" s="47"/>
-      <c r="G274" s="48"/>
-      <c r="H274" s="55"/>
-      <c r="I274" s="45"/>
-      <c r="J274" s="45"/>
-      <c r="K274" s="45"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A275" s="45"/>
-      <c r="B275" s="45"/>
-      <c r="C275" s="45"/>
-      <c r="D275" s="45"/>
-      <c r="E275" s="48"/>
-      <c r="F275" s="47"/>
-      <c r="G275" s="48"/>
-      <c r="H275" s="55"/>
-      <c r="I275" s="45"/>
-      <c r="J275" s="45"/>
-      <c r="K275" s="45"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A276" s="45"/>
-      <c r="B276" s="45"/>
-      <c r="C276" s="45"/>
-      <c r="D276" s="45"/>
-      <c r="E276" s="48"/>
-      <c r="F276" s="47"/>
-      <c r="G276" s="48"/>
-      <c r="H276" s="55"/>
-      <c r="I276" s="45"/>
-      <c r="J276" s="45"/>
-      <c r="K276" s="45"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A277" s="45"/>
-      <c r="B277" s="45"/>
-      <c r="C277" s="45"/>
-      <c r="D277" s="45"/>
-      <c r="E277" s="48"/>
-      <c r="F277" s="47"/>
-      <c r="G277" s="48"/>
-      <c r="H277" s="55"/>
-      <c r="I277" s="45"/>
-      <c r="J277" s="45"/>
-      <c r="K277" s="45"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A278" s="45"/>
-      <c r="B278" s="45"/>
-      <c r="C278" s="45"/>
-      <c r="D278" s="45"/>
-      <c r="E278" s="48"/>
-      <c r="F278" s="47"/>
-      <c r="G278" s="48"/>
-      <c r="H278" s="55"/>
-      <c r="I278" s="45"/>
-      <c r="J278" s="45"/>
-      <c r="K278" s="45"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A279" s="45"/>
-      <c r="B279" s="45"/>
-      <c r="C279" s="45"/>
-      <c r="D279" s="45"/>
-      <c r="E279" s="48"/>
-      <c r="F279" s="47"/>
-      <c r="G279" s="48"/>
-      <c r="H279" s="55"/>
-      <c r="I279" s="45"/>
-      <c r="J279" s="45"/>
-      <c r="K279" s="45"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A280" s="45"/>
-      <c r="B280" s="45"/>
-      <c r="C280" s="45"/>
-      <c r="D280" s="45"/>
-      <c r="E280" s="48"/>
-      <c r="F280" s="47"/>
-      <c r="G280" s="48"/>
-      <c r="H280" s="55"/>
-      <c r="I280" s="45"/>
-      <c r="J280" s="45"/>
-      <c r="K280" s="45"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A281" s="45"/>
-      <c r="B281" s="45"/>
-      <c r="C281" s="45"/>
-      <c r="D281" s="45"/>
-      <c r="E281" s="48"/>
-      <c r="F281" s="47"/>
-      <c r="G281" s="48"/>
-      <c r="H281" s="55"/>
-      <c r="I281" s="45"/>
-      <c r="J281" s="45"/>
-      <c r="K281" s="45"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A282" s="45"/>
-      <c r="B282" s="45"/>
-      <c r="C282" s="45"/>
-      <c r="D282" s="45"/>
-      <c r="E282" s="48"/>
-      <c r="F282" s="47"/>
-      <c r="G282" s="48"/>
-      <c r="H282" s="55"/>
-      <c r="I282" s="45"/>
-      <c r="J282" s="45"/>
-      <c r="K282" s="45"/>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A283" s="45"/>
-      <c r="B283" s="45"/>
-      <c r="C283" s="45"/>
-      <c r="D283" s="45"/>
-      <c r="E283" s="48"/>
-      <c r="F283" s="47"/>
-      <c r="G283" s="48"/>
-      <c r="H283" s="55"/>
-      <c r="I283" s="45"/>
-      <c r="J283" s="45"/>
-      <c r="K283" s="45"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A284" s="45"/>
-      <c r="B284" s="45"/>
-      <c r="C284" s="45"/>
-      <c r="D284" s="45"/>
-      <c r="E284" s="48"/>
-      <c r="F284" s="47"/>
-      <c r="G284" s="48"/>
-      <c r="H284" s="55"/>
-      <c r="I284" s="45"/>
-      <c r="J284" s="45"/>
-      <c r="K284" s="45"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A285" s="45"/>
-      <c r="B285" s="45"/>
-      <c r="C285" s="45"/>
-      <c r="D285" s="45"/>
-      <c r="E285" s="48"/>
-      <c r="F285" s="47"/>
-      <c r="G285" s="48"/>
-      <c r="H285" s="55"/>
-      <c r="I285" s="45"/>
-      <c r="J285" s="45"/>
-      <c r="K285" s="45"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A286" s="45"/>
-      <c r="B286" s="45"/>
-      <c r="C286" s="45"/>
-      <c r="D286" s="45"/>
-      <c r="E286" s="48"/>
-      <c r="F286" s="47"/>
-      <c r="G286" s="48"/>
-      <c r="H286" s="55"/>
-      <c r="I286" s="45"/>
-      <c r="J286" s="45"/>
-      <c r="K286" s="45"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A287" s="45"/>
-      <c r="B287" s="45"/>
-      <c r="C287" s="45"/>
-      <c r="D287" s="45"/>
-      <c r="E287" s="48"/>
-      <c r="F287" s="47"/>
-      <c r="G287" s="48"/>
-      <c r="H287" s="55"/>
-      <c r="I287" s="45"/>
-      <c r="J287" s="45"/>
-      <c r="K287" s="45"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A288" s="45"/>
-      <c r="B288" s="45"/>
-      <c r="C288" s="45"/>
-      <c r="D288" s="45"/>
-      <c r="E288" s="48"/>
-      <c r="F288" s="47"/>
-      <c r="G288" s="48"/>
-      <c r="H288" s="55"/>
-      <c r="I288" s="45"/>
-      <c r="J288" s="45"/>
-      <c r="K288" s="45"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A289" s="45"/>
-      <c r="B289" s="45"/>
-      <c r="C289" s="45"/>
-      <c r="D289" s="45"/>
-      <c r="E289" s="48"/>
-      <c r="F289" s="47"/>
-      <c r="G289" s="48"/>
-      <c r="H289" s="55"/>
-      <c r="I289" s="45"/>
-      <c r="J289" s="45"/>
-      <c r="K289" s="45"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A290" s="45"/>
-      <c r="B290" s="45"/>
-      <c r="C290" s="45"/>
-      <c r="D290" s="45"/>
-      <c r="E290" s="48"/>
-      <c r="F290" s="47"/>
-      <c r="G290" s="48"/>
-      <c r="H290" s="55"/>
-      <c r="I290" s="45"/>
-      <c r="J290" s="45"/>
-      <c r="K290" s="45"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A291" s="45"/>
-      <c r="B291" s="45"/>
-      <c r="C291" s="45"/>
-      <c r="D291" s="45"/>
-      <c r="E291" s="48"/>
-      <c r="F291" s="47"/>
-      <c r="G291" s="48"/>
-      <c r="H291" s="55"/>
-      <c r="I291" s="45"/>
-      <c r="J291" s="45"/>
-      <c r="K291" s="45"/>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A292" s="45"/>
-      <c r="B292" s="45"/>
-      <c r="C292" s="45"/>
-      <c r="D292" s="45"/>
-      <c r="E292" s="48"/>
-      <c r="F292" s="47"/>
-      <c r="G292" s="48"/>
-      <c r="H292" s="55"/>
-      <c r="I292" s="45"/>
-      <c r="J292" s="45"/>
-      <c r="K292" s="45"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A293" s="45"/>
-      <c r="B293" s="45"/>
-      <c r="C293" s="45"/>
-      <c r="D293" s="45"/>
-      <c r="E293" s="48"/>
-      <c r="F293" s="47"/>
-      <c r="G293" s="48"/>
-      <c r="H293" s="55"/>
-      <c r="I293" s="45"/>
-      <c r="J293" s="45"/>
-      <c r="K293" s="45"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A294" s="45"/>
-      <c r="B294" s="45"/>
-      <c r="C294" s="45"/>
-      <c r="D294" s="45"/>
-      <c r="E294" s="48"/>
-      <c r="F294" s="47"/>
-      <c r="G294" s="48"/>
-      <c r="H294" s="55"/>
-      <c r="I294" s="45"/>
-      <c r="J294" s="45"/>
-      <c r="K294" s="45"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A295" s="45"/>
-      <c r="B295" s="45"/>
-      <c r="C295" s="45"/>
-      <c r="D295" s="45"/>
-      <c r="E295" s="48"/>
-      <c r="F295" s="47"/>
-      <c r="G295" s="48"/>
-      <c r="H295" s="55"/>
-      <c r="I295" s="45"/>
-      <c r="J295" s="45"/>
-      <c r="K295" s="45"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A296" s="45"/>
-      <c r="B296" s="45"/>
-      <c r="C296" s="45"/>
-      <c r="D296" s="45"/>
-      <c r="E296" s="48"/>
-      <c r="F296" s="47"/>
-      <c r="G296" s="48"/>
-      <c r="H296" s="55"/>
-      <c r="I296" s="45"/>
-      <c r="J296" s="45"/>
-      <c r="K296" s="45"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A297" s="45"/>
-      <c r="B297" s="45"/>
-      <c r="C297" s="45"/>
-      <c r="D297" s="45"/>
-      <c r="E297" s="48"/>
-      <c r="F297" s="47"/>
-      <c r="G297" s="48"/>
-      <c r="H297" s="55"/>
-      <c r="I297" s="45"/>
-      <c r="J297" s="45"/>
-      <c r="K297" s="45"/>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A298" s="45"/>
-      <c r="B298" s="45"/>
-      <c r="C298" s="45"/>
-      <c r="D298" s="45"/>
-      <c r="E298" s="48"/>
-      <c r="F298" s="47"/>
-      <c r="G298" s="48"/>
-      <c r="H298" s="55"/>
-      <c r="I298" s="45"/>
-      <c r="J298" s="45"/>
-      <c r="K298" s="45"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A299" s="45"/>
-      <c r="B299" s="45"/>
-      <c r="C299" s="45"/>
-      <c r="D299" s="45"/>
-      <c r="E299" s="48"/>
-      <c r="F299" s="47"/>
-      <c r="G299" s="48"/>
-      <c r="H299" s="55"/>
-      <c r="I299" s="45"/>
-      <c r="J299" s="45"/>
-      <c r="K299" s="45"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A300" s="45"/>
-      <c r="B300" s="45"/>
-      <c r="C300" s="45"/>
-      <c r="D300" s="45"/>
-      <c r="E300" s="48"/>
-      <c r="F300" s="47"/>
-      <c r="G300" s="48"/>
-      <c r="H300" s="55"/>
-      <c r="I300" s="45"/>
-      <c r="J300" s="45"/>
-      <c r="K300" s="45"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A301" s="45"/>
-      <c r="B301" s="45"/>
-      <c r="C301" s="45"/>
-      <c r="D301" s="45"/>
-      <c r="E301" s="48"/>
-      <c r="F301" s="47"/>
-      <c r="G301" s="48"/>
-      <c r="H301" s="55"/>
-      <c r="I301" s="45"/>
-      <c r="J301" s="45"/>
-      <c r="K301" s="45"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A302" s="45"/>
-      <c r="B302" s="45"/>
-      <c r="C302" s="45"/>
-      <c r="D302" s="45"/>
-      <c r="E302" s="48"/>
-      <c r="F302" s="47"/>
-      <c r="G302" s="48"/>
-      <c r="H302" s="55"/>
-      <c r="I302" s="45"/>
-      <c r="J302" s="45"/>
-      <c r="K302" s="45"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A303" s="45"/>
-      <c r="B303" s="45"/>
-      <c r="C303" s="45"/>
-      <c r="D303" s="45"/>
-      <c r="E303" s="48"/>
-      <c r="F303" s="47"/>
-      <c r="G303" s="48"/>
-      <c r="H303" s="55"/>
-      <c r="I303" s="45"/>
-      <c r="J303" s="45"/>
-      <c r="K303" s="45"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A304" s="45"/>
-      <c r="B304" s="45"/>
-      <c r="C304" s="45"/>
-      <c r="D304" s="45"/>
-      <c r="E304" s="48"/>
-      <c r="F304" s="47"/>
-      <c r="G304" s="48"/>
-      <c r="H304" s="55"/>
-      <c r="I304" s="45"/>
-      <c r="J304" s="45"/>
-      <c r="K304" s="45"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A305" s="45"/>
-      <c r="B305" s="45"/>
-      <c r="C305" s="45"/>
-      <c r="D305" s="45"/>
-      <c r="E305" s="48"/>
-      <c r="F305" s="47"/>
-      <c r="G305" s="48"/>
-      <c r="H305" s="55"/>
-      <c r="I305" s="45"/>
-      <c r="J305" s="45"/>
-      <c r="K305" s="45"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A306" s="45"/>
-      <c r="B306" s="45"/>
-      <c r="C306" s="45"/>
-      <c r="D306" s="45"/>
-      <c r="E306" s="48"/>
-      <c r="F306" s="47"/>
-      <c r="G306" s="48"/>
-      <c r="H306" s="55"/>
-      <c r="I306" s="45"/>
-      <c r="J306" s="45"/>
-      <c r="K306" s="45"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A307" s="45"/>
-      <c r="B307" s="45"/>
-      <c r="C307" s="45"/>
-      <c r="D307" s="45"/>
-      <c r="E307" s="48"/>
-      <c r="F307" s="45"/>
-      <c r="G307" s="45"/>
-      <c r="H307" s="55"/>
-      <c r="I307" s="45"/>
-      <c r="J307" s="45"/>
-      <c r="K307" s="45"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A308" s="45"/>
-      <c r="B308" s="45"/>
-      <c r="C308" s="45"/>
-      <c r="D308" s="45"/>
-      <c r="E308" s="48"/>
-      <c r="F308" s="47"/>
-      <c r="G308" s="48"/>
-      <c r="H308" s="55"/>
-      <c r="I308" s="45"/>
-      <c r="J308" s="45"/>
-      <c r="K308" s="45"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A309" s="45"/>
-      <c r="B309" s="45"/>
-      <c r="C309" s="45"/>
-      <c r="D309" s="45"/>
-      <c r="E309" s="48"/>
-      <c r="F309" s="47"/>
-      <c r="G309" s="48"/>
-      <c r="H309" s="55"/>
-      <c r="I309" s="45"/>
-      <c r="J309" s="45"/>
-      <c r="K309" s="45"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A310" s="45"/>
-      <c r="B310" s="45"/>
-      <c r="C310" s="45"/>
-      <c r="D310" s="45"/>
-      <c r="E310" s="48"/>
-      <c r="F310" s="47"/>
-      <c r="G310" s="48"/>
-      <c r="H310" s="55"/>
-      <c r="I310" s="45"/>
-      <c r="J310" s="45"/>
-      <c r="K310" s="45"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A311" s="45"/>
-      <c r="B311" s="45"/>
-      <c r="C311" s="45"/>
-      <c r="D311" s="45"/>
-      <c r="E311" s="48"/>
-      <c r="F311" s="47"/>
-      <c r="G311" s="48"/>
-      <c r="H311" s="55"/>
-      <c r="I311" s="45"/>
-      <c r="J311" s="45"/>
-      <c r="K311" s="45"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A312" s="45"/>
-      <c r="B312" s="45"/>
-      <c r="C312" s="45"/>
-      <c r="D312" s="45"/>
-      <c r="E312" s="48"/>
-      <c r="F312" s="47"/>
-      <c r="G312" s="48"/>
-      <c r="H312" s="55"/>
-      <c r="I312" s="45"/>
-      <c r="J312" s="45"/>
-      <c r="K312" s="45"/>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A313" s="45"/>
-      <c r="B313" s="45"/>
-      <c r="C313" s="45"/>
-      <c r="D313" s="45"/>
-      <c r="E313" s="48"/>
-      <c r="F313" s="47"/>
-      <c r="G313" s="48"/>
-      <c r="H313" s="55"/>
-      <c r="I313" s="45"/>
-      <c r="J313" s="45"/>
-      <c r="K313" s="45"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A314" s="45"/>
-      <c r="B314" s="45"/>
-      <c r="C314" s="45"/>
-      <c r="D314" s="45"/>
-      <c r="E314" s="48"/>
-      <c r="F314" s="47"/>
-      <c r="G314" s="48"/>
-      <c r="H314" s="55"/>
-      <c r="I314" s="45"/>
-      <c r="J314" s="45"/>
-      <c r="K314" s="45"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A315" s="45"/>
-      <c r="B315" s="45"/>
-      <c r="C315" s="45"/>
-      <c r="D315" s="45"/>
-      <c r="E315" s="48"/>
-      <c r="F315" s="47"/>
-      <c r="G315" s="48"/>
-      <c r="H315" s="55"/>
-      <c r="I315" s="45"/>
-      <c r="J315" s="45"/>
-      <c r="K315" s="45"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A316" s="45"/>
-      <c r="B316" s="45"/>
-      <c r="C316" s="45"/>
-      <c r="D316" s="45"/>
-      <c r="E316" s="48"/>
-      <c r="F316" s="47"/>
-      <c r="G316" s="48"/>
-      <c r="H316" s="55"/>
-      <c r="I316" s="45"/>
-      <c r="J316" s="45"/>
-      <c r="K316" s="45"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A317" s="45"/>
-      <c r="B317" s="45"/>
-      <c r="C317" s="45"/>
-      <c r="D317" s="45"/>
-      <c r="E317" s="48"/>
-      <c r="F317" s="47"/>
-      <c r="G317" s="48"/>
-      <c r="H317" s="55"/>
-      <c r="I317" s="45"/>
-      <c r="J317" s="45"/>
-      <c r="K317" s="45"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A318" s="45"/>
-      <c r="B318" s="45"/>
-      <c r="C318" s="45"/>
-      <c r="D318" s="45"/>
-      <c r="E318" s="48"/>
-      <c r="F318" s="47"/>
-      <c r="G318" s="48"/>
-      <c r="H318" s="55"/>
-      <c r="I318" s="45"/>
-      <c r="J318" s="45"/>
-      <c r="K318" s="45"/>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A319" s="45"/>
-      <c r="B319" s="45"/>
-      <c r="C319" s="45"/>
-      <c r="D319" s="45"/>
-      <c r="E319" s="48"/>
-      <c r="F319" s="47"/>
-      <c r="G319" s="48"/>
-      <c r="H319" s="55"/>
-      <c r="I319" s="45"/>
-      <c r="J319" s="45"/>
-      <c r="K319" s="45"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A320" s="45"/>
-      <c r="B320" s="45"/>
-      <c r="C320" s="45"/>
-      <c r="D320" s="45"/>
-      <c r="E320" s="48"/>
-      <c r="F320" s="47"/>
-      <c r="G320" s="48"/>
-      <c r="H320" s="55"/>
-      <c r="I320" s="45"/>
-      <c r="J320" s="45"/>
-      <c r="K320" s="45"/>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A321" s="45"/>
-      <c r="B321" s="45"/>
-      <c r="C321" s="45"/>
-      <c r="D321" s="45"/>
-      <c r="E321" s="48"/>
-      <c r="F321" s="47"/>
-      <c r="G321" s="48"/>
-      <c r="H321" s="55"/>
-      <c r="I321" s="45"/>
-      <c r="J321" s="45"/>
-      <c r="K321" s="45"/>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A322" s="45"/>
-      <c r="B322" s="45"/>
-      <c r="C322" s="45"/>
-      <c r="D322" s="45"/>
-      <c r="E322" s="48"/>
-      <c r="F322" s="47"/>
-      <c r="G322" s="48"/>
-      <c r="H322" s="55"/>
-      <c r="I322" s="45"/>
-      <c r="J322" s="45"/>
-      <c r="K322" s="45"/>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A323" s="45"/>
-      <c r="B323" s="45"/>
-      <c r="C323" s="45"/>
-      <c r="D323" s="45"/>
-      <c r="E323" s="48"/>
-      <c r="F323" s="47"/>
-      <c r="G323" s="48"/>
-      <c r="H323" s="55"/>
-      <c r="I323" s="45"/>
-      <c r="J323" s="45"/>
-      <c r="K323" s="45"/>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A324" s="45"/>
-      <c r="B324" s="45"/>
-      <c r="C324" s="45"/>
-      <c r="D324" s="45"/>
-      <c r="E324" s="48"/>
-      <c r="F324" s="47"/>
-      <c r="G324" s="48"/>
-      <c r="H324" s="55"/>
-      <c r="I324" s="45"/>
-      <c r="J324" s="45"/>
-      <c r="K324" s="45"/>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A325" s="45"/>
-      <c r="B325" s="45"/>
-      <c r="C325" s="45"/>
-      <c r="D325" s="45"/>
-      <c r="E325" s="48"/>
-      <c r="F325" s="47"/>
-      <c r="G325" s="48"/>
-      <c r="H325" s="55"/>
-      <c r="I325" s="45"/>
-      <c r="J325" s="45"/>
-      <c r="K325" s="45"/>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A326" s="45"/>
-      <c r="B326" s="45"/>
-      <c r="C326" s="45"/>
-      <c r="D326" s="45"/>
-      <c r="E326" s="48"/>
-      <c r="F326" s="47"/>
-      <c r="G326" s="48"/>
-      <c r="H326" s="55"/>
-      <c r="I326" s="45"/>
-      <c r="J326" s="45"/>
-      <c r="K326" s="45"/>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A327" s="45"/>
-      <c r="B327" s="45"/>
-      <c r="C327" s="45"/>
-      <c r="D327" s="45"/>
-      <c r="E327" s="48"/>
-      <c r="F327" s="47"/>
-      <c r="G327" s="48"/>
-      <c r="H327" s="55"/>
-      <c r="I327" s="45"/>
-      <c r="J327" s="45"/>
-      <c r="K327" s="45"/>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A328" s="45"/>
-      <c r="B328" s="45"/>
-      <c r="C328" s="45"/>
-      <c r="D328" s="45"/>
-      <c r="E328" s="48"/>
-      <c r="F328" s="47"/>
-      <c r="G328" s="48"/>
-      <c r="H328" s="55"/>
-      <c r="I328" s="45"/>
-      <c r="J328" s="45"/>
-      <c r="K328" s="45"/>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A329" s="45"/>
-      <c r="B329" s="45"/>
-      <c r="C329" s="45"/>
-      <c r="D329" s="45"/>
-      <c r="E329" s="48"/>
-      <c r="F329" s="47"/>
-      <c r="G329" s="48"/>
-      <c r="H329" s="55"/>
-      <c r="I329" s="45"/>
-      <c r="J329" s="45"/>
-      <c r="K329" s="45"/>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A330" s="45"/>
-      <c r="B330" s="45"/>
-      <c r="C330" s="45"/>
-      <c r="D330" s="45"/>
-      <c r="E330" s="48"/>
-      <c r="F330" s="47"/>
-      <c r="G330" s="48"/>
-      <c r="H330" s="55"/>
-      <c r="I330" s="45"/>
-      <c r="J330" s="45"/>
-      <c r="K330" s="45"/>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A331" s="45"/>
-      <c r="B331" s="45"/>
-      <c r="C331" s="45"/>
-      <c r="D331" s="45"/>
-      <c r="E331" s="48"/>
-      <c r="F331" s="47"/>
-      <c r="G331" s="48"/>
-      <c r="H331" s="55"/>
-      <c r="I331" s="45"/>
-      <c r="J331" s="45"/>
-      <c r="K331" s="45"/>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A332" s="45"/>
-      <c r="B332" s="45"/>
-      <c r="C332" s="45"/>
-      <c r="D332" s="45"/>
-      <c r="E332" s="48"/>
-      <c r="F332" s="47"/>
-      <c r="G332" s="48"/>
-      <c r="H332" s="55"/>
-      <c r="I332" s="45"/>
-      <c r="J332" s="45"/>
-      <c r="K332" s="45"/>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A333" s="45"/>
-      <c r="B333" s="45"/>
-      <c r="C333" s="45"/>
-      <c r="D333" s="45"/>
-      <c r="E333" s="48"/>
-      <c r="F333" s="47"/>
-      <c r="G333" s="48"/>
-      <c r="H333" s="55"/>
-      <c r="I333" s="45"/>
-      <c r="J333" s="45"/>
-      <c r="K333" s="45"/>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A334" s="45"/>
-      <c r="B334" s="45"/>
-      <c r="C334" s="45"/>
-      <c r="D334" s="45"/>
-      <c r="E334" s="48"/>
-      <c r="F334" s="47"/>
-      <c r="G334" s="48"/>
-      <c r="H334" s="55"/>
-      <c r="I334" s="45"/>
-      <c r="J334" s="45"/>
-      <c r="K334" s="45"/>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A335" s="45"/>
-      <c r="B335" s="45"/>
-      <c r="C335" s="45"/>
-      <c r="D335" s="45"/>
-      <c r="E335" s="48"/>
-      <c r="F335" s="47"/>
-      <c r="G335" s="48"/>
-      <c r="H335" s="55"/>
-      <c r="I335" s="45"/>
-      <c r="J335" s="45"/>
-      <c r="K335" s="45"/>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A336" s="45"/>
-      <c r="B336" s="45"/>
-      <c r="C336" s="45"/>
-      <c r="D336" s="45"/>
-      <c r="E336" s="48"/>
-      <c r="F336" s="47"/>
-      <c r="G336" s="48"/>
-      <c r="H336" s="55"/>
-      <c r="I336" s="45"/>
-      <c r="J336" s="45"/>
-      <c r="K336" s="45"/>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A337" s="45"/>
-      <c r="B337" s="45"/>
-      <c r="C337" s="45"/>
-      <c r="D337" s="45"/>
-      <c r="E337" s="48"/>
-      <c r="F337" s="47"/>
-      <c r="G337" s="48"/>
-      <c r="H337" s="55"/>
-      <c r="I337" s="45"/>
-      <c r="J337" s="45"/>
-      <c r="K337" s="45"/>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A338" s="45"/>
-      <c r="B338" s="45"/>
-      <c r="C338" s="45"/>
-      <c r="D338" s="45"/>
-      <c r="E338" s="48"/>
-      <c r="F338" s="47"/>
-      <c r="G338" s="48"/>
-      <c r="H338" s="55"/>
-      <c r="I338" s="45"/>
-      <c r="J338" s="45"/>
-      <c r="K338" s="45"/>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A339" s="45"/>
-      <c r="B339" s="45"/>
-      <c r="C339" s="45"/>
-      <c r="D339" s="45"/>
-      <c r="E339" s="48"/>
-      <c r="F339" s="47"/>
-      <c r="G339" s="48"/>
-      <c r="H339" s="55"/>
-      <c r="I339" s="45"/>
-      <c r="J339" s="45"/>
-      <c r="K339" s="45"/>
-    </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A340" s="45"/>
-      <c r="B340" s="45"/>
-      <c r="C340" s="45"/>
-      <c r="D340" s="45"/>
-      <c r="E340" s="48"/>
-      <c r="F340" s="47"/>
-      <c r="G340" s="48"/>
-      <c r="H340" s="55"/>
-      <c r="I340" s="45"/>
-      <c r="J340" s="45"/>
-      <c r="K340" s="45"/>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A341" s="45"/>
-      <c r="B341" s="45"/>
-      <c r="C341" s="45"/>
-      <c r="D341" s="45"/>
-      <c r="E341" s="48"/>
-      <c r="F341" s="47"/>
-      <c r="G341" s="48"/>
-      <c r="H341" s="55"/>
-      <c r="I341" s="45"/>
-      <c r="J341" s="45"/>
-      <c r="K341" s="45"/>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A342" s="45"/>
-      <c r="B342" s="45"/>
-      <c r="C342" s="45"/>
-      <c r="D342" s="45"/>
-      <c r="E342" s="48"/>
-      <c r="F342" s="47"/>
-      <c r="G342" s="48"/>
-      <c r="H342" s="55"/>
-      <c r="I342" s="45"/>
-      <c r="J342" s="45"/>
-      <c r="K342" s="45"/>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A343" s="45"/>
-      <c r="B343" s="45"/>
-      <c r="C343" s="45"/>
-      <c r="D343" s="45"/>
-      <c r="E343" s="48"/>
-      <c r="F343" s="47"/>
-      <c r="G343" s="48"/>
-      <c r="H343" s="55"/>
-      <c r="I343" s="45"/>
-      <c r="J343" s="45"/>
-      <c r="K343" s="45"/>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A344" s="45"/>
-      <c r="B344" s="45"/>
-      <c r="C344" s="45"/>
-      <c r="D344" s="45"/>
-      <c r="E344" s="48"/>
-      <c r="F344" s="47"/>
-      <c r="G344" s="48"/>
-      <c r="H344" s="55"/>
-      <c r="I344" s="45"/>
-      <c r="J344" s="45"/>
-      <c r="K344" s="45"/>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A345" s="45"/>
-      <c r="B345" s="45"/>
-      <c r="C345" s="45"/>
-      <c r="D345" s="45"/>
-      <c r="E345" s="48"/>
-      <c r="F345" s="47"/>
-      <c r="G345" s="48"/>
-      <c r="H345" s="55"/>
-      <c r="I345" s="45"/>
-      <c r="J345" s="45"/>
-      <c r="K345" s="45"/>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A346" s="45"/>
-      <c r="B346" s="45"/>
-      <c r="C346" s="45"/>
-      <c r="D346" s="45"/>
-      <c r="E346" s="48"/>
-      <c r="F346" s="47"/>
-      <c r="G346" s="48"/>
-      <c r="H346" s="55"/>
-      <c r="I346" s="45"/>
-      <c r="J346" s="45"/>
-      <c r="K346" s="45"/>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A347" s="45"/>
-      <c r="B347" s="45"/>
-      <c r="C347" s="45"/>
-      <c r="D347" s="45"/>
-      <c r="E347" s="48"/>
-      <c r="F347" s="47"/>
-      <c r="G347" s="48"/>
-      <c r="H347" s="55"/>
-      <c r="I347" s="45"/>
-      <c r="J347" s="45"/>
-      <c r="K347" s="45"/>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A348" s="45"/>
-      <c r="B348" s="45"/>
-      <c r="C348" s="45"/>
-      <c r="D348" s="45"/>
-      <c r="E348" s="48"/>
-      <c r="F348" s="47"/>
-      <c r="G348" s="48"/>
-      <c r="H348" s="55"/>
-      <c r="I348" s="45"/>
-      <c r="J348" s="45"/>
-      <c r="K348" s="45"/>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A349" s="45"/>
-      <c r="B349" s="45"/>
-      <c r="C349" s="45"/>
-      <c r="D349" s="45"/>
-      <c r="E349" s="48"/>
-      <c r="F349" s="47"/>
-      <c r="G349" s="48"/>
-      <c r="H349" s="55"/>
-      <c r="I349" s="45"/>
-      <c r="J349" s="45"/>
-      <c r="K349" s="45"/>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A350" s="45"/>
-      <c r="B350" s="45"/>
-      <c r="C350" s="45"/>
-      <c r="D350" s="45"/>
-      <c r="E350" s="48"/>
-      <c r="F350" s="47"/>
-      <c r="G350" s="48"/>
-      <c r="H350" s="55"/>
-      <c r="I350" s="45"/>
-      <c r="J350" s="45"/>
-      <c r="K350" s="45"/>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A351" s="45"/>
-      <c r="B351" s="45"/>
-      <c r="C351" s="45"/>
-      <c r="D351" s="45"/>
-      <c r="E351" s="48"/>
-      <c r="F351" s="47"/>
-      <c r="G351" s="48"/>
-      <c r="H351" s="55"/>
-      <c r="I351" s="45"/>
-      <c r="J351" s="45"/>
-      <c r="K351" s="45"/>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A352" s="45"/>
-      <c r="B352" s="45"/>
-      <c r="C352" s="45"/>
-      <c r="D352" s="45"/>
-      <c r="E352" s="48"/>
-      <c r="F352" s="47"/>
-      <c r="G352" s="48"/>
-      <c r="H352" s="55"/>
-      <c r="I352" s="45"/>
-      <c r="J352" s="45"/>
-      <c r="K352" s="45"/>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A353" s="45"/>
-      <c r="B353" s="45"/>
-      <c r="C353" s="45"/>
-      <c r="D353" s="45"/>
-      <c r="E353" s="48"/>
-      <c r="F353" s="47"/>
-      <c r="G353" s="48"/>
-      <c r="H353" s="55"/>
-      <c r="I353" s="45"/>
-      <c r="J353" s="45"/>
-      <c r="K353" s="45"/>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A354" s="45"/>
-      <c r="B354" s="45"/>
-      <c r="C354" s="45"/>
-      <c r="D354" s="45"/>
-      <c r="E354" s="48"/>
-      <c r="F354" s="47"/>
-      <c r="G354" s="48"/>
-      <c r="H354" s="55"/>
-      <c r="I354" s="45"/>
-      <c r="J354" s="45"/>
-      <c r="K354" s="45"/>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A355" s="45"/>
-      <c r="B355" s="45"/>
-      <c r="C355" s="45"/>
-      <c r="D355" s="45"/>
-      <c r="E355" s="48"/>
-      <c r="F355" s="47"/>
-      <c r="G355" s="48"/>
-      <c r="H355" s="55"/>
-      <c r="I355" s="45"/>
-      <c r="J355" s="45"/>
-      <c r="K355" s="45"/>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A356" s="45"/>
-      <c r="B356" s="45"/>
-      <c r="C356" s="45"/>
-      <c r="D356" s="45"/>
-      <c r="E356" s="48"/>
-      <c r="F356" s="47"/>
-      <c r="G356" s="48"/>
-      <c r="H356" s="55"/>
-      <c r="I356" s="45"/>
-      <c r="J356" s="45"/>
-      <c r="K356" s="45"/>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A357" s="45"/>
-      <c r="B357" s="45"/>
-      <c r="C357" s="45"/>
-      <c r="D357" s="45"/>
-      <c r="E357" s="48"/>
-      <c r="F357" s="47"/>
-      <c r="G357" s="48"/>
-      <c r="H357" s="55"/>
-      <c r="I357" s="45"/>
-      <c r="J357" s="45"/>
-      <c r="K357" s="45"/>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A358" s="45"/>
-      <c r="B358" s="45"/>
-      <c r="C358" s="45"/>
-      <c r="D358" s="45"/>
-      <c r="E358" s="48"/>
-      <c r="F358" s="47"/>
-      <c r="G358" s="48"/>
-      <c r="H358" s="55"/>
-      <c r="I358" s="45"/>
-      <c r="J358" s="45"/>
-      <c r="K358" s="45"/>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A359" s="45"/>
-      <c r="B359" s="45"/>
-      <c r="C359" s="45"/>
-      <c r="D359" s="45"/>
-      <c r="E359" s="48"/>
-      <c r="F359" s="47"/>
-      <c r="G359" s="48"/>
-      <c r="H359" s="55"/>
-      <c r="I359" s="45"/>
-      <c r="J359" s="45"/>
-      <c r="K359" s="45"/>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A360" s="45"/>
-      <c r="B360" s="45"/>
-      <c r="C360" s="45"/>
-      <c r="D360" s="45"/>
-      <c r="E360" s="48"/>
-      <c r="F360" s="47"/>
-      <c r="G360" s="48"/>
-      <c r="H360" s="55"/>
-      <c r="I360" s="45"/>
-      <c r="J360" s="45"/>
-      <c r="K360" s="45"/>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A361" s="45"/>
-      <c r="B361" s="45"/>
-      <c r="C361" s="45"/>
-      <c r="D361" s="45"/>
-      <c r="E361" s="48"/>
-      <c r="F361" s="47"/>
-      <c r="G361" s="48"/>
-      <c r="H361" s="55"/>
-      <c r="I361" s="45"/>
-      <c r="J361" s="45"/>
-      <c r="K361" s="45"/>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A362" s="45"/>
-      <c r="B362" s="45"/>
-      <c r="C362" s="45"/>
-      <c r="D362" s="45"/>
-      <c r="E362" s="48"/>
-      <c r="F362" s="47"/>
-      <c r="G362" s="48"/>
-      <c r="H362" s="55"/>
-      <c r="I362" s="45"/>
-      <c r="J362" s="45"/>
-      <c r="K362" s="45"/>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A363" s="45"/>
-      <c r="B363" s="45"/>
-      <c r="C363" s="45"/>
-      <c r="D363" s="45"/>
-      <c r="E363" s="48"/>
-      <c r="F363" s="47"/>
-      <c r="G363" s="48"/>
-      <c r="H363" s="55"/>
-      <c r="I363" s="45"/>
-      <c r="J363" s="45"/>
-      <c r="K363" s="45"/>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A364" s="45"/>
-      <c r="B364" s="45"/>
-      <c r="C364" s="45"/>
-      <c r="D364" s="45"/>
-      <c r="E364" s="48"/>
-      <c r="F364" s="47"/>
-      <c r="G364" s="48"/>
-      <c r="H364" s="55"/>
-      <c r="I364" s="45"/>
-      <c r="J364" s="45"/>
-      <c r="K364" s="45"/>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A365" s="45"/>
-      <c r="B365" s="45"/>
-      <c r="C365" s="45"/>
-      <c r="D365" s="45"/>
-      <c r="E365" s="48"/>
-      <c r="F365" s="47"/>
-      <c r="G365" s="48"/>
-      <c r="H365" s="55"/>
-      <c r="I365" s="45"/>
-      <c r="J365" s="45"/>
-      <c r="K365" s="45"/>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A366" s="45"/>
-      <c r="B366" s="45"/>
-      <c r="C366" s="45"/>
-      <c r="D366" s="45"/>
-      <c r="E366" s="48"/>
-      <c r="F366" s="47"/>
-      <c r="G366" s="48"/>
-      <c r="H366" s="55"/>
-      <c r="I366" s="45"/>
-      <c r="J366" s="45"/>
-      <c r="K366" s="45"/>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A367" s="45"/>
-      <c r="B367" s="45"/>
-      <c r="C367" s="45"/>
-      <c r="D367" s="45"/>
-      <c r="E367" s="48"/>
-      <c r="F367" s="47"/>
-      <c r="G367" s="48"/>
-      <c r="H367" s="55"/>
-      <c r="I367" s="45"/>
-      <c r="J367" s="45"/>
-      <c r="K367" s="45"/>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A368" s="45"/>
-      <c r="B368" s="45"/>
-      <c r="C368" s="45"/>
-      <c r="D368" s="45"/>
-      <c r="E368" s="48"/>
-      <c r="F368" s="45"/>
-      <c r="G368" s="45"/>
-      <c r="H368" s="55"/>
-      <c r="I368" s="45"/>
-      <c r="J368" s="45"/>
-      <c r="K368" s="45"/>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A369" s="45"/>
-      <c r="B369" s="45"/>
-      <c r="C369" s="45"/>
-      <c r="D369" s="45"/>
-      <c r="E369" s="48"/>
-      <c r="F369" s="47"/>
-      <c r="G369" s="48"/>
-      <c r="H369" s="55"/>
-      <c r="I369" s="45"/>
-      <c r="J369" s="45"/>
-      <c r="K369" s="45"/>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A370" s="45"/>
-      <c r="B370" s="45"/>
-      <c r="C370" s="45"/>
-      <c r="D370" s="45"/>
-      <c r="E370" s="48"/>
-      <c r="F370" s="47"/>
-      <c r="G370" s="48"/>
-      <c r="H370" s="55"/>
-      <c r="I370" s="45"/>
-      <c r="J370" s="45"/>
-      <c r="K370" s="45"/>
-    </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A371" s="45"/>
-      <c r="B371" s="45"/>
-      <c r="C371" s="45"/>
-      <c r="D371" s="45"/>
-      <c r="E371" s="48"/>
-      <c r="F371" s="47"/>
-      <c r="G371" s="48"/>
-      <c r="H371" s="55"/>
-      <c r="I371" s="45"/>
-      <c r="J371" s="45"/>
-      <c r="K371" s="45"/>
-    </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A372" s="45"/>
-      <c r="B372" s="45"/>
-      <c r="C372" s="45"/>
-      <c r="D372" s="45"/>
-      <c r="E372" s="48"/>
-      <c r="F372" s="47"/>
-      <c r="G372" s="48"/>
-      <c r="H372" s="55"/>
-      <c r="I372" s="45"/>
-      <c r="J372" s="45"/>
-      <c r="K372" s="45"/>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A373" s="45"/>
-      <c r="B373" s="45"/>
-      <c r="C373" s="45"/>
-      <c r="D373" s="45"/>
-      <c r="E373" s="48"/>
-      <c r="F373" s="47"/>
-      <c r="G373" s="48"/>
-      <c r="H373" s="55"/>
-      <c r="I373" s="45"/>
-      <c r="J373" s="45"/>
-      <c r="K373" s="45"/>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A374" s="45"/>
-      <c r="B374" s="45"/>
-      <c r="C374" s="45"/>
-      <c r="D374" s="45"/>
-      <c r="E374" s="48"/>
-      <c r="F374" s="47"/>
-      <c r="G374" s="48"/>
-      <c r="H374" s="55"/>
-      <c r="I374" s="45"/>
-      <c r="J374" s="45"/>
-      <c r="K374" s="45"/>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A375" s="45"/>
-      <c r="B375" s="45"/>
-      <c r="C375" s="45"/>
-      <c r="D375" s="45"/>
-      <c r="E375" s="48"/>
-      <c r="F375" s="47"/>
-      <c r="G375" s="48"/>
-      <c r="H375" s="55"/>
-      <c r="I375" s="45"/>
-      <c r="J375" s="45"/>
-      <c r="K375" s="45"/>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A376" s="45"/>
-      <c r="B376" s="45"/>
-      <c r="C376" s="45"/>
-      <c r="D376" s="45"/>
-      <c r="E376" s="48"/>
-      <c r="F376" s="47"/>
-      <c r="G376" s="48"/>
-      <c r="H376" s="55"/>
-      <c r="I376" s="45"/>
-      <c r="J376" s="45"/>
-      <c r="K376" s="45"/>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A377" s="45"/>
-      <c r="B377" s="45"/>
-      <c r="C377" s="45"/>
-      <c r="D377" s="45"/>
-      <c r="E377" s="48"/>
-      <c r="F377" s="47"/>
-      <c r="G377" s="48"/>
-      <c r="H377" s="55"/>
-      <c r="I377" s="45"/>
-      <c r="J377" s="45"/>
-      <c r="K377" s="45"/>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A378" s="45"/>
-      <c r="B378" s="45"/>
-      <c r="C378" s="45"/>
-      <c r="D378" s="45"/>
-      <c r="E378" s="48"/>
-      <c r="F378" s="47"/>
-      <c r="G378" s="48"/>
-      <c r="H378" s="55"/>
-      <c r="I378" s="45"/>
-      <c r="J378" s="45"/>
-      <c r="K378" s="45"/>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A379" s="45"/>
-      <c r="B379" s="45"/>
-      <c r="C379" s="45"/>
-      <c r="D379" s="45"/>
-      <c r="E379" s="48"/>
-      <c r="F379" s="47"/>
-      <c r="G379" s="48"/>
-      <c r="H379" s="55"/>
-      <c r="I379" s="45"/>
-      <c r="J379" s="45"/>
-      <c r="K379" s="45"/>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A380" s="45"/>
-      <c r="B380" s="45"/>
-      <c r="C380" s="45"/>
-      <c r="D380" s="45"/>
-      <c r="E380" s="48"/>
-      <c r="F380" s="47"/>
-      <c r="G380" s="48"/>
-      <c r="H380" s="55"/>
-      <c r="I380" s="45"/>
-      <c r="J380" s="45"/>
-      <c r="K380" s="45"/>
-    </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A381" s="45"/>
-      <c r="B381" s="45"/>
-      <c r="C381" s="45"/>
-      <c r="D381" s="45"/>
-      <c r="E381" s="48"/>
-      <c r="F381" s="47"/>
-      <c r="G381" s="48"/>
-      <c r="H381" s="55"/>
-      <c r="I381" s="45"/>
-      <c r="J381" s="45"/>
-      <c r="K381" s="45"/>
-    </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A382" s="45"/>
-      <c r="B382" s="45"/>
-      <c r="C382" s="45"/>
-      <c r="D382" s="45"/>
-      <c r="E382" s="48"/>
-      <c r="F382" s="47"/>
-      <c r="G382" s="48"/>
-      <c r="H382" s="55"/>
-      <c r="I382" s="45"/>
-      <c r="J382" s="45"/>
-      <c r="K382" s="45"/>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A383" s="45"/>
-      <c r="B383" s="45"/>
-      <c r="C383" s="45"/>
-      <c r="D383" s="45"/>
-      <c r="E383" s="48"/>
-      <c r="F383" s="47"/>
-      <c r="G383" s="48"/>
-      <c r="H383" s="55"/>
-      <c r="I383" s="45"/>
-      <c r="J383" s="45"/>
-      <c r="K383" s="45"/>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A384" s="45"/>
-      <c r="B384" s="45"/>
-      <c r="C384" s="45"/>
-      <c r="D384" s="45"/>
-      <c r="E384" s="48"/>
-      <c r="F384" s="47"/>
-      <c r="G384" s="48"/>
-      <c r="H384" s="55"/>
-      <c r="I384" s="45"/>
-      <c r="J384" s="45"/>
-      <c r="K384" s="45"/>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A385" s="45"/>
-      <c r="B385" s="45"/>
-      <c r="C385" s="45"/>
-      <c r="D385" s="45"/>
-      <c r="E385" s="48"/>
-      <c r="F385" s="47"/>
-      <c r="G385" s="48"/>
-      <c r="H385" s="55"/>
-      <c r="I385" s="45"/>
-      <c r="J385" s="45"/>
-      <c r="K385" s="45"/>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A386" s="45"/>
-      <c r="B386" s="45"/>
-      <c r="C386" s="45"/>
-      <c r="D386" s="45"/>
-      <c r="E386" s="48"/>
-      <c r="F386" s="47"/>
-      <c r="G386" s="48"/>
-      <c r="H386" s="55"/>
-      <c r="I386" s="45"/>
-      <c r="J386" s="45"/>
-      <c r="K386" s="45"/>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A387" s="45"/>
-      <c r="B387" s="45"/>
-      <c r="C387" s="45"/>
-      <c r="D387" s="45"/>
-      <c r="E387" s="48"/>
-      <c r="F387" s="47"/>
-      <c r="G387" s="48"/>
-      <c r="H387" s="55"/>
-      <c r="I387" s="45"/>
-      <c r="J387" s="45"/>
-      <c r="K387" s="45"/>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A388" s="45"/>
-      <c r="B388" s="45"/>
-      <c r="C388" s="45"/>
-      <c r="D388" s="45"/>
-      <c r="E388" s="48"/>
-      <c r="F388" s="47"/>
-      <c r="G388" s="48"/>
-      <c r="H388" s="55"/>
-      <c r="I388" s="45"/>
-      <c r="J388" s="45"/>
-      <c r="K388" s="45"/>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A389" s="45"/>
-      <c r="B389" s="45"/>
-      <c r="C389" s="45"/>
-      <c r="D389" s="45"/>
-      <c r="E389" s="48"/>
-      <c r="F389" s="47"/>
-      <c r="G389" s="48"/>
-      <c r="H389" s="55"/>
-      <c r="I389" s="45"/>
-      <c r="J389" s="45"/>
-      <c r="K389" s="45"/>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A390" s="45"/>
-      <c r="B390" s="45"/>
-      <c r="C390" s="45"/>
-      <c r="D390" s="45"/>
-      <c r="E390" s="48"/>
-      <c r="F390" s="47"/>
-      <c r="G390" s="48"/>
-      <c r="H390" s="55"/>
-      <c r="I390" s="45"/>
-      <c r="J390" s="45"/>
-      <c r="K390" s="45"/>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A391" s="45"/>
-      <c r="B391" s="45"/>
-      <c r="C391" s="45"/>
-      <c r="D391" s="45"/>
-      <c r="E391" s="48"/>
-      <c r="F391" s="47"/>
-      <c r="G391" s="48"/>
-      <c r="H391" s="55"/>
-      <c r="I391" s="45"/>
-      <c r="J391" s="45"/>
-      <c r="K391" s="45"/>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A392" s="45"/>
-      <c r="B392" s="45"/>
-      <c r="C392" s="45"/>
-      <c r="D392" s="45"/>
-      <c r="E392" s="48"/>
-      <c r="F392" s="47"/>
-      <c r="G392" s="48"/>
-      <c r="H392" s="55"/>
-      <c r="I392" s="45"/>
-      <c r="J392" s="45"/>
-      <c r="K392" s="45"/>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A393" s="45"/>
-      <c r="B393" s="45"/>
-      <c r="C393" s="45"/>
-      <c r="D393" s="45"/>
-      <c r="E393" s="48"/>
-      <c r="F393" s="47"/>
-      <c r="G393" s="48"/>
-      <c r="H393" s="55"/>
-      <c r="I393" s="45"/>
-      <c r="J393" s="45"/>
-      <c r="K393" s="45"/>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A394" s="45"/>
-      <c r="B394" s="45"/>
-      <c r="C394" s="45"/>
-      <c r="D394" s="45"/>
-      <c r="E394" s="48"/>
-      <c r="F394" s="47"/>
-      <c r="G394" s="48"/>
-      <c r="H394" s="55"/>
-      <c r="I394" s="45"/>
-      <c r="J394" s="45"/>
-      <c r="K394" s="45"/>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A395" s="45"/>
-      <c r="B395" s="45"/>
-      <c r="C395" s="45"/>
-      <c r="D395" s="45"/>
-      <c r="E395" s="48"/>
-      <c r="F395" s="47"/>
-      <c r="G395" s="48"/>
-      <c r="H395" s="55"/>
-      <c r="I395" s="45"/>
-      <c r="J395" s="45"/>
-      <c r="K395" s="45"/>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A396" s="45"/>
-      <c r="B396" s="45"/>
-      <c r="C396" s="45"/>
-      <c r="D396" s="45"/>
-      <c r="E396" s="48"/>
-      <c r="F396" s="47"/>
-      <c r="G396" s="48"/>
-      <c r="H396" s="55"/>
-      <c r="I396" s="45"/>
-      <c r="J396" s="45"/>
-      <c r="K396" s="45"/>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A397" s="45"/>
-      <c r="B397" s="45"/>
-      <c r="C397" s="45"/>
-      <c r="D397" s="45"/>
-      <c r="E397" s="48"/>
-      <c r="F397" s="47"/>
-      <c r="G397" s="48"/>
-      <c r="H397" s="55"/>
-      <c r="I397" s="45"/>
-      <c r="J397" s="45"/>
-      <c r="K397" s="45"/>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A398" s="45"/>
-      <c r="B398" s="45"/>
-      <c r="C398" s="45"/>
-      <c r="D398" s="45"/>
-      <c r="E398" s="48"/>
-      <c r="F398" s="47"/>
-      <c r="G398" s="48"/>
-      <c r="H398" s="55"/>
-      <c r="I398" s="45"/>
-      <c r="J398" s="45"/>
-      <c r="K398" s="45"/>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A399" s="45"/>
-      <c r="B399" s="45"/>
-      <c r="C399" s="45"/>
-      <c r="D399" s="45"/>
-      <c r="E399" s="48"/>
-      <c r="F399" s="47"/>
-      <c r="G399" s="48"/>
-      <c r="H399" s="55"/>
-      <c r="I399" s="45"/>
-      <c r="J399" s="45"/>
-      <c r="K399" s="45"/>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A400" s="45"/>
-      <c r="B400" s="45"/>
-      <c r="C400" s="45"/>
-      <c r="D400" s="45"/>
-      <c r="E400" s="48"/>
-      <c r="F400" s="47"/>
-      <c r="G400" s="48"/>
-      <c r="H400" s="55"/>
-      <c r="I400" s="45"/>
-      <c r="J400" s="45"/>
-      <c r="K400" s="45"/>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A401" s="45"/>
-      <c r="B401" s="45"/>
-      <c r="C401" s="45"/>
-      <c r="D401" s="45"/>
-      <c r="E401" s="48"/>
-      <c r="F401" s="47"/>
-      <c r="G401" s="48"/>
-      <c r="H401" s="55"/>
-      <c r="I401" s="45"/>
-      <c r="J401" s="45"/>
-      <c r="K401" s="45"/>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A402" s="45"/>
-      <c r="B402" s="45"/>
-      <c r="C402" s="45"/>
-      <c r="D402" s="45"/>
-      <c r="E402" s="48"/>
-      <c r="F402" s="47"/>
-      <c r="G402" s="48"/>
-      <c r="H402" s="55"/>
-      <c r="I402" s="45"/>
-      <c r="J402" s="45"/>
-      <c r="K402" s="45"/>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A403" s="45"/>
-      <c r="B403" s="45"/>
-      <c r="C403" s="45"/>
-      <c r="D403" s="45"/>
-      <c r="E403" s="48"/>
-      <c r="F403" s="47"/>
-      <c r="G403" s="48"/>
-      <c r="H403" s="55"/>
-      <c r="I403" s="45"/>
-      <c r="J403" s="45"/>
-      <c r="K403" s="45"/>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A404" s="45"/>
-      <c r="B404" s="45"/>
-      <c r="C404" s="45"/>
-      <c r="D404" s="45"/>
-      <c r="E404" s="48"/>
-      <c r="F404" s="47"/>
-      <c r="G404" s="48"/>
-      <c r="H404" s="55"/>
-      <c r="I404" s="45"/>
-      <c r="J404" s="45"/>
-      <c r="K404" s="45"/>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A405" s="45"/>
-      <c r="B405" s="45"/>
-      <c r="C405" s="45"/>
-      <c r="D405" s="45"/>
-      <c r="E405" s="48"/>
-      <c r="F405" s="47"/>
-      <c r="G405" s="48"/>
-      <c r="H405" s="55"/>
-      <c r="I405" s="45"/>
-      <c r="J405" s="45"/>
-      <c r="K405" s="45"/>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A406" s="45"/>
-      <c r="B406" s="45"/>
-      <c r="C406" s="45"/>
-      <c r="D406" s="45"/>
-      <c r="E406" s="48"/>
-      <c r="F406" s="47"/>
-      <c r="G406" s="48"/>
-      <c r="H406" s="55"/>
-      <c r="I406" s="45"/>
-      <c r="J406" s="45"/>
-      <c r="K406" s="45"/>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A407" s="45"/>
-      <c r="B407" s="45"/>
-      <c r="C407" s="45"/>
-      <c r="D407" s="45"/>
-      <c r="E407" s="48"/>
-      <c r="F407" s="47"/>
-      <c r="G407" s="48"/>
-      <c r="H407" s="55"/>
-      <c r="I407" s="45"/>
-      <c r="J407" s="45"/>
-      <c r="K407" s="45"/>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A408" s="45"/>
-      <c r="B408" s="45"/>
-      <c r="C408" s="45"/>
-      <c r="D408" s="45"/>
-      <c r="E408" s="48"/>
-      <c r="F408" s="47"/>
-      <c r="G408" s="48"/>
-      <c r="H408" s="55"/>
-      <c r="I408" s="45"/>
-      <c r="J408" s="45"/>
-      <c r="K408" s="45"/>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A409" s="45"/>
-      <c r="B409" s="45"/>
-      <c r="C409" s="45"/>
-      <c r="D409" s="45"/>
-      <c r="E409" s="48"/>
-      <c r="F409" s="47"/>
-      <c r="G409" s="48"/>
-      <c r="H409" s="55"/>
-      <c r="I409" s="45"/>
-      <c r="J409" s="45"/>
-      <c r="K409" s="45"/>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A410" s="45"/>
-      <c r="B410" s="45"/>
-      <c r="C410" s="45"/>
-      <c r="D410" s="45"/>
-      <c r="E410" s="48"/>
-      <c r="F410" s="47"/>
-      <c r="G410" s="48"/>
-      <c r="H410" s="55"/>
-      <c r="I410" s="45"/>
-      <c r="J410" s="45"/>
-      <c r="K410" s="45"/>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A411" s="45"/>
-      <c r="B411" s="45"/>
-      <c r="C411" s="45"/>
-      <c r="D411" s="45"/>
-      <c r="E411" s="48"/>
-      <c r="F411" s="47"/>
-      <c r="G411" s="48"/>
-      <c r="H411" s="55"/>
-      <c r="I411" s="45"/>
-      <c r="J411" s="45"/>
-      <c r="K411" s="45"/>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A412" s="45"/>
-      <c r="B412" s="45"/>
-      <c r="C412" s="45"/>
-      <c r="D412" s="45"/>
-      <c r="E412" s="48"/>
-      <c r="F412" s="47"/>
-      <c r="G412" s="48"/>
-      <c r="H412" s="55"/>
-      <c r="I412" s="45"/>
-      <c r="J412" s="45"/>
-      <c r="K412" s="45"/>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A413" s="45"/>
-      <c r="B413" s="45"/>
-      <c r="C413" s="45"/>
-      <c r="D413" s="45"/>
-      <c r="E413" s="48"/>
-      <c r="F413" s="47"/>
-      <c r="G413" s="48"/>
-      <c r="H413" s="55"/>
-      <c r="I413" s="45"/>
-      <c r="J413" s="45"/>
-      <c r="K413" s="45"/>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A414" s="45"/>
-      <c r="B414" s="45"/>
-      <c r="C414" s="45"/>
-      <c r="D414" s="45"/>
-      <c r="E414" s="48"/>
-      <c r="F414" s="47"/>
-      <c r="G414" s="48"/>
-      <c r="H414" s="55"/>
-      <c r="I414" s="45"/>
-      <c r="J414" s="45"/>
-      <c r="K414" s="45"/>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A415" s="45"/>
-      <c r="B415" s="45"/>
-      <c r="C415" s="45"/>
-      <c r="D415" s="45"/>
-      <c r="E415" s="48"/>
-      <c r="F415" s="47"/>
-      <c r="G415" s="48"/>
-      <c r="H415" s="55"/>
-      <c r="I415" s="45"/>
-      <c r="J415" s="45"/>
-      <c r="K415" s="45"/>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A416" s="45"/>
-      <c r="B416" s="45"/>
-      <c r="C416" s="45"/>
-      <c r="D416" s="45"/>
-      <c r="E416" s="48"/>
-      <c r="F416" s="47"/>
-      <c r="G416" s="48"/>
-      <c r="H416" s="55"/>
-      <c r="I416" s="45"/>
-      <c r="J416" s="45"/>
-      <c r="K416" s="45"/>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A417" s="45"/>
-      <c r="B417" s="45"/>
-      <c r="C417" s="45"/>
-      <c r="D417" s="45"/>
-      <c r="E417" s="48"/>
-      <c r="F417" s="47"/>
-      <c r="G417" s="48"/>
-      <c r="H417" s="55"/>
-      <c r="I417" s="45"/>
-      <c r="J417" s="45"/>
-      <c r="K417" s="45"/>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A418" s="45"/>
-      <c r="B418" s="45"/>
-      <c r="C418" s="45"/>
-      <c r="D418" s="45"/>
-      <c r="E418" s="48"/>
-      <c r="F418" s="47"/>
-      <c r="G418" s="48"/>
-      <c r="H418" s="55"/>
-      <c r="I418" s="45"/>
-      <c r="J418" s="45"/>
-      <c r="K418" s="45"/>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A419" s="45"/>
-      <c r="B419" s="45"/>
-      <c r="C419" s="45"/>
-      <c r="D419" s="45"/>
-      <c r="E419" s="48"/>
-      <c r="F419" s="47"/>
-      <c r="G419" s="48"/>
-      <c r="H419" s="55"/>
-      <c r="I419" s="45"/>
-      <c r="J419" s="45"/>
-      <c r="K419" s="45"/>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A420" s="45"/>
-      <c r="B420" s="45"/>
-      <c r="C420" s="45"/>
-      <c r="D420" s="45"/>
-      <c r="E420" s="48"/>
-      <c r="F420" s="47"/>
-      <c r="G420" s="48"/>
-      <c r="H420" s="55"/>
-      <c r="I420" s="45"/>
-      <c r="J420" s="45"/>
-      <c r="K420" s="45"/>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A421" s="45"/>
-      <c r="B421" s="45"/>
-      <c r="C421" s="45"/>
-      <c r="D421" s="45"/>
-      <c r="E421" s="48"/>
-      <c r="F421" s="47"/>
-      <c r="G421" s="48"/>
-      <c r="H421" s="55"/>
-      <c r="I421" s="45"/>
-      <c r="J421" s="45"/>
-      <c r="K421" s="45"/>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A422" s="45"/>
-      <c r="B422" s="45"/>
-      <c r="C422" s="45"/>
-      <c r="D422" s="45"/>
-      <c r="E422" s="48"/>
-      <c r="F422" s="47"/>
-      <c r="G422" s="48"/>
-      <c r="H422" s="55"/>
-      <c r="I422" s="45"/>
-      <c r="J422" s="45"/>
-      <c r="K422" s="45"/>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A423" s="45"/>
-      <c r="B423" s="45"/>
-      <c r="C423" s="45"/>
-      <c r="D423" s="45"/>
-      <c r="E423" s="48"/>
-      <c r="F423" s="47"/>
-      <c r="G423" s="48"/>
-      <c r="H423" s="55"/>
-      <c r="I423" s="45"/>
-      <c r="J423" s="45"/>
-      <c r="K423" s="45"/>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A424" s="45"/>
-      <c r="B424" s="45"/>
-      <c r="C424" s="45"/>
-      <c r="D424" s="45"/>
-      <c r="E424" s="48"/>
-      <c r="F424" s="47"/>
-      <c r="G424" s="48"/>
-      <c r="H424" s="55"/>
-      <c r="I424" s="45"/>
-      <c r="J424" s="45"/>
-      <c r="K424" s="45"/>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A425" s="45"/>
-      <c r="B425" s="45"/>
-      <c r="C425" s="45"/>
-      <c r="D425" s="45"/>
-      <c r="E425" s="48"/>
-      <c r="F425" s="47"/>
-      <c r="G425" s="48"/>
-      <c r="H425" s="55"/>
-      <c r="I425" s="45"/>
-      <c r="J425" s="45"/>
-      <c r="K425" s="45"/>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A426" s="45"/>
-      <c r="B426" s="45"/>
-      <c r="C426" s="45"/>
-      <c r="D426" s="45"/>
-      <c r="E426" s="48"/>
-      <c r="F426" s="47"/>
-      <c r="G426" s="48"/>
-      <c r="H426" s="55"/>
-      <c r="I426" s="45"/>
-      <c r="J426" s="45"/>
-      <c r="K426" s="45"/>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A427" s="45"/>
-      <c r="B427" s="45"/>
-      <c r="C427" s="45"/>
-      <c r="D427" s="45"/>
-      <c r="E427" s="48"/>
-      <c r="F427" s="47"/>
-      <c r="G427" s="48"/>
-      <c r="H427" s="55"/>
-      <c r="I427" s="45"/>
-      <c r="J427" s="45"/>
-      <c r="K427" s="45"/>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A428" s="45"/>
-      <c r="B428" s="45"/>
-      <c r="C428" s="45"/>
-      <c r="D428" s="45"/>
-      <c r="E428" s="48"/>
-      <c r="F428" s="47"/>
-      <c r="G428" s="48"/>
-      <c r="H428" s="55"/>
-      <c r="I428" s="45"/>
-      <c r="J428" s="45"/>
-      <c r="K428" s="45"/>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A429" s="45"/>
-      <c r="B429" s="45"/>
-      <c r="C429" s="45"/>
-      <c r="D429" s="45"/>
-      <c r="E429" s="48"/>
-      <c r="F429" s="45"/>
-      <c r="G429" s="45"/>
-      <c r="H429" s="55"/>
-      <c r="I429" s="45"/>
-      <c r="J429" s="45"/>
-      <c r="K429" s="45"/>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A430" s="45"/>
-      <c r="B430" s="45"/>
-      <c r="C430" s="45"/>
-      <c r="D430" s="45"/>
-      <c r="E430" s="48"/>
-      <c r="F430" s="47"/>
-      <c r="G430" s="48"/>
-      <c r="H430" s="55"/>
-      <c r="I430" s="45"/>
-      <c r="J430" s="45"/>
-      <c r="K430" s="45"/>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A431" s="45"/>
-      <c r="B431" s="45"/>
-      <c r="C431" s="45"/>
-      <c r="D431" s="45"/>
-      <c r="E431" s="48"/>
-      <c r="F431" s="47"/>
-      <c r="G431" s="48"/>
-      <c r="H431" s="55"/>
-      <c r="I431" s="45"/>
-      <c r="J431" s="45"/>
-      <c r="K431" s="45"/>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A432" s="45"/>
-      <c r="B432" s="45"/>
-      <c r="C432" s="45"/>
-      <c r="D432" s="45"/>
-      <c r="E432" s="48"/>
-      <c r="F432" s="47"/>
-      <c r="G432" s="48"/>
-      <c r="H432" s="55"/>
-      <c r="I432" s="45"/>
-      <c r="J432" s="45"/>
-      <c r="K432" s="45"/>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A433" s="45"/>
-      <c r="B433" s="45"/>
-      <c r="C433" s="45"/>
-      <c r="D433" s="45"/>
-      <c r="E433" s="48"/>
-      <c r="F433" s="47"/>
-      <c r="G433" s="48"/>
-      <c r="H433" s="55"/>
-      <c r="I433" s="45"/>
-      <c r="J433" s="45"/>
-      <c r="K433" s="45"/>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A434" s="45"/>
-      <c r="B434" s="45"/>
-      <c r="C434" s="45"/>
-      <c r="D434" s="45"/>
-      <c r="E434" s="48"/>
-      <c r="F434" s="47"/>
-      <c r="G434" s="48"/>
-      <c r="H434" s="55"/>
-      <c r="I434" s="45"/>
-      <c r="J434" s="45"/>
-      <c r="K434" s="45"/>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A435" s="45"/>
-      <c r="B435" s="45"/>
-      <c r="C435" s="45"/>
-      <c r="D435" s="45"/>
-      <c r="E435" s="48"/>
-      <c r="F435" s="47"/>
-      <c r="G435" s="48"/>
-      <c r="H435" s="55"/>
-      <c r="I435" s="45"/>
-      <c r="J435" s="45"/>
-      <c r="K435" s="45"/>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A436" s="45"/>
-      <c r="B436" s="45"/>
-      <c r="C436" s="45"/>
-      <c r="D436" s="45"/>
-      <c r="E436" s="48"/>
-      <c r="F436" s="47"/>
-      <c r="G436" s="48"/>
-      <c r="H436" s="55"/>
-      <c r="I436" s="45"/>
-      <c r="J436" s="45"/>
-      <c r="K436" s="45"/>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A437" s="45"/>
-      <c r="B437" s="45"/>
-      <c r="C437" s="45"/>
-      <c r="D437" s="45"/>
-      <c r="E437" s="48"/>
-      <c r="F437" s="47"/>
-      <c r="G437" s="48"/>
-      <c r="H437" s="55"/>
-      <c r="I437" s="45"/>
-      <c r="J437" s="45"/>
-      <c r="K437" s="45"/>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A438" s="45"/>
-      <c r="B438" s="45"/>
-      <c r="C438" s="45"/>
-      <c r="D438" s="45"/>
-      <c r="E438" s="48"/>
-      <c r="F438" s="47"/>
-      <c r="G438" s="48"/>
-      <c r="H438" s="55"/>
-      <c r="I438" s="45"/>
-      <c r="J438" s="45"/>
-      <c r="K438" s="45"/>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A439" s="45"/>
-      <c r="B439" s="45"/>
-      <c r="C439" s="45"/>
-      <c r="D439" s="45"/>
-      <c r="E439" s="48"/>
-      <c r="F439" s="47"/>
-      <c r="G439" s="48"/>
-      <c r="H439" s="55"/>
-      <c r="I439" s="45"/>
-      <c r="J439" s="45"/>
-      <c r="K439" s="45"/>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A440" s="45"/>
-      <c r="B440" s="45"/>
-      <c r="C440" s="45"/>
-      <c r="D440" s="45"/>
-      <c r="E440" s="48"/>
-      <c r="F440" s="47"/>
-      <c r="G440" s="48"/>
-      <c r="H440" s="55"/>
-      <c r="I440" s="45"/>
-      <c r="J440" s="45"/>
-      <c r="K440" s="45"/>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A441" s="45"/>
-      <c r="B441" s="45"/>
-      <c r="C441" s="45"/>
-      <c r="D441" s="45"/>
-      <c r="E441" s="48"/>
-      <c r="F441" s="47"/>
-      <c r="G441" s="48"/>
-      <c r="H441" s="55"/>
-      <c r="I441" s="45"/>
-      <c r="J441" s="45"/>
-      <c r="K441" s="45"/>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A442" s="45"/>
-      <c r="B442" s="45"/>
-      <c r="C442" s="45"/>
-      <c r="D442" s="45"/>
-      <c r="E442" s="48"/>
-      <c r="F442" s="47"/>
-      <c r="G442" s="48"/>
-      <c r="H442" s="55"/>
-      <c r="I442" s="45"/>
-      <c r="J442" s="45"/>
-      <c r="K442" s="45"/>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A443" s="45"/>
-      <c r="B443" s="45"/>
-      <c r="C443" s="45"/>
-      <c r="D443" s="45"/>
-      <c r="E443" s="48"/>
-      <c r="F443" s="47"/>
-      <c r="G443" s="48"/>
-      <c r="H443" s="55"/>
-      <c r="I443" s="45"/>
-      <c r="J443" s="45"/>
-      <c r="K443" s="45"/>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A444" s="45"/>
-      <c r="B444" s="45"/>
-      <c r="C444" s="45"/>
-      <c r="D444" s="45"/>
-      <c r="E444" s="48"/>
-      <c r="F444" s="47"/>
-      <c r="G444" s="48"/>
-      <c r="H444" s="55"/>
-      <c r="I444" s="45"/>
-      <c r="J444" s="45"/>
-      <c r="K444" s="45"/>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A445" s="45"/>
-      <c r="B445" s="45"/>
-      <c r="C445" s="45"/>
-      <c r="D445" s="45"/>
-      <c r="E445" s="48"/>
-      <c r="F445" s="47"/>
-      <c r="G445" s="48"/>
-      <c r="H445" s="55"/>
-      <c r="I445" s="45"/>
-      <c r="J445" s="45"/>
-      <c r="K445" s="45"/>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A446" s="45"/>
-      <c r="B446" s="45"/>
-      <c r="C446" s="45"/>
-      <c r="D446" s="45"/>
-      <c r="E446" s="48"/>
-      <c r="F446" s="47"/>
-      <c r="G446" s="48"/>
-      <c r="H446" s="55"/>
-      <c r="I446" s="45"/>
-      <c r="J446" s="45"/>
-      <c r="K446" s="45"/>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A447" s="45"/>
-      <c r="B447" s="45"/>
-      <c r="C447" s="45"/>
-      <c r="D447" s="45"/>
-      <c r="E447" s="48"/>
-      <c r="F447" s="47"/>
-      <c r="G447" s="48"/>
-      <c r="H447" s="55"/>
-      <c r="I447" s="45"/>
-      <c r="J447" s="45"/>
-      <c r="K447" s="45"/>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A448" s="45"/>
-      <c r="B448" s="45"/>
-      <c r="C448" s="45"/>
-      <c r="D448" s="45"/>
-      <c r="E448" s="48"/>
-      <c r="F448" s="47"/>
-      <c r="G448" s="48"/>
-      <c r="H448" s="55"/>
-      <c r="I448" s="45"/>
-      <c r="J448" s="45"/>
-      <c r="K448" s="45"/>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A449" s="45"/>
-      <c r="B449" s="45"/>
-      <c r="C449" s="45"/>
-      <c r="D449" s="45"/>
-      <c r="E449" s="48"/>
-      <c r="F449" s="47"/>
-      <c r="G449" s="48"/>
-      <c r="H449" s="55"/>
-      <c r="I449" s="45"/>
-      <c r="J449" s="45"/>
-      <c r="K449" s="45"/>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A450" s="45"/>
-      <c r="B450" s="45"/>
-      <c r="C450" s="45"/>
-      <c r="D450" s="45"/>
-      <c r="E450" s="48"/>
-      <c r="F450" s="47"/>
-      <c r="G450" s="48"/>
-      <c r="H450" s="55"/>
-      <c r="I450" s="45"/>
-      <c r="J450" s="45"/>
-      <c r="K450" s="45"/>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A451" s="45"/>
-      <c r="B451" s="45"/>
-      <c r="C451" s="45"/>
-      <c r="D451" s="45"/>
-      <c r="E451" s="48"/>
-      <c r="F451" s="47"/>
-      <c r="G451" s="48"/>
-      <c r="H451" s="55"/>
-      <c r="I451" s="45"/>
-      <c r="J451" s="45"/>
-      <c r="K451" s="45"/>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A452" s="45"/>
-      <c r="B452" s="45"/>
-      <c r="C452" s="45"/>
-      <c r="D452" s="45"/>
-      <c r="E452" s="48"/>
-      <c r="F452" s="47"/>
-      <c r="G452" s="48"/>
-      <c r="H452" s="55"/>
-      <c r="I452" s="45"/>
-      <c r="J452" s="45"/>
-      <c r="K452" s="45"/>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A453" s="45"/>
-      <c r="B453" s="45"/>
-      <c r="C453" s="45"/>
-      <c r="D453" s="45"/>
-      <c r="E453" s="48"/>
-      <c r="F453" s="47"/>
-      <c r="G453" s="48"/>
-      <c r="H453" s="55"/>
-      <c r="I453" s="45"/>
-      <c r="J453" s="45"/>
-      <c r="K453" s="45"/>
-    </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A454" s="45"/>
-      <c r="B454" s="45"/>
-      <c r="C454" s="45"/>
-      <c r="D454" s="45"/>
-      <c r="E454" s="48"/>
-      <c r="F454" s="47"/>
-      <c r="G454" s="48"/>
-      <c r="H454" s="55"/>
-      <c r="I454" s="45"/>
-      <c r="J454" s="45"/>
-      <c r="K454" s="45"/>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A455" s="45"/>
-      <c r="B455" s="45"/>
-      <c r="C455" s="45"/>
-      <c r="D455" s="45"/>
-      <c r="E455" s="48"/>
-      <c r="F455" s="47"/>
-      <c r="G455" s="48"/>
-      <c r="H455" s="55"/>
-      <c r="I455" s="45"/>
-      <c r="J455" s="45"/>
-      <c r="K455" s="45"/>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A456" s="45"/>
-      <c r="B456" s="45"/>
-      <c r="C456" s="45"/>
-      <c r="D456" s="45"/>
-      <c r="E456" s="48"/>
-      <c r="F456" s="47"/>
-      <c r="G456" s="48"/>
-      <c r="H456" s="55"/>
-      <c r="I456" s="45"/>
-      <c r="J456" s="45"/>
-      <c r="K456" s="45"/>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A457" s="45"/>
-      <c r="B457" s="45"/>
-      <c r="C457" s="45"/>
-      <c r="D457" s="45"/>
-      <c r="E457" s="48"/>
-      <c r="F457" s="47"/>
-      <c r="G457" s="48"/>
-      <c r="H457" s="55"/>
-      <c r="I457" s="45"/>
-      <c r="J457" s="45"/>
-      <c r="K457" s="45"/>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A458" s="45"/>
-      <c r="B458" s="45"/>
-      <c r="C458" s="45"/>
-      <c r="D458" s="45"/>
-      <c r="E458" s="48"/>
-      <c r="F458" s="47"/>
-      <c r="G458" s="48"/>
-      <c r="H458" s="55"/>
-      <c r="I458" s="45"/>
-      <c r="J458" s="45"/>
-      <c r="K458" s="45"/>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A459" s="45"/>
-      <c r="B459" s="45"/>
-      <c r="C459" s="45"/>
-      <c r="D459" s="45"/>
-      <c r="E459" s="48"/>
-      <c r="F459" s="47"/>
-      <c r="G459" s="48"/>
-      <c r="H459" s="55"/>
-      <c r="I459" s="45"/>
-      <c r="J459" s="45"/>
-      <c r="K459" s="45"/>
-    </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A460" s="45"/>
-      <c r="B460" s="45"/>
-      <c r="C460" s="45"/>
-      <c r="D460" s="45"/>
-      <c r="E460" s="48"/>
-      <c r="F460" s="47"/>
-      <c r="G460" s="48"/>
-      <c r="H460" s="55"/>
-      <c r="I460" s="45"/>
-      <c r="J460" s="45"/>
-      <c r="K460" s="45"/>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A461" s="45"/>
-      <c r="B461" s="45"/>
-      <c r="C461" s="45"/>
-      <c r="D461" s="45"/>
-      <c r="E461" s="48"/>
-      <c r="F461" s="47"/>
-      <c r="G461" s="48"/>
-      <c r="H461" s="55"/>
-      <c r="I461" s="45"/>
-      <c r="J461" s="45"/>
-      <c r="K461" s="45"/>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A462" s="45"/>
-      <c r="B462" s="45"/>
-      <c r="C462" s="45"/>
-      <c r="D462" s="45"/>
-      <c r="E462" s="48"/>
-      <c r="F462" s="47"/>
-      <c r="G462" s="48"/>
-      <c r="H462" s="55"/>
-      <c r="I462" s="45"/>
-      <c r="J462" s="45"/>
-      <c r="K462" s="45"/>
-    </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A463" s="45"/>
-      <c r="B463" s="45"/>
-      <c r="C463" s="45"/>
-      <c r="D463" s="45"/>
-      <c r="E463" s="48"/>
-      <c r="F463" s="47"/>
-      <c r="G463" s="48"/>
-      <c r="H463" s="55"/>
-      <c r="I463" s="45"/>
-      <c r="J463" s="45"/>
-      <c r="K463" s="45"/>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A464" s="45"/>
-      <c r="B464" s="45"/>
-      <c r="C464" s="45"/>
-      <c r="D464" s="45"/>
-      <c r="E464" s="48"/>
-      <c r="F464" s="47"/>
-      <c r="G464" s="48"/>
-      <c r="H464" s="55"/>
-      <c r="I464" s="45"/>
-      <c r="J464" s="45"/>
-      <c r="K464" s="45"/>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A465" s="45"/>
-      <c r="B465" s="45"/>
-      <c r="C465" s="45"/>
-      <c r="D465" s="45"/>
-      <c r="E465" s="48"/>
-      <c r="F465" s="47"/>
-      <c r="G465" s="48"/>
-      <c r="H465" s="55"/>
-      <c r="I465" s="45"/>
-      <c r="J465" s="45"/>
-      <c r="K465" s="45"/>
-    </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A466" s="45"/>
-      <c r="B466" s="45"/>
-      <c r="C466" s="45"/>
-      <c r="D466" s="45"/>
-      <c r="E466" s="48"/>
-      <c r="F466" s="47"/>
-      <c r="G466" s="48"/>
-      <c r="H466" s="55"/>
-      <c r="I466" s="45"/>
-      <c r="J466" s="45"/>
-      <c r="K466" s="45"/>
-    </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A467" s="45"/>
-      <c r="B467" s="45"/>
-      <c r="C467" s="45"/>
-      <c r="D467" s="45"/>
-      <c r="E467" s="48"/>
-      <c r="F467" s="47"/>
-      <c r="G467" s="48"/>
-      <c r="H467" s="55"/>
-      <c r="I467" s="45"/>
-      <c r="J467" s="45"/>
-      <c r="K467" s="45"/>
-    </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A468" s="45"/>
-      <c r="B468" s="45"/>
-      <c r="C468" s="45"/>
-      <c r="D468" s="45"/>
-      <c r="E468" s="48"/>
-      <c r="F468" s="47"/>
-      <c r="G468" s="48"/>
-      <c r="H468" s="55"/>
-      <c r="I468" s="45"/>
-      <c r="J468" s="45"/>
-      <c r="K468" s="45"/>
-    </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A469" s="45"/>
-      <c r="B469" s="45"/>
-      <c r="C469" s="45"/>
-      <c r="D469" s="45"/>
-      <c r="E469" s="48"/>
-      <c r="F469" s="47"/>
-      <c r="G469" s="48"/>
-      <c r="H469" s="55"/>
-      <c r="I469" s="45"/>
-      <c r="J469" s="45"/>
-      <c r="K469" s="45"/>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A470" s="45"/>
-      <c r="B470" s="45"/>
-      <c r="C470" s="45"/>
-      <c r="D470" s="45"/>
-      <c r="E470" s="48"/>
-      <c r="F470" s="47"/>
-      <c r="G470" s="48"/>
-      <c r="H470" s="55"/>
-      <c r="I470" s="45"/>
-      <c r="J470" s="45"/>
-      <c r="K470" s="45"/>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A471" s="45"/>
-      <c r="B471" s="45"/>
-      <c r="C471" s="45"/>
-      <c r="D471" s="45"/>
-      <c r="E471" s="48"/>
-      <c r="F471" s="47"/>
-      <c r="G471" s="48"/>
-      <c r="H471" s="55"/>
-      <c r="I471" s="45"/>
-      <c r="J471" s="45"/>
-      <c r="K471" s="45"/>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A472" s="45"/>
-      <c r="B472" s="45"/>
-      <c r="C472" s="45"/>
-      <c r="D472" s="45"/>
-      <c r="E472" s="48"/>
-      <c r="F472" s="47"/>
-      <c r="G472" s="48"/>
-      <c r="H472" s="55"/>
-      <c r="I472" s="45"/>
-      <c r="J472" s="45"/>
-      <c r="K472" s="45"/>
-    </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A473" s="45"/>
-      <c r="B473" s="45"/>
-      <c r="C473" s="45"/>
-      <c r="D473" s="45"/>
-      <c r="E473" s="48"/>
-      <c r="F473" s="47"/>
-      <c r="G473" s="48"/>
-      <c r="H473" s="55"/>
-      <c r="I473" s="45"/>
-      <c r="J473" s="45"/>
-      <c r="K473" s="45"/>
-    </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A474" s="45"/>
-      <c r="B474" s="45"/>
-      <c r="C474" s="45"/>
-      <c r="D474" s="45"/>
-      <c r="E474" s="48"/>
-      <c r="F474" s="47"/>
-      <c r="G474" s="48"/>
-      <c r="H474" s="55"/>
-      <c r="I474" s="45"/>
-      <c r="J474" s="45"/>
-      <c r="K474" s="45"/>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A475" s="45"/>
-      <c r="B475" s="45"/>
-      <c r="C475" s="45"/>
-      <c r="D475" s="45"/>
-      <c r="E475" s="48"/>
-      <c r="F475" s="47"/>
-      <c r="G475" s="48"/>
-      <c r="H475" s="55"/>
-      <c r="I475" s="45"/>
-      <c r="J475" s="45"/>
-      <c r="K475" s="45"/>
-    </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A476" s="45"/>
-      <c r="B476" s="45"/>
-      <c r="C476" s="45"/>
-      <c r="D476" s="45"/>
-      <c r="E476" s="48"/>
-      <c r="F476" s="47"/>
-      <c r="G476" s="48"/>
-      <c r="H476" s="55"/>
-      <c r="I476" s="45"/>
-      <c r="J476" s="45"/>
-      <c r="K476" s="45"/>
-    </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A477" s="45"/>
-      <c r="B477" s="45"/>
-      <c r="C477" s="45"/>
-      <c r="D477" s="45"/>
-      <c r="E477" s="48"/>
-      <c r="F477" s="47"/>
-      <c r="G477" s="48"/>
-      <c r="H477" s="55"/>
-      <c r="I477" s="45"/>
-      <c r="J477" s="45"/>
-      <c r="K477" s="45"/>
-    </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A478" s="45"/>
-      <c r="B478" s="45"/>
-      <c r="C478" s="45"/>
-      <c r="D478" s="45"/>
-      <c r="E478" s="48"/>
-      <c r="F478" s="47"/>
-      <c r="G478" s="48"/>
-      <c r="H478" s="55"/>
-      <c r="I478" s="45"/>
-      <c r="J478" s="45"/>
-      <c r="K478" s="45"/>
-    </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A479" s="45"/>
-      <c r="B479" s="45"/>
-      <c r="C479" s="45"/>
-      <c r="D479" s="45"/>
-      <c r="E479" s="48"/>
-      <c r="F479" s="47"/>
-      <c r="G479" s="48"/>
-      <c r="H479" s="55"/>
-      <c r="I479" s="45"/>
-      <c r="J479" s="45"/>
-      <c r="K479" s="45"/>
-    </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A480" s="45"/>
-      <c r="B480" s="45"/>
-      <c r="C480" s="45"/>
-      <c r="D480" s="45"/>
-      <c r="E480" s="48"/>
-      <c r="F480" s="47"/>
-      <c r="G480" s="48"/>
-      <c r="H480" s="55"/>
-      <c r="I480" s="45"/>
-      <c r="J480" s="45"/>
-      <c r="K480" s="45"/>
-    </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A481" s="45"/>
-      <c r="B481" s="45"/>
-      <c r="C481" s="45"/>
-      <c r="D481" s="45"/>
-      <c r="E481" s="48"/>
-      <c r="F481" s="47"/>
-      <c r="G481" s="48"/>
-      <c r="H481" s="55"/>
-      <c r="I481" s="45"/>
-      <c r="J481" s="45"/>
-      <c r="K481" s="45"/>
-    </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A482" s="45"/>
-      <c r="B482" s="45"/>
-      <c r="C482" s="45"/>
-      <c r="D482" s="45"/>
-      <c r="E482" s="48"/>
-      <c r="F482" s="47"/>
-      <c r="G482" s="48"/>
-      <c r="H482" s="55"/>
-      <c r="I482" s="45"/>
-      <c r="J482" s="45"/>
-      <c r="K482" s="45"/>
-    </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A483" s="45"/>
-      <c r="B483" s="45"/>
-      <c r="C483" s="45"/>
-      <c r="D483" s="45"/>
-      <c r="E483" s="48"/>
-      <c r="F483" s="47"/>
-      <c r="G483" s="48"/>
-      <c r="H483" s="55"/>
-      <c r="I483" s="45"/>
-      <c r="J483" s="45"/>
-      <c r="K483" s="45"/>
-    </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A484" s="45"/>
-      <c r="B484" s="45"/>
-      <c r="C484" s="45"/>
-      <c r="D484" s="45"/>
-      <c r="E484" s="48"/>
-      <c r="F484" s="47"/>
-      <c r="G484" s="48"/>
-      <c r="H484" s="55"/>
-      <c r="I484" s="45"/>
-      <c r="J484" s="45"/>
-      <c r="K484" s="45"/>
-    </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A485" s="45"/>
-      <c r="B485" s="45"/>
-      <c r="C485" s="45"/>
-      <c r="D485" s="45"/>
-      <c r="E485" s="48"/>
-      <c r="F485" s="47"/>
-      <c r="G485" s="48"/>
-      <c r="H485" s="55"/>
-      <c r="I485" s="45"/>
-      <c r="J485" s="45"/>
-      <c r="K485" s="45"/>
-    </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A486" s="45"/>
-      <c r="B486" s="45"/>
-      <c r="C486" s="45"/>
-      <c r="D486" s="45"/>
-      <c r="E486" s="48"/>
-      <c r="F486" s="47"/>
-      <c r="G486" s="48"/>
-      <c r="H486" s="55"/>
-      <c r="I486" s="45"/>
-      <c r="J486" s="45"/>
-      <c r="K486" s="45"/>
-    </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A487" s="45"/>
-      <c r="B487" s="45"/>
-      <c r="C487" s="45"/>
-      <c r="D487" s="45"/>
-      <c r="E487" s="48"/>
-      <c r="F487" s="47"/>
-      <c r="G487" s="48"/>
-      <c r="H487" s="55"/>
-      <c r="I487" s="45"/>
-      <c r="J487" s="45"/>
-      <c r="K487" s="45"/>
-    </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A488" s="45"/>
-      <c r="B488" s="45"/>
-      <c r="C488" s="45"/>
-      <c r="D488" s="45"/>
-      <c r="E488" s="48"/>
-      <c r="F488" s="47"/>
-      <c r="G488" s="48"/>
-      <c r="H488" s="55"/>
-      <c r="I488" s="45"/>
-      <c r="J488" s="45"/>
-      <c r="K488" s="45"/>
-    </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A489" s="45"/>
-      <c r="B489" s="45"/>
-      <c r="C489" s="45"/>
-      <c r="D489" s="45"/>
-      <c r="E489" s="48"/>
-      <c r="F489" s="47"/>
-      <c r="G489" s="48"/>
-      <c r="H489" s="55"/>
-      <c r="I489" s="45"/>
-      <c r="J489" s="45"/>
-      <c r="K489" s="45"/>
-    </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A490" s="45"/>
-      <c r="B490" s="45"/>
-      <c r="C490" s="45"/>
-      <c r="D490" s="45"/>
-      <c r="E490" s="48"/>
-      <c r="F490" s="45"/>
-      <c r="G490" s="45"/>
-      <c r="H490" s="55"/>
-      <c r="I490" s="45"/>
-      <c r="J490" s="45"/>
-      <c r="K490" s="45"/>
-    </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A491" s="45"/>
-      <c r="B491" s="45"/>
-      <c r="C491" s="45"/>
-      <c r="D491" s="45"/>
-      <c r="E491" s="48"/>
-      <c r="F491" s="47"/>
-      <c r="G491" s="48"/>
-      <c r="H491" s="55"/>
-      <c r="I491" s="45"/>
-      <c r="J491" s="45"/>
-      <c r="K491" s="45"/>
-    </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A492" s="45"/>
-      <c r="B492" s="45"/>
-      <c r="C492" s="45"/>
-      <c r="D492" s="45"/>
-      <c r="E492" s="48"/>
-      <c r="F492" s="47"/>
-      <c r="G492" s="48"/>
-      <c r="H492" s="55"/>
-      <c r="I492" s="45"/>
-      <c r="J492" s="45"/>
-      <c r="K492" s="45"/>
-    </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A493" s="45"/>
-      <c r="B493" s="45"/>
-      <c r="C493" s="45"/>
-      <c r="D493" s="45"/>
-      <c r="E493" s="48"/>
-      <c r="F493" s="47"/>
-      <c r="G493" s="48"/>
-      <c r="H493" s="55"/>
-      <c r="I493" s="45"/>
-      <c r="J493" s="45"/>
-      <c r="K493" s="45"/>
-    </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A494" s="45"/>
-      <c r="B494" s="45"/>
-      <c r="C494" s="45"/>
-      <c r="D494" s="45"/>
-      <c r="E494" s="48"/>
-      <c r="F494" s="47"/>
-      <c r="G494" s="48"/>
-      <c r="H494" s="55"/>
-      <c r="I494" s="45"/>
-      <c r="J494" s="45"/>
-      <c r="K494" s="45"/>
-    </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A495" s="45"/>
-      <c r="B495" s="45"/>
-      <c r="C495" s="45"/>
-      <c r="D495" s="45"/>
-      <c r="E495" s="48"/>
-      <c r="F495" s="47"/>
-      <c r="G495" s="48"/>
-      <c r="H495" s="55"/>
-      <c r="I495" s="45"/>
-      <c r="J495" s="45"/>
-      <c r="K495" s="45"/>
-    </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A496" s="45"/>
-      <c r="B496" s="45"/>
-      <c r="C496" s="45"/>
-      <c r="D496" s="45"/>
-      <c r="E496" s="48"/>
-      <c r="F496" s="47"/>
-      <c r="G496" s="48"/>
-      <c r="H496" s="55"/>
-      <c r="I496" s="45"/>
-      <c r="J496" s="45"/>
-      <c r="K496" s="45"/>
-    </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A497" s="45"/>
-      <c r="B497" s="45"/>
-      <c r="C497" s="45"/>
-      <c r="D497" s="45"/>
-      <c r="E497" s="48"/>
-      <c r="F497" s="47"/>
-      <c r="G497" s="48"/>
-      <c r="H497" s="55"/>
-      <c r="I497" s="45"/>
-      <c r="J497" s="45"/>
-      <c r="K497" s="45"/>
-    </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A498" s="45"/>
-      <c r="B498" s="45"/>
-      <c r="C498" s="45"/>
-      <c r="D498" s="45"/>
-      <c r="E498" s="48"/>
-      <c r="F498" s="47"/>
-      <c r="G498" s="48"/>
-      <c r="H498" s="55"/>
-      <c r="I498" s="45"/>
-      <c r="J498" s="45"/>
-      <c r="K498" s="45"/>
-    </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A499" s="45"/>
-      <c r="B499" s="45"/>
-      <c r="C499" s="45"/>
-      <c r="D499" s="45"/>
-      <c r="E499" s="48"/>
-      <c r="F499" s="47"/>
-      <c r="G499" s="48"/>
-      <c r="H499" s="55"/>
-      <c r="I499" s="45"/>
-      <c r="J499" s="45"/>
-      <c r="K499" s="45"/>
-    </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A500" s="45"/>
-      <c r="B500" s="45"/>
-      <c r="C500" s="45"/>
-      <c r="D500" s="45"/>
-      <c r="E500" s="48"/>
-      <c r="F500" s="47"/>
-      <c r="G500" s="48"/>
-      <c r="H500" s="55"/>
-      <c r="I500" s="45"/>
-      <c r="J500" s="45"/>
-      <c r="K500" s="45"/>
-    </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A501" s="45"/>
-      <c r="B501" s="45"/>
-      <c r="C501" s="45"/>
-      <c r="D501" s="45"/>
-      <c r="E501" s="48"/>
-      <c r="F501" s="47"/>
-      <c r="G501" s="48"/>
-      <c r="H501" s="55"/>
-      <c r="I501" s="45"/>
-      <c r="J501" s="45"/>
-      <c r="K501" s="45"/>
-    </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A502" s="45"/>
-      <c r="B502" s="45"/>
-      <c r="C502" s="45"/>
-      <c r="D502" s="45"/>
-      <c r="E502" s="48"/>
-      <c r="F502" s="47"/>
-      <c r="G502" s="48"/>
-      <c r="H502" s="55"/>
-      <c r="I502" s="45"/>
-      <c r="J502" s="45"/>
-      <c r="K502" s="45"/>
-    </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A503" s="45"/>
-      <c r="B503" s="45"/>
-      <c r="C503" s="45"/>
-      <c r="D503" s="45"/>
-      <c r="E503" s="48"/>
-      <c r="F503" s="47"/>
-      <c r="G503" s="48"/>
-      <c r="H503" s="55"/>
-      <c r="I503" s="45"/>
-      <c r="J503" s="45"/>
-      <c r="K503" s="45"/>
-    </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A504" s="45"/>
-      <c r="B504" s="45"/>
-      <c r="C504" s="45"/>
-      <c r="D504" s="45"/>
-      <c r="E504" s="48"/>
-      <c r="F504" s="47"/>
-      <c r="G504" s="48"/>
-      <c r="H504" s="55"/>
-      <c r="I504" s="45"/>
-      <c r="J504" s="45"/>
-      <c r="K504" s="45"/>
-    </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A505" s="45"/>
-      <c r="B505" s="45"/>
-      <c r="C505" s="45"/>
-      <c r="D505" s="45"/>
-      <c r="E505" s="48"/>
-      <c r="F505" s="47"/>
-      <c r="G505" s="48"/>
-      <c r="H505" s="55"/>
-      <c r="I505" s="45"/>
-      <c r="J505" s="45"/>
-      <c r="K505" s="45"/>
-    </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A506" s="45"/>
-      <c r="B506" s="45"/>
-      <c r="C506" s="45"/>
-      <c r="D506" s="45"/>
-      <c r="E506" s="48"/>
-      <c r="F506" s="47"/>
-      <c r="G506" s="48"/>
-      <c r="H506" s="55"/>
-      <c r="I506" s="45"/>
-      <c r="J506" s="45"/>
-      <c r="K506" s="45"/>
-    </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A507" s="45"/>
-      <c r="B507" s="45"/>
-      <c r="C507" s="45"/>
-      <c r="D507" s="45"/>
-      <c r="E507" s="48"/>
-      <c r="F507" s="47"/>
-      <c r="G507" s="48"/>
-      <c r="H507" s="55"/>
-      <c r="I507" s="45"/>
-      <c r="J507" s="45"/>
-      <c r="K507" s="45"/>
-    </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A508" s="45"/>
-      <c r="B508" s="45"/>
-      <c r="C508" s="45"/>
-      <c r="D508" s="45"/>
-      <c r="E508" s="48"/>
-      <c r="F508" s="47"/>
-      <c r="G508" s="48"/>
-      <c r="H508" s="55"/>
-      <c r="I508" s="45"/>
-      <c r="J508" s="45"/>
-      <c r="K508" s="45"/>
-    </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A509" s="45"/>
-      <c r="B509" s="45"/>
-      <c r="C509" s="45"/>
-      <c r="D509" s="45"/>
-      <c r="E509" s="48"/>
-      <c r="F509" s="47"/>
-      <c r="G509" s="48"/>
-      <c r="H509" s="55"/>
-      <c r="I509" s="45"/>
-      <c r="J509" s="45"/>
-      <c r="K509" s="45"/>
-    </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A510" s="45"/>
-      <c r="B510" s="45"/>
-      <c r="C510" s="45"/>
-      <c r="D510" s="45"/>
-      <c r="E510" s="48"/>
-      <c r="F510" s="47"/>
-      <c r="G510" s="48"/>
-      <c r="H510" s="55"/>
-      <c r="I510" s="45"/>
-      <c r="J510" s="45"/>
-      <c r="K510" s="45"/>
-    </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A511" s="45"/>
-      <c r="B511" s="45"/>
-      <c r="C511" s="45"/>
-      <c r="D511" s="45"/>
-      <c r="E511" s="48"/>
-      <c r="F511" s="47"/>
-      <c r="G511" s="48"/>
-      <c r="H511" s="55"/>
-      <c r="I511" s="45"/>
-      <c r="J511" s="45"/>
-      <c r="K511" s="45"/>
-    </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A512" s="45"/>
-      <c r="B512" s="45"/>
-      <c r="C512" s="45"/>
-      <c r="D512" s="45"/>
-      <c r="E512" s="48"/>
-      <c r="F512" s="47"/>
-      <c r="G512" s="48"/>
-      <c r="H512" s="55"/>
-      <c r="I512" s="45"/>
-      <c r="J512" s="45"/>
-      <c r="K512" s="45"/>
-    </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A513" s="45"/>
-      <c r="B513" s="45"/>
-      <c r="C513" s="45"/>
-      <c r="D513" s="45"/>
-      <c r="E513" s="48"/>
-      <c r="F513" s="47"/>
-      <c r="G513" s="48"/>
-      <c r="H513" s="55"/>
-      <c r="I513" s="45"/>
-      <c r="J513" s="45"/>
-      <c r="K513" s="45"/>
-    </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A514" s="45"/>
-      <c r="B514" s="45"/>
-      <c r="C514" s="45"/>
-      <c r="D514" s="45"/>
-      <c r="E514" s="48"/>
-      <c r="F514" s="47"/>
-      <c r="G514" s="48"/>
-      <c r="H514" s="55"/>
-      <c r="I514" s="45"/>
-      <c r="J514" s="45"/>
-      <c r="K514" s="45"/>
-    </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A515" s="45"/>
-      <c r="B515" s="45"/>
-      <c r="C515" s="45"/>
-      <c r="D515" s="45"/>
-      <c r="E515" s="48"/>
-      <c r="F515" s="47"/>
-      <c r="G515" s="48"/>
-      <c r="H515" s="55"/>
-      <c r="I515" s="45"/>
-      <c r="J515" s="45"/>
-      <c r="K515" s="45"/>
-    </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A516" s="45"/>
-      <c r="B516" s="45"/>
-      <c r="C516" s="45"/>
-      <c r="D516" s="45"/>
-      <c r="E516" s="48"/>
-      <c r="F516" s="47"/>
-      <c r="G516" s="48"/>
-      <c r="H516" s="55"/>
-      <c r="I516" s="45"/>
-      <c r="J516" s="45"/>
-      <c r="K516" s="45"/>
-    </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A517" s="45"/>
-      <c r="B517" s="45"/>
-      <c r="C517" s="45"/>
-      <c r="D517" s="45"/>
-      <c r="E517" s="48"/>
-      <c r="F517" s="47"/>
-      <c r="G517" s="48"/>
-      <c r="H517" s="55"/>
-      <c r="I517" s="45"/>
-      <c r="J517" s="45"/>
-      <c r="K517" s="45"/>
-    </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A518" s="45"/>
-      <c r="B518" s="45"/>
-      <c r="C518" s="45"/>
-      <c r="D518" s="45"/>
-      <c r="E518" s="48"/>
-      <c r="F518" s="47"/>
-      <c r="G518" s="48"/>
-      <c r="H518" s="55"/>
-      <c r="I518" s="45"/>
-      <c r="J518" s="45"/>
-      <c r="K518" s="45"/>
-    </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A519" s="45"/>
-      <c r="B519" s="45"/>
-      <c r="C519" s="45"/>
-      <c r="D519" s="45"/>
-      <c r="E519" s="48"/>
-      <c r="F519" s="47"/>
-      <c r="G519" s="48"/>
-      <c r="H519" s="55"/>
-      <c r="I519" s="45"/>
-      <c r="J519" s="45"/>
-      <c r="K519" s="45"/>
-    </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A520" s="45"/>
-      <c r="B520" s="45"/>
-      <c r="C520" s="45"/>
-      <c r="D520" s="45"/>
-      <c r="E520" s="48"/>
-      <c r="F520" s="47"/>
-      <c r="G520" s="48"/>
-      <c r="H520" s="55"/>
-      <c r="I520" s="45"/>
-      <c r="J520" s="45"/>
-      <c r="K520" s="45"/>
-    </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A521" s="45"/>
-      <c r="B521" s="45"/>
-      <c r="C521" s="45"/>
-      <c r="D521" s="45"/>
-      <c r="E521" s="48"/>
-      <c r="F521" s="47"/>
-      <c r="G521" s="48"/>
-      <c r="H521" s="55"/>
-      <c r="I521" s="45"/>
-      <c r="J521" s="45"/>
-      <c r="K521" s="45"/>
-    </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A522" s="45"/>
-      <c r="B522" s="45"/>
-      <c r="C522" s="45"/>
-      <c r="D522" s="45"/>
-      <c r="E522" s="48"/>
-      <c r="F522" s="47"/>
-      <c r="G522" s="48"/>
-      <c r="H522" s="55"/>
-      <c r="I522" s="45"/>
-      <c r="J522" s="45"/>
-      <c r="K522" s="45"/>
-    </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A523" s="45"/>
-      <c r="B523" s="45"/>
-      <c r="C523" s="45"/>
-      <c r="D523" s="45"/>
-      <c r="E523" s="48"/>
-      <c r="F523" s="47"/>
-      <c r="G523" s="48"/>
-      <c r="H523" s="55"/>
-      <c r="I523" s="45"/>
-      <c r="J523" s="45"/>
-      <c r="K523" s="45"/>
-    </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A524" s="45"/>
-      <c r="B524" s="45"/>
-      <c r="C524" s="45"/>
-      <c r="D524" s="45"/>
-      <c r="E524" s="48"/>
-      <c r="F524" s="47"/>
-      <c r="G524" s="48"/>
-      <c r="H524" s="55"/>
-      <c r="I524" s="45"/>
-      <c r="J524" s="45"/>
-      <c r="K524" s="45"/>
-    </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A525" s="45"/>
-      <c r="B525" s="45"/>
-      <c r="C525" s="45"/>
-      <c r="D525" s="45"/>
-      <c r="E525" s="48"/>
-      <c r="F525" s="47"/>
-      <c r="G525" s="48"/>
-      <c r="H525" s="55"/>
-      <c r="I525" s="45"/>
-      <c r="J525" s="45"/>
-      <c r="K525" s="45"/>
-    </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A526" s="45"/>
-      <c r="B526" s="45"/>
-      <c r="C526" s="45"/>
-      <c r="D526" s="45"/>
-      <c r="E526" s="48"/>
-      <c r="F526" s="47"/>
-      <c r="G526" s="48"/>
-      <c r="H526" s="55"/>
-      <c r="I526" s="45"/>
-      <c r="J526" s="45"/>
-      <c r="K526" s="45"/>
-    </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A527" s="45"/>
-      <c r="B527" s="45"/>
-      <c r="C527" s="45"/>
-      <c r="D527" s="45"/>
-      <c r="E527" s="48"/>
-      <c r="F527" s="47"/>
-      <c r="G527" s="48"/>
-      <c r="H527" s="55"/>
-      <c r="I527" s="45"/>
-      <c r="J527" s="45"/>
-      <c r="K527" s="45"/>
-    </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A528" s="45"/>
-      <c r="B528" s="45"/>
-      <c r="C528" s="45"/>
-      <c r="D528" s="45"/>
-      <c r="E528" s="48"/>
-      <c r="F528" s="47"/>
-      <c r="G528" s="48"/>
-      <c r="H528" s="55"/>
-      <c r="I528" s="45"/>
-      <c r="J528" s="45"/>
-      <c r="K528" s="45"/>
-    </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A529" s="45"/>
-      <c r="B529" s="45"/>
-      <c r="C529" s="45"/>
-      <c r="D529" s="45"/>
-      <c r="E529" s="48"/>
-      <c r="F529" s="47"/>
-      <c r="G529" s="48"/>
-      <c r="H529" s="55"/>
-      <c r="I529" s="45"/>
-      <c r="J529" s="45"/>
-      <c r="K529" s="45"/>
-    </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A530" s="45"/>
-      <c r="B530" s="45"/>
-      <c r="C530" s="45"/>
-      <c r="D530" s="45"/>
-      <c r="E530" s="48"/>
-      <c r="F530" s="47"/>
-      <c r="G530" s="48"/>
-      <c r="H530" s="55"/>
-      <c r="I530" s="45"/>
-      <c r="J530" s="45"/>
-      <c r="K530" s="45"/>
-    </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A531" s="45"/>
-      <c r="B531" s="45"/>
-      <c r="C531" s="45"/>
-      <c r="D531" s="45"/>
-      <c r="E531" s="48"/>
-      <c r="F531" s="47"/>
-      <c r="G531" s="48"/>
-      <c r="H531" s="55"/>
-      <c r="I531" s="45"/>
-      <c r="J531" s="45"/>
-      <c r="K531" s="45"/>
-    </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A532" s="45"/>
-      <c r="B532" s="45"/>
-      <c r="C532" s="45"/>
-      <c r="D532" s="45"/>
-      <c r="E532" s="48"/>
-      <c r="F532" s="47"/>
-      <c r="G532" s="48"/>
-      <c r="H532" s="55"/>
-      <c r="I532" s="45"/>
-      <c r="J532" s="45"/>
-      <c r="K532" s="45"/>
-    </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A533" s="45"/>
-      <c r="B533" s="45"/>
-      <c r="C533" s="45"/>
-      <c r="D533" s="45"/>
-      <c r="E533" s="48"/>
-      <c r="F533" s="47"/>
-      <c r="G533" s="48"/>
-      <c r="H533" s="55"/>
-      <c r="I533" s="45"/>
-      <c r="J533" s="45"/>
-      <c r="K533" s="45"/>
-    </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A534" s="45"/>
-      <c r="B534" s="45"/>
-      <c r="C534" s="45"/>
-      <c r="D534" s="45"/>
-      <c r="E534" s="48"/>
-      <c r="F534" s="47"/>
-      <c r="G534" s="48"/>
-      <c r="H534" s="55"/>
-      <c r="I534" s="45"/>
-      <c r="J534" s="45"/>
-      <c r="K534" s="45"/>
-    </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A535" s="45"/>
-      <c r="B535" s="45"/>
-      <c r="C535" s="45"/>
-      <c r="D535" s="45"/>
-      <c r="E535" s="48"/>
-      <c r="F535" s="47"/>
-      <c r="G535" s="48"/>
-      <c r="H535" s="55"/>
-      <c r="I535" s="45"/>
-      <c r="J535" s="45"/>
-      <c r="K535" s="45"/>
-    </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A536" s="45"/>
-      <c r="B536" s="45"/>
-      <c r="C536" s="45"/>
-      <c r="D536" s="45"/>
-      <c r="E536" s="48"/>
-      <c r="F536" s="47"/>
-      <c r="G536" s="48"/>
-      <c r="H536" s="55"/>
-      <c r="I536" s="45"/>
-      <c r="J536" s="45"/>
-      <c r="K536" s="45"/>
-    </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A537" s="45"/>
-      <c r="B537" s="45"/>
-      <c r="C537" s="45"/>
-      <c r="D537" s="45"/>
-      <c r="E537" s="48"/>
-      <c r="F537" s="47"/>
-      <c r="G537" s="48"/>
-      <c r="H537" s="55"/>
-      <c r="I537" s="45"/>
-      <c r="J537" s="45"/>
-      <c r="K537" s="45"/>
-    </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A538" s="45"/>
-      <c r="B538" s="45"/>
-      <c r="C538" s="45"/>
-      <c r="D538" s="45"/>
-      <c r="E538" s="48"/>
-      <c r="F538" s="47"/>
-      <c r="G538" s="48"/>
-      <c r="H538" s="55"/>
-      <c r="I538" s="45"/>
-      <c r="J538" s="45"/>
-      <c r="K538" s="45"/>
-    </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A539" s="45"/>
-      <c r="B539" s="45"/>
-      <c r="C539" s="45"/>
-      <c r="D539" s="45"/>
-      <c r="E539" s="48"/>
-      <c r="F539" s="47"/>
-      <c r="G539" s="48"/>
-      <c r="H539" s="55"/>
-      <c r="I539" s="45"/>
-      <c r="J539" s="45"/>
-      <c r="K539" s="45"/>
-    </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A540" s="45"/>
-      <c r="B540" s="45"/>
-      <c r="C540" s="45"/>
-      <c r="D540" s="45"/>
-      <c r="E540" s="48"/>
-      <c r="F540" s="47"/>
-      <c r="G540" s="48"/>
-      <c r="H540" s="55"/>
-      <c r="I540" s="45"/>
-      <c r="J540" s="45"/>
-      <c r="K540" s="45"/>
-    </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A541" s="45"/>
-      <c r="B541" s="45"/>
-      <c r="C541" s="45"/>
-      <c r="D541" s="45"/>
-      <c r="E541" s="48"/>
-      <c r="F541" s="47"/>
-      <c r="G541" s="48"/>
-      <c r="H541" s="55"/>
-      <c r="I541" s="45"/>
-      <c r="J541" s="45"/>
-      <c r="K541" s="45"/>
-    </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A542" s="45"/>
-      <c r="B542" s="45"/>
-      <c r="C542" s="45"/>
-      <c r="D542" s="45"/>
-      <c r="E542" s="48"/>
-      <c r="F542" s="47"/>
-      <c r="G542" s="48"/>
-      <c r="H542" s="55"/>
-      <c r="I542" s="45"/>
-      <c r="J542" s="45"/>
-      <c r="K542" s="45"/>
-    </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A543" s="45"/>
-      <c r="B543" s="45"/>
-      <c r="C543" s="45"/>
-      <c r="D543" s="45"/>
-      <c r="E543" s="48"/>
-      <c r="F543" s="47"/>
-      <c r="G543" s="48"/>
-      <c r="H543" s="55"/>
-      <c r="I543" s="45"/>
-      <c r="J543" s="45"/>
-      <c r="K543" s="45"/>
-    </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A544" s="45"/>
-      <c r="B544" s="45"/>
-      <c r="C544" s="45"/>
-      <c r="D544" s="45"/>
-      <c r="E544" s="48"/>
-      <c r="F544" s="47"/>
-      <c r="G544" s="48"/>
-      <c r="H544" s="55"/>
-      <c r="I544" s="45"/>
-      <c r="J544" s="45"/>
-      <c r="K544" s="45"/>
-    </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A545" s="45"/>
-      <c r="B545" s="45"/>
-      <c r="C545" s="45"/>
-      <c r="D545" s="45"/>
-      <c r="E545" s="48"/>
-      <c r="F545" s="47"/>
-      <c r="G545" s="48"/>
-      <c r="H545" s="55"/>
-      <c r="I545" s="45"/>
-      <c r="J545" s="45"/>
-      <c r="K545" s="45"/>
-    </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A546" s="45"/>
-      <c r="B546" s="45"/>
-      <c r="C546" s="45"/>
-      <c r="D546" s="45"/>
-      <c r="E546" s="48"/>
-      <c r="F546" s="47"/>
-      <c r="G546" s="48"/>
-      <c r="H546" s="55"/>
-      <c r="I546" s="45"/>
-      <c r="J546" s="45"/>
-      <c r="K546" s="45"/>
-    </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A547" s="45"/>
-      <c r="B547" s="45"/>
-      <c r="C547" s="45"/>
-      <c r="D547" s="45"/>
-      <c r="E547" s="48"/>
-      <c r="F547" s="47"/>
-      <c r="G547" s="48"/>
-      <c r="H547" s="55"/>
-      <c r="I547" s="45"/>
-      <c r="J547" s="45"/>
-      <c r="K547" s="45"/>
-    </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A548" s="45"/>
-      <c r="B548" s="45"/>
-      <c r="C548" s="45"/>
-      <c r="D548" s="45"/>
-      <c r="E548" s="48"/>
-      <c r="F548" s="47"/>
-      <c r="G548" s="48"/>
-      <c r="H548" s="55"/>
-      <c r="I548" s="45"/>
-      <c r="J548" s="45"/>
-      <c r="K548" s="45"/>
-    </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A549" s="45"/>
-      <c r="B549" s="45"/>
-      <c r="C549" s="45"/>
-      <c r="D549" s="45"/>
-      <c r="E549" s="48"/>
-      <c r="F549" s="47"/>
-      <c r="G549" s="48"/>
-      <c r="H549" s="55"/>
-      <c r="I549" s="45"/>
-      <c r="J549" s="45"/>
-      <c r="K549" s="45"/>
-    </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A550" s="45"/>
-      <c r="B550" s="45"/>
-      <c r="C550" s="45"/>
-      <c r="D550" s="45"/>
-      <c r="E550" s="48"/>
-      <c r="F550" s="47"/>
-      <c r="G550" s="48"/>
-      <c r="H550" s="55"/>
-      <c r="I550" s="45"/>
-      <c r="J550" s="45"/>
-      <c r="K550" s="45"/>
+    <row r="490" spans="6:7" x14ac:dyDescent="0.15">
+      <c r="F490"/>
+      <c r="G490"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -26318,7 +19160,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26334,52 +19176,52 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -26419,47 +19261,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -26483,23 +19317,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="53" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
@@ -26507,16 +19341,14 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="45"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -26632,31 +19464,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="53" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -26664,16 +19496,14 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -26700,54 +19530,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" t="s">
         <v>84</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="H3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -27142,7 +19958,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27158,40 +19974,40 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="53" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="47"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -27208,7 +20024,7 @@
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27218,7 +20034,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="53" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -27226,16 +20042,14 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -27333,9 +20147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B35D5-8ADB-4635-943B-98795E326435}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D991E019-BA7E-4C2D-A261-883EA783F78D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -20,43 +20,44 @@
     <sheet name="中间件启动" sheetId="6" r:id="rId5"/>
     <sheet name="客户端启动" sheetId="12" r:id="rId6"/>
     <sheet name="清算" sheetId="11" r:id="rId7"/>
-    <sheet name="限额刷新" sheetId="14" r:id="rId8"/>
-    <sheet name="组合动态核算" sheetId="15" r:id="rId9"/>
-    <sheet name="内存分析" sheetId="30" r:id="rId10"/>
-    <sheet name="内存" sheetId="4" r:id="rId11"/>
-    <sheet name="缓存分析" sheetId="34" r:id="rId12"/>
-    <sheet name="缓存" sheetId="10" r:id="rId13"/>
-    <sheet name="Core服务" sheetId="18" r:id="rId14"/>
-    <sheet name="核算" sheetId="13" r:id="rId15"/>
-    <sheet name="窗体" sheetId="7" r:id="rId16"/>
-    <sheet name="报表" sheetId="8" r:id="rId17"/>
-    <sheet name="原始" sheetId="33" r:id="rId18"/>
-    <sheet name="通用" sheetId="25" r:id="rId19"/>
-    <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId20"/>
-    <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId21"/>
-    <sheet name="Performance监视" sheetId="5" r:id="rId22"/>
-    <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId23"/>
-    <sheet name="Perf方法汇总分析" sheetId="32" r:id="rId24"/>
-    <sheet name="Performance原始" sheetId="26" r:id="rId25"/>
-    <sheet name="交易查询" sheetId="16" r:id="rId26"/>
-    <sheet name="现金流" sheetId="9" r:id="rId27"/>
-    <sheet name="其他" sheetId="17" r:id="rId28"/>
+    <sheet name="限额检查" sheetId="35" r:id="rId8"/>
+    <sheet name="限额刷新" sheetId="14" r:id="rId9"/>
+    <sheet name="组合动态核算" sheetId="15" r:id="rId10"/>
+    <sheet name="内存分析" sheetId="30" r:id="rId11"/>
+    <sheet name="内存" sheetId="4" r:id="rId12"/>
+    <sheet name="缓存分析" sheetId="34" r:id="rId13"/>
+    <sheet name="缓存" sheetId="10" r:id="rId14"/>
+    <sheet name="Core服务" sheetId="18" r:id="rId15"/>
+    <sheet name="核算" sheetId="13" r:id="rId16"/>
+    <sheet name="窗体" sheetId="7" r:id="rId17"/>
+    <sheet name="报表" sheetId="8" r:id="rId18"/>
+    <sheet name="原始" sheetId="33" r:id="rId19"/>
+    <sheet name="通用" sheetId="25" r:id="rId20"/>
+    <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId21"/>
+    <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId22"/>
+    <sheet name="Performance监视" sheetId="5" r:id="rId23"/>
+    <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId24"/>
+    <sheet name="Perf方法汇总分析" sheetId="32" r:id="rId25"/>
+    <sheet name="Performance原始" sheetId="26" r:id="rId26"/>
+    <sheet name="交易查询" sheetId="16" r:id="rId27"/>
+    <sheet name="现金流" sheetId="9" r:id="rId28"/>
+    <sheet name="其他" sheetId="17" r:id="rId29"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId29"/>
-    <pivotCache cacheId="8" r:id="rId30"/>
-    <pivotCache cacheId="9" r:id="rId31"/>
-    <pivotCache cacheId="10" r:id="rId32"/>
-    <pivotCache cacheId="11" r:id="rId33"/>
-    <pivotCache cacheId="12" r:id="rId34"/>
-    <pivotCache cacheId="13" r:id="rId35"/>
+    <pivotCache cacheId="0" r:id="rId30"/>
+    <pivotCache cacheId="1" r:id="rId31"/>
+    <pivotCache cacheId="2" r:id="rId32"/>
+    <pivotCache cacheId="3" r:id="rId33"/>
+    <pivotCache cacheId="4" r:id="rId34"/>
+    <pivotCache cacheId="5" r:id="rId35"/>
+    <pivotCache cacheId="6" r:id="rId36"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="101">
   <si>
     <t>事项</t>
   </si>
@@ -400,6 +401,30 @@
   <si>
     <t>(多项)</t>
   </si>
+  <si>
+    <t>用户代码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易数量(前)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易数量(后)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -627,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,6 +817,9 @@
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -16022,7 +16050,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:C9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -16100,7 +16128,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -16168,7 +16196,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -16217,7 +16245,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48CB5F0-0495-4CBC-80C7-ACB002C4C48D}" name="数据透视表1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48CB5F0-0495-4CBC-80C7-ACB002C4C48D}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -16852,7 +16880,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E9E262A-D885-4003-8AA1-7187C6600F2C}" name="数据透视表1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E9E262A-D885-4003-8AA1-7187C6600F2C}" name="数据透视表1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -17009,7 +17037,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CA14DE-6471-4D9D-9662-D5829C84DB00}" name="数据透视表4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CA14DE-6471-4D9D-9662-D5829C84DB00}" name="数据透视表4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -17121,7 +17149,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B970ABD-30AD-460C-B154-2973567B1E66}" name="数据透视表2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B970ABD-30AD-460C-B154-2973567B1E66}" name="数据透视表2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisPage" showAll="0">
@@ -17220,7 +17248,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="17">
     <pivotField axis="axisPage" showAll="0">
@@ -17699,7 +17727,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F9BA0EF-8F6F-491E-B7D2-9348863C473E}" name="数据透视表4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F9BA0EF-8F6F-491E-B7D2-9348863C473E}" name="数据透视表4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:H5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -18291,6 +18319,89 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="34" customWidth="1"/>
+    <col min="7" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{D5F9A3B5-344F-471F-9722-CC854AE41FF7}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{1D7DC245-D605-4FF9-8080-A37B56B91F5D}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{2E936BD4-D24E-4519-830C-E6EFF2A3EFAA}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{38DEE3FA-7781-4C49-8312-ADC7B03D2E64}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{645C8D83-587A-422F-A40D-319B9802B781}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{000FC4A7-0967-4ED8-A364-B23CDB2F0BF7}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{2A0B3242-AE1D-4E21-AAA3-C6C3E46C369C}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{32CC7260-1F4B-43EE-8743-C45C5DF79961}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{499571EA-728F-4EEC-A02D-EABF753F71BE}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401842A-9777-4C0B-9C5E-BA7A6B30C54D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -18349,7 +18460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -18417,7 +18528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2BAAF1-7E6B-40B2-8AE7-390D1B68CD60}">
   <dimension ref="A2:D5"/>
   <sheetViews>
@@ -18466,7 +18577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K490"/>
   <sheetViews>
@@ -18602,7 +18713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -18696,7 +18807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -18779,7 +18890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -18880,7 +18991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -18985,11 +19096,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DCF5F-57A9-430A-BEF1-58B8E0EEC839}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -19070,7 +19181,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF34E63-FB85-4ED6-8CCA-633348C80B41}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -19155,86 +19345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A1" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2607E-26E5-48A8-A868-5CDEAA28EEF0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -19302,7 +19413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25422AEA-C00F-486C-A423-C13C8DAF7B56}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -19357,7 +19468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -19448,7 +19559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC921DF-734D-4BD3-9436-B73C085D5B39}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -19512,7 +19623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D51F1-13E7-48BC-91C5-193A98AB72D1}">
   <dimension ref="A3:H5"/>
   <sheetViews>
@@ -19572,7 +19683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:P1"/>
   <sheetViews>
@@ -19701,7 +19812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -19784,7 +19895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -19870,7 +19981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -20335,12 +20446,130 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CA920D-01CD-4018-BC15-DE7FF210A206}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="9" style="30"/>
+    <col min="7" max="7" width="9.5" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9" style="30"/>
+    <col min="9" max="9" width="12.75" style="30" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="21.25" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1" xr:uid="{1DC62D41-59DE-414C-AC45-35A8AA0FB028}">
+      <formula1>$N:$N</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{7CA211C8-B5E5-442D-8528-105E1C74795E}">
+      <formula1>$M:$M</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{2E85BAC4-03DB-4191-8F03-64F62515251E}">
+      <formula1>$L:$L</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{21B208C4-2C71-459B-87CD-F59CBD8D22C7}">
+      <formula1>$K:$K</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{7B574B69-A601-4F1D-8983-D79A4D942125}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{8FFC61B0-4C2A-402A-84E0-E6AD870F5925}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{4BE2E41C-65E8-45D6-AFB3-503DBE5D3200}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{AA81544D-1BC9-42DB-990D-E10C1A6DB23A}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{063BE469-E10F-46CC-BD7E-6D05870DD40D}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{7EE72326-F6A9-4798-98B0-F18299AC6551}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{E0E6D107-15F5-4F05-9BFF-0CD68FB1FE56}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{C374C367-4667-4381-99A1-57CE992BD856}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{198B2332-2248-4355-8147-50327989DFE5}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{C283A3D4-52EE-4496-A71D-6616DA12802A}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20416,87 +20645,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="34" customWidth="1"/>
-    <col min="7" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{D5F9A3B5-344F-471F-9722-CC854AE41FF7}">
-      <formula1>$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{1D7DC245-D605-4FF9-8080-A37B56B91F5D}">
-      <formula1>$B:$B</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{2E936BD4-D24E-4519-830C-E6EFF2A3EFAA}">
-      <formula1>$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{38DEE3FA-7781-4C49-8312-ADC7B03D2E64}">
-      <formula1>$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{645C8D83-587A-422F-A40D-319B9802B781}">
-      <formula1>$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{000FC4A7-0967-4ED8-A364-B23CDB2F0BF7}">
-      <formula1>$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{2A0B3242-AE1D-4E21-AAA3-C6C3E46C369C}">
-      <formula1>$G:$G</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{32CC7260-1F4B-43EE-8743-C45C5DF79961}">
-      <formula1>$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{499571EA-728F-4EEC-A02D-EABF753F71BE}">
-      <formula1>$I:$I</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D991E019-BA7E-4C2D-A261-883EA783F78D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAD7758-913A-4815-94A4-633A6E99D65A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="23" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -652,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,12 +780,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -18419,7 +18413,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>59</v>
       </c>
       <c r="B1" t="s">
@@ -18427,7 +18421,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -18444,12 +18438,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -18543,7 +18537,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>89</v>
       </c>
       <c r="B2" t="s">
@@ -18551,7 +18545,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
@@ -18565,7 +18559,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="52" t="s">
         <v>21</v>
       </c>
     </row>
@@ -18601,37 +18595,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="46" t="s">
         <v>8</v>
       </c>
     </row>
@@ -19202,7 +19196,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -19210,15 +19204,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="51" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -19229,25 +19223,25 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -19372,7 +19366,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -19380,7 +19374,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -19397,12 +19391,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -19428,7 +19422,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>60</v>
       </c>
       <c r="B1" t="s">
@@ -19436,7 +19430,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -19444,7 +19438,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="51" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
@@ -19452,12 +19446,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -19575,7 +19569,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>60</v>
       </c>
       <c r="B1" t="s">
@@ -19583,7 +19577,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>61</v>
       </c>
       <c r="B2" t="s">
@@ -19591,7 +19585,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>59</v>
       </c>
       <c r="B3" t="s">
@@ -19599,7 +19593,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="51" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -19607,12 +19601,12 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -19641,7 +19635,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -19667,12 +19661,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -19687,15 +19681,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
     <col min="2" max="5" width="23.625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="44" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="30" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="30" customWidth="1"/>
     <col min="8" max="9" width="12.625" style="30" customWidth="1"/>
     <col min="10" max="10" width="20.875" customWidth="1"/>
@@ -19721,7 +19715,7 @@
       <c r="E1" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="31" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="31" t="s">
@@ -20085,7 +20079,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -20093,15 +20087,15 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="51" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -20109,16 +20103,16 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="45"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -20145,7 +20139,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
@@ -20153,12 +20147,12 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -20449,7 +20443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CA920D-01CD-4018-BC15-DE7FF210A206}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -20481,22 +20475,22 @@
       <c r="D1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="53" t="s">
         <v>96</v>
       </c>
       <c r="F1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="53" t="s">
         <v>98</v>
       </c>
       <c r="K1" s="35" t="s">

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EAD7758-913A-4815-94A4-633A6E99D65A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07016C6-3DD6-4F16-9CC3-E7531ED62024}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="23" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -19681,7 +19681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -20443,8 +20443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CA920D-01CD-4018-BC15-DE7FF210A206}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20456,7 +20456,7 @@
     <col min="8" max="8" width="9" style="30"/>
     <col min="9" max="9" width="12.75" style="30" customWidth="1"/>
     <col min="10" max="10" width="12.625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="34" customWidth="1"/>
     <col min="12" max="12" width="21.25" customWidth="1"/>
     <col min="13" max="13" width="17.875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07016C6-3DD6-4F16-9CC3-E7531ED62024}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE74E3A-8203-4748-91C1-FFF014244FDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -19094,7 +19094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DCF5F-57A9-430A-BEF1-58B8E0EEC839}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -19105,7 +19105,7 @@
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="34" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="8" max="8" width="20.75" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
@@ -19172,6 +19172,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20443,7 +20444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CA920D-01CD-4018-BC15-DE7FF210A206}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE74E3A-8203-4748-91C1-FFF014244FDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3E261-E31A-4477-A683-76394B192CEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="13" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="23" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -19094,7 +19094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DCF5F-57A9-430A-BEF1-58B8E0EEC839}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -19682,7 +19682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA3E261-E31A-4477-A683-76394B192CEA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A855B-0581-47BC-A44F-1D7496830A51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="23" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -19,45 +19,46 @@
     <sheet name="Core服务分析" sheetId="19" r:id="rId4"/>
     <sheet name="中间件启动" sheetId="6" r:id="rId5"/>
     <sheet name="客户端启动" sheetId="12" r:id="rId6"/>
-    <sheet name="清算" sheetId="11" r:id="rId7"/>
-    <sheet name="限额检查" sheetId="35" r:id="rId8"/>
-    <sheet name="限额刷新" sheetId="14" r:id="rId9"/>
-    <sheet name="组合动态核算" sheetId="15" r:id="rId10"/>
-    <sheet name="内存分析" sheetId="30" r:id="rId11"/>
-    <sheet name="内存" sheetId="4" r:id="rId12"/>
-    <sheet name="缓存分析" sheetId="34" r:id="rId13"/>
-    <sheet name="缓存" sheetId="10" r:id="rId14"/>
-    <sheet name="Core服务" sheetId="18" r:id="rId15"/>
-    <sheet name="核算" sheetId="13" r:id="rId16"/>
-    <sheet name="窗体" sheetId="7" r:id="rId17"/>
-    <sheet name="报表" sheetId="8" r:id="rId18"/>
-    <sheet name="原始" sheetId="33" r:id="rId19"/>
-    <sheet name="通用" sheetId="25" r:id="rId20"/>
-    <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId21"/>
-    <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId22"/>
-    <sheet name="Performance监视" sheetId="5" r:id="rId23"/>
-    <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId24"/>
-    <sheet name="Perf方法汇总分析" sheetId="32" r:id="rId25"/>
-    <sheet name="Performance原始" sheetId="26" r:id="rId26"/>
-    <sheet name="交易查询" sheetId="16" r:id="rId27"/>
-    <sheet name="现金流" sheetId="9" r:id="rId28"/>
-    <sheet name="其他" sheetId="17" r:id="rId29"/>
+    <sheet name="客户端消息" sheetId="36" r:id="rId7"/>
+    <sheet name="清算" sheetId="11" r:id="rId8"/>
+    <sheet name="限额检查" sheetId="35" r:id="rId9"/>
+    <sheet name="限额刷新" sheetId="14" r:id="rId10"/>
+    <sheet name="组合动态核算" sheetId="15" r:id="rId11"/>
+    <sheet name="内存分析" sheetId="30" r:id="rId12"/>
+    <sheet name="内存" sheetId="4" r:id="rId13"/>
+    <sheet name="缓存分析" sheetId="34" r:id="rId14"/>
+    <sheet name="缓存" sheetId="10" r:id="rId15"/>
+    <sheet name="Core服务" sheetId="18" r:id="rId16"/>
+    <sheet name="核算" sheetId="13" r:id="rId17"/>
+    <sheet name="窗体" sheetId="7" r:id="rId18"/>
+    <sheet name="报表" sheetId="8" r:id="rId19"/>
+    <sheet name="原始" sheetId="33" r:id="rId20"/>
+    <sheet name="通用" sheetId="25" r:id="rId21"/>
+    <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId22"/>
+    <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId23"/>
+    <sheet name="Performance监视" sheetId="5" r:id="rId24"/>
+    <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId25"/>
+    <sheet name="Perf方法汇总分析" sheetId="32" r:id="rId26"/>
+    <sheet name="Performance原始" sheetId="26" r:id="rId27"/>
+    <sheet name="交易查询" sheetId="16" r:id="rId28"/>
+    <sheet name="现金流" sheetId="9" r:id="rId29"/>
+    <sheet name="其他" sheetId="17" r:id="rId30"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId30"/>
-    <pivotCache cacheId="1" r:id="rId31"/>
-    <pivotCache cacheId="2" r:id="rId32"/>
-    <pivotCache cacheId="3" r:id="rId33"/>
-    <pivotCache cacheId="4" r:id="rId34"/>
-    <pivotCache cacheId="5" r:id="rId35"/>
-    <pivotCache cacheId="6" r:id="rId36"/>
+    <pivotCache cacheId="0" r:id="rId31"/>
+    <pivotCache cacheId="1" r:id="rId32"/>
+    <pivotCache cacheId="2" r:id="rId33"/>
+    <pivotCache cacheId="3" r:id="rId34"/>
+    <pivotCache cacheId="4" r:id="rId35"/>
+    <pivotCache cacheId="5" r:id="rId36"/>
+    <pivotCache cacheId="6" r:id="rId37"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="103">
   <si>
     <t>事项</t>
   </si>
@@ -423,6 +424,14 @@
   </si>
   <si>
     <t>条件数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息编码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息条件</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -18313,6 +18322,90 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="34" customWidth="1"/>
+    <col min="7" max="8" width="18.375" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{32B8A555-952A-4795-801F-253D64E99CE3}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{07C798C2-3BBC-4878-9715-D31B687A8FC4}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{06CD5F6A-7DB5-4112-A01E-04C99C5F3770}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{821054AB-8329-4FFC-9D97-CE699AD58863}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{91EBDB1A-D4A7-485C-A2E0-BB71852602ED}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{9EED56C9-581A-472C-9BE8-875C9641CF73}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{9E502D94-7B0D-461D-A6A9-AECC4D2939B3}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{83A5C93D-C765-4BC0-AE4A-1CE5382B963E}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{095F8E32-43E7-40A0-876B-BAF4B507F120}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -18395,7 +18488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401842A-9777-4C0B-9C5E-BA7A6B30C54D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -18454,7 +18547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -18522,7 +18615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2BAAF1-7E6B-40B2-8AE7-390D1B68CD60}">
   <dimension ref="A2:D5"/>
   <sheetViews>
@@ -18571,7 +18664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K490"/>
   <sheetViews>
@@ -18707,7 +18800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -18801,7 +18894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -18884,7 +18977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -18985,7 +19078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -19090,7 +19183,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DCF5F-57A9-430A-BEF1-58B8E0EEC839}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -19176,86 +19348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A1" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF34E63-FB85-4ED6-8CCA-633348C80B41}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -19340,7 +19433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2607E-26E5-48A8-A868-5CDEAA28EEF0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -19408,7 +19501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25422AEA-C00F-486C-A423-C13C8DAF7B56}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -19463,7 +19556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -19554,7 +19647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC921DF-734D-4BD3-9436-B73C085D5B39}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -19618,7 +19711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D51F1-13E7-48BC-91C5-193A98AB72D1}">
   <dimension ref="A3:H5"/>
   <sheetViews>
@@ -19678,11 +19771,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -19807,7 +19900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -19890,7 +19983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -19976,7 +20069,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="45"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="客户端启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -20056,72 +20215,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="45"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="客户端启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20255,7 +20348,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20337,6 +20430,76 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569C6D68-49B9-4F07-B76C-8025080CD534}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="4" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{CD0330C0-64DC-4196-ACBE-A76791C6A02E}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{141B970C-A3FA-4996-A70E-C2AF4F71088E}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{FB0CF4AD-875F-4665-BF08-8BB345C0A585}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{AF05D59C-D2F4-4799-BD46-4E931D23F336}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{5A452BD4-58CD-4F8D-99FF-69453874A19C}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{5B60BD5F-2C01-46FB-A12A-5FB27DEF6FBC}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{AD5F4F59-5F85-4901-B1EE-64CA3D992245}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -20440,7 +20603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CA920D-01CD-4018-BC15-DE7FF210A206}">
   <dimension ref="A1:N1"/>
   <sheetViews>
@@ -20556,88 +20719,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="3" width="17.75" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="34" customWidth="1"/>
-    <col min="7" max="8" width="18.375" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{32B8A555-952A-4795-801F-253D64E99CE3}">
-      <formula1>$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{07C798C2-3BBC-4878-9715-D31B687A8FC4}">
-      <formula1>$B:$B</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{06CD5F6A-7DB5-4112-A01E-04C99C5F3770}">
-      <formula1>$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{821054AB-8329-4FFC-9D97-CE699AD58863}">
-      <formula1>$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{91EBDB1A-D4A7-485C-A2E0-BB71852602ED}">
-      <formula1>$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{9EED56C9-581A-472C-9BE8-875C9641CF73}">
-      <formula1>$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{9E502D94-7B0D-461D-A6A9-AECC4D2939B3}">
-      <formula1>$G:$G</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{83A5C93D-C765-4BC0-AE4A-1CE5382B963E}">
-      <formula1>$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{095F8E32-43E7-40A0-876B-BAF4B507F120}">
-      <formula1>$I:$I</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
 </file>
--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A855B-0581-47BC-A44F-1D7496830A51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE25C774-3137-4FE8-8394-921CD6B070B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -19,46 +19,48 @@
     <sheet name="Core服务分析" sheetId="19" r:id="rId4"/>
     <sheet name="中间件启动" sheetId="6" r:id="rId5"/>
     <sheet name="客户端启动" sheetId="12" r:id="rId6"/>
-    <sheet name="客户端消息" sheetId="36" r:id="rId7"/>
-    <sheet name="清算" sheetId="11" r:id="rId8"/>
-    <sheet name="限额检查" sheetId="35" r:id="rId9"/>
-    <sheet name="限额刷新" sheetId="14" r:id="rId10"/>
-    <sheet name="组合动态核算" sheetId="15" r:id="rId11"/>
-    <sheet name="内存分析" sheetId="30" r:id="rId12"/>
-    <sheet name="内存" sheetId="4" r:id="rId13"/>
-    <sheet name="缓存分析" sheetId="34" r:id="rId14"/>
-    <sheet name="缓存" sheetId="10" r:id="rId15"/>
-    <sheet name="Core服务" sheetId="18" r:id="rId16"/>
-    <sheet name="核算" sheetId="13" r:id="rId17"/>
-    <sheet name="窗体" sheetId="7" r:id="rId18"/>
-    <sheet name="报表" sheetId="8" r:id="rId19"/>
-    <sheet name="原始" sheetId="33" r:id="rId20"/>
-    <sheet name="通用" sheetId="25" r:id="rId21"/>
-    <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId22"/>
-    <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId23"/>
-    <sheet name="Performance监视" sheetId="5" r:id="rId24"/>
-    <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId25"/>
-    <sheet name="Perf方法汇总分析" sheetId="32" r:id="rId26"/>
-    <sheet name="Performance原始" sheetId="26" r:id="rId27"/>
-    <sheet name="交易查询" sheetId="16" r:id="rId28"/>
-    <sheet name="现金流" sheetId="9" r:id="rId29"/>
-    <sheet name="其他" sheetId="17" r:id="rId30"/>
+    <sheet name="客户端消息分析" sheetId="37" r:id="rId7"/>
+    <sheet name="客户端消息" sheetId="36" r:id="rId8"/>
+    <sheet name="清算" sheetId="11" r:id="rId9"/>
+    <sheet name="限额检查" sheetId="35" r:id="rId10"/>
+    <sheet name="限额刷新" sheetId="14" r:id="rId11"/>
+    <sheet name="组合动态核算" sheetId="15" r:id="rId12"/>
+    <sheet name="内存分析" sheetId="30" r:id="rId13"/>
+    <sheet name="内存" sheetId="4" r:id="rId14"/>
+    <sheet name="缓存分析" sheetId="34" r:id="rId15"/>
+    <sheet name="缓存" sheetId="10" r:id="rId16"/>
+    <sheet name="Core服务" sheetId="18" r:id="rId17"/>
+    <sheet name="核算" sheetId="13" r:id="rId18"/>
+    <sheet name="窗体" sheetId="7" r:id="rId19"/>
+    <sheet name="报表" sheetId="8" r:id="rId20"/>
+    <sheet name="原始" sheetId="33" r:id="rId21"/>
+    <sheet name="通用" sheetId="25" r:id="rId22"/>
+    <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId23"/>
+    <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId24"/>
+    <sheet name="Performance监视" sheetId="5" r:id="rId25"/>
+    <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId26"/>
+    <sheet name="Perf方法汇总分析" sheetId="32" r:id="rId27"/>
+    <sheet name="Performance原始" sheetId="26" r:id="rId28"/>
+    <sheet name="交易查询" sheetId="16" r:id="rId29"/>
+    <sheet name="现金流" sheetId="9" r:id="rId30"/>
+    <sheet name="其他" sheetId="17" r:id="rId31"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId31"/>
-    <pivotCache cacheId="1" r:id="rId32"/>
-    <pivotCache cacheId="2" r:id="rId33"/>
-    <pivotCache cacheId="3" r:id="rId34"/>
-    <pivotCache cacheId="4" r:id="rId35"/>
-    <pivotCache cacheId="5" r:id="rId36"/>
-    <pivotCache cacheId="6" r:id="rId37"/>
+    <pivotCache cacheId="0" r:id="rId32"/>
+    <pivotCache cacheId="1" r:id="rId33"/>
+    <pivotCache cacheId="2" r:id="rId34"/>
+    <pivotCache cacheId="3" r:id="rId35"/>
+    <pivotCache cacheId="4" r:id="rId36"/>
+    <pivotCache cacheId="5" r:id="rId37"/>
+    <pivotCache cacheId="6" r:id="rId38"/>
+    <pivotCache cacheId="7" r:id="rId39"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="104">
   <si>
     <t>事项</t>
   </si>
@@ -434,6 +436,9 @@
     <t>消息条件</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>计数项:消息条件</t>
+  </si>
 </sst>
 </file>
 
@@ -661,7 +666,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -824,6 +829,9 @@
     <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -857,6 +865,400 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]客户端消息分析!数据透视表2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>客户端消息分析!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>汇总</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>客户端消息分析!$A$4:$A$7</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="1"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(空白)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(空白)</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>(空白)</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>客户端消息分析!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A411-4F89-AB99-9C29D3BE14B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="633212752"/>
+        <c:axId val="633203568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="633212752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633203568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="633203568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="633212752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
     <c:name>[xQuant_EXCEL_Templet.xlsx]内存分析!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
@@ -877,6 +1279,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -892,6 +1335,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -907,6 +1391,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -922,6 +1447,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1301,7 +1867,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1335,6 +1901,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -1350,6 +1957,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -1365,6 +2013,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1749,7 +2438,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1783,6 +2472,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -1798,6 +2528,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -1813,6 +2584,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -1828,6 +2640,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2328,7 +3181,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2393,6 +3246,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
@@ -2705,7 +3599,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -2770,6 +3664,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -3098,7 +4033,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3132,6 +4067,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -3147,6 +4123,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -3207,6 +4224,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
@@ -3222,6 +4280,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="7"/>
@@ -3237,6 +4336,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
@@ -3252,6 +4392,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="9"/>
@@ -3267,6 +4448,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4128,6 +5350,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5677,7 +6939,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5700,6 +6962,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -5870,23 +7143,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5991,8 +7263,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6124,20 +7396,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6665,6 +7936,500 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7171,6 +8936,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794F3C1D-62FD-4068-BBC2-B80FD64FAF96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -7208,7 +9014,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7249,7 +9055,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7290,7 +9096,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7331,7 +9137,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7372,7 +9178,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8808,6 +10614,50 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43563.399038310185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{3601DC51-6CF8-43C0-A5E7-05ED57F76E1A}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="客户端消息"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="事项" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="版本" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="消息编码" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="消息条件" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="开始时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日志文件名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="开始日志行号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
@@ -16044,6 +17894,20 @@
     <m/>
     <x v="0"/>
     <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <m/>
     <m/>
@@ -16118,6 +17982,156 @@
   <dataFields count="1">
     <dataField name="求和项:耗时" fld="4" baseField="1" baseItem="0" numFmtId="179"/>
   </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F9BA0EF-8F6F-491E-B7D2-9348863C473E}" name="数据透视表4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:H5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="182" showAll="0"/>
+    <pivotField numFmtId="182" showAll="0"/>
+    <pivotField numFmtId="182" showAll="0"/>
+    <pivotField numFmtId="182" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+  </colItems>
+  <dataFields count="7">
+    <dataField name="求和项:耗时" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="平均值项:耗时" fld="5" subtotal="average" baseField="11" baseItem="0"/>
+    <dataField name="平均值项:请求网络延时" fld="6" subtotal="average" baseField="11" baseItem="0"/>
+    <dataField name="平均值项:响应处理耗时" fld="7" subtotal="average" baseField="11" baseItem="0"/>
+    <dataField name="平均值项:响应网络延时" fld="8" subtotal="average" baseField="11" baseItem="0"/>
+    <dataField name="求和项:请求流长度" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="求和项:响应流长度" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -16248,6 +18262,89 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54FB7329-6B29-4685-A7C0-8276A7ECD238}" name="数据透视表2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="2"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:消息条件" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48CB5F0-0495-4CBC-80C7-ACB002C4C48D}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -16882,7 +18979,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E9E262A-D885-4003-8AA1-7187C6600F2C}" name="数据透视表1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
@@ -17039,7 +19136,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42CA14DE-6471-4D9D-9662-D5829C84DB00}" name="数据透视表4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
@@ -17151,7 +19248,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2B970ABD-30AD-460C-B154-2973567B1E66}" name="数据透视表2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="10">
@@ -17250,7 +19347,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FE8F407-88F0-475B-8F02-91EFC9BFFFBB}" name="数据透视表3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="17">
@@ -17729,156 +19826,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F9BA0EF-8F6F-491E-B7D2-9348863C473E}" name="数据透视表4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:H5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="182" showAll="0"/>
-    <pivotField numFmtId="182" showAll="0"/>
-    <pivotField numFmtId="182" showAll="0"/>
-    <pivotField numFmtId="182" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-    <i i="5">
-      <x v="5"/>
-    </i>
-    <i i="6">
-      <x v="6"/>
-    </i>
-  </colItems>
-  <dataFields count="7">
-    <dataField name="求和项:耗时" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="平均值项:耗时" fld="5" subtotal="average" baseField="11" baseItem="0"/>
-    <dataField name="平均值项:请求网络延时" fld="6" subtotal="average" baseField="11" baseItem="0"/>
-    <dataField name="平均值项:响应处理耗时" fld="7" subtotal="average" baseField="11" baseItem="0"/>
-    <dataField name="平均值项:响应网络延时" fld="8" subtotal="average" baseField="11" baseItem="0"/>
-    <dataField name="求和项:请求流长度" fld="11" baseField="0" baseItem="0"/>
-    <dataField name="求和项:响应流长度" fld="12" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -18322,6 +20269,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CA920D-01CD-4018-BC15-DE7FF210A206}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="9" style="30"/>
+    <col min="7" max="7" width="9.5" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9" style="30"/>
+    <col min="9" max="9" width="12.75" style="30" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="34" customWidth="1"/>
+    <col min="12" max="12" width="21.25" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1" xr:uid="{1DC62D41-59DE-414C-AC45-35A8AA0FB028}">
+      <formula1>$N:$N</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{7CA211C8-B5E5-442D-8528-105E1C74795E}">
+      <formula1>$M:$M</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{2E85BAC4-03DB-4191-8F03-64F62515251E}">
+      <formula1>$L:$L</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{21B208C4-2C71-459B-87CD-F59CBD8D22C7}">
+      <formula1>$K:$K</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{7B574B69-A601-4F1D-8983-D79A4D942125}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{8FFC61B0-4C2A-402A-84E0-E6AD870F5925}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{4BE2E41C-65E8-45D6-AFB3-503DBE5D3200}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{AA81544D-1BC9-42DB-990D-E10C1A6DB23A}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{063BE469-E10F-46CC-BD7E-6D05870DD40D}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{7EE72326-F6A9-4798-98B0-F18299AC6551}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{E0E6D107-15F5-4F05-9BFF-0CD68FB1FE56}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{C374C367-4667-4381-99A1-57CE992BD856}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{198B2332-2248-4355-8147-50327989DFE5}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{C283A3D4-52EE-4496-A71D-6616DA12802A}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -18405,7 +20470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -18488,7 +20553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401842A-9777-4C0B-9C5E-BA7A6B30C54D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -18547,7 +20612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -18615,7 +20680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2BAAF1-7E6B-40B2-8AE7-390D1B68CD60}">
   <dimension ref="A2:D5"/>
   <sheetViews>
@@ -18664,7 +20729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K490"/>
   <sheetViews>
@@ -18800,7 +20865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -18894,7 +20959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -18977,7 +21042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -19078,7 +21143,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -19183,90 +21327,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A1" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DCF5F-57A9-430A-BEF1-58B8E0EEC839}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -19348,7 +21413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF34E63-FB85-4ED6-8CCA-633348C80B41}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -19433,7 +21498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2607E-26E5-48A8-A868-5CDEAA28EEF0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -19501,7 +21566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25422AEA-C00F-486C-A423-C13C8DAF7B56}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -19556,7 +21621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -19647,7 +21712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC921DF-734D-4BD3-9436-B73C085D5B39}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -19711,7 +21776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D51F1-13E7-48BC-91C5-193A98AB72D1}">
   <dimension ref="A3:H5"/>
   <sheetViews>
@@ -19771,7 +21836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:P1"/>
   <sheetViews>
@@ -19900,7 +21965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -19983,7 +22048,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="45"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="客户端启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -20069,73 +22200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="45"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="客户端启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -20430,11 +22495,68 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66F75F8-91F6-41CF-B40F-0DE7BAA750F1}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569C6D68-49B9-4F07-B76C-8025080CD534}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20499,7 +22621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -20601,122 +22723,4 @@
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CA920D-01CD-4018-BC15-DE7FF210A206}">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="9" style="30"/>
-    <col min="7" max="7" width="9.5" style="30" customWidth="1"/>
-    <col min="8" max="8" width="9" style="30"/>
-    <col min="9" max="9" width="12.75" style="30" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="34" customWidth="1"/>
-    <col min="12" max="12" width="21.25" customWidth="1"/>
-    <col min="13" max="13" width="17.875" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1" xr:uid="{1DC62D41-59DE-414C-AC45-35A8AA0FB028}">
-      <formula1>$N:$N</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{7CA211C8-B5E5-442D-8528-105E1C74795E}">
-      <formula1>$M:$M</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{2E85BAC4-03DB-4191-8F03-64F62515251E}">
-      <formula1>$L:$L</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{21B208C4-2C71-459B-87CD-F59CBD8D22C7}">
-      <formula1>$K:$K</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{7B574B69-A601-4F1D-8983-D79A4D942125}">
-      <formula1>$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{8FFC61B0-4C2A-402A-84E0-E6AD870F5925}">
-      <formula1>$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{4BE2E41C-65E8-45D6-AFB3-503DBE5D3200}">
-      <formula1>$B:$B</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{AA81544D-1BC9-42DB-990D-E10C1A6DB23A}">
-      <formula1>$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{063BE469-E10F-46CC-BD7E-6D05870DD40D}">
-      <formula1>$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{7EE72326-F6A9-4798-98B0-F18299AC6551}">
-      <formula1>$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{E0E6D107-15F5-4F05-9BFF-0CD68FB1FE56}">
-      <formula1>$G:$G</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{C374C367-4667-4381-99A1-57CE992BD856}">
-      <formula1>$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{198B2332-2248-4355-8147-50327989DFE5}">
-      <formula1>$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{C283A3D4-52EE-4496-A71D-6616DA12802A}">
-      <formula1>$J:$J</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE25C774-3137-4FE8-8394-921CD6B070B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D327C66A-3B37-4B91-AC08-6255556E1F33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -33,34 +33,37 @@
     <sheet name="核算" sheetId="13" r:id="rId18"/>
     <sheet name="窗体" sheetId="7" r:id="rId19"/>
     <sheet name="报表" sheetId="8" r:id="rId20"/>
-    <sheet name="原始" sheetId="33" r:id="rId21"/>
-    <sheet name="通用" sheetId="25" r:id="rId22"/>
-    <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId23"/>
-    <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId24"/>
-    <sheet name="Performance监视" sheetId="5" r:id="rId25"/>
-    <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId26"/>
-    <sheet name="Perf方法汇总分析" sheetId="32" r:id="rId27"/>
-    <sheet name="Performance原始" sheetId="26" r:id="rId28"/>
-    <sheet name="交易查询" sheetId="16" r:id="rId29"/>
-    <sheet name="现金流" sheetId="9" r:id="rId30"/>
-    <sheet name="其他" sheetId="17" r:id="rId31"/>
+    <sheet name="通用" sheetId="25" r:id="rId21"/>
+    <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId22"/>
+    <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId23"/>
+    <sheet name="Performance监视" sheetId="5" r:id="rId24"/>
+    <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId25"/>
+    <sheet name="Perf方法汇总分析" sheetId="32" r:id="rId26"/>
+    <sheet name="Performance原始" sheetId="26" r:id="rId27"/>
+    <sheet name="交易查询" sheetId="16" r:id="rId28"/>
+    <sheet name="现金流" sheetId="9" r:id="rId29"/>
+    <sheet name="其他" sheetId="17" r:id="rId30"/>
+    <sheet name="SQL分析" sheetId="40" r:id="rId31"/>
+    <sheet name="SQL" sheetId="38" r:id="rId32"/>
+    <sheet name="原始" sheetId="33" r:id="rId33"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId32"/>
-    <pivotCache cacheId="1" r:id="rId33"/>
-    <pivotCache cacheId="2" r:id="rId34"/>
-    <pivotCache cacheId="3" r:id="rId35"/>
-    <pivotCache cacheId="4" r:id="rId36"/>
-    <pivotCache cacheId="5" r:id="rId37"/>
-    <pivotCache cacheId="6" r:id="rId38"/>
-    <pivotCache cacheId="7" r:id="rId39"/>
+    <pivotCache cacheId="0" r:id="rId34"/>
+    <pivotCache cacheId="1" r:id="rId35"/>
+    <pivotCache cacheId="2" r:id="rId36"/>
+    <pivotCache cacheId="3" r:id="rId37"/>
+    <pivotCache cacheId="4" r:id="rId38"/>
+    <pivotCache cacheId="5" r:id="rId39"/>
+    <pivotCache cacheId="6" r:id="rId40"/>
+    <pivotCache cacheId="7" r:id="rId41"/>
+    <pivotCache cacheId="8" r:id="rId42"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
   <si>
     <t>事项</t>
   </si>
@@ -438,6 +441,28 @@
   </si>
   <si>
     <t>计数项:消息条件</t>
+  </si>
+  <si>
+    <t>数据库用户</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL Hash</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响行数</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库用户</t>
+  </si>
+  <si>
+    <t>求和项:影响行数</t>
   </si>
 </sst>
 </file>
@@ -5149,6 +5174,648 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]SQL分析!数据透视表1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SQL分析!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>求和项:耗时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SQL分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SQL分析!$B$4:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AB2-4FCC-B518-03E5A2C0104B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SQL分析!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>求和项:影响行数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SQL分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SQL分析!$C$4:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5AB2-4FCC-B518-03E5A2C0104B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="638123896"/>
+        <c:axId val="638124224"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SQL分析!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>计数项:耗时</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>SQL分析!$A$4:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(空白)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SQL分析!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5AB2-4FCC-B518-03E5A2C0104B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="642114864"/>
+        <c:axId val="642114536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="638123896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638124224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="638124224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638123896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="642114536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642114864"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="642114864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="642114536"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5390,6 +6057,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8932,6 +9639,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9199,6 +10409,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02425183-4A2F-4F37-B17A-B331528DC2B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>642937</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F180437-F292-446F-9D7B-BE4F15FD78F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10658,6 +11909,59 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="刘子超" refreshedDate="43563.569314004628" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{D20ED5D4-A062-47FD-890E-923DC4BB3987}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:J1048576" sheet="SQL"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="事项" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="数据库用户" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SQL Hash" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="影响行数" numFmtId="177">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="耗时" numFmtId="177">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="开始时间" numFmtId="181">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="完成时间" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="日志文件名称" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="开始日志行号" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="参数" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
@@ -17909,6 +19213,23 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -18127,6 +19448,115 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42733DA8-F763-45D0-9DE1-1CCC09EE98E4}" name="数据透视表1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="3">
+    <dataField name="求和项:耗时" fld="4" baseField="2" baseItem="0"/>
+    <dataField name="求和项:影响行数" fld="3" baseField="2" baseItem="0"/>
+    <dataField name="计数项:耗时" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -21328,92 +22758,6 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DCF5F-57A9-430A-BEF1-58B8E0EEC839}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="15.25" customWidth="1"/>
-    <col min="8" max="8" width="20.75" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{089D233D-2BD4-4B9D-B5BD-DEEF703ADCFA}">
-      <formula1>$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{39A409F0-C5D5-485F-B5A4-F54FE337DF93}">
-      <formula1>$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{4331AF6F-A3A6-4371-9FE3-30151C13B01C}">
-      <formula1>$G:$G</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{7811580A-5B7D-462E-9640-BEEE56539490}">
-      <formula1>$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{FC9E6632-22AF-44A4-886F-F500DA823062}">
-      <formula1>$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{9F767EB6-BEAB-45E2-BA42-423CFDC9A3CE}">
-      <formula1>$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{B7EF1487-914D-46CE-B5B6-9C1BFABCEEF2}">
-      <formula1>$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{36BDAFFB-CBA2-4F9F-A2F8-BDE53918FAF7}">
-      <formula1>$B:$B</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{1C6B1BB4-08A8-4FDA-9709-089EAA0C9BE9}">
-      <formula1>$A:$A</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF34E63-FB85-4ED6-8CCA-633348C80B41}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -21498,7 +22842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2607E-26E5-48A8-A868-5CDEAA28EEF0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -21566,7 +22910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25422AEA-C00F-486C-A423-C13C8DAF7B56}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -21621,7 +22965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -21712,7 +23056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC921DF-734D-4BD3-9436-B73C085D5B39}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -21776,7 +23120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D51F1-13E7-48BC-91C5-193A98AB72D1}">
   <dimension ref="A3:H5"/>
   <sheetViews>
@@ -21836,7 +23180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:P1"/>
   <sheetViews>
@@ -21965,7 +23309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -22048,73 +23392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="45"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="客户端启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -22200,7 +23478,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="45"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="客户端启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -22280,6 +23624,235 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F575CC6D-0F15-4FA5-B40C-2C823BA6F7A4}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86A7FEE-7FD0-4F2D-957C-5383D6AE300B}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="30" customWidth="1"/>
+    <col min="5" max="5" width="9" style="30"/>
+    <col min="6" max="6" width="18.625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{766ABCDB-6B04-44CF-9ADA-2FA99648BFAA}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{B6FB0DB8-8F7A-4D84-9D82-C76AA49447D5}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{E06B4256-17E4-4700-A391-AFE8952C5137}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{989B1F70-3593-454B-9D65-D85831CBD7D0}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{F2E29D7A-CA4F-42BD-93B1-D481AE26B2D6}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{922F9109-8105-4C41-A900-A25DFCB136EE}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{04A05070-12C4-4A39-97D5-051A8BC6E876}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{253D1669-ADE8-4AB9-892F-1F8942B40F54}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00769DEB-4302-478C-9C33-B57FB0A1366A}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DCF5F-57A9-430A-BEF1-58B8E0EEC839}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="20.75" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{089D233D-2BD4-4B9D-B5BD-DEEF703ADCFA}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{39A409F0-C5D5-485F-B5A4-F54FE337DF93}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{4331AF6F-A3A6-4371-9FE3-30151C13B01C}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{7811580A-5B7D-462E-9640-BEEE56539490}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{FC9E6632-22AF-44A4-886F-F500DA823062}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{9F767EB6-BEAB-45E2-BA42-423CFDC9A3CE}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{B7EF1487-914D-46CE-B5B6-9C1BFABCEEF2}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{36BDAFFB-CBA2-4F9F-A2F8-BDE53918FAF7}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{1C6B1BB4-08A8-4FDA-9709-089EAA0C9BE9}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D327C66A-3B37-4B91-AC08-6255556E1F33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B686605A-1E43-4027-A79A-D3814580153B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="27" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="27" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -5712,6 +5712,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="642114536"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -23631,7 +23632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F575CC6D-0F15-4FA5-B40C-2C823BA6F7A4}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -23686,8 +23687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86A7FEE-7FD0-4F2D-957C-5383D6AE300B}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B686605A-1E43-4027-A79A-D3814580153B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1E230B-33E4-4D6F-BDBF-726F925E7C6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="27" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="26" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主界面" sheetId="22" r:id="rId1"/>
@@ -46,24 +46,25 @@
     <sheet name="SQL分析" sheetId="40" r:id="rId31"/>
     <sheet name="SQL" sheetId="38" r:id="rId32"/>
     <sheet name="原始" sheetId="33" r:id="rId33"/>
+    <sheet name="批量审批" sheetId="41" r:id="rId34"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId34"/>
-    <pivotCache cacheId="1" r:id="rId35"/>
-    <pivotCache cacheId="2" r:id="rId36"/>
-    <pivotCache cacheId="3" r:id="rId37"/>
-    <pivotCache cacheId="4" r:id="rId38"/>
-    <pivotCache cacheId="5" r:id="rId39"/>
-    <pivotCache cacheId="6" r:id="rId40"/>
-    <pivotCache cacheId="7" r:id="rId41"/>
-    <pivotCache cacheId="8" r:id="rId42"/>
+    <pivotCache cacheId="0" r:id="rId35"/>
+    <pivotCache cacheId="1" r:id="rId36"/>
+    <pivotCache cacheId="2" r:id="rId37"/>
+    <pivotCache cacheId="3" r:id="rId38"/>
+    <pivotCache cacheId="4" r:id="rId39"/>
+    <pivotCache cacheId="5" r:id="rId40"/>
+    <pivotCache cacheId="6" r:id="rId41"/>
+    <pivotCache cacheId="7" r:id="rId42"/>
+    <pivotCache cacheId="8" r:id="rId43"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="111">
   <si>
     <t>事项</t>
   </si>
@@ -463,6 +464,9 @@
   </si>
   <si>
     <t>求和项:影响行数</t>
+  </si>
+  <si>
+    <t>操作人</t>
   </si>
 </sst>
 </file>
@@ -23687,7 +23691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86A7FEE-7FD0-4F2D-957C-5383D6AE300B}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -23824,32 +23828,124 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{089D233D-2BD4-4B9D-B5BD-DEEF703ADCFA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{B7E788A7-39F9-4981-A65F-2E6E5483DA3A}">
       <formula1>$I:$I</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{39A409F0-C5D5-485F-B5A4-F54FE337DF93}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{D93A0D12-7DAE-4C1D-A0F8-E5192F7F6B5D}">
       <formula1>$H:$H</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{4331AF6F-A3A6-4371-9FE3-30151C13B01C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{AEEDADCC-0F3E-4F7B-892C-275731974B53}">
       <formula1>$G:$G</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{7811580A-5B7D-462E-9640-BEEE56539490}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{E69E3DDC-F28E-47A2-914B-D588C6076B54}">
       <formula1>$F:$F</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{FC9E6632-22AF-44A4-886F-F500DA823062}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{58D3E73C-DE25-4328-8637-2DA197166834}">
       <formula1>$E:$E</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{9F767EB6-BEAB-45E2-BA42-423CFDC9A3CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{BC325DE3-7124-4ADE-9848-B7D93E450CB1}">
       <formula1>$D:$D</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{B7EF1487-914D-46CE-B5B6-9C1BFABCEEF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{2C604325-5984-465B-AEBF-540FE8E92CC7}">
       <formula1>$C:$C</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{36BDAFFB-CBA2-4F9F-A2F8-BDE53918FAF7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{4923927A-6E14-4A6D-96FB-804F15D66A61}">
       <formula1>$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{1C6B1BB4-08A8-4FDA-9709-089EAA0C9BE9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{0D2CE560-BF69-4ACA-B2D4-24AC54259070}">
       <formula1>$A:$A</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46279412-60AA-4BCF-A8F6-268A26384DD4}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="5" max="6" width="13.375" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{E6B5DFAB-1E7E-493A-B2AD-6E810A1F798B}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{0C09A9E5-20C1-491C-9C93-E6DB202436CF}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{BF05A447-B6C3-4BA1-B84A-BFF05F4CB1F5}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{DA7BD554-4AC9-4E2D-9628-CF365AC00381}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{5AD3D53B-F046-419F-AD22-6571DE131BA5}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{40EB43BD-8F4D-44C2-98FB-1074AC8CD74A}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{6B49270B-BF46-42C0-B8B2-CB1A79B6D301}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{E13A6540-A52E-4043-9C98-FC30B63D86FA}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{A3DE2089-7A6B-43A1-99A6-F377FF8843E6}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{43C04EBA-747E-42EC-9848-662CAFD3D033}">
+      <formula1>$F:$F</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1E230B-33E4-4D6F-BDBF-726F925E7C6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42761814-F573-41B8-9901-5825239A9039}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="26" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,23 +30,23 @@
     <sheet name="缓存分析" sheetId="34" r:id="rId15"/>
     <sheet name="缓存" sheetId="10" r:id="rId16"/>
     <sheet name="Core服务" sheetId="18" r:id="rId17"/>
-    <sheet name="核算" sheetId="13" r:id="rId18"/>
-    <sheet name="窗体" sheetId="7" r:id="rId19"/>
-    <sheet name="报表" sheetId="8" r:id="rId20"/>
-    <sheet name="通用" sheetId="25" r:id="rId21"/>
-    <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId22"/>
-    <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId23"/>
-    <sheet name="Performance监视" sheetId="5" r:id="rId24"/>
-    <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId25"/>
-    <sheet name="Perf方法汇总分析" sheetId="32" r:id="rId26"/>
-    <sheet name="Performance原始" sheetId="26" r:id="rId27"/>
-    <sheet name="交易查询" sheetId="16" r:id="rId28"/>
-    <sheet name="现金流" sheetId="9" r:id="rId29"/>
-    <sheet name="其他" sheetId="17" r:id="rId30"/>
-    <sheet name="SQL分析" sheetId="40" r:id="rId31"/>
-    <sheet name="SQL" sheetId="38" r:id="rId32"/>
-    <sheet name="原始" sheetId="33" r:id="rId33"/>
-    <sheet name="批量审批" sheetId="41" r:id="rId34"/>
+    <sheet name="窗体" sheetId="7" r:id="rId18"/>
+    <sheet name="报表" sheetId="8" r:id="rId19"/>
+    <sheet name="通用" sheetId="25" r:id="rId20"/>
+    <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId21"/>
+    <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId22"/>
+    <sheet name="Performance监视" sheetId="5" r:id="rId23"/>
+    <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId24"/>
+    <sheet name="Perf方法汇总分析" sheetId="32" r:id="rId25"/>
+    <sheet name="Performance原始" sheetId="26" r:id="rId26"/>
+    <sheet name="交易查询" sheetId="16" r:id="rId27"/>
+    <sheet name="现金流" sheetId="9" r:id="rId28"/>
+    <sheet name="其他" sheetId="17" r:id="rId29"/>
+    <sheet name="SQL分析" sheetId="40" r:id="rId30"/>
+    <sheet name="SQL" sheetId="38" r:id="rId31"/>
+    <sheet name="原始" sheetId="33" r:id="rId32"/>
+    <sheet name="批量审批" sheetId="41" r:id="rId33"/>
+    <sheet name="财务核算" sheetId="13" r:id="rId34"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="113">
   <si>
     <t>事项</t>
   </si>
@@ -467,6 +467,14 @@
   </si>
   <si>
     <t>操作人</t>
+  </si>
+  <si>
+    <t>核算任务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>核算日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -22395,89 +22403,6 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="17.25" style="34" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{4B33B2DA-5692-43B4-8F3A-D552D135D9C9}">
-      <formula1>$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{D3C56693-BB73-4574-84B3-2ED9FE12E0F3}">
-      <formula1>$B:$B</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{D8E1FFE1-CA61-4107-B595-A38D38398032}">
-      <formula1>$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{785B4E6E-3E69-489F-9345-66530436D903}">
-      <formula1>$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{4BF15666-062A-4174-9B1C-2F4EADE18188}">
-      <formula1>$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{B8463DCE-74C9-4F79-9264-D0DF5BCFEFB2}">
-      <formula1>$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{C597B113-67A1-4803-ADD6-4ED6A7E2EDE6}">
-      <formula1>$G:$G</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{5E8FB0A9-F027-4165-99BE-3C3521F915D8}">
-      <formula1>$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{59C83F62-7DB8-435E-A518-7706D445B589}">
-      <formula1>$I:$I</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -22578,86 +22503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A1" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -22762,7 +22608,86 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="中间件启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF34E63-FB85-4ED6-8CCA-633348C80B41}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -22847,7 +22772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB2607E-26E5-48A8-A868-5CDEAA28EEF0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -22915,7 +22840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25422AEA-C00F-486C-A423-C13C8DAF7B56}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -22970,7 +22895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -23061,7 +22986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC921DF-734D-4BD3-9436-B73C085D5B39}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -23125,7 +23050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D51F1-13E7-48BC-91C5-193A98AB72D1}">
   <dimension ref="A3:H5"/>
   <sheetViews>
@@ -23185,7 +23110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CD51D-BA0C-4CBA-9D42-3FFB46924E0F}">
   <dimension ref="A1:P1"/>
   <sheetViews>
@@ -23314,7 +23239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -23397,7 +23322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -23483,73 +23408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="45"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="客户端启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -23632,7 +23491,73 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="45"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="45"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="客户端启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F575CC6D-0F15-4FA5-B40C-2C823BA6F7A4}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -23687,7 +23612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86A7FEE-7FD0-4F2D-957C-5383D6AE300B}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -23775,7 +23700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DCF5F-57A9-430A-BEF1-58B8E0EEC839}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -23861,11 +23786,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46279412-60AA-4BCF-A8F6-268A26384DD4}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -23950,6 +23875,103 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9"/>
+    <col min="6" max="6" width="14.25" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="34" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{4B33B2DA-5692-43B4-8F3A-D552D135D9C9}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{D3C56693-BB73-4574-84B3-2ED9FE12E0F3}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{D8E1FFE1-CA61-4107-B595-A38D38398032}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{785B4E6E-3E69-489F-9345-66530436D903}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{4BF15666-062A-4174-9B1C-2F4EADE18188}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{B8463DCE-74C9-4F79-9264-D0DF5BCFEFB2}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{C597B113-67A1-4803-ADD6-4ED6A7E2EDE6}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{5E8FB0A9-F027-4165-99BE-3C3521F915D8}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{59C83F62-7DB8-435E-A518-7706D445B589}">
+      <formula1>$K:$K</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{50DA3249-728A-4C4F-82AA-A41636CE9CFD}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{D409E032-1B83-4A16-BD3B-5870E62B45E3}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
+++ b/xQuantLogFactory/ReportTemplet/xQuant_EXCEL_Templet.xlsx
@@ -8,41 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CSharp\xQuantLogFactory\xQuantLogFactory\ReportTemplet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42761814-F573-41B8-9901-5825239A9039}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A00DA40-863F-459F-BA29-2967EADC0D99}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="26" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="主界面" sheetId="22" r:id="rId1"/>
-    <sheet name="中间件启动分析" sheetId="21" r:id="rId2"/>
-    <sheet name="客户端启动分析" sheetId="20" r:id="rId3"/>
-    <sheet name="Core服务分析" sheetId="19" r:id="rId4"/>
-    <sheet name="中间件启动" sheetId="6" r:id="rId5"/>
-    <sheet name="客户端启动" sheetId="12" r:id="rId6"/>
-    <sheet name="客户端消息分析" sheetId="37" r:id="rId7"/>
-    <sheet name="客户端消息" sheetId="36" r:id="rId8"/>
-    <sheet name="清算" sheetId="11" r:id="rId9"/>
-    <sheet name="限额检查" sheetId="35" r:id="rId10"/>
-    <sheet name="限额刷新" sheetId="14" r:id="rId11"/>
-    <sheet name="组合动态核算" sheetId="15" r:id="rId12"/>
-    <sheet name="内存分析" sheetId="30" r:id="rId13"/>
-    <sheet name="内存" sheetId="4" r:id="rId14"/>
-    <sheet name="缓存分析" sheetId="34" r:id="rId15"/>
-    <sheet name="缓存" sheetId="10" r:id="rId16"/>
+    <sheet name="Home" sheetId="42" r:id="rId1"/>
+    <sheet name="中间件启动-分析" sheetId="21" r:id="rId2"/>
+    <sheet name="中间件启动" sheetId="6" r:id="rId3"/>
+    <sheet name="客户端启动-分析" sheetId="20" r:id="rId4"/>
+    <sheet name="客户端启动" sheetId="12" r:id="rId5"/>
+    <sheet name="客户端消息-分析" sheetId="37" r:id="rId6"/>
+    <sheet name="客户端消息" sheetId="36" r:id="rId7"/>
+    <sheet name="清算" sheetId="11" r:id="rId8"/>
+    <sheet name="限额检查" sheetId="35" r:id="rId9"/>
+    <sheet name="限额刷新" sheetId="14" r:id="rId10"/>
+    <sheet name="组合动态核算" sheetId="15" r:id="rId11"/>
+    <sheet name="内存-分析" sheetId="30" r:id="rId12"/>
+    <sheet name="内存" sheetId="4" r:id="rId13"/>
+    <sheet name="缓存-分析" sheetId="34" r:id="rId14"/>
+    <sheet name="缓存" sheetId="10" r:id="rId15"/>
+    <sheet name="Core服务-分析" sheetId="19" r:id="rId16"/>
     <sheet name="Core服务" sheetId="18" r:id="rId17"/>
     <sheet name="窗体" sheetId="7" r:id="rId18"/>
     <sheet name="报表" sheetId="8" r:id="rId19"/>
     <sheet name="通用" sheetId="25" r:id="rId20"/>
-    <sheet name="Perf事项耗时与次数分析" sheetId="28" r:id="rId21"/>
-    <sheet name="Perf事项调用时段分析" sheetId="29" r:id="rId22"/>
+    <sheet name="Performance监视-分析耗时与次数" sheetId="28" r:id="rId21"/>
+    <sheet name="Performance监视-分析调用时段" sheetId="29" r:id="rId22"/>
     <sheet name="Performance监视" sheetId="5" r:id="rId23"/>
-    <sheet name="Perf方法调用时段分析" sheetId="27" r:id="rId24"/>
-    <sheet name="Perf方法汇总分析" sheetId="32" r:id="rId25"/>
+    <sheet name="Performance原始-分析方法调用时段" sheetId="27" r:id="rId24"/>
+    <sheet name="Performance原始-分析方法汇总" sheetId="32" r:id="rId25"/>
     <sheet name="Performance原始" sheetId="26" r:id="rId26"/>
     <sheet name="交易查询" sheetId="16" r:id="rId27"/>
     <sheet name="现金流" sheetId="9" r:id="rId28"/>
     <sheet name="其他" sheetId="17" r:id="rId29"/>
-    <sheet name="SQL分析" sheetId="40" r:id="rId30"/>
+    <sheet name="SQL-分析" sheetId="40" r:id="rId30"/>
     <sheet name="SQL" sheetId="38" r:id="rId31"/>
     <sheet name="原始" sheetId="33" r:id="rId32"/>
     <sheet name="批量审批" sheetId="41" r:id="rId33"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="98">
   <si>
     <t>事项</t>
   </si>
@@ -146,67 +146,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>原始数据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间件启动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>报表查询</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗体打开</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>限额刷新</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易清算</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core服务</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>组合动态核算</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易查询</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金流</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端启动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存分析</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>求和项:内存</t>
-  </si>
-  <si>
-    <t>分析</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>原始日志数据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>触发</t>
@@ -603,92 +543,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -703,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,39 +611,6 @@
     </xf>
     <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,6 +696,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -902,7 +732,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[xQuant_EXCEL_Templet.xlsx]客户端消息分析!数据透视表2</c:name>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]客户端消息-分析!数据透视表2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1006,7 +836,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>客户端消息分析!$B$3</c:f>
+              <c:f>'客户端消息-分析'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1027,7 +857,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>客户端消息分析!$A$4:$A$7</c:f>
+              <c:f>'客户端消息-分析'!$A$4:$A$7</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="1"/>
                 <c:lvl>
@@ -1050,7 +880,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>客户端消息分析!$B$4:$B$7</c:f>
+              <c:f>'客户端消息-分析'!$B$4:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1296,7 +1126,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[xQuant_EXCEL_Templet.xlsx]内存分析!数据透视表1</c:name>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]内存-分析!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1538,7 +1368,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>内存分析!$D$3</c:f>
+              <c:f>'内存-分析'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1559,7 +1389,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>内存分析!$A$4:$A$5</c:f>
+              <c:f>'内存-分析'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1570,7 +1400,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>内存分析!$D$4:$D$5</c:f>
+              <c:f>'内存-分析'!$D$4:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1588,7 +1418,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>内存分析!$B$3</c:f>
+              <c:f>'内存-分析'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1609,7 +1439,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>内存分析!$A$4:$A$5</c:f>
+              <c:f>'内存-分析'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1620,7 +1450,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>内存分析!$B$4:$B$5</c:f>
+              <c:f>'内存-分析'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1638,7 +1468,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>内存分析!$C$3</c:f>
+              <c:f>'内存-分析'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1659,7 +1489,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>内存分析!$A$4:$A$5</c:f>
+              <c:f>'内存-分析'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1670,7 +1500,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>内存分析!$C$4:$C$5</c:f>
+              <c:f>'内存-分析'!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1688,7 +1518,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>内存分析!$E$3</c:f>
+              <c:f>'内存-分析'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1709,7 +1539,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>内存分析!$A$4:$A$5</c:f>
+              <c:f>'内存-分析'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1720,7 +1550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>内存分析!$E$4:$E$5</c:f>
+              <c:f>'内存-分析'!$E$4:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1918,7 +1748,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[xQuant_EXCEL_Templet.xlsx]缓存分析!数据透视表1</c:name>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]缓存-分析!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2103,7 +1933,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>缓存分析!$B$4</c:f>
+              <c:f>'缓存-分析'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2126,7 +1956,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>缓存分析!$A$5</c:f>
+              <c:f>'缓存-分析'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2137,7 +1967,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>缓存分析!$B$5</c:f>
+              <c:f>'缓存-分析'!$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2156,7 +1986,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>缓存分析!$C$4</c:f>
+              <c:f>'缓存-分析'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2179,7 +2009,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>缓存分析!$A$5</c:f>
+              <c:f>'缓存-分析'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2190,7 +2020,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>缓存分析!$C$5</c:f>
+              <c:f>'缓存-分析'!$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2209,7 +2039,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>缓存分析!$D$4</c:f>
+              <c:f>'缓存-分析'!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2232,7 +2062,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>缓存分析!$A$5</c:f>
+              <c:f>'缓存-分析'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2243,7 +2073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>缓存分析!$D$5</c:f>
+              <c:f>'缓存-分析'!$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2489,7 +2319,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf事项耗时与次数分析!数据透视表4</c:name>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]Performance监视-分析耗时与次数!数据透视表4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2730,7 +2560,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf事项耗时与次数分析!$C$3</c:f>
+              <c:f>'Performance监视-分析耗时与次数'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2750,7 +2580,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Perf事项耗时与次数分析!$A$4:$A$5</c:f>
+              <c:f>'Performance监视-分析耗时与次数'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2761,7 +2591,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf事项耗时与次数分析!$C$4:$C$5</c:f>
+              <c:f>'Performance监视-分析耗时与次数'!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2779,7 +2609,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf事项耗时与次数分析!$D$3</c:f>
+              <c:f>'Performance监视-分析耗时与次数'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2799,7 +2629,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Perf事项耗时与次数分析!$A$4:$A$5</c:f>
+              <c:f>'Performance监视-分析耗时与次数'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2810,7 +2640,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf事项耗时与次数分析!$D$4:$D$5</c:f>
+              <c:f>'Performance监视-分析耗时与次数'!$D$4:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2828,7 +2658,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf事项耗时与次数分析!$E$3</c:f>
+              <c:f>'Performance监视-分析耗时与次数'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2848,7 +2678,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Perf事项耗时与次数分析!$A$4:$A$5</c:f>
+              <c:f>'Performance监视-分析耗时与次数'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2859,7 +2689,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf事项耗时与次数分析!$E$4:$E$5</c:f>
+              <c:f>'Performance监视-分析耗时与次数'!$E$4:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2891,7 +2721,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf事项耗时与次数分析!$B$3</c:f>
+              <c:f>'Performance监视-分析耗时与次数'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2914,7 +2744,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Perf事项耗时与次数分析!$A$4:$A$5</c:f>
+              <c:f>'Performance监视-分析耗时与次数'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2925,7 +2755,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf事项耗时与次数分析!$B$4:$B$5</c:f>
+              <c:f>'Performance监视-分析耗时与次数'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3232,7 +3062,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf事项调用时段分析!数据透视表2</c:name>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]Performance监视-分析调用时段!数据透视表2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3376,7 +3206,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf事项调用时段分析!$B$4</c:f>
+              <c:f>'Performance监视-分析调用时段'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3398,7 +3228,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Perf事项调用时段分析!$A$5:$A$6</c:f>
+              <c:f>'Performance监视-分析调用时段'!$A$5:$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3409,7 +3239,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf事项调用时段分析!$B$5:$B$6</c:f>
+              <c:f>'Performance监视-分析调用时段'!$B$5:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3650,7 +3480,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf方法调用时段分析!数据透视表3</c:name>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]Performance原始-分析方法调用时段!数据透视表3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3810,7 +3640,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf方法调用时段分析!$B$5</c:f>
+              <c:f>'Performance原始-分析方法调用时段'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3832,7 +3662,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Perf方法调用时段分析!$A$6:$A$7</c:f>
+              <c:f>'Performance原始-分析方法调用时段'!$A$6:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3843,7 +3673,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf方法调用时段分析!$B$6:$B$7</c:f>
+              <c:f>'Performance原始-分析方法调用时段'!$B$6:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4084,7 +3914,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[xQuant_EXCEL_Templet.xlsx]Perf方法汇总分析!数据透视表4</c:name>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]Performance原始-分析方法汇总!数据透视表4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -4539,7 +4369,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$B$3</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4560,7 +4390,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4571,7 +4401,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf方法汇总分析!$B$4:$B$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4589,7 +4419,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$C$3</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4610,7 +4440,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4621,7 +4451,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf方法汇总分析!$C$4:$C$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4639,7 +4469,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$D$3</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4660,7 +4490,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4671,7 +4501,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf方法汇总分析!$D$4:$D$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$D$4:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4689,7 +4519,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$E$3</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4710,7 +4540,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4721,7 +4551,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf方法汇总分析!$E$4:$E$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$E$4:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4739,7 +4569,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$F$3</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4760,7 +4590,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4771,7 +4601,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf方法汇总分析!$F$4:$F$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$F$4:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4804,7 +4634,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$G$3</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4827,7 +4657,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4838,7 +4668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf方法汇总分析!$G$4:$G$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$G$4:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4857,7 +4687,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$H$3</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4882,7 +4712,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Perf方法汇总分析!$A$4:$A$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4893,7 +4723,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Perf方法汇总分析!$H$4:$H$5</c:f>
+              <c:f>'Performance原始-分析方法汇总'!$H$4:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5200,7 +5030,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[xQuant_EXCEL_Templet.xlsx]SQL分析!数据透视表1</c:name>
+    <c:name>[xQuant_EXCEL_Templet.xlsx]SQL-分析!数据透视表1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -5386,7 +5216,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>SQL分析!$B$3</c:f>
+              <c:f>'SQL-分析'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5407,7 +5237,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>SQL分析!$A$4:$A$5</c:f>
+              <c:f>'SQL-分析'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5418,7 +5248,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SQL分析!$B$4:$B$5</c:f>
+              <c:f>'SQL-分析'!$B$4:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5436,7 +5266,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>SQL分析!$C$3</c:f>
+              <c:f>'SQL-分析'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5457,7 +5287,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>SQL分析!$A$4:$A$5</c:f>
+              <c:f>'SQL-分析'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5468,7 +5298,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SQL分析!$C$4:$C$5</c:f>
+              <c:f>'SQL-分析'!$C$4:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5502,7 +5332,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>SQL分析!$D$3</c:f>
+              <c:f>'SQL-分析'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5525,7 +5355,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>SQL分析!$A$4:$A$5</c:f>
+              <c:f>'SQL-分析'!$A$4:$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5536,7 +5366,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SQL分析!$D$4:$D$5</c:f>
+              <c:f>'SQL-分析'!$D$4:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -19656,55 +19486,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="计数项:耗时" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54FB7329-6B29-4685-A7C0-8276A7ECD238}" name="数据透视表2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
@@ -19787,7 +19568,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F48CB5F0-0495-4CBC-80C7-ACB002C4C48D}" name="数据透视表1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:E5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -20422,7 +20203,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E9E262A-D885-4003-8AA1-7187C6600F2C}" name="数据透视表1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="11">
@@ -20567,6 +20348,55 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:耗时" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -21526,310 +21356,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C38C943-084C-42A9-82C9-BFE51841A063}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="20"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="20"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="20"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="20"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="14" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="20"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="20"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="20"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="20"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="44"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" location="中间件启动分析!A1" display="中间件启动" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" location="客户端启动分析!A1" display="客户端启动" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F3" location="内存分析!A1" display="内存分析" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B15" location="中间件启动!A1" display="中间件启动" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D15" location="客户端启动!A1" display="客户端启动" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="F15" location="内存!A1" display="内存分析" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B21" location="Core服务!A1" display="Core服务" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B9" location="Core服务分析!A1" display="Core服务" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F17" location="缓存!A1" display="缓存" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D17" location="窗体!A1" display="窗体打开" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D19" location="报表!A1" display="报表查询" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-  </hyperlinks>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CA920D-01CD-4018-BC15-DE7FF210A206}">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="9" style="30"/>
-    <col min="7" max="7" width="9.5" style="30" customWidth="1"/>
-    <col min="8" max="8" width="9" style="30"/>
-    <col min="9" max="9" width="12.75" style="30" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="34" customWidth="1"/>
-    <col min="12" max="12" width="21.25" customWidth="1"/>
-    <col min="13" max="13" width="17.875" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <dataValidations count="14">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1" xr:uid="{1DC62D41-59DE-414C-AC45-35A8AA0FB028}">
-      <formula1>$N:$N</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{7CA211C8-B5E5-442D-8528-105E1C74795E}">
-      <formula1>$M:$M</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{2E85BAC4-03DB-4191-8F03-64F62515251E}">
-      <formula1>$L:$L</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{21B208C4-2C71-459B-87CD-F59CBD8D22C7}">
-      <formula1>$K:$K</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{7B574B69-A601-4F1D-8983-D79A4D942125}">
-      <formula1>$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{8FFC61B0-4C2A-402A-84E0-E6AD870F5925}">
-      <formula1>$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{4BE2E41C-65E8-45D6-AFB3-503DBE5D3200}">
-      <formula1>$B:$B</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{AA81544D-1BC9-42DB-990D-E10C1A6DB23A}">
-      <formula1>$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{063BE469-E10F-46CC-BD7E-6D05870DD40D}">
-      <formula1>$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{7EE72326-F6A9-4798-98B0-F18299AC6551}">
-      <formula1>$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{E0E6D107-15F5-4F05-9BFF-0CD68FB1FE56}">
-      <formula1>$G:$G</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{C374C367-4667-4381-99A1-57CE992BD856}">
-      <formula1>$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{198B2332-2248-4355-8147-50327989DFE5}">
-      <formula1>$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{C283A3D4-52EE-4496-A71D-6616DA12802A}">
-      <formula1>$J:$J</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -21843,7 +21389,7 @@
     <col min="1" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="23" customWidth="1"/>
     <col min="7" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -21861,11 +21407,11 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>75</v>
+      <c r="F1" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>6</v>
@@ -21913,7 +21459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -21927,7 +21473,7 @@
     <col min="1" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="23" customWidth="1"/>
     <col min="7" max="8" width="20.625" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
   </cols>
@@ -21945,10 +21491,10 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
@@ -21996,7 +21542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3401842A-9777-4C0B-9C5E-BA7A6B30C54D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -22014,37 +21560,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
-        <v>59</v>
+      <c r="A1" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
-        <v>69</v>
+      <c r="A4" s="32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -22055,7 +21601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -22069,29 +21615,29 @@
     <col min="1" max="1" width="34.625" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="34" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="23" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="5" customWidth="1"/>
     <col min="6" max="6" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>77</v>
+      <c r="F1" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -22123,7 +21669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2BAAF1-7E6B-40B2-8AE7-390D1B68CD60}">
   <dimension ref="A2:D5"/>
   <sheetViews>
@@ -22138,29 +21684,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
-        <v>89</v>
+      <c r="A2" s="40" t="s">
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="41" t="s">
         <v>21</v>
       </c>
     </row>
@@ -22172,7 +21718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K490"/>
   <sheetViews>
@@ -22190,43 +21736,43 @@
     <col min="5" max="5" width="11.625" style="9" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="11.625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="23" customWidth="1"/>
     <col min="9" max="10" width="16.875" customWidth="1"/>
     <col min="11" max="11" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="50" t="s">
+      <c r="F1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="35" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22308,6 +21854,44 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A3:B5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J1"/>
@@ -22324,8 +21908,8 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="23" customWidth="1"/>
     <col min="7" max="7" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="18.875" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
@@ -22339,15 +21923,15 @@
         <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -22357,7 +21941,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>22</v>
@@ -22421,7 +22005,7 @@
     <col min="5" max="5" width="11.25" style="9" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="21" style="5" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="34" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="23" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
@@ -22440,16 +22024,16 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="14" t="s">
@@ -22521,7 +22105,7 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="9" customWidth="1"/>
     <col min="6" max="8" width="13.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="34" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="23" customWidth="1"/>
     <col min="10" max="11" width="15.75" customWidth="1"/>
     <col min="12" max="12" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -22539,19 +22123,19 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="14" t="s">
@@ -22612,9 +22196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -22625,11 +22207,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -22637,15 +22219,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -22656,25 +22238,25 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -22700,8 +22282,8 @@
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="5" max="5" width="9" style="30"/>
-    <col min="6" max="6" width="19.25" style="34" customWidth="1"/>
+    <col min="5" max="5" width="9" style="19"/>
+    <col min="6" max="6" width="19.25" style="23" customWidth="1"/>
     <col min="7" max="7" width="20.875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
@@ -22720,10 +22302,10 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -22799,7 +22381,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -22807,29 +22389,29 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -22855,15 +22437,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
-        <v>60</v>
+      <c r="A1" s="40" t="s">
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -22871,20 +22453,20 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -22910,41 +22492,41 @@
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="25.5" style="34" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="23" customWidth="1"/>
     <col min="8" max="8" width="25.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
-        <v>53</v>
+      <c r="A1" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="C1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>55</v>
+      <c r="I1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -23002,44 +22584,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
-        <v>60</v>
+      <c r="A1" s="40" t="s">
+        <v>45</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
-        <v>61</v>
+      <c r="A2" s="40" t="s">
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
-        <v>59</v>
+      <c r="A3" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -23068,38 +22650,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -23121,65 +22703,65 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="5" width="23.625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="30" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="30" customWidth="1"/>
-    <col min="8" max="9" width="12.625" style="30" customWidth="1"/>
+    <col min="2" max="5" width="23.625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="19" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="19" customWidth="1"/>
+    <col min="8" max="9" width="12.625" style="19" customWidth="1"/>
     <col min="10" max="10" width="20.875" customWidth="1"/>
     <col min="11" max="11" width="20.75" customWidth="1"/>
-    <col min="12" max="13" width="10.625" style="30" customWidth="1"/>
+    <col min="12" max="13" width="10.625" style="19" customWidth="1"/>
     <col min="14" max="14" width="10.125" customWidth="1"/>
     <col min="15" max="15" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="28" t="s">
+      <c r="A1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="E1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="28" t="s">
+      <c r="F1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>55</v>
+      <c r="M1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -23253,7 +22835,7 @@
     <col min="1" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="22.125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="23" customWidth="1"/>
     <col min="7" max="8" width="22.125" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -23271,10 +22853,10 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
@@ -23338,7 +22920,7 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="23" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
     <col min="8" max="8" width="16.25" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
@@ -23357,10 +22939,10 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -23422,7 +23004,7 @@
     <col min="1" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="9" style="9"/>
-    <col min="6" max="6" width="22.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="23" customWidth="1"/>
     <col min="7" max="8" width="22.5" customWidth="1"/>
     <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -23440,10 +23022,10 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -23492,68 +23074,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
+    <col min="1" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="23" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="45"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="45"/>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="客户端启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{088A2E9F-8CEE-439D-9C0B-46B691B6C89A}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{A1C98953-4262-4AA1-AAA5-859AA53B558D}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{DE231B06-E0FC-406B-A41E-579219C1AAB8}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{6384D9F3-84B8-426A-A6C8-E0E864FF3B15}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{F5BB68D3-36FB-4017-8F65-EBA6C6489C34}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{AEDF2637-6503-4497-969B-3FC9143D8BB5}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{70139192-445F-4286-97F1-86159786AEBD}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{C215B5A5-A91B-4C78-989B-FA17ABE5BDC1}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{D246ADE2-6C89-4A49-A0A8-D5F0443CF997}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23574,34 +23176,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
-        <v>108</v>
+      <c r="A1" s="40" t="s">
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -23623,9 +23225,9 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="9" style="30"/>
-    <col min="6" max="6" width="18.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9" style="19"/>
+    <col min="6" max="6" width="18.625" style="23" customWidth="1"/>
     <col min="7" max="7" width="17.75" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
@@ -23637,18 +23239,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -23661,7 +23263,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -23715,7 +23317,7 @@
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="34" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="23" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
     <col min="8" max="8" width="20.75" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
@@ -23734,10 +23336,10 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -23801,7 +23403,7 @@
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="6" width="13.375" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="23" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="20.75" customWidth="1"/>
     <col min="10" max="10" width="13.125" customWidth="1"/>
@@ -23820,13 +23422,13 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -23882,7 +23484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -23894,7 +23496,7 @@
     <col min="5" max="5" width="9" style="9"/>
     <col min="6" max="6" width="14.25" style="9" customWidth="1"/>
     <col min="7" max="7" width="13.875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.25" style="34" customWidth="1"/>
+    <col min="8" max="8" width="17.25" style="23" customWidth="1"/>
     <col min="9" max="9" width="18.875" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
@@ -23912,16 +23514,16 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -23931,7 +23533,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -23976,130 +23578,72 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A3:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
-        <v>20</v>
+      <c r="A3" s="40" t="s">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="43" t="s">
-        <v>21</v>
-      </c>
+      <c r="A5" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="34"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="客户端启动!A1" display="原始数据" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="9" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{088A2E9F-8CEE-439D-9C0B-46B691B6C89A}">
-      <formula1>$A:$A</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{A1C98953-4262-4AA1-AAA5-859AA53B558D}">
-      <formula1>$B:$B</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{DE231B06-E0FC-406B-A41E-579219C1AAB8}">
-      <formula1>$C:$C</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{6384D9F3-84B8-426A-A6C8-E0E864FF3B15}">
-      <formula1>$D:$D</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{F5BB68D3-36FB-4017-8F65-EBA6C6489C34}">
-      <formula1>$E:$E</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{AEDF2637-6503-4497-969B-3FC9143D8BB5}">
-      <formula1>$F:$F</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{70139192-445F-4286-97F1-86159786AEBD}">
-      <formula1>$G:$G</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{C215B5A5-A91B-4C78-989B-FA17ABE5BDC1}">
-      <formula1>$H:$H</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{D246ADE2-6C89-4A49-A0A8-D5F0443CF997}">
-      <formula1>$I:$I</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -24115,7 +23659,7 @@
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="23" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="19.375" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
@@ -24137,7 +23681,7 @@
       <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
@@ -24186,7 +23730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66F75F8-91F6-41CF-B40F-0DE7BAA750F1}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -24201,7 +23745,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
@@ -24209,30 +23753,30 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="43" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="32" t="s">
         <v>21</v>
       </c>
     </row>
@@ -24243,7 +23787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569C6D68-49B9-4F07-B76C-8025080CD534}">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -24255,7 +23799,7 @@
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="34" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="23" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="11.625" customWidth="1"/>
   </cols>
@@ -24268,12 +23812,12 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="12" t="s">
@@ -24313,7 +23857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -24329,7 +23873,7 @@
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="9" customWidth="1"/>
     <col min="6" max="8" width="23.125" customWidth="1"/>
-    <col min="9" max="9" width="20" style="34" customWidth="1"/>
+    <col min="9" max="9" width="20" style="23" customWidth="1"/>
     <col min="10" max="10" width="19.75" customWidth="1"/>
     <col min="11" max="11" width="20.875" customWidth="1"/>
     <col min="12" max="12" width="13.75" customWidth="1"/>
@@ -24348,7 +23892,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -24360,7 +23904,7 @@
       <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="22" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -24415,4 +23959,122 @@
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CA920D-01CD-4018-BC15-DE7FF210A206}">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="9" style="19"/>
+    <col min="7" max="7" width="9.5" style="19" customWidth="1"/>
+    <col min="8" max="8" width="9" style="19"/>
+    <col min="9" max="9" width="12.75" style="19" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="23" customWidth="1"/>
+    <col min="12" max="12" width="21.25" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1" xr:uid="{1DC62D41-59DE-414C-AC45-35A8AA0FB028}">
+      <formula1>$N:$N</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1" xr:uid="{7CA211C8-B5E5-442D-8528-105E1C74795E}">
+      <formula1>$M:$M</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1" xr:uid="{2E85BAC4-03DB-4191-8F03-64F62515251E}">
+      <formula1>$L:$L</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1" xr:uid="{21B208C4-2C71-459B-87CD-F59CBD8D22C7}">
+      <formula1>$K:$K</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{7B574B69-A601-4F1D-8983-D79A4D942125}">
+      <formula1>$D:$D</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{8FFC61B0-4C2A-402A-84E0-E6AD870F5925}">
+      <formula1>$C:$C</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{4BE2E41C-65E8-45D6-AFB3-503DBE5D3200}">
+      <formula1>$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{AA81544D-1BC9-42DB-990D-E10C1A6DB23A}">
+      <formula1>$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{063BE469-E10F-46CC-BD7E-6D05870DD40D}">
+      <formula1>$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{7EE72326-F6A9-4798-98B0-F18299AC6551}">
+      <formula1>$F:$F</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{E0E6D107-15F5-4F05-9BFF-0CD68FB1FE56}">
+      <formula1>$G:$G</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{C374C367-4667-4381-99A1-57CE992BD856}">
+      <formula1>$H:$H</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1" xr:uid="{198B2332-2248-4355-8147-50327989DFE5}">
+      <formula1>$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1" xr:uid="{C283A3D4-52EE-4496-A71D-6616DA12802A}">
+      <formula1>$J:$J</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>